--- a/2. Proposal/Metode/Try.xlsx
+++ b/2. Proposal/Metode/Try.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\File\Skripsi\2. Proposal\Metode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2F14FEF-EA85-4BC5-A5DD-53ACFF15ABD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C470F37F-BAC6-4241-A45D-4E54738BF442}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9E0B27B6-5960-4ADA-83F0-0309D2A69620}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="49">
   <si>
     <t>Tanggal</t>
   </si>
@@ -175,7 +175,13 @@
     <t>x*y</t>
   </si>
   <si>
-    <t xml:space="preserve">Selanjutnya kita akan memperkirakan berapa jumlah barang yang harus di order pada tanggal 14 januari berdasarka hasil ramalan sebelumnya dan sesuai dengan priode waktu yang di tentukan. </t>
+    <t>Selanjutnya kita akan memperkirakan berapa jumlah barang yang harus di order</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dengan priode waktu yang di tentukan. </t>
+  </si>
+  <si>
+    <t>pada tanggal 14 januari berdasarka hasil ramalan sebelumnya dan sesuai</t>
   </si>
 </sst>
 </file>
@@ -515,7 +521,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -707,10 +713,10 @@
     <xf numFmtId="164" fontId="0" fillId="13" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -721,6 +727,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1036,10 +1045,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE6B0E80-D10A-4815-A892-18FD744DDE32}">
-  <dimension ref="B1:U74"/>
+  <dimension ref="B1:U96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C37" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I56" sqref="I56"/>
+    <sheetView tabSelected="1" topLeftCell="A61" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M25" sqref="M25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1863,52 +1872,42 @@
     </row>
     <row r="28" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B28" s="58"/>
-      <c r="C28" s="89" t="s">
-        <v>44</v>
-      </c>
-      <c r="D28" s="89"/>
-      <c r="E28" s="89"/>
-      <c r="F28" s="89"/>
-      <c r="G28" s="19"/>
+      <c r="C28" s="85"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="20"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
       <c r="H28" s="18"/>
       <c r="I28" s="14"/>
       <c r="J28" s="14"/>
       <c r="K28" s="14"/>
-      <c r="L28" s="33"/>
-      <c r="M28" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="N28" s="27"/>
+      <c r="L28" s="14"/>
+      <c r="M28" s="14"/>
+      <c r="N28" s="14"/>
       <c r="O28" s="14"/>
-      <c r="P28" s="33"/>
+      <c r="P28" s="14"/>
       <c r="Q28" s="14"/>
       <c r="R28" s="14"/>
       <c r="S28" s="14"/>
       <c r="T28" s="59"/>
       <c r="U28" s="14"/>
     </row>
-    <row r="29" spans="2:21" ht="18" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B29" s="58"/>
-      <c r="C29" s="89" t="s">
-        <v>19</v>
-      </c>
-      <c r="D29" s="89"/>
-      <c r="E29" s="89"/>
-      <c r="F29" s="89"/>
-      <c r="G29" s="89"/>
+      <c r="C29" s="85"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="20"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="10"/>
       <c r="H29" s="18"/>
       <c r="I29" s="14"/>
       <c r="J29" s="14"/>
       <c r="K29" s="14"/>
       <c r="L29" s="14"/>
-      <c r="M29" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="N29" s="16" t="s">
-        <v>27</v>
-      </c>
+      <c r="M29" s="14"/>
+      <c r="N29" s="14"/>
       <c r="O29" s="14"/>
-      <c r="P29" s="33"/>
+      <c r="P29" s="14"/>
       <c r="Q29" s="14"/>
       <c r="R29" s="14"/>
       <c r="S29" s="14"/>
@@ -1917,13 +1916,11 @@
     </row>
     <row r="30" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B30" s="58"/>
-      <c r="C30" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="D30" s="34"/>
-      <c r="E30" s="34"/>
-      <c r="F30" s="34"/>
-      <c r="G30" s="34"/>
+      <c r="C30" s="85"/>
+      <c r="D30" s="19"/>
+      <c r="E30" s="20"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10"/>
       <c r="H30" s="18"/>
       <c r="I30" s="14"/>
       <c r="J30" s="14"/>
@@ -1941,18 +1938,17 @@
     </row>
     <row r="31" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B31" s="58"/>
-      <c r="C31" s="18"/>
-      <c r="D31" s="48"/>
-      <c r="E31" s="49"/>
-      <c r="F31" s="9"/>
+      <c r="C31" s="85"/>
+      <c r="D31" s="19"/>
+      <c r="E31" s="20"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
       <c r="H31" s="18"/>
       <c r="I31" s="14"/>
       <c r="J31" s="14"/>
       <c r="K31" s="14"/>
       <c r="L31" s="14"/>
-      <c r="M31" s="27" t="s">
-        <v>25</v>
-      </c>
+      <c r="M31" s="14"/>
       <c r="N31" s="14"/>
       <c r="O31" s="14"/>
       <c r="P31" s="14"/>
@@ -1964,33 +1960,19 @@
     </row>
     <row r="32" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B32" s="58"/>
-      <c r="C32" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="D32" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="E32" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="F32" s="9"/>
-      <c r="G32" s="32" t="s">
-        <v>38</v>
-      </c>
-      <c r="H32" s="32" t="s">
-        <v>45</v>
-      </c>
+      <c r="C32" s="85"/>
+      <c r="D32" s="19"/>
+      <c r="E32" s="20"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="10"/>
+      <c r="H32" s="18"/>
       <c r="I32" s="14"/>
       <c r="J32" s="14"/>
       <c r="K32" s="14"/>
       <c r="L32" s="14"/>
-      <c r="M32" s="35" t="s">
-        <v>32</v>
-      </c>
-      <c r="N32" s="85" t="s">
-        <v>33</v>
-      </c>
-      <c r="O32" s="85"/>
+      <c r="M32" s="14"/>
+      <c r="N32" s="14"/>
+      <c r="O32" s="14"/>
       <c r="P32" s="14"/>
       <c r="Q32" s="14"/>
       <c r="R32" s="14"/>
@@ -2000,33 +1982,19 @@
     </row>
     <row r="33" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B33" s="58"/>
-      <c r="C33" s="73">
-        <v>1</v>
-      </c>
-      <c r="D33" s="73">
-        <v>2</v>
-      </c>
-      <c r="E33" s="73">
-        <v>48</v>
-      </c>
-      <c r="F33" s="9"/>
-      <c r="G33" s="31">
-        <f>C33^2</f>
-        <v>1</v>
-      </c>
-      <c r="H33" s="36">
-        <f>D33*C33</f>
-        <v>2</v>
-      </c>
+      <c r="C33" s="85"/>
+      <c r="D33" s="19"/>
+      <c r="E33" s="20"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="10"/>
+      <c r="H33" s="18"/>
       <c r="I33" s="14"/>
       <c r="J33" s="14"/>
       <c r="K33" s="14"/>
       <c r="L33" s="14"/>
       <c r="M33" s="14"/>
-      <c r="N33" s="86" t="s">
-        <v>34</v>
-      </c>
-      <c r="O33" s="86"/>
+      <c r="N33" s="14"/>
+      <c r="O33" s="14"/>
       <c r="P33" s="14"/>
       <c r="Q33" s="14"/>
       <c r="R33" s="14"/>
@@ -2036,33 +2004,19 @@
     </row>
     <row r="34" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B34" s="58"/>
-      <c r="C34" s="73">
-        <v>2</v>
-      </c>
-      <c r="D34" s="73">
-        <v>2</v>
-      </c>
-      <c r="E34" s="73">
-        <v>46</v>
-      </c>
-      <c r="F34" s="9"/>
-      <c r="G34" s="31">
-        <f t="shared" ref="G34:G39" si="4">C34^2</f>
-        <v>4</v>
-      </c>
-      <c r="H34" s="36">
-        <f t="shared" ref="H34:H39" si="5">D34*C34</f>
-        <v>4</v>
-      </c>
+      <c r="C34" s="85"/>
+      <c r="D34" s="19"/>
+      <c r="E34" s="20"/>
+      <c r="F34" s="10"/>
+      <c r="G34" s="10"/>
+      <c r="H34" s="18"/>
       <c r="I34" s="14"/>
       <c r="J34" s="14"/>
       <c r="K34" s="14"/>
       <c r="L34" s="14"/>
       <c r="M34" s="14"/>
-      <c r="N34" s="85" t="s">
-        <v>35</v>
-      </c>
-      <c r="O34" s="85"/>
+      <c r="N34" s="14"/>
+      <c r="O34" s="14"/>
       <c r="P34" s="14"/>
       <c r="Q34" s="14"/>
       <c r="R34" s="14"/>
@@ -2072,24 +2026,12 @@
     </row>
     <row r="35" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B35" s="58"/>
-      <c r="C35" s="73">
-        <v>3</v>
-      </c>
-      <c r="D35" s="73">
-        <v>3</v>
-      </c>
-      <c r="E35" s="73">
-        <v>43</v>
-      </c>
-      <c r="F35" s="9"/>
-      <c r="G35" s="31">
-        <f t="shared" si="4"/>
-        <v>9</v>
-      </c>
-      <c r="H35" s="36">
-        <f t="shared" si="5"/>
-        <v>9</v>
-      </c>
+      <c r="C35" s="85"/>
+      <c r="D35" s="19"/>
+      <c r="E35" s="20"/>
+      <c r="F35" s="10"/>
+      <c r="G35" s="10"/>
+      <c r="H35" s="18"/>
       <c r="I35" s="14"/>
       <c r="J35" s="14"/>
       <c r="K35" s="14"/>
@@ -2106,35 +2048,19 @@
     </row>
     <row r="36" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B36" s="58"/>
-      <c r="C36" s="73">
-        <v>4</v>
-      </c>
-      <c r="D36" s="73">
-        <v>1</v>
-      </c>
-      <c r="E36" s="73">
-        <v>42</v>
-      </c>
-      <c r="F36" s="9"/>
-      <c r="G36" s="31">
-        <f t="shared" si="4"/>
-        <v>16</v>
-      </c>
-      <c r="H36" s="36">
-        <f t="shared" si="5"/>
-        <v>4</v>
-      </c>
+      <c r="C36" s="85"/>
+      <c r="D36" s="19"/>
+      <c r="E36" s="20"/>
+      <c r="F36" s="10"/>
+      <c r="G36" s="10"/>
+      <c r="H36" s="18"/>
       <c r="I36" s="14"/>
       <c r="J36" s="14"/>
       <c r="K36" s="14"/>
       <c r="L36" s="14"/>
-      <c r="M36" s="35" t="s">
-        <v>37</v>
-      </c>
-      <c r="N36" s="85" t="s">
-        <v>36</v>
-      </c>
-      <c r="O36" s="85"/>
+      <c r="M36" s="14"/>
+      <c r="N36" s="14"/>
+      <c r="O36" s="14"/>
       <c r="P36" s="14"/>
       <c r="Q36" s="14"/>
       <c r="R36" s="14"/>
@@ -2144,33 +2070,19 @@
     </row>
     <row r="37" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B37" s="58"/>
-      <c r="C37" s="73">
-        <v>5</v>
-      </c>
-      <c r="D37" s="73">
-        <v>3</v>
-      </c>
-      <c r="E37" s="73">
-        <v>39</v>
-      </c>
-      <c r="F37" s="9"/>
-      <c r="G37" s="31">
-        <f t="shared" si="4"/>
-        <v>25</v>
-      </c>
-      <c r="H37" s="36">
-        <f t="shared" si="5"/>
-        <v>15</v>
-      </c>
+      <c r="C37" s="85"/>
+      <c r="D37" s="19"/>
+      <c r="E37" s="20"/>
+      <c r="F37" s="10"/>
+      <c r="G37" s="10"/>
+      <c r="H37" s="18"/>
       <c r="I37" s="14"/>
       <c r="J37" s="14"/>
       <c r="K37" s="14"/>
       <c r="L37" s="14"/>
       <c r="M37" s="14"/>
-      <c r="N37" s="86" t="s">
-        <v>34</v>
-      </c>
-      <c r="O37" s="86"/>
+      <c r="N37" s="14"/>
+      <c r="O37" s="14"/>
       <c r="P37" s="14"/>
       <c r="Q37" s="14"/>
       <c r="R37" s="14"/>
@@ -2180,33 +2092,19 @@
     </row>
     <row r="38" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B38" s="58"/>
-      <c r="C38" s="73">
-        <v>6</v>
-      </c>
-      <c r="D38" s="73">
-        <v>2</v>
-      </c>
-      <c r="E38" s="73">
-        <v>37</v>
-      </c>
-      <c r="F38" s="9"/>
-      <c r="G38" s="31">
-        <f t="shared" si="4"/>
-        <v>36</v>
-      </c>
-      <c r="H38" s="36">
-        <f t="shared" si="5"/>
-        <v>12</v>
-      </c>
+      <c r="C38" s="85"/>
+      <c r="D38" s="19"/>
+      <c r="E38" s="20"/>
+      <c r="F38" s="10"/>
+      <c r="G38" s="10"/>
+      <c r="H38" s="18"/>
       <c r="I38" s="14"/>
       <c r="J38" s="14"/>
       <c r="K38" s="14"/>
       <c r="L38" s="14"/>
       <c r="M38" s="14"/>
-      <c r="N38" s="85" t="s">
-        <v>35</v>
-      </c>
-      <c r="O38" s="85"/>
+      <c r="N38" s="14"/>
+      <c r="O38" s="14"/>
       <c r="P38" s="14"/>
       <c r="Q38" s="14"/>
       <c r="R38" s="14"/>
@@ -2216,33 +2114,20 @@
     </row>
     <row r="39" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B39" s="58"/>
-      <c r="C39" s="74">
-        <v>7</v>
-      </c>
-      <c r="D39" s="74">
-        <v>4</v>
-      </c>
-      <c r="E39" s="74">
-        <v>33</v>
-      </c>
-      <c r="F39" s="9"/>
-      <c r="G39" s="31">
-        <f t="shared" si="4"/>
-        <v>49</v>
-      </c>
-      <c r="H39" s="36">
-        <f t="shared" si="5"/>
-        <v>28</v>
-      </c>
-      <c r="I39" s="35" t="s">
-        <v>40</v>
-      </c>
-      <c r="J39" s="60">
-        <f>((D40*G40)-(C40*H40))/((7*G40)-(C40)^2)</f>
-        <v>1.5714285714285714</v>
-      </c>
+      <c r="C39" s="85"/>
+      <c r="D39" s="19"/>
+      <c r="E39" s="20"/>
+      <c r="F39" s="10"/>
+      <c r="G39" s="10"/>
+      <c r="H39" s="18"/>
+      <c r="I39" s="14"/>
+      <c r="J39" s="14"/>
       <c r="K39" s="14"/>
       <c r="L39" s="14"/>
+      <c r="M39" s="14"/>
+      <c r="N39" s="14"/>
+      <c r="O39" s="14"/>
+      <c r="P39" s="14"/>
       <c r="Q39" s="14"/>
       <c r="R39" s="14"/>
       <c r="S39" s="14"/>
@@ -2250,36 +2135,21 @@
       <c r="U39" s="14"/>
     </row>
     <row r="40" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B40" s="61" t="s">
-        <v>39</v>
-      </c>
-      <c r="C40" s="41">
-        <f>SUM(C33:C39)</f>
-        <v>28</v>
-      </c>
-      <c r="D40" s="41">
-        <f t="shared" ref="D40" si="6">SUM(D33:D39)</f>
-        <v>17</v>
-      </c>
-      <c r="E40" s="41"/>
-      <c r="F40" s="9"/>
-      <c r="G40" s="41">
-        <f>SUM(G33:G39)</f>
-        <v>140</v>
-      </c>
-      <c r="H40" s="41">
-        <f>SUM(H33:H39)</f>
-        <v>74</v>
-      </c>
-      <c r="I40" s="35" t="s">
-        <v>37</v>
-      </c>
-      <c r="J40" s="60">
-        <f>((7*H40)-(C40*D40))/((7*G40)-(C40)^2)</f>
-        <v>0.21428571428571427</v>
-      </c>
+      <c r="B40" s="58"/>
+      <c r="C40" s="85"/>
+      <c r="D40" s="19"/>
+      <c r="E40" s="20"/>
+      <c r="F40" s="10"/>
+      <c r="G40" s="10"/>
+      <c r="H40" s="18"/>
+      <c r="I40" s="14"/>
+      <c r="J40" s="14"/>
       <c r="K40" s="14"/>
       <c r="L40" s="14"/>
+      <c r="M40" s="14"/>
+      <c r="N40" s="14"/>
+      <c r="O40" s="14"/>
+      <c r="P40" s="14"/>
       <c r="Q40" s="14"/>
       <c r="R40" s="14"/>
       <c r="S40" s="14"/>
@@ -2288,19 +2158,18 @@
     </row>
     <row r="41" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B41" s="58"/>
-      <c r="C41" s="18"/>
-      <c r="D41" s="48"/>
-      <c r="E41" s="49"/>
-      <c r="F41" s="9"/>
+      <c r="C41" s="85"/>
+      <c r="D41" s="19"/>
+      <c r="E41" s="20"/>
+      <c r="F41" s="10"/>
+      <c r="G41" s="10"/>
       <c r="H41" s="18"/>
       <c r="I41" s="14"/>
       <c r="J41" s="14"/>
       <c r="K41" s="14"/>
       <c r="L41" s="14"/>
       <c r="M41" s="14"/>
-      <c r="N41" s="14" t="s">
-        <v>46</v>
-      </c>
+      <c r="N41" s="14"/>
       <c r="O41" s="14"/>
       <c r="P41" s="14"/>
       <c r="Q41" s="14"/>
@@ -2311,12 +2180,11 @@
     </row>
     <row r="42" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B42" s="58"/>
-      <c r="C42" s="19" t="s">
-        <v>29</v>
-      </c>
+      <c r="C42" s="85"/>
       <c r="D42" s="19"/>
-      <c r="E42" s="19"/>
-      <c r="F42" s="9"/>
+      <c r="E42" s="20"/>
+      <c r="F42" s="10"/>
+      <c r="G42" s="10"/>
       <c r="H42" s="18"/>
       <c r="I42" s="14"/>
       <c r="J42" s="14"/>
@@ -2334,145 +2202,65 @@
     </row>
     <row r="43" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B43" s="58"/>
-      <c r="C43" s="72" t="s">
-        <v>31</v>
-      </c>
-      <c r="D43" s="72" t="s">
-        <v>30</v>
-      </c>
-      <c r="E43" s="72" t="s">
-        <v>20</v>
-      </c>
-      <c r="F43" s="9"/>
-      <c r="G43" s="72" t="s">
-        <v>26</v>
-      </c>
-      <c r="H43" s="72" t="s">
-        <v>30</v>
-      </c>
-      <c r="I43" s="72" t="s">
-        <v>20</v>
-      </c>
+      <c r="C43" s="85"/>
+      <c r="D43" s="19"/>
+      <c r="E43" s="20"/>
+      <c r="F43" s="10"/>
+      <c r="G43" s="10"/>
+      <c r="H43" s="18"/>
+      <c r="I43" s="14"/>
       <c r="J43" s="14"/>
       <c r="K43" s="14"/>
       <c r="L43" s="14"/>
       <c r="M43" s="14"/>
-      <c r="N43" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="O43" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="P43" s="32" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q43" s="32" t="s">
-        <v>45</v>
-      </c>
+      <c r="N43" s="14"/>
+      <c r="O43" s="14"/>
+      <c r="P43" s="14"/>
+      <c r="Q43" s="14"/>
       <c r="R43" s="14"/>
-      <c r="S43" s="35" t="s">
-        <v>40</v>
-      </c>
-      <c r="T43" s="83">
-        <f>((O58*P58)-(N58*Q58))/((14*P58)-(N58)^2)</f>
-        <v>1.5714285714285692</v>
-      </c>
+      <c r="S43" s="14"/>
+      <c r="T43" s="59"/>
       <c r="U43" s="14"/>
     </row>
     <row r="44" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B44" s="58"/>
-      <c r="C44" s="75">
-        <v>8</v>
-      </c>
-      <c r="D44" s="75" t="s">
-        <v>22</v>
-      </c>
-      <c r="E44" s="75" t="s">
-        <v>22</v>
-      </c>
-      <c r="F44" s="9"/>
-      <c r="G44" s="76">
-        <v>8</v>
-      </c>
-      <c r="H44" s="77">
-        <f t="shared" ref="H44:H50" si="7">$J$39+($J$40*G44)</f>
-        <v>3.2857142857142856</v>
-      </c>
-      <c r="I44" s="77">
-        <f>E39-H44</f>
-        <v>29.714285714285715</v>
-      </c>
+      <c r="C44" s="85"/>
+      <c r="D44" s="19"/>
+      <c r="E44" s="20"/>
+      <c r="F44" s="10"/>
+      <c r="G44" s="10"/>
+      <c r="H44" s="18"/>
+      <c r="I44" s="14"/>
       <c r="J44" s="14"/>
       <c r="K44" s="14"/>
       <c r="L44" s="14"/>
       <c r="M44" s="14"/>
-      <c r="N44" s="73">
-        <v>1</v>
-      </c>
-      <c r="O44" s="73">
-        <v>2</v>
-      </c>
-      <c r="P44" s="44">
-        <f>N44^2</f>
-        <v>1</v>
-      </c>
-      <c r="Q44" s="43">
-        <f>N44*O44</f>
-        <v>2</v>
-      </c>
+      <c r="N44" s="14"/>
+      <c r="O44" s="14"/>
+      <c r="P44" s="14"/>
+      <c r="Q44" s="14"/>
       <c r="R44" s="14"/>
-      <c r="S44" s="35" t="s">
-        <v>37</v>
-      </c>
-      <c r="T44" s="83">
-        <f>((14*Q58)-(N58*O58))/((14*P58)-(N58)^2)</f>
-        <v>0.21428571428571458</v>
-      </c>
+      <c r="S44" s="14"/>
+      <c r="T44" s="59"/>
       <c r="U44" s="14"/>
     </row>
-    <row r="45" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B45" s="58"/>
-      <c r="C45" s="75">
-        <v>9</v>
-      </c>
-      <c r="D45" s="75" t="s">
-        <v>22</v>
-      </c>
-      <c r="E45" s="75" t="s">
-        <v>22</v>
-      </c>
-      <c r="F45" s="42" t="s">
-        <v>41</v>
-      </c>
-      <c r="G45" s="76">
-        <v>9</v>
-      </c>
-      <c r="H45" s="77">
-        <f t="shared" si="7"/>
-        <v>3.5</v>
-      </c>
-      <c r="I45" s="77">
-        <f>I44-H45</f>
-        <v>26.214285714285715</v>
-      </c>
+      <c r="C45" s="85"/>
+      <c r="D45" s="19"/>
+      <c r="E45" s="20"/>
+      <c r="F45" s="10"/>
+      <c r="G45" s="10"/>
+      <c r="H45" s="18"/>
+      <c r="I45" s="14"/>
       <c r="J45" s="14"/>
       <c r="K45" s="14"/>
       <c r="L45" s="14"/>
       <c r="M45" s="14"/>
-      <c r="N45" s="73">
-        <v>2</v>
-      </c>
-      <c r="O45" s="73">
-        <v>2</v>
-      </c>
-      <c r="P45" s="44">
-        <f t="shared" ref="P45:P57" si="8">N45^2</f>
-        <v>4</v>
-      </c>
-      <c r="Q45" s="43">
-        <f t="shared" ref="Q45:Q57" si="9">N45*O45</f>
-        <v>4</v>
-      </c>
+      <c r="N45" s="14"/>
+      <c r="O45" s="14"/>
+      <c r="P45" s="14"/>
+      <c r="Q45" s="14"/>
       <c r="R45" s="14"/>
       <c r="S45" s="14"/>
       <c r="T45" s="59"/>
@@ -2480,393 +2268,224 @@
     </row>
     <row r="46" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B46" s="58"/>
-      <c r="C46" s="76">
-        <v>10</v>
-      </c>
-      <c r="D46" s="75" t="s">
-        <v>22</v>
-      </c>
-      <c r="E46" s="75" t="s">
-        <v>22</v>
-      </c>
-      <c r="F46" s="9"/>
-      <c r="G46" s="76">
-        <v>10</v>
-      </c>
-      <c r="H46" s="77">
-        <f t="shared" si="7"/>
-        <v>3.7142857142857144</v>
-      </c>
-      <c r="I46" s="77">
-        <f t="shared" ref="I46:I50" si="10">I45-H46</f>
-        <v>22.5</v>
-      </c>
+      <c r="C46" s="85"/>
+      <c r="D46" s="19"/>
+      <c r="E46" s="20"/>
+      <c r="F46" s="10"/>
+      <c r="G46" s="10"/>
+      <c r="H46" s="18"/>
+      <c r="I46" s="14"/>
       <c r="J46" s="14"/>
       <c r="K46" s="14"/>
       <c r="L46" s="14"/>
       <c r="M46" s="14"/>
-      <c r="N46" s="73">
-        <v>3</v>
-      </c>
-      <c r="O46" s="73">
-        <v>3</v>
-      </c>
-      <c r="P46" s="44">
-        <f t="shared" si="8"/>
-        <v>9</v>
-      </c>
-      <c r="Q46" s="43">
-        <f t="shared" si="9"/>
-        <v>9</v>
-      </c>
+      <c r="N46" s="14"/>
+      <c r="O46" s="14"/>
+      <c r="P46" s="14"/>
+      <c r="Q46" s="14"/>
       <c r="R46" s="14"/>
-      <c r="S46" s="78">
-        <v>16</v>
-      </c>
-      <c r="T46" s="84">
-        <f>$T$43+($T$44*S46)</f>
-        <v>5.0000000000000027</v>
-      </c>
+      <c r="S46" s="14"/>
+      <c r="T46" s="59"/>
       <c r="U46" s="14"/>
     </row>
     <row r="47" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B47" s="58"/>
-      <c r="C47" s="76">
-        <v>11</v>
-      </c>
-      <c r="D47" s="75" t="s">
-        <v>22</v>
-      </c>
-      <c r="E47" s="75" t="s">
-        <v>22</v>
-      </c>
-      <c r="F47" s="9"/>
-      <c r="G47" s="76">
-        <v>11</v>
-      </c>
-      <c r="H47" s="77">
-        <f t="shared" si="7"/>
-        <v>3.9285714285714288</v>
-      </c>
-      <c r="I47" s="77">
-        <f t="shared" si="10"/>
-        <v>18.571428571428569</v>
-      </c>
+      <c r="C47" s="85"/>
+      <c r="D47" s="19"/>
+      <c r="E47" s="20"/>
+      <c r="F47" s="10"/>
+      <c r="G47" s="10"/>
+      <c r="H47" s="18"/>
+      <c r="I47" s="14"/>
       <c r="J47" s="14"/>
       <c r="K47" s="14"/>
       <c r="L47" s="14"/>
       <c r="M47" s="14"/>
-      <c r="N47" s="73">
-        <v>4</v>
-      </c>
-      <c r="O47" s="73">
-        <v>1</v>
-      </c>
-      <c r="P47" s="44">
-        <f t="shared" si="8"/>
-        <v>16</v>
-      </c>
-      <c r="Q47" s="43">
-        <f t="shared" si="9"/>
-        <v>4</v>
-      </c>
+      <c r="N47" s="14"/>
+      <c r="O47" s="14"/>
+      <c r="P47" s="14"/>
+      <c r="Q47" s="14"/>
       <c r="R47" s="14"/>
-      <c r="S47" s="78">
-        <v>17</v>
-      </c>
-      <c r="T47" s="84">
-        <f t="shared" ref="T47:T52" si="11">$T$43+($T$44*S47)</f>
-        <v>5.2142857142857171</v>
-      </c>
+      <c r="S47" s="14"/>
+      <c r="T47" s="59"/>
       <c r="U47" s="14"/>
     </row>
     <row r="48" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B48" s="58"/>
-      <c r="C48" s="76">
-        <v>12</v>
-      </c>
-      <c r="D48" s="75" t="s">
-        <v>22</v>
-      </c>
-      <c r="E48" s="75" t="s">
-        <v>22</v>
-      </c>
-      <c r="F48" s="9"/>
-      <c r="G48" s="76">
-        <v>12</v>
-      </c>
-      <c r="H48" s="77">
-        <f t="shared" si="7"/>
-        <v>4.1428571428571423</v>
-      </c>
-      <c r="I48" s="77">
-        <f t="shared" si="10"/>
-        <v>14.428571428571427</v>
-      </c>
+      <c r="C48" s="85"/>
+      <c r="D48" s="19"/>
+      <c r="E48" s="20"/>
+      <c r="F48" s="10"/>
+      <c r="G48" s="10"/>
+      <c r="H48" s="18"/>
+      <c r="I48" s="14"/>
       <c r="J48" s="14"/>
       <c r="K48" s="14"/>
       <c r="L48" s="14"/>
       <c r="M48" s="14"/>
-      <c r="N48" s="73">
-        <v>5</v>
-      </c>
-      <c r="O48" s="73">
-        <v>3</v>
-      </c>
-      <c r="P48" s="44">
-        <f t="shared" si="8"/>
-        <v>25</v>
-      </c>
-      <c r="Q48" s="43">
-        <f t="shared" si="9"/>
-        <v>15</v>
-      </c>
+      <c r="N48" s="14"/>
+      <c r="O48" s="14"/>
+      <c r="P48" s="14"/>
+      <c r="Q48" s="14"/>
       <c r="R48" s="14"/>
-      <c r="S48" s="78">
-        <v>18</v>
-      </c>
-      <c r="T48" s="84">
-        <f t="shared" si="11"/>
-        <v>5.4285714285714315</v>
-      </c>
+      <c r="S48" s="14"/>
+      <c r="T48" s="59"/>
       <c r="U48" s="14"/>
     </row>
     <row r="49" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B49" s="58"/>
-      <c r="C49" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="D49" s="75"/>
-      <c r="E49" s="75">
-        <v>5</v>
-      </c>
-      <c r="F49" s="9"/>
-      <c r="G49" s="76">
-        <v>13</v>
-      </c>
-      <c r="H49" s="77">
-        <f t="shared" si="7"/>
-        <v>4.3571428571428568</v>
-      </c>
-      <c r="I49" s="77">
-        <f t="shared" si="10"/>
-        <v>10.071428571428569</v>
-      </c>
+      <c r="C49" s="85"/>
+      <c r="D49" s="19"/>
+      <c r="E49" s="20"/>
+      <c r="F49" s="10"/>
+      <c r="G49" s="10"/>
+      <c r="H49" s="18"/>
+      <c r="I49" s="14"/>
       <c r="J49" s="14"/>
       <c r="K49" s="14"/>
       <c r="L49" s="14"/>
       <c r="M49" s="14"/>
-      <c r="N49" s="73">
-        <v>6</v>
-      </c>
-      <c r="O49" s="73">
-        <v>2</v>
-      </c>
-      <c r="P49" s="44">
-        <f t="shared" si="8"/>
-        <v>36</v>
-      </c>
-      <c r="Q49" s="43">
-        <f t="shared" si="9"/>
-        <v>12</v>
-      </c>
+      <c r="N49" s="14"/>
+      <c r="O49" s="14"/>
+      <c r="P49" s="14"/>
+      <c r="Q49" s="14"/>
       <c r="R49" s="14"/>
-      <c r="S49" s="78">
-        <v>19</v>
-      </c>
-      <c r="T49" s="84">
-        <f t="shared" si="11"/>
-        <v>5.6428571428571468</v>
-      </c>
+      <c r="S49" s="14"/>
+      <c r="T49" s="59"/>
       <c r="U49" s="14"/>
     </row>
     <row r="50" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B50" s="58"/>
-      <c r="C50" s="18"/>
-      <c r="D50" s="19"/>
-      <c r="E50" s="20"/>
-      <c r="F50" s="9"/>
-      <c r="G50" s="76">
-        <v>14</v>
-      </c>
-      <c r="H50" s="77">
-        <f t="shared" si="7"/>
-        <v>4.5714285714285712</v>
-      </c>
-      <c r="I50" s="77">
-        <f t="shared" si="10"/>
-        <v>5.4999999999999982</v>
-      </c>
+      <c r="C50" s="89" t="s">
+        <v>44</v>
+      </c>
+      <c r="D50" s="89"/>
+      <c r="E50" s="89"/>
+      <c r="F50" s="89"/>
+      <c r="G50" s="19"/>
+      <c r="H50" s="18"/>
+      <c r="I50" s="14"/>
       <c r="J50" s="14"/>
       <c r="K50" s="14"/>
-      <c r="L50" s="14"/>
-      <c r="M50" s="14"/>
-      <c r="N50" s="74">
-        <v>7</v>
-      </c>
-      <c r="O50" s="74">
-        <v>4</v>
-      </c>
-      <c r="P50" s="44">
-        <f t="shared" si="8"/>
-        <v>49</v>
-      </c>
-      <c r="Q50" s="43">
-        <f t="shared" si="9"/>
-        <v>28</v>
-      </c>
+      <c r="L50" s="33"/>
+      <c r="M50" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="N50" s="27"/>
+      <c r="O50" s="14"/>
+      <c r="P50" s="33"/>
+      <c r="Q50" s="14"/>
       <c r="R50" s="14"/>
-      <c r="S50" s="78">
-        <v>20</v>
-      </c>
-      <c r="T50" s="84">
-        <f t="shared" si="11"/>
-        <v>5.8571428571428612</v>
-      </c>
+      <c r="S50" s="14"/>
+      <c r="T50" s="59"/>
       <c r="U50" s="14"/>
     </row>
-    <row r="51" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:21" ht="18" x14ac:dyDescent="0.35">
       <c r="B51" s="58"/>
-      <c r="C51" s="18"/>
-      <c r="D51" s="19"/>
-      <c r="E51" s="20"/>
-      <c r="F51" s="9"/>
-      <c r="H51" s="45"/>
-      <c r="I51" s="46"/>
+      <c r="C51" s="89" t="s">
+        <v>19</v>
+      </c>
+      <c r="D51" s="89"/>
+      <c r="E51" s="89"/>
+      <c r="F51" s="89"/>
+      <c r="G51" s="89"/>
+      <c r="H51" s="18"/>
+      <c r="I51" s="14"/>
       <c r="J51" s="14"/>
       <c r="K51" s="14"/>
       <c r="L51" s="14"/>
-      <c r="M51" s="14"/>
-      <c r="N51" s="76">
-        <v>8</v>
-      </c>
-      <c r="O51" s="77">
-        <f t="shared" ref="O51:O57" si="12">$J$39+($J$40*N51)</f>
-        <v>3.2857142857142856</v>
-      </c>
-      <c r="P51" s="44">
-        <f t="shared" si="8"/>
-        <v>64</v>
-      </c>
-      <c r="Q51" s="43">
-        <f t="shared" si="9"/>
-        <v>26.285714285714285</v>
-      </c>
+      <c r="M51" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="N51" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="O51" s="14"/>
+      <c r="P51" s="33"/>
+      <c r="Q51" s="14"/>
       <c r="R51" s="14"/>
-      <c r="S51" s="78">
-        <v>21</v>
-      </c>
-      <c r="T51" s="84">
-        <f t="shared" si="11"/>
-        <v>6.0714285714285756</v>
-      </c>
+      <c r="S51" s="14"/>
+      <c r="T51" s="59"/>
       <c r="U51" s="14"/>
     </row>
     <row r="52" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B52" s="58"/>
-      <c r="C52" s="18"/>
-      <c r="D52" s="19"/>
-      <c r="E52" s="20"/>
-      <c r="F52" s="9"/>
-      <c r="G52" s="47" t="s">
-        <v>42</v>
-      </c>
-      <c r="H52" s="48"/>
-      <c r="I52" s="49"/>
-      <c r="J52" s="49"/>
-      <c r="K52" s="49"/>
-      <c r="L52" s="49"/>
-      <c r="M52" s="49"/>
-      <c r="N52" s="76">
-        <v>9</v>
-      </c>
-      <c r="O52" s="77">
-        <f t="shared" si="12"/>
-        <v>3.5</v>
-      </c>
-      <c r="P52" s="44">
-        <f t="shared" si="8"/>
-        <v>81</v>
-      </c>
-      <c r="Q52" s="43">
-        <f t="shared" si="9"/>
-        <v>31.5</v>
-      </c>
+      <c r="C52" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="D52" s="34"/>
+      <c r="E52" s="34"/>
+      <c r="F52" s="34"/>
+      <c r="G52" s="34"/>
+      <c r="H52" s="18"/>
+      <c r="I52" s="14"/>
+      <c r="J52" s="14"/>
+      <c r="K52" s="14"/>
+      <c r="L52" s="14"/>
+      <c r="M52" s="14"/>
+      <c r="N52" s="14"/>
+      <c r="O52" s="14"/>
+      <c r="P52" s="14"/>
+      <c r="Q52" s="14"/>
       <c r="R52" s="14"/>
-      <c r="S52" s="78">
-        <v>22</v>
-      </c>
-      <c r="T52" s="84">
-        <f t="shared" si="11"/>
-        <v>6.28571428571429</v>
-      </c>
+      <c r="S52" s="14"/>
+      <c r="T52" s="59"/>
       <c r="U52" s="14"/>
     </row>
     <row r="53" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B53" s="58"/>
       <c r="C53" s="18"/>
-      <c r="D53" s="19"/>
-      <c r="E53" s="20"/>
+      <c r="D53" s="48"/>
+      <c r="E53" s="49"/>
       <c r="F53" s="9"/>
-      <c r="G53" s="47" t="s">
-        <v>43</v>
-      </c>
-      <c r="H53" s="48"/>
-      <c r="I53" s="49"/>
-      <c r="J53" s="49"/>
-      <c r="K53" s="49"/>
-      <c r="L53" s="49"/>
-      <c r="M53" s="49"/>
-      <c r="N53" s="76">
-        <v>10</v>
-      </c>
-      <c r="O53" s="77">
-        <f t="shared" si="12"/>
-        <v>3.7142857142857144</v>
-      </c>
-      <c r="P53" s="44">
-        <f t="shared" si="8"/>
-        <v>100</v>
-      </c>
-      <c r="Q53" s="43">
-        <f t="shared" si="9"/>
-        <v>37.142857142857146</v>
-      </c>
+      <c r="H53" s="18"/>
+      <c r="I53" s="14"/>
+      <c r="J53" s="14"/>
+      <c r="K53" s="14"/>
+      <c r="L53" s="14"/>
+      <c r="M53" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="N53" s="14"/>
+      <c r="O53" s="14"/>
+      <c r="P53" s="14"/>
+      <c r="Q53" s="14"/>
       <c r="R53" s="14"/>
       <c r="S53" s="14"/>
-      <c r="T53" s="82">
-        <f>SUM(T46:T52)</f>
-        <v>39.500000000000021</v>
-      </c>
+      <c r="T53" s="59"/>
       <c r="U53" s="14"/>
     </row>
     <row r="54" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B54" s="58"/>
-      <c r="C54" s="18"/>
-      <c r="D54" s="19"/>
-      <c r="E54" s="20"/>
+      <c r="C54" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D54" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="E54" s="12" t="s">
+        <v>20</v>
+      </c>
       <c r="F54" s="9"/>
-      <c r="H54" s="18"/>
+      <c r="G54" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="H54" s="32" t="s">
+        <v>45</v>
+      </c>
       <c r="I54" s="14"/>
       <c r="J54" s="14"/>
       <c r="K54" s="14"/>
       <c r="L54" s="14"/>
-      <c r="M54" s="14"/>
-      <c r="N54" s="76">
-        <v>11</v>
-      </c>
-      <c r="O54" s="77">
-        <f t="shared" si="12"/>
-        <v>3.9285714285714288</v>
-      </c>
-      <c r="P54" s="44">
-        <f t="shared" si="8"/>
-        <v>121</v>
-      </c>
-      <c r="Q54" s="43">
-        <f t="shared" si="9"/>
-        <v>43.214285714285715</v>
-      </c>
+      <c r="M54" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="N54" s="86" t="s">
+        <v>33</v>
+      </c>
+      <c r="O54" s="86"/>
+      <c r="P54" s="14"/>
+      <c r="Q54" s="14"/>
       <c r="R54" s="14"/>
       <c r="S54" s="14"/>
       <c r="T54" s="59"/>
@@ -2874,31 +2493,35 @@
     </row>
     <row r="55" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B55" s="58"/>
-      <c r="C55" s="18"/>
-      <c r="D55" s="19"/>
-      <c r="E55" s="20"/>
+      <c r="C55" s="73">
+        <v>1</v>
+      </c>
+      <c r="D55" s="73">
+        <v>2</v>
+      </c>
+      <c r="E55" s="73">
+        <v>48</v>
+      </c>
       <c r="F55" s="9"/>
-      <c r="H55" s="18"/>
+      <c r="G55" s="31">
+        <f>C55^2</f>
+        <v>1</v>
+      </c>
+      <c r="H55" s="36">
+        <f>D55*C55</f>
+        <v>2</v>
+      </c>
       <c r="I55" s="14"/>
       <c r="J55" s="14"/>
       <c r="K55" s="14"/>
       <c r="L55" s="14"/>
       <c r="M55" s="14"/>
-      <c r="N55" s="76">
-        <v>12</v>
-      </c>
-      <c r="O55" s="77">
-        <f t="shared" si="12"/>
-        <v>4.1428571428571423</v>
-      </c>
-      <c r="P55" s="44">
-        <f t="shared" si="8"/>
-        <v>144</v>
-      </c>
-      <c r="Q55" s="43">
-        <f t="shared" si="9"/>
-        <v>49.714285714285708</v>
-      </c>
+      <c r="N55" s="90" t="s">
+        <v>34</v>
+      </c>
+      <c r="O55" s="90"/>
+      <c r="P55" s="14"/>
+      <c r="Q55" s="14"/>
       <c r="R55" s="14"/>
       <c r="S55" s="14"/>
       <c r="T55" s="59"/>
@@ -2906,31 +2529,35 @@
     </row>
     <row r="56" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B56" s="58"/>
-      <c r="C56" s="18"/>
-      <c r="D56" s="19"/>
-      <c r="E56" s="20"/>
+      <c r="C56" s="73">
+        <v>2</v>
+      </c>
+      <c r="D56" s="73">
+        <v>2</v>
+      </c>
+      <c r="E56" s="73">
+        <v>46</v>
+      </c>
       <c r="F56" s="9"/>
-      <c r="H56" s="18"/>
+      <c r="G56" s="31">
+        <f t="shared" ref="G56:G61" si="4">C56^2</f>
+        <v>4</v>
+      </c>
+      <c r="H56" s="36">
+        <f t="shared" ref="H56:H61" si="5">D56*C56</f>
+        <v>4</v>
+      </c>
       <c r="I56" s="14"/>
       <c r="J56" s="14"/>
       <c r="K56" s="14"/>
       <c r="L56" s="14"/>
       <c r="M56" s="14"/>
-      <c r="N56" s="76">
-        <v>13</v>
-      </c>
-      <c r="O56" s="77">
-        <f t="shared" si="12"/>
-        <v>4.3571428571428568</v>
-      </c>
-      <c r="P56" s="44">
-        <f t="shared" si="8"/>
-        <v>169</v>
-      </c>
-      <c r="Q56" s="43">
-        <f t="shared" si="9"/>
-        <v>56.642857142857139</v>
-      </c>
+      <c r="N56" s="86" t="s">
+        <v>35</v>
+      </c>
+      <c r="O56" s="86"/>
+      <c r="P56" s="14"/>
+      <c r="Q56" s="14"/>
       <c r="R56" s="14"/>
       <c r="S56" s="14"/>
       <c r="T56" s="59"/>
@@ -2938,31 +2565,33 @@
     </row>
     <row r="57" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B57" s="58"/>
-      <c r="C57" s="18"/>
-      <c r="D57" s="19"/>
-      <c r="E57" s="20"/>
+      <c r="C57" s="73">
+        <v>3</v>
+      </c>
+      <c r="D57" s="73">
+        <v>3</v>
+      </c>
+      <c r="E57" s="73">
+        <v>43</v>
+      </c>
       <c r="F57" s="9"/>
-      <c r="H57" s="18"/>
+      <c r="G57" s="31">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+      <c r="H57" s="36">
+        <f t="shared" si="5"/>
+        <v>9</v>
+      </c>
       <c r="I57" s="14"/>
       <c r="J57" s="14"/>
       <c r="K57" s="14"/>
       <c r="L57" s="14"/>
       <c r="M57" s="14"/>
-      <c r="N57" s="79">
-        <v>14</v>
-      </c>
-      <c r="O57" s="80">
-        <f t="shared" si="12"/>
-        <v>4.5714285714285712</v>
-      </c>
-      <c r="P57" s="44">
-        <f t="shared" si="8"/>
-        <v>196</v>
-      </c>
-      <c r="Q57" s="43">
-        <f t="shared" si="9"/>
-        <v>64</v>
-      </c>
+      <c r="N57" s="14"/>
+      <c r="O57" s="14"/>
+      <c r="P57" s="14"/>
+      <c r="Q57" s="14"/>
       <c r="R57" s="14"/>
       <c r="S57" s="14"/>
       <c r="T57" s="59"/>
@@ -2970,34 +2599,37 @@
     </row>
     <row r="58" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B58" s="58"/>
-      <c r="C58" s="18"/>
-      <c r="D58" s="19"/>
-      <c r="E58" s="20"/>
+      <c r="C58" s="73">
+        <v>4</v>
+      </c>
+      <c r="D58" s="73">
+        <v>1</v>
+      </c>
+      <c r="E58" s="73">
+        <v>42</v>
+      </c>
       <c r="F58" s="9"/>
-      <c r="H58" s="18"/>
+      <c r="G58" s="31">
+        <f t="shared" si="4"/>
+        <v>16</v>
+      </c>
+      <c r="H58" s="36">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
       <c r="I58" s="14"/>
       <c r="J58" s="14"/>
       <c r="K58" s="14"/>
       <c r="L58" s="14"/>
-      <c r="M58" s="81" t="s">
-        <v>39</v>
-      </c>
-      <c r="N58" s="81">
-        <f>SUM(N44:N57)</f>
-        <v>105</v>
-      </c>
-      <c r="O58" s="81">
-        <f>SUM(O44:O57)</f>
-        <v>44.499999999999993</v>
-      </c>
-      <c r="P58" s="81">
-        <f>SUM(P44:P57)</f>
-        <v>1015</v>
-      </c>
-      <c r="Q58" s="81">
-        <f>SUM(Q44:Q57)</f>
-        <v>382.5</v>
-      </c>
+      <c r="M58" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="N58" s="86" t="s">
+        <v>36</v>
+      </c>
+      <c r="O58" s="86"/>
+      <c r="P58" s="14"/>
+      <c r="Q58" s="14"/>
       <c r="R58" s="14"/>
       <c r="S58" s="14"/>
       <c r="T58" s="59"/>
@@ -3005,18 +2637,33 @@
     </row>
     <row r="59" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B59" s="58"/>
-      <c r="C59" s="18"/>
-      <c r="D59" s="19"/>
-      <c r="E59" s="20"/>
+      <c r="C59" s="73">
+        <v>5</v>
+      </c>
+      <c r="D59" s="73">
+        <v>3</v>
+      </c>
+      <c r="E59" s="73">
+        <v>39</v>
+      </c>
       <c r="F59" s="9"/>
-      <c r="H59" s="18"/>
+      <c r="G59" s="31">
+        <f t="shared" si="4"/>
+        <v>25</v>
+      </c>
+      <c r="H59" s="36">
+        <f t="shared" si="5"/>
+        <v>15</v>
+      </c>
       <c r="I59" s="14"/>
       <c r="J59" s="14"/>
       <c r="K59" s="14"/>
       <c r="L59" s="14"/>
       <c r="M59" s="14"/>
-      <c r="N59" s="14"/>
-      <c r="O59" s="14"/>
+      <c r="N59" s="90" t="s">
+        <v>34</v>
+      </c>
+      <c r="O59" s="90"/>
       <c r="P59" s="14"/>
       <c r="Q59" s="14"/>
       <c r="R59" s="14"/>
@@ -3026,18 +2673,33 @@
     </row>
     <row r="60" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B60" s="58"/>
-      <c r="C60" s="18"/>
-      <c r="D60" s="19"/>
-      <c r="E60" s="20"/>
+      <c r="C60" s="73">
+        <v>6</v>
+      </c>
+      <c r="D60" s="73">
+        <v>2</v>
+      </c>
+      <c r="E60" s="73">
+        <v>37</v>
+      </c>
       <c r="F60" s="9"/>
-      <c r="H60" s="18"/>
+      <c r="G60" s="31">
+        <f t="shared" si="4"/>
+        <v>36</v>
+      </c>
+      <c r="H60" s="36">
+        <f t="shared" si="5"/>
+        <v>12</v>
+      </c>
       <c r="I60" s="14"/>
       <c r="J60" s="14"/>
       <c r="K60" s="14"/>
       <c r="L60" s="14"/>
       <c r="M60" s="14"/>
-      <c r="N60" s="14"/>
-      <c r="O60" s="14"/>
+      <c r="N60" s="86" t="s">
+        <v>35</v>
+      </c>
+      <c r="O60" s="86"/>
       <c r="P60" s="14"/>
       <c r="Q60" s="14"/>
       <c r="R60" s="14"/>
@@ -3047,19 +2709,33 @@
     </row>
     <row r="61" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B61" s="58"/>
-      <c r="C61" s="18"/>
-      <c r="D61" s="19"/>
-      <c r="E61" s="20"/>
+      <c r="C61" s="74">
+        <v>7</v>
+      </c>
+      <c r="D61" s="74">
+        <v>4</v>
+      </c>
+      <c r="E61" s="74">
+        <v>33</v>
+      </c>
       <c r="F61" s="9"/>
-      <c r="H61" s="18"/>
-      <c r="I61" s="14"/>
-      <c r="J61" s="14"/>
+      <c r="G61" s="31">
+        <f t="shared" si="4"/>
+        <v>49</v>
+      </c>
+      <c r="H61" s="36">
+        <f t="shared" si="5"/>
+        <v>28</v>
+      </c>
+      <c r="I61" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="J61" s="60">
+        <f>((D62*G62)-(C62*H62))/((7*G62)-(C62)^2)</f>
+        <v>1.5714285714285714</v>
+      </c>
       <c r="K61" s="14"/>
       <c r="L61" s="14"/>
-      <c r="M61" s="14"/>
-      <c r="N61" s="14"/>
-      <c r="O61" s="14"/>
-      <c r="P61" s="14"/>
       <c r="Q61" s="14"/>
       <c r="R61" s="14"/>
       <c r="S61" s="14"/>
@@ -3067,20 +2743,39 @@
       <c r="U61" s="14"/>
     </row>
     <row r="62" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B62" s="58"/>
-      <c r="C62" s="18"/>
-      <c r="D62" s="19"/>
-      <c r="E62" s="20"/>
+      <c r="B62" s="61" t="s">
+        <v>39</v>
+      </c>
+      <c r="C62" s="41">
+        <f>SUM(C55:C61)</f>
+        <v>28</v>
+      </c>
+      <c r="D62" s="41">
+        <f t="shared" ref="D62" si="6">SUM(D55:D61)</f>
+        <v>17</v>
+      </c>
+      <c r="E62" s="41"/>
       <c r="F62" s="9"/>
-      <c r="H62" s="18"/>
-      <c r="I62" s="14"/>
-      <c r="J62" s="14"/>
+      <c r="G62" s="41">
+        <f>SUM(G55:G61)</f>
+        <v>140</v>
+      </c>
+      <c r="H62" s="41">
+        <f>SUM(H55:H61)</f>
+        <v>74</v>
+      </c>
+      <c r="I62" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="J62" s="60">
+        <f>((7*H62)-(C62*D62))/((7*G62)-(C62)^2)</f>
+        <v>0.21428571428571427</v>
+      </c>
       <c r="K62" s="14"/>
       <c r="L62" s="14"/>
-      <c r="M62" s="14"/>
-      <c r="N62" s="14"/>
-      <c r="O62" s="14"/>
-      <c r="P62" s="14"/>
+      <c r="N62" s="14" t="s">
+        <v>46</v>
+      </c>
       <c r="Q62" s="14"/>
       <c r="R62" s="14"/>
       <c r="S62" s="14"/>
@@ -3090,8 +2785,8 @@
     <row r="63" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B63" s="58"/>
       <c r="C63" s="18"/>
-      <c r="D63" s="19"/>
-      <c r="E63" s="20"/>
+      <c r="D63" s="48"/>
+      <c r="E63" s="49"/>
       <c r="F63" s="9"/>
       <c r="H63" s="18"/>
       <c r="I63" s="14"/>
@@ -3099,7 +2794,9 @@
       <c r="K63" s="14"/>
       <c r="L63" s="14"/>
       <c r="M63" s="14"/>
-      <c r="N63" s="14"/>
+      <c r="N63" t="s">
+        <v>48</v>
+      </c>
       <c r="O63" s="14"/>
       <c r="P63" s="14"/>
       <c r="Q63" s="14"/>
@@ -3110,9 +2807,11 @@
     </row>
     <row r="64" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B64" s="58"/>
-      <c r="C64" s="18"/>
+      <c r="C64" s="19" t="s">
+        <v>29</v>
+      </c>
       <c r="D64" s="19"/>
-      <c r="E64" s="20"/>
+      <c r="E64" s="19"/>
       <c r="F64" s="9"/>
       <c r="H64" s="18"/>
       <c r="I64" s="14"/>
@@ -3120,7 +2819,9 @@
       <c r="K64" s="14"/>
       <c r="L64" s="14"/>
       <c r="M64" s="14"/>
-      <c r="N64" s="14"/>
+      <c r="N64" s="14" t="s">
+        <v>47</v>
+      </c>
       <c r="O64" s="14"/>
       <c r="P64" s="14"/>
       <c r="Q64" s="14"/>
@@ -3131,91 +2832,888 @@
     </row>
     <row r="65" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B65" s="58"/>
-      <c r="C65" s="18"/>
-      <c r="D65" s="19"/>
-      <c r="E65" s="20"/>
+      <c r="C65" s="72" t="s">
+        <v>31</v>
+      </c>
+      <c r="D65" s="72" t="s">
+        <v>30</v>
+      </c>
+      <c r="E65" s="72" t="s">
+        <v>20</v>
+      </c>
       <c r="F65" s="9"/>
-      <c r="H65" s="18"/>
-      <c r="I65" s="14"/>
+      <c r="G65" s="72" t="s">
+        <v>26</v>
+      </c>
+      <c r="H65" s="72" t="s">
+        <v>30</v>
+      </c>
+      <c r="I65" s="72" t="s">
+        <v>20</v>
+      </c>
       <c r="J65" s="14"/>
       <c r="K65" s="14"/>
       <c r="L65" s="14"/>
       <c r="M65" s="14"/>
-      <c r="N65" s="14"/>
-      <c r="O65" s="14"/>
-      <c r="P65" s="14"/>
-      <c r="Q65" s="14"/>
+      <c r="N65" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="O65" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="P65" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q65" s="32" t="s">
+        <v>45</v>
+      </c>
       <c r="R65" s="14"/>
-      <c r="S65" s="14"/>
-      <c r="T65" s="59"/>
+      <c r="S65" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="T65" s="83">
+        <f>((O80*P80)-(N80*Q80))/((14*P80)-(N80)^2)</f>
+        <v>1.5714285714285692</v>
+      </c>
       <c r="U65" s="14"/>
     </row>
-    <row r="66" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B66" s="62"/>
-      <c r="C66" s="63"/>
-      <c r="D66" s="64"/>
-      <c r="E66" s="65"/>
-      <c r="F66" s="66"/>
-      <c r="G66" s="66"/>
-      <c r="H66" s="63"/>
-      <c r="I66" s="67"/>
-      <c r="J66" s="67"/>
-      <c r="K66" s="67"/>
-      <c r="L66" s="67"/>
-      <c r="M66" s="67"/>
-      <c r="N66" s="67"/>
-      <c r="O66" s="67"/>
-      <c r="P66" s="67"/>
-      <c r="Q66" s="67"/>
-      <c r="R66" s="67"/>
-      <c r="S66" s="67"/>
-      <c r="T66" s="68"/>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B66" s="58"/>
+      <c r="C66" s="75">
+        <v>8</v>
+      </c>
+      <c r="D66" s="75" t="s">
+        <v>22</v>
+      </c>
+      <c r="E66" s="75" t="s">
+        <v>22</v>
+      </c>
+      <c r="F66" s="9"/>
+      <c r="G66" s="76">
+        <v>8</v>
+      </c>
+      <c r="H66" s="77">
+        <f t="shared" ref="H66:H72" si="7">$J$61+($J$62*G66)</f>
+        <v>3.2857142857142856</v>
+      </c>
+      <c r="I66" s="77">
+        <f>E61-H66</f>
+        <v>29.714285714285715</v>
+      </c>
+      <c r="J66" s="14"/>
+      <c r="K66" s="14"/>
+      <c r="L66" s="14"/>
+      <c r="M66" s="14"/>
+      <c r="N66" s="73">
+        <v>1</v>
+      </c>
+      <c r="O66" s="73">
+        <v>2</v>
+      </c>
+      <c r="P66" s="44">
+        <f>N66^2</f>
+        <v>1</v>
+      </c>
+      <c r="Q66" s="43">
+        <f>N66*O66</f>
+        <v>2</v>
+      </c>
+      <c r="R66" s="14"/>
+      <c r="S66" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="T66" s="83">
+        <f>((14*Q80)-(N80*O80))/((14*P80)-(N80)^2)</f>
+        <v>0.21428571428571458</v>
+      </c>
       <c r="U66" s="14"/>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="D67" s="19"/>
-      <c r="E67" s="20"/>
+    <row r="67" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B67" s="58"/>
+      <c r="C67" s="75">
+        <v>9</v>
+      </c>
+      <c r="D67" s="75" t="s">
+        <v>22</v>
+      </c>
+      <c r="E67" s="75" t="s">
+        <v>22</v>
+      </c>
+      <c r="F67" s="42" t="s">
+        <v>41</v>
+      </c>
+      <c r="G67" s="76">
+        <v>9</v>
+      </c>
+      <c r="H67" s="77">
+        <f t="shared" si="7"/>
+        <v>3.5</v>
+      </c>
+      <c r="I67" s="77">
+        <f>I66-H67</f>
+        <v>26.214285714285715</v>
+      </c>
+      <c r="J67" s="14"/>
+      <c r="K67" s="14"/>
+      <c r="L67" s="14"/>
+      <c r="M67" s="14"/>
+      <c r="N67" s="73">
+        <v>2</v>
+      </c>
+      <c r="O67" s="73">
+        <v>2</v>
+      </c>
+      <c r="P67" s="44">
+        <f t="shared" ref="P67:P79" si="8">N67^2</f>
+        <v>4</v>
+      </c>
+      <c r="Q67" s="43">
+        <f t="shared" ref="Q67:Q79" si="9">N67*O67</f>
+        <v>4</v>
+      </c>
+      <c r="R67" s="14"/>
+      <c r="S67" s="14"/>
+      <c r="T67" s="59"/>
+      <c r="U67" s="14"/>
     </row>
     <row r="68" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="D68" s="19"/>
-      <c r="E68" s="20"/>
+      <c r="B68" s="58"/>
+      <c r="C68" s="76">
+        <v>10</v>
+      </c>
+      <c r="D68" s="75" t="s">
+        <v>22</v>
+      </c>
+      <c r="E68" s="75" t="s">
+        <v>22</v>
+      </c>
+      <c r="F68" s="9"/>
+      <c r="G68" s="76">
+        <v>10</v>
+      </c>
+      <c r="H68" s="77">
+        <f t="shared" si="7"/>
+        <v>3.7142857142857144</v>
+      </c>
+      <c r="I68" s="77">
+        <f t="shared" ref="I68:I72" si="10">I67-H68</f>
+        <v>22.5</v>
+      </c>
+      <c r="J68" s="14"/>
+      <c r="K68" s="14"/>
+      <c r="L68" s="14"/>
+      <c r="M68" s="14"/>
+      <c r="N68" s="73">
+        <v>3</v>
+      </c>
+      <c r="O68" s="73">
+        <v>3</v>
+      </c>
+      <c r="P68" s="44">
+        <f t="shared" si="8"/>
+        <v>9</v>
+      </c>
+      <c r="Q68" s="43">
+        <f t="shared" si="9"/>
+        <v>9</v>
+      </c>
+      <c r="R68" s="14"/>
+      <c r="S68" s="78">
+        <v>16</v>
+      </c>
+      <c r="T68" s="84">
+        <f>$T$65+($T$66*S68)</f>
+        <v>5.0000000000000027</v>
+      </c>
+      <c r="U68" s="14"/>
     </row>
     <row r="69" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="D69" s="19"/>
-      <c r="E69" s="20"/>
+      <c r="B69" s="58"/>
+      <c r="C69" s="76">
+        <v>11</v>
+      </c>
+      <c r="D69" s="75" t="s">
+        <v>22</v>
+      </c>
+      <c r="E69" s="75" t="s">
+        <v>22</v>
+      </c>
+      <c r="F69" s="9"/>
+      <c r="G69" s="76">
+        <v>11</v>
+      </c>
+      <c r="H69" s="77">
+        <f t="shared" si="7"/>
+        <v>3.9285714285714288</v>
+      </c>
+      <c r="I69" s="77">
+        <f t="shared" si="10"/>
+        <v>18.571428571428569</v>
+      </c>
+      <c r="J69" s="14"/>
+      <c r="K69" s="14"/>
+      <c r="L69" s="14"/>
+      <c r="M69" s="14"/>
+      <c r="N69" s="73">
+        <v>4</v>
+      </c>
+      <c r="O69" s="73">
+        <v>1</v>
+      </c>
+      <c r="P69" s="44">
+        <f t="shared" si="8"/>
+        <v>16</v>
+      </c>
+      <c r="Q69" s="43">
+        <f t="shared" si="9"/>
+        <v>4</v>
+      </c>
+      <c r="R69" s="14"/>
+      <c r="S69" s="78">
+        <v>17</v>
+      </c>
+      <c r="T69" s="84">
+        <f t="shared" ref="T69:T74" si="11">$T$65+($T$66*S69)</f>
+        <v>5.2142857142857171</v>
+      </c>
+      <c r="U69" s="14"/>
     </row>
     <row r="70" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="D70" s="19"/>
-      <c r="E70" s="20"/>
+      <c r="B70" s="58"/>
+      <c r="C70" s="76">
+        <v>12</v>
+      </c>
+      <c r="D70" s="75" t="s">
+        <v>22</v>
+      </c>
+      <c r="E70" s="75" t="s">
+        <v>22</v>
+      </c>
+      <c r="F70" s="9"/>
+      <c r="G70" s="76">
+        <v>12</v>
+      </c>
+      <c r="H70" s="77">
+        <f t="shared" si="7"/>
+        <v>4.1428571428571423</v>
+      </c>
+      <c r="I70" s="77">
+        <f t="shared" si="10"/>
+        <v>14.428571428571427</v>
+      </c>
+      <c r="J70" s="14"/>
+      <c r="K70" s="14"/>
+      <c r="L70" s="14"/>
+      <c r="M70" s="14"/>
+      <c r="N70" s="73">
+        <v>5</v>
+      </c>
+      <c r="O70" s="73">
+        <v>3</v>
+      </c>
+      <c r="P70" s="44">
+        <f t="shared" si="8"/>
+        <v>25</v>
+      </c>
+      <c r="Q70" s="43">
+        <f t="shared" si="9"/>
+        <v>15</v>
+      </c>
+      <c r="R70" s="14"/>
+      <c r="S70" s="78">
+        <v>18</v>
+      </c>
+      <c r="T70" s="84">
+        <f t="shared" si="11"/>
+        <v>5.4285714285714315</v>
+      </c>
+      <c r="U70" s="14"/>
     </row>
     <row r="71" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="D71" s="19"/>
-      <c r="E71" s="20"/>
+      <c r="B71" s="58"/>
+      <c r="C71" s="76" t="s">
+        <v>22</v>
+      </c>
+      <c r="D71" s="75"/>
+      <c r="E71" s="75">
+        <v>5</v>
+      </c>
+      <c r="F71" s="9"/>
+      <c r="G71" s="76">
+        <v>13</v>
+      </c>
+      <c r="H71" s="77">
+        <f t="shared" si="7"/>
+        <v>4.3571428571428568</v>
+      </c>
+      <c r="I71" s="77">
+        <f t="shared" si="10"/>
+        <v>10.071428571428569</v>
+      </c>
+      <c r="J71" s="14"/>
+      <c r="K71" s="14"/>
+      <c r="L71" s="14"/>
+      <c r="M71" s="14"/>
+      <c r="N71" s="73">
+        <v>6</v>
+      </c>
+      <c r="O71" s="73">
+        <v>2</v>
+      </c>
+      <c r="P71" s="44">
+        <f t="shared" si="8"/>
+        <v>36</v>
+      </c>
+      <c r="Q71" s="43">
+        <f t="shared" si="9"/>
+        <v>12</v>
+      </c>
+      <c r="R71" s="14"/>
+      <c r="S71" s="78">
+        <v>19</v>
+      </c>
+      <c r="T71" s="84">
+        <f t="shared" si="11"/>
+        <v>5.6428571428571468</v>
+      </c>
+      <c r="U71" s="14"/>
     </row>
     <row r="72" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B72" s="58"/>
+      <c r="C72" s="18"/>
       <c r="D72" s="19"/>
       <c r="E72" s="20"/>
+      <c r="F72" s="9"/>
+      <c r="G72" s="76">
+        <v>14</v>
+      </c>
+      <c r="H72" s="77">
+        <f t="shared" si="7"/>
+        <v>4.5714285714285712</v>
+      </c>
+      <c r="I72" s="77">
+        <f t="shared" si="10"/>
+        <v>5.4999999999999982</v>
+      </c>
+      <c r="J72" s="14"/>
+      <c r="K72" s="14"/>
+      <c r="L72" s="14"/>
+      <c r="M72" s="14"/>
+      <c r="N72" s="74">
+        <v>7</v>
+      </c>
+      <c r="O72" s="74">
+        <v>4</v>
+      </c>
+      <c r="P72" s="44">
+        <f t="shared" si="8"/>
+        <v>49</v>
+      </c>
+      <c r="Q72" s="43">
+        <f t="shared" si="9"/>
+        <v>28</v>
+      </c>
+      <c r="R72" s="14"/>
+      <c r="S72" s="78">
+        <v>20</v>
+      </c>
+      <c r="T72" s="84">
+        <f t="shared" si="11"/>
+        <v>5.8571428571428612</v>
+      </c>
+      <c r="U72" s="14"/>
     </row>
     <row r="73" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B73" s="58"/>
+      <c r="C73" s="18"/>
       <c r="D73" s="19"/>
       <c r="E73" s="20"/>
+      <c r="F73" s="9"/>
+      <c r="H73" s="45"/>
+      <c r="I73" s="46"/>
+      <c r="J73" s="14"/>
+      <c r="K73" s="14"/>
+      <c r="L73" s="14"/>
+      <c r="M73" s="14"/>
+      <c r="N73" s="76">
+        <v>8</v>
+      </c>
+      <c r="O73" s="77">
+        <f t="shared" ref="O73:O79" si="12">$J$61+($J$62*N73)</f>
+        <v>3.2857142857142856</v>
+      </c>
+      <c r="P73" s="44">
+        <f t="shared" si="8"/>
+        <v>64</v>
+      </c>
+      <c r="Q73" s="43">
+        <f t="shared" si="9"/>
+        <v>26.285714285714285</v>
+      </c>
+      <c r="R73" s="14"/>
+      <c r="S73" s="78">
+        <v>21</v>
+      </c>
+      <c r="T73" s="84">
+        <f t="shared" si="11"/>
+        <v>6.0714285714285756</v>
+      </c>
+      <c r="U73" s="14"/>
     </row>
     <row r="74" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B74" s="58"/>
+      <c r="C74" s="18"/>
       <c r="D74" s="19"/>
       <c r="E74" s="20"/>
+      <c r="F74" s="9"/>
+      <c r="G74" s="47" t="s">
+        <v>42</v>
+      </c>
+      <c r="H74" s="48"/>
+      <c r="I74" s="49"/>
+      <c r="J74" s="49"/>
+      <c r="K74" s="49"/>
+      <c r="L74" s="49"/>
+      <c r="M74" s="49"/>
+      <c r="N74" s="76">
+        <v>9</v>
+      </c>
+      <c r="O74" s="77">
+        <f t="shared" si="12"/>
+        <v>3.5</v>
+      </c>
+      <c r="P74" s="44">
+        <f t="shared" si="8"/>
+        <v>81</v>
+      </c>
+      <c r="Q74" s="43">
+        <f t="shared" si="9"/>
+        <v>31.5</v>
+      </c>
+      <c r="R74" s="14"/>
+      <c r="S74" s="78">
+        <v>22</v>
+      </c>
+      <c r="T74" s="84">
+        <f t="shared" si="11"/>
+        <v>6.28571428571429</v>
+      </c>
+      <c r="U74" s="14"/>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B75" s="58"/>
+      <c r="C75" s="18"/>
+      <c r="D75" s="19"/>
+      <c r="E75" s="20"/>
+      <c r="F75" s="9"/>
+      <c r="G75" s="47" t="s">
+        <v>43</v>
+      </c>
+      <c r="H75" s="48"/>
+      <c r="I75" s="49"/>
+      <c r="J75" s="49"/>
+      <c r="K75" s="49"/>
+      <c r="L75" s="49"/>
+      <c r="M75" s="49"/>
+      <c r="N75" s="76">
+        <v>10</v>
+      </c>
+      <c r="O75" s="77">
+        <f t="shared" si="12"/>
+        <v>3.7142857142857144</v>
+      </c>
+      <c r="P75" s="44">
+        <f t="shared" si="8"/>
+        <v>100</v>
+      </c>
+      <c r="Q75" s="43">
+        <f t="shared" si="9"/>
+        <v>37.142857142857146</v>
+      </c>
+      <c r="R75" s="14"/>
+      <c r="S75" s="14"/>
+      <c r="T75" s="82">
+        <f>SUM(T68:T74)</f>
+        <v>39.500000000000021</v>
+      </c>
+      <c r="U75" s="14"/>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B76" s="58"/>
+      <c r="C76" s="18"/>
+      <c r="D76" s="19"/>
+      <c r="E76" s="20"/>
+      <c r="F76" s="9"/>
+      <c r="H76" s="18"/>
+      <c r="I76" s="14"/>
+      <c r="J76" s="14"/>
+      <c r="K76" s="14"/>
+      <c r="L76" s="14"/>
+      <c r="M76" s="14"/>
+      <c r="N76" s="76">
+        <v>11</v>
+      </c>
+      <c r="O76" s="77">
+        <f t="shared" si="12"/>
+        <v>3.9285714285714288</v>
+      </c>
+      <c r="P76" s="44">
+        <f t="shared" si="8"/>
+        <v>121</v>
+      </c>
+      <c r="Q76" s="43">
+        <f t="shared" si="9"/>
+        <v>43.214285714285715</v>
+      </c>
+      <c r="R76" s="14"/>
+      <c r="S76" s="14"/>
+      <c r="T76" s="59"/>
+      <c r="U76" s="14"/>
+    </row>
+    <row r="77" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B77" s="58"/>
+      <c r="C77" s="18"/>
+      <c r="D77" s="19"/>
+      <c r="E77" s="20"/>
+      <c r="F77" s="9"/>
+      <c r="H77" s="18"/>
+      <c r="I77" s="14"/>
+      <c r="J77" s="14"/>
+      <c r="K77" s="14"/>
+      <c r="L77" s="14"/>
+      <c r="M77" s="14"/>
+      <c r="N77" s="76">
+        <v>12</v>
+      </c>
+      <c r="O77" s="77">
+        <f t="shared" si="12"/>
+        <v>4.1428571428571423</v>
+      </c>
+      <c r="P77" s="44">
+        <f t="shared" si="8"/>
+        <v>144</v>
+      </c>
+      <c r="Q77" s="43">
+        <f t="shared" si="9"/>
+        <v>49.714285714285708</v>
+      </c>
+      <c r="R77" s="14"/>
+      <c r="S77" s="14"/>
+      <c r="T77" s="59"/>
+      <c r="U77" s="14"/>
+    </row>
+    <row r="78" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B78" s="58"/>
+      <c r="C78" s="18"/>
+      <c r="D78" s="19"/>
+      <c r="E78" s="20"/>
+      <c r="F78" s="9"/>
+      <c r="H78" s="18"/>
+      <c r="I78" s="14"/>
+      <c r="J78" s="14"/>
+      <c r="K78" s="14"/>
+      <c r="L78" s="14"/>
+      <c r="M78" s="14"/>
+      <c r="N78" s="76">
+        <v>13</v>
+      </c>
+      <c r="O78" s="77">
+        <f t="shared" si="12"/>
+        <v>4.3571428571428568</v>
+      </c>
+      <c r="P78" s="44">
+        <f t="shared" si="8"/>
+        <v>169</v>
+      </c>
+      <c r="Q78" s="43">
+        <f t="shared" si="9"/>
+        <v>56.642857142857139</v>
+      </c>
+      <c r="R78" s="14"/>
+      <c r="S78" s="14"/>
+      <c r="T78" s="59"/>
+      <c r="U78" s="14"/>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B79" s="58"/>
+      <c r="C79" s="18"/>
+      <c r="D79" s="19"/>
+      <c r="E79" s="20"/>
+      <c r="F79" s="9"/>
+      <c r="H79" s="18"/>
+      <c r="I79" s="14"/>
+      <c r="J79" s="14"/>
+      <c r="K79" s="14"/>
+      <c r="L79" s="14"/>
+      <c r="M79" s="14"/>
+      <c r="N79" s="79">
+        <v>14</v>
+      </c>
+      <c r="O79" s="80">
+        <f t="shared" si="12"/>
+        <v>4.5714285714285712</v>
+      </c>
+      <c r="P79" s="44">
+        <f t="shared" si="8"/>
+        <v>196</v>
+      </c>
+      <c r="Q79" s="43">
+        <f t="shared" si="9"/>
+        <v>64</v>
+      </c>
+      <c r="R79" s="14"/>
+      <c r="S79" s="14"/>
+      <c r="T79" s="59"/>
+      <c r="U79" s="14"/>
+    </row>
+    <row r="80" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B80" s="58"/>
+      <c r="C80" s="18"/>
+      <c r="D80" s="19"/>
+      <c r="E80" s="20"/>
+      <c r="F80" s="9"/>
+      <c r="H80" s="18"/>
+      <c r="I80" s="14"/>
+      <c r="J80" s="14"/>
+      <c r="K80" s="14"/>
+      <c r="L80" s="14"/>
+      <c r="M80" s="81" t="s">
+        <v>39</v>
+      </c>
+      <c r="N80" s="81">
+        <f>SUM(N66:N79)</f>
+        <v>105</v>
+      </c>
+      <c r="O80" s="81">
+        <f>SUM(O66:O79)</f>
+        <v>44.499999999999993</v>
+      </c>
+      <c r="P80" s="81">
+        <f>SUM(P66:P79)</f>
+        <v>1015</v>
+      </c>
+      <c r="Q80" s="81">
+        <f>SUM(Q66:Q79)</f>
+        <v>382.5</v>
+      </c>
+      <c r="R80" s="14"/>
+      <c r="S80" s="14"/>
+      <c r="T80" s="59"/>
+      <c r="U80" s="14"/>
+    </row>
+    <row r="81" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B81" s="58"/>
+      <c r="C81" s="18"/>
+      <c r="D81" s="19"/>
+      <c r="E81" s="20"/>
+      <c r="F81" s="9"/>
+      <c r="H81" s="18"/>
+      <c r="I81" s="14"/>
+      <c r="J81" s="14"/>
+      <c r="K81" s="14"/>
+      <c r="L81" s="14"/>
+      <c r="M81" s="14"/>
+      <c r="N81" s="14"/>
+      <c r="O81" s="14"/>
+      <c r="P81" s="14"/>
+      <c r="Q81" s="14"/>
+      <c r="R81" s="14"/>
+      <c r="S81" s="14"/>
+      <c r="T81" s="59"/>
+      <c r="U81" s="14"/>
+    </row>
+    <row r="82" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B82" s="58"/>
+      <c r="C82" s="18"/>
+      <c r="D82" s="19"/>
+      <c r="E82" s="20"/>
+      <c r="F82" s="9"/>
+      <c r="H82" s="18"/>
+      <c r="I82" s="14"/>
+      <c r="J82" s="14"/>
+      <c r="K82" s="14"/>
+      <c r="L82" s="14"/>
+      <c r="M82" s="14"/>
+      <c r="N82" s="14"/>
+      <c r="O82" s="14"/>
+      <c r="P82" s="14"/>
+      <c r="Q82" s="14"/>
+      <c r="R82" s="14"/>
+      <c r="S82" s="14"/>
+      <c r="T82" s="59"/>
+      <c r="U82" s="14"/>
+    </row>
+    <row r="83" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B83" s="58"/>
+      <c r="C83" s="18"/>
+      <c r="D83" s="19"/>
+      <c r="E83" s="20"/>
+      <c r="F83" s="9"/>
+      <c r="H83" s="18"/>
+      <c r="I83" s="14"/>
+      <c r="J83" s="14"/>
+      <c r="K83" s="14"/>
+      <c r="L83" s="14"/>
+      <c r="M83" s="14"/>
+      <c r="N83" s="14"/>
+      <c r="O83" s="14"/>
+      <c r="P83" s="14"/>
+      <c r="Q83" s="14"/>
+      <c r="R83" s="14"/>
+      <c r="S83" s="14"/>
+      <c r="T83" s="59"/>
+      <c r="U83" s="14"/>
+    </row>
+    <row r="84" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B84" s="58"/>
+      <c r="C84" s="18"/>
+      <c r="D84" s="19"/>
+      <c r="E84" s="20"/>
+      <c r="F84" s="9"/>
+      <c r="H84" s="18"/>
+      <c r="I84" s="14"/>
+      <c r="J84" s="14"/>
+      <c r="K84" s="14"/>
+      <c r="L84" s="14"/>
+      <c r="M84" s="14"/>
+      <c r="N84" s="14"/>
+      <c r="O84" s="14"/>
+      <c r="P84" s="14"/>
+      <c r="Q84" s="14"/>
+      <c r="R84" s="14"/>
+      <c r="S84" s="14"/>
+      <c r="T84" s="59"/>
+      <c r="U84" s="14"/>
+    </row>
+    <row r="85" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B85" s="58"/>
+      <c r="C85" s="18"/>
+      <c r="D85" s="19"/>
+      <c r="E85" s="20"/>
+      <c r="F85" s="9"/>
+      <c r="H85" s="18"/>
+      <c r="I85" s="14"/>
+      <c r="J85" s="14"/>
+      <c r="K85" s="14"/>
+      <c r="L85" s="14"/>
+      <c r="M85" s="14"/>
+      <c r="N85" s="14"/>
+      <c r="O85" s="14"/>
+      <c r="P85" s="14"/>
+      <c r="Q85" s="14"/>
+      <c r="R85" s="14"/>
+      <c r="S85" s="14"/>
+      <c r="T85" s="59"/>
+      <c r="U85" s="14"/>
+    </row>
+    <row r="86" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B86" s="58"/>
+      <c r="C86" s="18"/>
+      <c r="D86" s="19"/>
+      <c r="E86" s="20"/>
+      <c r="F86" s="9"/>
+      <c r="H86" s="18"/>
+      <c r="I86" s="14"/>
+      <c r="J86" s="14"/>
+      <c r="K86" s="14"/>
+      <c r="L86" s="14"/>
+      <c r="M86" s="14"/>
+      <c r="N86" s="14"/>
+      <c r="O86" s="14"/>
+      <c r="P86" s="14"/>
+      <c r="Q86" s="14"/>
+      <c r="R86" s="14"/>
+      <c r="S86" s="14"/>
+      <c r="T86" s="59"/>
+      <c r="U86" s="14"/>
+    </row>
+    <row r="87" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B87" s="58"/>
+      <c r="C87" s="18"/>
+      <c r="D87" s="19"/>
+      <c r="E87" s="20"/>
+      <c r="F87" s="9"/>
+      <c r="H87" s="18"/>
+      <c r="I87" s="14"/>
+      <c r="J87" s="14"/>
+      <c r="K87" s="14"/>
+      <c r="L87" s="14"/>
+      <c r="M87" s="14"/>
+      <c r="N87" s="14"/>
+      <c r="O87" s="14"/>
+      <c r="P87" s="14"/>
+      <c r="Q87" s="14"/>
+      <c r="R87" s="14"/>
+      <c r="S87" s="14"/>
+      <c r="T87" s="59"/>
+      <c r="U87" s="14"/>
+    </row>
+    <row r="88" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B88" s="62"/>
+      <c r="C88" s="63"/>
+      <c r="D88" s="64"/>
+      <c r="E88" s="65"/>
+      <c r="F88" s="66"/>
+      <c r="G88" s="66"/>
+      <c r="H88" s="63"/>
+      <c r="I88" s="67"/>
+      <c r="J88" s="67"/>
+      <c r="K88" s="67"/>
+      <c r="L88" s="67"/>
+      <c r="M88" s="67"/>
+      <c r="N88" s="67"/>
+      <c r="O88" s="67"/>
+      <c r="P88" s="67"/>
+      <c r="Q88" s="67"/>
+      <c r="R88" s="67"/>
+      <c r="S88" s="67"/>
+      <c r="T88" s="68"/>
+      <c r="U88" s="14"/>
+    </row>
+    <row r="89" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="D89" s="19"/>
+      <c r="E89" s="20"/>
+    </row>
+    <row r="90" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="D90" s="19"/>
+      <c r="E90" s="20"/>
+    </row>
+    <row r="91" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="D91" s="19"/>
+      <c r="E91" s="20"/>
+    </row>
+    <row r="92" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="D92" s="19"/>
+      <c r="E92" s="20"/>
+    </row>
+    <row r="93" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="D93" s="19"/>
+      <c r="E93" s="20"/>
+    </row>
+    <row r="94" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="D94" s="19"/>
+      <c r="E94" s="20"/>
+    </row>
+    <row r="95" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="D95" s="19"/>
+      <c r="E95" s="20"/>
+    </row>
+    <row r="96" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="D96" s="19"/>
+      <c r="E96" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="N38:O38"/>
+    <mergeCell ref="N60:O60"/>
     <mergeCell ref="B1:T1"/>
     <mergeCell ref="B26:T26"/>
-    <mergeCell ref="C29:G29"/>
-    <mergeCell ref="C28:F28"/>
-    <mergeCell ref="N37:O37"/>
-    <mergeCell ref="N33:O33"/>
-    <mergeCell ref="N34:O34"/>
-    <mergeCell ref="N32:O32"/>
-    <mergeCell ref="N36:O36"/>
+    <mergeCell ref="C51:G51"/>
+    <mergeCell ref="C50:F50"/>
+    <mergeCell ref="N59:O59"/>
+    <mergeCell ref="N55:O55"/>
+    <mergeCell ref="N56:O56"/>
+    <mergeCell ref="N54:O54"/>
+    <mergeCell ref="N58:O58"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/2. Proposal/Metode/Try.xlsx
+++ b/2. Proposal/Metode/Try.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\File\Skripsi\2. Proposal\Metode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C470F37F-BAC6-4241-A45D-4E54738BF442}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DE90E57-644E-4B42-97AB-3F1E9D90FC65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9E0B27B6-5960-4ADA-83F0-0309D2A69620}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="54">
   <si>
     <t>Tanggal</t>
   </si>
@@ -94,9 +94,6 @@
     <t>Metode Linear Regression</t>
   </si>
   <si>
-    <t>Nilai minimum stok untuk order selanjutnya = 5</t>
-  </si>
-  <si>
     <t>Stok</t>
   </si>
   <si>
@@ -169,9 +166,6 @@
     <t xml:space="preserve">14 januari stok minimum untuk order selanjutnya telah tercapai yaitu 5 </t>
   </si>
   <si>
-    <t>Produk XYZ pada tanggal 1 Januai Stoknya = 50</t>
-  </si>
-  <si>
     <t>x*y</t>
   </si>
   <si>
@@ -182,6 +176,27 @@
   </si>
   <si>
     <t>pada tanggal 14 januari berdasarka hasil ramalan sebelumnya dan sesuai</t>
+  </si>
+  <si>
+    <t>Bulan (x)</t>
+  </si>
+  <si>
+    <t>Aktual</t>
+  </si>
+  <si>
+    <t>Forecast</t>
+  </si>
+  <si>
+    <t>Absolut</t>
+  </si>
+  <si>
+    <t>Mencari Nilai Error:</t>
+  </si>
+  <si>
+    <t>Produk XYZ pada tanggal 1 Januai Stoknya = 50 Unit</t>
+  </si>
+  <si>
+    <t>Nilai minimum stok untuk order selanjutnya = 5 Unit</t>
   </si>
 </sst>
 </file>
@@ -261,7 +276,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -346,8 +361,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="15">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -517,11 +544,42 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="114">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -716,6 +774,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -731,6 +792,56 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1045,10 +1156,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE6B0E80-D10A-4815-A892-18FD744DDE32}">
-  <dimension ref="B1:U96"/>
+  <dimension ref="B1:U103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M25" sqref="M25"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1064,27 +1175,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:20" ht="29.4" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B1" s="87" t="s">
+      <c r="B1" s="88" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="88"/>
-      <c r="D1" s="88"/>
-      <c r="E1" s="88"/>
-      <c r="F1" s="88"/>
-      <c r="G1" s="88"/>
-      <c r="H1" s="88"/>
-      <c r="I1" s="88"/>
-      <c r="J1" s="88"/>
-      <c r="K1" s="88"/>
-      <c r="L1" s="88"/>
-      <c r="M1" s="88"/>
-      <c r="N1" s="88"/>
-      <c r="O1" s="88"/>
-      <c r="P1" s="88"/>
-      <c r="Q1" s="88"/>
-      <c r="R1" s="88"/>
-      <c r="S1" s="88"/>
-      <c r="T1" s="88"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
+      <c r="I1" s="89"/>
+      <c r="J1" s="89"/>
+      <c r="K1" s="89"/>
+      <c r="L1" s="89"/>
+      <c r="M1" s="89"/>
+      <c r="N1" s="89"/>
+      <c r="O1" s="89"/>
+      <c r="P1" s="89"/>
+      <c r="Q1" s="89"/>
+      <c r="R1" s="89"/>
+      <c r="S1" s="89"/>
+      <c r="T1" s="89"/>
     </row>
     <row r="2" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B2" s="50"/>
@@ -1826,27 +1937,27 @@
       <c r="G25" s="10"/>
     </row>
     <row r="26" spans="2:21" ht="29.4" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B26" s="87" t="s">
+      <c r="B26" s="88" t="s">
         <v>18</v>
       </c>
-      <c r="C26" s="88"/>
-      <c r="D26" s="88"/>
-      <c r="E26" s="88"/>
-      <c r="F26" s="88"/>
-      <c r="G26" s="88"/>
-      <c r="H26" s="88"/>
-      <c r="I26" s="88"/>
-      <c r="J26" s="88"/>
-      <c r="K26" s="88"/>
-      <c r="L26" s="88"/>
-      <c r="M26" s="88"/>
-      <c r="N26" s="88"/>
-      <c r="O26" s="88"/>
-      <c r="P26" s="88"/>
-      <c r="Q26" s="88"/>
-      <c r="R26" s="88"/>
-      <c r="S26" s="88"/>
-      <c r="T26" s="88"/>
+      <c r="C26" s="89"/>
+      <c r="D26" s="89"/>
+      <c r="E26" s="89"/>
+      <c r="F26" s="89"/>
+      <c r="G26" s="89"/>
+      <c r="H26" s="89"/>
+      <c r="I26" s="89"/>
+      <c r="J26" s="89"/>
+      <c r="K26" s="89"/>
+      <c r="L26" s="89"/>
+      <c r="M26" s="89"/>
+      <c r="N26" s="89"/>
+      <c r="O26" s="89"/>
+      <c r="P26" s="89"/>
+      <c r="Q26" s="89"/>
+      <c r="R26" s="89"/>
+      <c r="S26" s="89"/>
+      <c r="T26" s="89"/>
     </row>
     <row r="27" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B27" s="50"/>
@@ -1872,43 +1983,67 @@
     </row>
     <row r="28" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B28" s="58"/>
-      <c r="C28" s="85"/>
-      <c r="D28" s="19"/>
+      <c r="C28" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="D28" s="12" t="s">
+        <v>27</v>
+      </c>
       <c r="E28" s="20"/>
-      <c r="F28" s="10"/>
-      <c r="G28" s="10"/>
+      <c r="F28" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="G28" s="32" t="s">
+        <v>43</v>
+      </c>
       <c r="H28" s="18"/>
       <c r="I28" s="14"/>
       <c r="J28" s="14"/>
       <c r="K28" s="14"/>
       <c r="L28" s="14"/>
       <c r="M28" s="14"/>
-      <c r="N28" s="14"/>
-      <c r="O28" s="14"/>
+      <c r="N28" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="O28" s="27"/>
       <c r="P28" s="14"/>
-      <c r="Q28" s="14"/>
+      <c r="Q28" s="33"/>
       <c r="R28" s="14"/>
       <c r="S28" s="14"/>
       <c r="T28" s="59"/>
       <c r="U28" s="14"/>
     </row>
-    <row r="29" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:21" ht="18" x14ac:dyDescent="0.35">
       <c r="B29" s="58"/>
-      <c r="C29" s="85"/>
-      <c r="D29" s="19"/>
+      <c r="C29" s="73">
+        <v>1</v>
+      </c>
+      <c r="D29" s="73">
+        <v>200</v>
+      </c>
       <c r="E29" s="20"/>
-      <c r="F29" s="10"/>
-      <c r="G29" s="10"/>
+      <c r="F29" s="31">
+        <f>C29^2</f>
+        <v>1</v>
+      </c>
+      <c r="G29" s="36">
+        <f>C29*D29</f>
+        <v>200</v>
+      </c>
       <c r="H29" s="18"/>
       <c r="I29" s="14"/>
       <c r="J29" s="14"/>
       <c r="K29" s="14"/>
       <c r="L29" s="14"/>
       <c r="M29" s="14"/>
-      <c r="N29" s="14"/>
-      <c r="O29" s="14"/>
+      <c r="N29" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="O29" s="16" t="s">
+        <v>26</v>
+      </c>
       <c r="P29" s="14"/>
-      <c r="Q29" s="14"/>
+      <c r="Q29" s="33"/>
       <c r="R29" s="14"/>
       <c r="S29" s="14"/>
       <c r="T29" s="59"/>
@@ -1916,11 +2051,21 @@
     </row>
     <row r="30" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B30" s="58"/>
-      <c r="C30" s="85"/>
-      <c r="D30" s="19"/>
+      <c r="C30" s="73">
+        <v>2</v>
+      </c>
+      <c r="D30" s="73">
+        <v>198</v>
+      </c>
       <c r="E30" s="20"/>
-      <c r="F30" s="10"/>
-      <c r="G30" s="10"/>
+      <c r="F30" s="31">
+        <f t="shared" ref="F30:F36" si="4">C30^2</f>
+        <v>4</v>
+      </c>
+      <c r="G30" s="36">
+        <f t="shared" ref="G30:G36" si="5">C30*D30</f>
+        <v>396</v>
+      </c>
       <c r="H30" s="18"/>
       <c r="I30" s="14"/>
       <c r="J30" s="14"/>
@@ -1938,18 +2083,30 @@
     </row>
     <row r="31" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B31" s="58"/>
-      <c r="C31" s="85"/>
-      <c r="D31" s="19"/>
+      <c r="C31" s="73">
+        <v>3</v>
+      </c>
+      <c r="D31" s="73">
+        <v>195</v>
+      </c>
       <c r="E31" s="20"/>
-      <c r="F31" s="10"/>
-      <c r="G31" s="10"/>
+      <c r="F31" s="31">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+      <c r="G31" s="36">
+        <f t="shared" si="5"/>
+        <v>585</v>
+      </c>
       <c r="H31" s="18"/>
       <c r="I31" s="14"/>
       <c r="J31" s="14"/>
       <c r="K31" s="14"/>
       <c r="L31" s="14"/>
       <c r="M31" s="14"/>
-      <c r="N31" s="14"/>
+      <c r="N31" s="27" t="s">
+        <v>24</v>
+      </c>
       <c r="O31" s="14"/>
       <c r="P31" s="14"/>
       <c r="Q31" s="14"/>
@@ -1960,20 +2117,34 @@
     </row>
     <row r="32" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B32" s="58"/>
-      <c r="C32" s="85"/>
-      <c r="D32" s="19"/>
+      <c r="C32" s="73">
+        <v>4</v>
+      </c>
+      <c r="D32" s="73">
+        <v>207</v>
+      </c>
       <c r="E32" s="20"/>
-      <c r="F32" s="10"/>
-      <c r="G32" s="10"/>
+      <c r="F32" s="31">
+        <f t="shared" si="4"/>
+        <v>16</v>
+      </c>
+      <c r="G32" s="36">
+        <f t="shared" si="5"/>
+        <v>828</v>
+      </c>
       <c r="H32" s="18"/>
       <c r="I32" s="14"/>
       <c r="J32" s="14"/>
       <c r="K32" s="14"/>
       <c r="L32" s="14"/>
       <c r="M32" s="14"/>
-      <c r="N32" s="14"/>
-      <c r="O32" s="14"/>
-      <c r="P32" s="14"/>
+      <c r="N32" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="O32" s="87" t="s">
+        <v>32</v>
+      </c>
+      <c r="P32" s="87"/>
       <c r="Q32" s="14"/>
       <c r="R32" s="14"/>
       <c r="S32" s="14"/>
@@ -1982,11 +2153,21 @@
     </row>
     <row r="33" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B33" s="58"/>
-      <c r="C33" s="85"/>
-      <c r="D33" s="19"/>
+      <c r="C33" s="73">
+        <v>5</v>
+      </c>
+      <c r="D33" s="73">
+        <v>213</v>
+      </c>
       <c r="E33" s="20"/>
-      <c r="F33" s="10"/>
-      <c r="G33" s="10"/>
+      <c r="F33" s="31">
+        <f t="shared" si="4"/>
+        <v>25</v>
+      </c>
+      <c r="G33" s="36">
+        <f t="shared" si="5"/>
+        <v>1065</v>
+      </c>
       <c r="H33" s="18"/>
       <c r="I33" s="14"/>
       <c r="J33" s="14"/>
@@ -1994,8 +2175,10 @@
       <c r="L33" s="14"/>
       <c r="M33" s="14"/>
       <c r="N33" s="14"/>
-      <c r="O33" s="14"/>
-      <c r="P33" s="14"/>
+      <c r="O33" s="91" t="s">
+        <v>33</v>
+      </c>
+      <c r="P33" s="91"/>
       <c r="Q33" s="14"/>
       <c r="R33" s="14"/>
       <c r="S33" s="14"/>
@@ -2004,11 +2187,21 @@
     </row>
     <row r="34" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B34" s="58"/>
-      <c r="C34" s="85"/>
-      <c r="D34" s="19"/>
+      <c r="C34" s="73">
+        <v>6</v>
+      </c>
+      <c r="D34" s="73">
+        <v>210</v>
+      </c>
       <c r="E34" s="20"/>
-      <c r="F34" s="10"/>
-      <c r="G34" s="10"/>
+      <c r="F34" s="31">
+        <f t="shared" si="4"/>
+        <v>36</v>
+      </c>
+      <c r="G34" s="36">
+        <f t="shared" si="5"/>
+        <v>1260</v>
+      </c>
       <c r="H34" s="18"/>
       <c r="I34" s="14"/>
       <c r="J34" s="14"/>
@@ -2016,8 +2209,10 @@
       <c r="L34" s="14"/>
       <c r="M34" s="14"/>
       <c r="N34" s="14"/>
-      <c r="O34" s="14"/>
-      <c r="P34" s="14"/>
+      <c r="O34" s="87" t="s">
+        <v>34</v>
+      </c>
+      <c r="P34" s="87"/>
       <c r="Q34" s="14"/>
       <c r="R34" s="14"/>
       <c r="S34" s="14"/>
@@ -2026,11 +2221,21 @@
     </row>
     <row r="35" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B35" s="58"/>
-      <c r="C35" s="85"/>
-      <c r="D35" s="19"/>
+      <c r="C35" s="73">
+        <v>7</v>
+      </c>
+      <c r="D35" s="73">
+        <v>198</v>
+      </c>
       <c r="E35" s="20"/>
-      <c r="F35" s="10"/>
-      <c r="G35" s="10"/>
+      <c r="F35" s="31">
+        <f t="shared" si="4"/>
+        <v>49</v>
+      </c>
+      <c r="G35" s="36">
+        <f t="shared" si="5"/>
+        <v>1386</v>
+      </c>
       <c r="H35" s="18"/>
       <c r="I35" s="14"/>
       <c r="J35" s="14"/>
@@ -2048,20 +2253,39 @@
     </row>
     <row r="36" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B36" s="58"/>
-      <c r="C36" s="85"/>
-      <c r="D36" s="19"/>
+      <c r="C36" s="95">
+        <v>8</v>
+      </c>
+      <c r="D36" s="74">
+        <v>205</v>
+      </c>
       <c r="E36" s="20"/>
-      <c r="F36" s="10"/>
-      <c r="G36" s="10"/>
-      <c r="H36" s="18"/>
-      <c r="I36" s="14"/>
+      <c r="F36" s="31">
+        <f t="shared" si="4"/>
+        <v>64</v>
+      </c>
+      <c r="G36" s="36">
+        <f t="shared" si="5"/>
+        <v>1640</v>
+      </c>
+      <c r="H36" s="35" t="s">
+        <v>39</v>
+      </c>
+      <c r="I36" s="60">
+        <f>((D37*F37)-(C37*G37))/((8*F37)-(C37)^2)</f>
+        <v>198.64285714285714</v>
+      </c>
       <c r="J36" s="14"/>
       <c r="K36" s="14"/>
       <c r="L36" s="14"/>
       <c r="M36" s="14"/>
-      <c r="N36" s="14"/>
-      <c r="O36" s="14"/>
-      <c r="P36" s="14"/>
+      <c r="N36" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="O36" s="87" t="s">
+        <v>35</v>
+      </c>
+      <c r="P36" s="87"/>
       <c r="Q36" s="14"/>
       <c r="R36" s="14"/>
       <c r="S36" s="14"/>
@@ -2069,21 +2293,42 @@
       <c r="U36" s="14"/>
     </row>
     <row r="37" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B37" s="58"/>
-      <c r="C37" s="85"/>
-      <c r="D37" s="19"/>
+      <c r="B37" s="96" t="s">
+        <v>38</v>
+      </c>
+      <c r="C37" s="41">
+        <f>SUM(C29:C36)</f>
+        <v>36</v>
+      </c>
+      <c r="D37" s="41">
+        <f>SUM(D29:D36)</f>
+        <v>1626</v>
+      </c>
       <c r="E37" s="20"/>
-      <c r="F37" s="10"/>
-      <c r="G37" s="10"/>
-      <c r="H37" s="18"/>
-      <c r="I37" s="14"/>
+      <c r="F37" s="41">
+        <f>SUM(F29:F36)</f>
+        <v>204</v>
+      </c>
+      <c r="G37" s="41">
+        <f>SUM(G29:G36)</f>
+        <v>7360</v>
+      </c>
+      <c r="H37" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="I37" s="60">
+        <f>((8*G37)-(C37*D37))/((8*F37)-(C37)^2)</f>
+        <v>1.0238095238095237</v>
+      </c>
       <c r="J37" s="14"/>
       <c r="K37" s="14"/>
       <c r="L37" s="14"/>
       <c r="M37" s="14"/>
       <c r="N37" s="14"/>
-      <c r="O37" s="14"/>
-      <c r="P37" s="14"/>
+      <c r="O37" s="91" t="s">
+        <v>33</v>
+      </c>
+      <c r="P37" s="91"/>
       <c r="Q37" s="14"/>
       <c r="R37" s="14"/>
       <c r="S37" s="14"/>
@@ -2092,8 +2337,6 @@
     </row>
     <row r="38" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B38" s="58"/>
-      <c r="C38" s="85"/>
-      <c r="D38" s="19"/>
       <c r="E38" s="20"/>
       <c r="F38" s="10"/>
       <c r="G38" s="10"/>
@@ -2104,8 +2347,10 @@
       <c r="L38" s="14"/>
       <c r="M38" s="14"/>
       <c r="N38" s="14"/>
-      <c r="O38" s="14"/>
-      <c r="P38" s="14"/>
+      <c r="O38" s="87" t="s">
+        <v>34</v>
+      </c>
+      <c r="P38" s="87"/>
       <c r="Q38" s="14"/>
       <c r="R38" s="14"/>
       <c r="S38" s="14"/>
@@ -2114,7 +2359,9 @@
     </row>
     <row r="39" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B39" s="58"/>
-      <c r="C39" s="85"/>
+      <c r="C39" s="85" t="s">
+        <v>28</v>
+      </c>
       <c r="D39" s="19"/>
       <c r="E39" s="20"/>
       <c r="F39" s="10"/>
@@ -2136,11 +2383,19 @@
     </row>
     <row r="40" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B40" s="58"/>
-      <c r="C40" s="85"/>
-      <c r="D40" s="19"/>
+      <c r="C40" s="72" t="s">
+        <v>30</v>
+      </c>
+      <c r="D40" s="72" t="s">
+        <v>29</v>
+      </c>
       <c r="E40" s="20"/>
-      <c r="F40" s="10"/>
-      <c r="G40" s="10"/>
+      <c r="F40" s="72" t="s">
+        <v>30</v>
+      </c>
+      <c r="G40" s="72" t="s">
+        <v>29</v>
+      </c>
       <c r="H40" s="18"/>
       <c r="I40" s="14"/>
       <c r="J40" s="14"/>
@@ -2158,11 +2413,20 @@
     </row>
     <row r="41" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B41" s="58"/>
-      <c r="C41" s="85"/>
-      <c r="D41" s="19"/>
+      <c r="C41" s="76">
+        <v>9</v>
+      </c>
+      <c r="D41" s="75" t="s">
+        <v>21</v>
+      </c>
       <c r="E41" s="20"/>
-      <c r="F41" s="10"/>
-      <c r="G41" s="10"/>
+      <c r="F41" s="76">
+        <v>9</v>
+      </c>
+      <c r="G41" s="75">
+        <f>$I$36+($I$37*F41)</f>
+        <v>207.85714285714286</v>
+      </c>
       <c r="H41" s="18"/>
       <c r="I41" s="14"/>
       <c r="J41" s="14"/>
@@ -2180,11 +2444,22 @@
     </row>
     <row r="42" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B42" s="58"/>
-      <c r="C42" s="85"/>
-      <c r="D42" s="19"/>
-      <c r="E42" s="20"/>
-      <c r="F42" s="10"/>
-      <c r="G42" s="10"/>
+      <c r="C42" s="76">
+        <v>10</v>
+      </c>
+      <c r="D42" s="75" t="s">
+        <v>21</v>
+      </c>
+      <c r="E42" s="97" t="s">
+        <v>40</v>
+      </c>
+      <c r="F42" s="76">
+        <v>10</v>
+      </c>
+      <c r="G42" s="75">
+        <f t="shared" ref="G42:G44" si="6">$I$36+($I$37*F42)</f>
+        <v>208.88095238095238</v>
+      </c>
       <c r="H42" s="18"/>
       <c r="I42" s="14"/>
       <c r="J42" s="14"/>
@@ -2202,11 +2477,20 @@
     </row>
     <row r="43" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B43" s="58"/>
-      <c r="C43" s="85"/>
-      <c r="D43" s="19"/>
+      <c r="C43" s="76">
+        <v>11</v>
+      </c>
+      <c r="D43" s="75" t="s">
+        <v>21</v>
+      </c>
       <c r="E43" s="20"/>
-      <c r="F43" s="10"/>
-      <c r="G43" s="10"/>
+      <c r="F43" s="76">
+        <v>11</v>
+      </c>
+      <c r="G43" s="75">
+        <f t="shared" si="6"/>
+        <v>209.9047619047619</v>
+      </c>
       <c r="H43" s="18"/>
       <c r="I43" s="14"/>
       <c r="J43" s="14"/>
@@ -2224,11 +2508,20 @@
     </row>
     <row r="44" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B44" s="58"/>
-      <c r="C44" s="85"/>
-      <c r="D44" s="19"/>
+      <c r="C44" s="76">
+        <v>12</v>
+      </c>
+      <c r="D44" s="75" t="s">
+        <v>21</v>
+      </c>
       <c r="E44" s="20"/>
-      <c r="F44" s="10"/>
-      <c r="G44" s="10"/>
+      <c r="F44" s="76">
+        <v>12</v>
+      </c>
+      <c r="G44" s="75">
+        <f t="shared" si="6"/>
+        <v>210.92857142857142</v>
+      </c>
       <c r="H44" s="18"/>
       <c r="I44" s="14"/>
       <c r="J44" s="14"/>
@@ -2246,8 +2539,6 @@
     </row>
     <row r="45" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B45" s="58"/>
-      <c r="C45" s="85"/>
-      <c r="D45" s="19"/>
       <c r="E45" s="20"/>
       <c r="F45" s="10"/>
       <c r="G45" s="10"/>
@@ -2268,8 +2559,9 @@
     </row>
     <row r="46" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B46" s="58"/>
-      <c r="C46" s="85"/>
-      <c r="D46" s="19"/>
+      <c r="C46" s="102" t="s">
+        <v>51</v>
+      </c>
       <c r="E46" s="20"/>
       <c r="F46" s="10"/>
       <c r="G46" s="10"/>
@@ -2290,13 +2582,25 @@
     </row>
     <row r="47" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B47" s="58"/>
-      <c r="C47" s="85"/>
-      <c r="D47" s="19"/>
-      <c r="E47" s="20"/>
+      <c r="C47" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="D47" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E47" s="99" t="s">
+        <v>49</v>
+      </c>
       <c r="F47" s="10"/>
-      <c r="G47" s="10"/>
-      <c r="H47" s="18"/>
-      <c r="I47" s="14"/>
+      <c r="G47" s="111" t="s">
+        <v>1</v>
+      </c>
+      <c r="H47" s="112" t="s">
+        <v>50</v>
+      </c>
+      <c r="I47" s="113" t="s">
+        <v>3</v>
+      </c>
       <c r="J47" s="14"/>
       <c r="K47" s="14"/>
       <c r="L47" s="14"/>
@@ -2312,13 +2616,30 @@
     </row>
     <row r="48" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B48" s="58"/>
-      <c r="C48" s="85"/>
-      <c r="D48" s="19"/>
-      <c r="E48" s="20"/>
+      <c r="C48" s="73">
+        <v>1</v>
+      </c>
+      <c r="D48" s="73">
+        <f>D29</f>
+        <v>200</v>
+      </c>
+      <c r="E48" s="98">
+        <f>$I$36+($I$37*C48)</f>
+        <v>199.66666666666666</v>
+      </c>
       <c r="F48" s="10"/>
-      <c r="G48" s="10"/>
-      <c r="H48" s="18"/>
-      <c r="I48" s="14"/>
+      <c r="G48" s="31">
+        <f>D48-E48</f>
+        <v>0.33333333333334281</v>
+      </c>
+      <c r="H48" s="36">
+        <f>ABS(G48)</f>
+        <v>0.33333333333334281</v>
+      </c>
+      <c r="I48" s="1">
+        <f>G48^2</f>
+        <v>0.11111111111111743</v>
+      </c>
       <c r="J48" s="14"/>
       <c r="K48" s="14"/>
       <c r="L48" s="14"/>
@@ -2334,13 +2655,30 @@
     </row>
     <row r="49" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B49" s="58"/>
-      <c r="C49" s="85"/>
-      <c r="D49" s="19"/>
-      <c r="E49" s="20"/>
+      <c r="C49" s="73">
+        <v>2</v>
+      </c>
+      <c r="D49" s="73">
+        <f t="shared" ref="D49:D55" si="7">D30</f>
+        <v>198</v>
+      </c>
+      <c r="E49" s="98">
+        <f t="shared" ref="E49:E55" si="8">$I$36+($I$37*C49)</f>
+        <v>200.69047619047618</v>
+      </c>
       <c r="F49" s="10"/>
-      <c r="G49" s="10"/>
-      <c r="H49" s="18"/>
-      <c r="I49" s="14"/>
+      <c r="G49" s="31">
+        <f t="shared" ref="G49:G55" si="9">D49-E49</f>
+        <v>-2.6904761904761756</v>
+      </c>
+      <c r="H49" s="36">
+        <f t="shared" ref="H49:H55" si="10">ABS(G49)</f>
+        <v>2.6904761904761756</v>
+      </c>
+      <c r="I49" s="1">
+        <f t="shared" ref="I49:I55" si="11">G49^2</f>
+        <v>7.2386621315191944</v>
+      </c>
       <c r="J49" s="14"/>
       <c r="K49" s="14"/>
       <c r="L49" s="14"/>
@@ -2356,52 +2694,76 @@
     </row>
     <row r="50" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B50" s="58"/>
-      <c r="C50" s="89" t="s">
-        <v>44</v>
-      </c>
-      <c r="D50" s="89"/>
-      <c r="E50" s="89"/>
-      <c r="F50" s="89"/>
-      <c r="G50" s="19"/>
-      <c r="H50" s="18"/>
-      <c r="I50" s="14"/>
+      <c r="C50" s="73">
+        <v>3</v>
+      </c>
+      <c r="D50" s="73">
+        <f t="shared" si="7"/>
+        <v>195</v>
+      </c>
+      <c r="E50" s="98">
+        <f t="shared" si="8"/>
+        <v>201.71428571428572</v>
+      </c>
+      <c r="F50" s="10"/>
+      <c r="G50" s="31">
+        <f t="shared" si="9"/>
+        <v>-6.7142857142857224</v>
+      </c>
+      <c r="H50" s="36">
+        <f t="shared" si="10"/>
+        <v>6.7142857142857224</v>
+      </c>
+      <c r="I50" s="1">
+        <f t="shared" si="11"/>
+        <v>45.081632653061334</v>
+      </c>
       <c r="J50" s="14"/>
       <c r="K50" s="14"/>
-      <c r="L50" s="33"/>
-      <c r="M50" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="N50" s="27"/>
+      <c r="L50" s="14"/>
+      <c r="M50" s="14"/>
+      <c r="N50" s="14"/>
       <c r="O50" s="14"/>
-      <c r="P50" s="33"/>
+      <c r="P50" s="14"/>
       <c r="Q50" s="14"/>
       <c r="R50" s="14"/>
       <c r="S50" s="14"/>
       <c r="T50" s="59"/>
       <c r="U50" s="14"/>
     </row>
-    <row r="51" spans="2:21" ht="18" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B51" s="58"/>
-      <c r="C51" s="89" t="s">
-        <v>19</v>
-      </c>
-      <c r="D51" s="89"/>
-      <c r="E51" s="89"/>
-      <c r="F51" s="89"/>
-      <c r="G51" s="89"/>
-      <c r="H51" s="18"/>
-      <c r="I51" s="14"/>
+      <c r="C51" s="73">
+        <v>4</v>
+      </c>
+      <c r="D51" s="73">
+        <f t="shared" si="7"/>
+        <v>207</v>
+      </c>
+      <c r="E51" s="98">
+        <f t="shared" si="8"/>
+        <v>202.73809523809524</v>
+      </c>
+      <c r="F51" s="10"/>
+      <c r="G51" s="31">
+        <f t="shared" si="9"/>
+        <v>4.2619047619047592</v>
+      </c>
+      <c r="H51" s="36">
+        <f t="shared" si="10"/>
+        <v>4.2619047619047592</v>
+      </c>
+      <c r="I51" s="1">
+        <f t="shared" si="11"/>
+        <v>18.163832199546462</v>
+      </c>
       <c r="J51" s="14"/>
       <c r="K51" s="14"/>
       <c r="L51" s="14"/>
-      <c r="M51" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="N51" s="16" t="s">
-        <v>27</v>
-      </c>
+      <c r="M51" s="14"/>
+      <c r="N51" s="14"/>
       <c r="O51" s="14"/>
-      <c r="P51" s="33"/>
+      <c r="P51" s="14"/>
       <c r="Q51" s="14"/>
       <c r="R51" s="14"/>
       <c r="S51" s="14"/>
@@ -2410,15 +2772,30 @@
     </row>
     <row r="52" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B52" s="58"/>
-      <c r="C52" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="D52" s="34"/>
-      <c r="E52" s="34"/>
-      <c r="F52" s="34"/>
-      <c r="G52" s="34"/>
-      <c r="H52" s="18"/>
-      <c r="I52" s="14"/>
+      <c r="C52" s="73">
+        <v>5</v>
+      </c>
+      <c r="D52" s="73">
+        <f>D33</f>
+        <v>213</v>
+      </c>
+      <c r="E52" s="98">
+        <f t="shared" si="8"/>
+        <v>203.76190476190476</v>
+      </c>
+      <c r="F52" s="10"/>
+      <c r="G52" s="31">
+        <f t="shared" si="9"/>
+        <v>9.2380952380952408</v>
+      </c>
+      <c r="H52" s="36">
+        <f t="shared" si="10"/>
+        <v>9.2380952380952408</v>
+      </c>
+      <c r="I52" s="1">
+        <f t="shared" si="11"/>
+        <v>85.342403628117964</v>
+      </c>
       <c r="J52" s="14"/>
       <c r="K52" s="14"/>
       <c r="L52" s="14"/>
@@ -2434,18 +2811,34 @@
     </row>
     <row r="53" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B53" s="58"/>
-      <c r="C53" s="18"/>
-      <c r="D53" s="48"/>
-      <c r="E53" s="49"/>
-      <c r="F53" s="9"/>
-      <c r="H53" s="18"/>
-      <c r="I53" s="14"/>
+      <c r="C53" s="73">
+        <v>6</v>
+      </c>
+      <c r="D53" s="73">
+        <f t="shared" si="7"/>
+        <v>210</v>
+      </c>
+      <c r="E53" s="98">
+        <f t="shared" si="8"/>
+        <v>204.78571428571428</v>
+      </c>
+      <c r="F53" s="10"/>
+      <c r="G53" s="31">
+        <f t="shared" si="9"/>
+        <v>5.2142857142857224</v>
+      </c>
+      <c r="H53" s="36">
+        <f t="shared" si="10"/>
+        <v>5.2142857142857224</v>
+      </c>
+      <c r="I53" s="1">
+        <f t="shared" si="11"/>
+        <v>27.188775510204167</v>
+      </c>
       <c r="J53" s="14"/>
       <c r="K53" s="14"/>
       <c r="L53" s="14"/>
-      <c r="M53" s="27" t="s">
-        <v>25</v>
-      </c>
+      <c r="M53" s="14"/>
       <c r="N53" s="14"/>
       <c r="O53" s="14"/>
       <c r="P53" s="14"/>
@@ -2457,33 +2850,36 @@
     </row>
     <row r="54" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B54" s="58"/>
-      <c r="C54" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="D54" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="E54" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="F54" s="9"/>
-      <c r="G54" s="32" t="s">
-        <v>38</v>
-      </c>
-      <c r="H54" s="32" t="s">
-        <v>45</v>
-      </c>
-      <c r="I54" s="14"/>
+      <c r="C54" s="73">
+        <v>7</v>
+      </c>
+      <c r="D54" s="73">
+        <f t="shared" si="7"/>
+        <v>198</v>
+      </c>
+      <c r="E54" s="98">
+        <f t="shared" si="8"/>
+        <v>205.8095238095238</v>
+      </c>
+      <c r="F54" s="10"/>
+      <c r="G54" s="31">
+        <f t="shared" si="9"/>
+        <v>-7.809523809523796</v>
+      </c>
+      <c r="H54" s="36">
+        <f t="shared" si="10"/>
+        <v>7.809523809523796</v>
+      </c>
+      <c r="I54" s="1">
+        <f t="shared" si="11"/>
+        <v>60.988662131519064</v>
+      </c>
       <c r="J54" s="14"/>
       <c r="K54" s="14"/>
       <c r="L54" s="14"/>
-      <c r="M54" s="35" t="s">
-        <v>32</v>
-      </c>
-      <c r="N54" s="86" t="s">
-        <v>33</v>
-      </c>
-      <c r="O54" s="86"/>
+      <c r="M54" s="14"/>
+      <c r="N54" s="14"/>
+      <c r="O54" s="14"/>
       <c r="P54" s="14"/>
       <c r="Q54" s="14"/>
       <c r="R54" s="14"/>
@@ -2493,33 +2889,36 @@
     </row>
     <row r="55" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B55" s="58"/>
-      <c r="C55" s="73">
-        <v>1</v>
+      <c r="C55" s="92">
+        <v>8</v>
       </c>
       <c r="D55" s="73">
-        <v>2</v>
-      </c>
-      <c r="E55" s="73">
-        <v>48</v>
-      </c>
-      <c r="F55" s="9"/>
+        <f t="shared" si="7"/>
+        <v>205</v>
+      </c>
+      <c r="E55" s="98">
+        <f t="shared" si="8"/>
+        <v>206.83333333333331</v>
+      </c>
+      <c r="F55" s="10"/>
       <c r="G55" s="31">
-        <f>C55^2</f>
-        <v>1</v>
+        <f t="shared" si="9"/>
+        <v>-1.8333333333333144</v>
       </c>
       <c r="H55" s="36">
-        <f>D55*C55</f>
-        <v>2</v>
-      </c>
-      <c r="I55" s="14"/>
+        <f t="shared" si="10"/>
+        <v>1.8333333333333144</v>
+      </c>
+      <c r="I55" s="1">
+        <f t="shared" si="11"/>
+        <v>3.3611111111110414</v>
+      </c>
       <c r="J55" s="14"/>
       <c r="K55" s="14"/>
       <c r="L55" s="14"/>
       <c r="M55" s="14"/>
-      <c r="N55" s="90" t="s">
-        <v>34</v>
-      </c>
-      <c r="O55" s="90"/>
+      <c r="N55" s="14"/>
+      <c r="O55" s="14"/>
       <c r="P55" s="14"/>
       <c r="Q55" s="14"/>
       <c r="R55" s="14"/>
@@ -2529,33 +2928,27 @@
     </row>
     <row r="56" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B56" s="58"/>
-      <c r="C56" s="73">
-        <v>2</v>
-      </c>
-      <c r="D56" s="73">
-        <v>2</v>
-      </c>
-      <c r="E56" s="73">
-        <v>46</v>
-      </c>
-      <c r="F56" s="9"/>
-      <c r="G56" s="31">
-        <f t="shared" ref="G56:G61" si="4">C56^2</f>
+      <c r="C56" s="85"/>
+      <c r="D56" s="19"/>
+      <c r="E56" s="20"/>
+      <c r="F56" s="10"/>
+      <c r="G56" s="100" t="s">
         <v>4</v>
       </c>
-      <c r="H56" s="36">
-        <f t="shared" ref="H56:H61" si="5">D56*C56</f>
-        <v>4</v>
-      </c>
-      <c r="I56" s="14"/>
+      <c r="H56" s="101">
+        <f>SUM(H48:H55)</f>
+        <v>38.095238095238074</v>
+      </c>
+      <c r="I56" s="101">
+        <f>SUM(I48:I55)</f>
+        <v>247.47619047619031</v>
+      </c>
       <c r="J56" s="14"/>
       <c r="K56" s="14"/>
       <c r="L56" s="14"/>
       <c r="M56" s="14"/>
-      <c r="N56" s="86" t="s">
-        <v>35</v>
-      </c>
-      <c r="O56" s="86"/>
+      <c r="N56" s="14"/>
+      <c r="O56" s="14"/>
       <c r="P56" s="14"/>
       <c r="Q56" s="14"/>
       <c r="R56" s="14"/>
@@ -2565,25 +2958,17 @@
     </row>
     <row r="57" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B57" s="58"/>
-      <c r="C57" s="73">
-        <v>3</v>
-      </c>
-      <c r="D57" s="73">
-        <v>3</v>
-      </c>
-      <c r="E57" s="73">
-        <v>43</v>
-      </c>
-      <c r="F57" s="9"/>
-      <c r="G57" s="31">
-        <f t="shared" si="4"/>
-        <v>9</v>
-      </c>
-      <c r="H57" s="36">
-        <f t="shared" si="5"/>
-        <v>9</v>
-      </c>
-      <c r="I57" s="14"/>
+      <c r="C57" s="85"/>
+      <c r="D57" s="19"/>
+      <c r="E57" s="20"/>
+      <c r="F57" s="10"/>
+      <c r="G57" s="94"/>
+      <c r="H57" s="93" t="s">
+        <v>6</v>
+      </c>
+      <c r="I57" s="93" t="s">
+        <v>7</v>
+      </c>
       <c r="J57" s="14"/>
       <c r="K57" s="14"/>
       <c r="L57" s="14"/>
@@ -2599,35 +2984,27 @@
     </row>
     <row r="58" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B58" s="58"/>
-      <c r="C58" s="73">
-        <v>4</v>
-      </c>
-      <c r="D58" s="73">
-        <v>1</v>
-      </c>
-      <c r="E58" s="73">
-        <v>42</v>
-      </c>
-      <c r="F58" s="9"/>
-      <c r="G58" s="31">
-        <f t="shared" si="4"/>
-        <v>16</v>
+      <c r="C58" s="85"/>
+      <c r="D58" s="19"/>
+      <c r="E58" s="20"/>
+      <c r="F58" s="10"/>
+      <c r="G58" s="31" t="s">
+        <v>5</v>
       </c>
       <c r="H58" s="36">
-        <f t="shared" si="5"/>
-        <v>4</v>
-      </c>
-      <c r="I58" s="14"/>
+        <f>H56/8</f>
+        <v>4.7619047619047592</v>
+      </c>
+      <c r="I58" s="36">
+        <f>I56/8</f>
+        <v>30.934523809523789</v>
+      </c>
       <c r="J58" s="14"/>
       <c r="K58" s="14"/>
       <c r="L58" s="14"/>
-      <c r="M58" s="35" t="s">
-        <v>37</v>
-      </c>
-      <c r="N58" s="86" t="s">
-        <v>36</v>
-      </c>
-      <c r="O58" s="86"/>
+      <c r="M58" s="14"/>
+      <c r="N58" s="14"/>
+      <c r="O58" s="14"/>
       <c r="P58" s="14"/>
       <c r="Q58" s="14"/>
       <c r="R58" s="14"/>
@@ -2637,33 +3014,19 @@
     </row>
     <row r="59" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B59" s="58"/>
-      <c r="C59" s="73">
-        <v>5</v>
-      </c>
-      <c r="D59" s="73">
-        <v>3</v>
-      </c>
-      <c r="E59" s="73">
-        <v>39</v>
-      </c>
-      <c r="F59" s="9"/>
-      <c r="G59" s="31">
-        <f t="shared" si="4"/>
-        <v>25</v>
-      </c>
-      <c r="H59" s="36">
-        <f t="shared" si="5"/>
-        <v>15</v>
-      </c>
-      <c r="I59" s="14"/>
+      <c r="C59" s="86"/>
+      <c r="D59" s="19"/>
+      <c r="E59" s="20"/>
+      <c r="F59" s="10"/>
+      <c r="G59" s="19"/>
+      <c r="H59" s="18"/>
+      <c r="I59" s="18"/>
       <c r="J59" s="14"/>
       <c r="K59" s="14"/>
       <c r="L59" s="14"/>
       <c r="M59" s="14"/>
-      <c r="N59" s="90" t="s">
-        <v>34</v>
-      </c>
-      <c r="O59" s="90"/>
+      <c r="N59" s="14"/>
+      <c r="O59" s="14"/>
       <c r="P59" s="14"/>
       <c r="Q59" s="14"/>
       <c r="R59" s="14"/>
@@ -2673,33 +3036,24 @@
     </row>
     <row r="60" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B60" s="58"/>
-      <c r="C60" s="73">
-        <v>6</v>
-      </c>
-      <c r="D60" s="73">
-        <v>2</v>
-      </c>
-      <c r="E60" s="73">
-        <v>37</v>
-      </c>
-      <c r="F60" s="9"/>
-      <c r="G60" s="31">
-        <f t="shared" si="4"/>
-        <v>36</v>
-      </c>
-      <c r="H60" s="36">
-        <f t="shared" si="5"/>
-        <v>12</v>
-      </c>
-      <c r="I60" s="14"/>
+      <c r="C60" s="86"/>
+      <c r="D60" s="19"/>
+      <c r="E60" s="20"/>
+      <c r="F60" s="10"/>
+      <c r="G60" s="40"/>
+      <c r="H60" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I60" s="8">
+        <f>SQRT(I56/8)</f>
+        <v>5.5618813192591396</v>
+      </c>
       <c r="J60" s="14"/>
       <c r="K60" s="14"/>
       <c r="L60" s="14"/>
       <c r="M60" s="14"/>
-      <c r="N60" s="86" t="s">
-        <v>35</v>
-      </c>
-      <c r="O60" s="86"/>
+      <c r="N60" s="14"/>
+      <c r="O60" s="14"/>
       <c r="P60" s="14"/>
       <c r="Q60" s="14"/>
       <c r="R60" s="14"/>
@@ -2708,74 +3062,43 @@
       <c r="U60" s="14"/>
     </row>
     <row r="61" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B61" s="58"/>
-      <c r="C61" s="74">
-        <v>7</v>
-      </c>
-      <c r="D61" s="74">
-        <v>4</v>
-      </c>
-      <c r="E61" s="74">
-        <v>33</v>
-      </c>
-      <c r="F61" s="9"/>
-      <c r="G61" s="31">
-        <f t="shared" si="4"/>
-        <v>49</v>
-      </c>
-      <c r="H61" s="36">
-        <f t="shared" si="5"/>
-        <v>28</v>
-      </c>
-      <c r="I61" s="35" t="s">
-        <v>40</v>
-      </c>
-      <c r="J61" s="60">
-        <f>((D62*G62)-(C62*H62))/((7*G62)-(C62)^2)</f>
-        <v>1.5714285714285714</v>
-      </c>
-      <c r="K61" s="14"/>
-      <c r="L61" s="14"/>
-      <c r="Q61" s="14"/>
-      <c r="R61" s="14"/>
-      <c r="S61" s="14"/>
-      <c r="T61" s="59"/>
+      <c r="B61" s="103"/>
+      <c r="C61" s="104"/>
+      <c r="D61" s="105"/>
+      <c r="E61" s="106"/>
+      <c r="F61" s="107"/>
+      <c r="G61" s="107"/>
+      <c r="H61" s="108"/>
+      <c r="I61" s="109"/>
+      <c r="J61" s="109"/>
+      <c r="K61" s="109"/>
+      <c r="L61" s="109"/>
+      <c r="M61" s="109"/>
+      <c r="N61" s="109"/>
+      <c r="O61" s="109"/>
+      <c r="P61" s="109"/>
+      <c r="Q61" s="109"/>
+      <c r="R61" s="109"/>
+      <c r="S61" s="109"/>
+      <c r="T61" s="110"/>
       <c r="U61" s="14"/>
     </row>
     <row r="62" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B62" s="61" t="s">
-        <v>39</v>
-      </c>
-      <c r="C62" s="41">
-        <f>SUM(C55:C61)</f>
-        <v>28</v>
-      </c>
-      <c r="D62" s="41">
-        <f t="shared" ref="D62" si="6">SUM(D55:D61)</f>
-        <v>17</v>
-      </c>
-      <c r="E62" s="41"/>
-      <c r="F62" s="9"/>
-      <c r="G62" s="41">
-        <f>SUM(G55:G61)</f>
-        <v>140</v>
-      </c>
-      <c r="H62" s="41">
-        <f>SUM(H55:H61)</f>
-        <v>74</v>
-      </c>
-      <c r="I62" s="35" t="s">
-        <v>37</v>
-      </c>
-      <c r="J62" s="60">
-        <f>((7*H62)-(C62*D62))/((7*G62)-(C62)^2)</f>
-        <v>0.21428571428571427</v>
-      </c>
+      <c r="B62" s="58"/>
+      <c r="C62" s="85"/>
+      <c r="D62" s="19"/>
+      <c r="E62" s="20"/>
+      <c r="F62" s="10"/>
+      <c r="G62" s="10"/>
+      <c r="H62" s="18"/>
+      <c r="I62" s="14"/>
+      <c r="J62" s="14"/>
       <c r="K62" s="14"/>
       <c r="L62" s="14"/>
-      <c r="N62" s="14" t="s">
-        <v>46</v>
-      </c>
+      <c r="M62" s="14"/>
+      <c r="N62" s="14"/>
+      <c r="O62" s="14"/>
+      <c r="P62" s="14"/>
       <c r="Q62" s="14"/>
       <c r="R62" s="14"/>
       <c r="S62" s="14"/>
@@ -2784,46 +3107,52 @@
     </row>
     <row r="63" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B63" s="58"/>
-      <c r="C63" s="18"/>
-      <c r="D63" s="48"/>
-      <c r="E63" s="49"/>
-      <c r="F63" s="9"/>
+      <c r="C63" s="90" t="s">
+        <v>52</v>
+      </c>
+      <c r="D63" s="90"/>
+      <c r="E63" s="90"/>
+      <c r="F63" s="90"/>
+      <c r="G63" s="19"/>
       <c r="H63" s="18"/>
       <c r="I63" s="14"/>
       <c r="J63" s="14"/>
       <c r="K63" s="14"/>
-      <c r="L63" s="14"/>
-      <c r="M63" s="14"/>
-      <c r="N63" t="s">
-        <v>48</v>
-      </c>
+      <c r="L63" s="33"/>
+      <c r="M63" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="N63" s="27"/>
       <c r="O63" s="14"/>
-      <c r="P63" s="14"/>
+      <c r="P63" s="33"/>
       <c r="Q63" s="14"/>
       <c r="R63" s="14"/>
       <c r="S63" s="14"/>
       <c r="T63" s="59"/>
       <c r="U63" s="14"/>
     </row>
-    <row r="64" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:21" ht="18" x14ac:dyDescent="0.35">
       <c r="B64" s="58"/>
-      <c r="C64" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="D64" s="19"/>
-      <c r="E64" s="19"/>
-      <c r="F64" s="9"/>
+      <c r="C64" s="90" t="s">
+        <v>53</v>
+      </c>
+      <c r="D64" s="90"/>
+      <c r="E64" s="90"/>
+      <c r="F64" s="90"/>
+      <c r="G64" s="90"/>
       <c r="H64" s="18"/>
       <c r="I64" s="14"/>
       <c r="J64" s="14"/>
       <c r="K64" s="14"/>
       <c r="L64" s="14"/>
-      <c r="M64" s="14"/>
-      <c r="N64" s="14" t="s">
-        <v>47</v>
+      <c r="M64" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="N64" s="16" t="s">
+        <v>26</v>
       </c>
       <c r="O64" s="14"/>
-      <c r="P64" s="14"/>
+      <c r="P64" s="33"/>
       <c r="Q64" s="14"/>
       <c r="R64" s="14"/>
       <c r="S64" s="14"/>
@@ -2832,145 +3161,82 @@
     </row>
     <row r="65" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B65" s="58"/>
-      <c r="C65" s="72" t="s">
-        <v>31</v>
-      </c>
-      <c r="D65" s="72" t="s">
-        <v>30</v>
-      </c>
-      <c r="E65" s="72" t="s">
+      <c r="C65" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="F65" s="9"/>
-      <c r="G65" s="72" t="s">
-        <v>26</v>
-      </c>
-      <c r="H65" s="72" t="s">
-        <v>30</v>
-      </c>
-      <c r="I65" s="72" t="s">
-        <v>20</v>
-      </c>
+      <c r="D65" s="34"/>
+      <c r="E65" s="34"/>
+      <c r="F65" s="34"/>
+      <c r="G65" s="34"/>
+      <c r="H65" s="18"/>
+      <c r="I65" s="14"/>
       <c r="J65" s="14"/>
       <c r="K65" s="14"/>
       <c r="L65" s="14"/>
       <c r="M65" s="14"/>
-      <c r="N65" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="O65" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="P65" s="32" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q65" s="32" t="s">
-        <v>45</v>
-      </c>
+      <c r="N65" s="14"/>
+      <c r="O65" s="14"/>
+      <c r="P65" s="14"/>
+      <c r="Q65" s="14"/>
       <c r="R65" s="14"/>
-      <c r="S65" s="35" t="s">
-        <v>40</v>
-      </c>
-      <c r="T65" s="83">
-        <f>((O80*P80)-(N80*Q80))/((14*P80)-(N80)^2)</f>
-        <v>1.5714285714285692</v>
-      </c>
+      <c r="S65" s="14"/>
+      <c r="T65" s="59"/>
       <c r="U65" s="14"/>
     </row>
     <row r="66" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B66" s="58"/>
-      <c r="C66" s="75">
-        <v>8</v>
-      </c>
-      <c r="D66" s="75" t="s">
-        <v>22</v>
-      </c>
-      <c r="E66" s="75" t="s">
-        <v>22</v>
-      </c>
+      <c r="C66" s="18"/>
+      <c r="D66" s="48"/>
+      <c r="E66" s="49"/>
       <c r="F66" s="9"/>
-      <c r="G66" s="76">
-        <v>8</v>
-      </c>
-      <c r="H66" s="77">
-        <f t="shared" ref="H66:H72" si="7">$J$61+($J$62*G66)</f>
-        <v>3.2857142857142856</v>
-      </c>
-      <c r="I66" s="77">
-        <f>E61-H66</f>
-        <v>29.714285714285715</v>
-      </c>
+      <c r="H66" s="18"/>
+      <c r="I66" s="14"/>
       <c r="J66" s="14"/>
       <c r="K66" s="14"/>
       <c r="L66" s="14"/>
-      <c r="M66" s="14"/>
-      <c r="N66" s="73">
-        <v>1</v>
-      </c>
-      <c r="O66" s="73">
-        <v>2</v>
-      </c>
-      <c r="P66" s="44">
-        <f>N66^2</f>
-        <v>1</v>
-      </c>
-      <c r="Q66" s="43">
-        <f>N66*O66</f>
-        <v>2</v>
-      </c>
+      <c r="M66" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="N66" s="14"/>
+      <c r="O66" s="14"/>
+      <c r="P66" s="14"/>
+      <c r="Q66" s="14"/>
       <c r="R66" s="14"/>
-      <c r="S66" s="35" t="s">
+      <c r="S66" s="14"/>
+      <c r="T66" s="59"/>
+      <c r="U66" s="14"/>
+    </row>
+    <row r="67" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B67" s="58"/>
+      <c r="C67" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D67" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="E67" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="F67" s="9"/>
+      <c r="G67" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="T66" s="83">
-        <f>((14*Q80)-(N80*O80))/((14*P80)-(N80)^2)</f>
-        <v>0.21428571428571458</v>
-      </c>
-      <c r="U66" s="14"/>
-    </row>
-    <row r="67" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B67" s="58"/>
-      <c r="C67" s="75">
-        <v>9</v>
-      </c>
-      <c r="D67" s="75" t="s">
-        <v>22</v>
-      </c>
-      <c r="E67" s="75" t="s">
-        <v>22</v>
-      </c>
-      <c r="F67" s="42" t="s">
-        <v>41</v>
-      </c>
-      <c r="G67" s="76">
-        <v>9</v>
-      </c>
-      <c r="H67" s="77">
-        <f t="shared" si="7"/>
-        <v>3.5</v>
-      </c>
-      <c r="I67" s="77">
-        <f>I66-H67</f>
-        <v>26.214285714285715</v>
-      </c>
+      <c r="H67" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="I67" s="14"/>
       <c r="J67" s="14"/>
       <c r="K67" s="14"/>
       <c r="L67" s="14"/>
-      <c r="M67" s="14"/>
-      <c r="N67" s="73">
-        <v>2</v>
-      </c>
-      <c r="O67" s="73">
-        <v>2</v>
-      </c>
-      <c r="P67" s="44">
-        <f t="shared" ref="P67:P79" si="8">N67^2</f>
-        <v>4</v>
-      </c>
-      <c r="Q67" s="43">
-        <f t="shared" ref="Q67:Q79" si="9">N67*O67</f>
-        <v>4</v>
-      </c>
+      <c r="M67" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="N67" s="87" t="s">
+        <v>32</v>
+      </c>
+      <c r="O67" s="87"/>
+      <c r="P67" s="14"/>
+      <c r="Q67" s="14"/>
       <c r="R67" s="14"/>
       <c r="S67" s="14"/>
       <c r="T67" s="59"/>
@@ -2978,371 +3244,300 @@
     </row>
     <row r="68" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B68" s="58"/>
-      <c r="C68" s="76">
-        <v>10</v>
-      </c>
-      <c r="D68" s="75" t="s">
-        <v>22</v>
-      </c>
-      <c r="E68" s="75" t="s">
-        <v>22</v>
+      <c r="C68" s="73">
+        <v>1</v>
+      </c>
+      <c r="D68" s="73">
+        <v>2</v>
+      </c>
+      <c r="E68" s="73">
+        <v>48</v>
       </c>
       <c r="F68" s="9"/>
-      <c r="G68" s="76">
-        <v>10</v>
-      </c>
-      <c r="H68" s="77">
-        <f t="shared" si="7"/>
-        <v>3.7142857142857144</v>
-      </c>
-      <c r="I68" s="77">
-        <f t="shared" ref="I68:I72" si="10">I67-H68</f>
-        <v>22.5</v>
-      </c>
+      <c r="G68" s="31">
+        <f>C68^2</f>
+        <v>1</v>
+      </c>
+      <c r="H68" s="36">
+        <f>D68*C68</f>
+        <v>2</v>
+      </c>
+      <c r="I68" s="14"/>
       <c r="J68" s="14"/>
       <c r="K68" s="14"/>
       <c r="L68" s="14"/>
       <c r="M68" s="14"/>
-      <c r="N68" s="73">
-        <v>3</v>
-      </c>
-      <c r="O68" s="73">
-        <v>3</v>
-      </c>
-      <c r="P68" s="44">
-        <f t="shared" si="8"/>
-        <v>9</v>
-      </c>
-      <c r="Q68" s="43">
-        <f t="shared" si="9"/>
-        <v>9</v>
-      </c>
+      <c r="N68" s="91" t="s">
+        <v>33</v>
+      </c>
+      <c r="O68" s="91"/>
+      <c r="P68" s="14"/>
+      <c r="Q68" s="14"/>
       <c r="R68" s="14"/>
-      <c r="S68" s="78">
-        <v>16</v>
-      </c>
-      <c r="T68" s="84">
-        <f>$T$65+($T$66*S68)</f>
-        <v>5.0000000000000027</v>
-      </c>
+      <c r="S68" s="14"/>
+      <c r="T68" s="59"/>
       <c r="U68" s="14"/>
     </row>
     <row r="69" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B69" s="58"/>
-      <c r="C69" s="76">
-        <v>11</v>
-      </c>
-      <c r="D69" s="75" t="s">
-        <v>22</v>
-      </c>
-      <c r="E69" s="75" t="s">
-        <v>22</v>
+      <c r="C69" s="73">
+        <v>2</v>
+      </c>
+      <c r="D69" s="73">
+        <v>2</v>
+      </c>
+      <c r="E69" s="73">
+        <v>46</v>
       </c>
       <c r="F69" s="9"/>
-      <c r="G69" s="76">
-        <v>11</v>
-      </c>
-      <c r="H69" s="77">
-        <f t="shared" si="7"/>
-        <v>3.9285714285714288</v>
-      </c>
-      <c r="I69" s="77">
-        <f t="shared" si="10"/>
-        <v>18.571428571428569</v>
-      </c>
+      <c r="G69" s="31">
+        <f>C69^2</f>
+        <v>4</v>
+      </c>
+      <c r="H69" s="36">
+        <f t="shared" ref="H69:H74" si="12">D69*C69</f>
+        <v>4</v>
+      </c>
+      <c r="I69" s="14"/>
       <c r="J69" s="14"/>
       <c r="K69" s="14"/>
       <c r="L69" s="14"/>
       <c r="M69" s="14"/>
-      <c r="N69" s="73">
-        <v>4</v>
-      </c>
-      <c r="O69" s="73">
-        <v>1</v>
-      </c>
-      <c r="P69" s="44">
-        <f t="shared" si="8"/>
-        <v>16</v>
-      </c>
-      <c r="Q69" s="43">
-        <f t="shared" si="9"/>
-        <v>4</v>
-      </c>
+      <c r="N69" s="87" t="s">
+        <v>34</v>
+      </c>
+      <c r="O69" s="87"/>
+      <c r="P69" s="14"/>
+      <c r="Q69" s="14"/>
       <c r="R69" s="14"/>
-      <c r="S69" s="78">
-        <v>17</v>
-      </c>
-      <c r="T69" s="84">
-        <f t="shared" ref="T69:T74" si="11">$T$65+($T$66*S69)</f>
-        <v>5.2142857142857171</v>
-      </c>
+      <c r="S69" s="14"/>
+      <c r="T69" s="59"/>
       <c r="U69" s="14"/>
     </row>
     <row r="70" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B70" s="58"/>
-      <c r="C70" s="76">
-        <v>12</v>
-      </c>
-      <c r="D70" s="75" t="s">
-        <v>22</v>
-      </c>
-      <c r="E70" s="75" t="s">
-        <v>22</v>
+      <c r="C70" s="73">
+        <v>3</v>
+      </c>
+      <c r="D70" s="73">
+        <v>3</v>
+      </c>
+      <c r="E70" s="73">
+        <v>43</v>
       </c>
       <c r="F70" s="9"/>
-      <c r="G70" s="76">
-        <v>12</v>
-      </c>
-      <c r="H70" s="77">
-        <f t="shared" si="7"/>
-        <v>4.1428571428571423</v>
-      </c>
-      <c r="I70" s="77">
-        <f t="shared" si="10"/>
-        <v>14.428571428571427</v>
-      </c>
+      <c r="G70" s="31">
+        <f>C70^2</f>
+        <v>9</v>
+      </c>
+      <c r="H70" s="36">
+        <f t="shared" si="12"/>
+        <v>9</v>
+      </c>
+      <c r="I70" s="14"/>
       <c r="J70" s="14"/>
       <c r="K70" s="14"/>
       <c r="L70" s="14"/>
       <c r="M70" s="14"/>
-      <c r="N70" s="73">
-        <v>5</v>
-      </c>
-      <c r="O70" s="73">
-        <v>3</v>
-      </c>
-      <c r="P70" s="44">
-        <f t="shared" si="8"/>
-        <v>25</v>
-      </c>
-      <c r="Q70" s="43">
-        <f t="shared" si="9"/>
-        <v>15</v>
-      </c>
+      <c r="N70" s="14"/>
+      <c r="O70" s="14"/>
+      <c r="P70" s="14"/>
+      <c r="Q70" s="14"/>
       <c r="R70" s="14"/>
-      <c r="S70" s="78">
-        <v>18</v>
-      </c>
-      <c r="T70" s="84">
-        <f t="shared" si="11"/>
-        <v>5.4285714285714315</v>
-      </c>
+      <c r="S70" s="14"/>
+      <c r="T70" s="59"/>
       <c r="U70" s="14"/>
     </row>
     <row r="71" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B71" s="58"/>
-      <c r="C71" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="D71" s="75"/>
-      <c r="E71" s="75">
-        <v>5</v>
+      <c r="C71" s="73">
+        <v>4</v>
+      </c>
+      <c r="D71" s="73">
+        <v>1</v>
+      </c>
+      <c r="E71" s="73">
+        <v>42</v>
       </c>
       <c r="F71" s="9"/>
-      <c r="G71" s="76">
-        <v>13</v>
-      </c>
-      <c r="H71" s="77">
-        <f t="shared" si="7"/>
-        <v>4.3571428571428568</v>
-      </c>
-      <c r="I71" s="77">
-        <f t="shared" si="10"/>
-        <v>10.071428571428569</v>
-      </c>
+      <c r="G71" s="31">
+        <f>C71^2</f>
+        <v>16</v>
+      </c>
+      <c r="H71" s="36">
+        <f t="shared" si="12"/>
+        <v>4</v>
+      </c>
+      <c r="I71" s="14"/>
       <c r="J71" s="14"/>
       <c r="K71" s="14"/>
       <c r="L71" s="14"/>
-      <c r="M71" s="14"/>
-      <c r="N71" s="73">
-        <v>6</v>
-      </c>
-      <c r="O71" s="73">
-        <v>2</v>
-      </c>
-      <c r="P71" s="44">
-        <f t="shared" si="8"/>
+      <c r="M71" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="Q71" s="43">
-        <f t="shared" si="9"/>
-        <v>12</v>
-      </c>
+      <c r="N71" s="87" t="s">
+        <v>35</v>
+      </c>
+      <c r="O71" s="87"/>
+      <c r="P71" s="14"/>
+      <c r="Q71" s="14"/>
       <c r="R71" s="14"/>
-      <c r="S71" s="78">
-        <v>19</v>
-      </c>
-      <c r="T71" s="84">
-        <f t="shared" si="11"/>
-        <v>5.6428571428571468</v>
-      </c>
+      <c r="S71" s="14"/>
+      <c r="T71" s="59"/>
       <c r="U71" s="14"/>
     </row>
     <row r="72" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B72" s="58"/>
-      <c r="C72" s="18"/>
-      <c r="D72" s="19"/>
-      <c r="E72" s="20"/>
+      <c r="C72" s="73">
+        <v>5</v>
+      </c>
+      <c r="D72" s="73">
+        <v>3</v>
+      </c>
+      <c r="E72" s="73">
+        <v>39</v>
+      </c>
       <c r="F72" s="9"/>
-      <c r="G72" s="76">
-        <v>14</v>
-      </c>
-      <c r="H72" s="77">
-        <f t="shared" si="7"/>
-        <v>4.5714285714285712</v>
-      </c>
-      <c r="I72" s="77">
-        <f t="shared" si="10"/>
-        <v>5.4999999999999982</v>
-      </c>
+      <c r="G72" s="31">
+        <f>C72^2</f>
+        <v>25</v>
+      </c>
+      <c r="H72" s="36">
+        <f t="shared" si="12"/>
+        <v>15</v>
+      </c>
+      <c r="I72" s="14"/>
       <c r="J72" s="14"/>
       <c r="K72" s="14"/>
       <c r="L72" s="14"/>
       <c r="M72" s="14"/>
-      <c r="N72" s="74">
-        <v>7</v>
-      </c>
-      <c r="O72" s="74">
-        <v>4</v>
-      </c>
-      <c r="P72" s="44">
-        <f t="shared" si="8"/>
-        <v>49</v>
-      </c>
-      <c r="Q72" s="43">
-        <f t="shared" si="9"/>
-        <v>28</v>
-      </c>
+      <c r="N72" s="91" t="s">
+        <v>33</v>
+      </c>
+      <c r="O72" s="91"/>
+      <c r="P72" s="14"/>
+      <c r="Q72" s="14"/>
       <c r="R72" s="14"/>
-      <c r="S72" s="78">
-        <v>20</v>
-      </c>
-      <c r="T72" s="84">
-        <f t="shared" si="11"/>
-        <v>5.8571428571428612</v>
-      </c>
+      <c r="S72" s="14"/>
+      <c r="T72" s="59"/>
       <c r="U72" s="14"/>
     </row>
     <row r="73" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B73" s="58"/>
-      <c r="C73" s="18"/>
-      <c r="D73" s="19"/>
-      <c r="E73" s="20"/>
+      <c r="C73" s="73">
+        <v>6</v>
+      </c>
+      <c r="D73" s="73">
+        <v>2</v>
+      </c>
+      <c r="E73" s="73">
+        <v>37</v>
+      </c>
       <c r="F73" s="9"/>
-      <c r="H73" s="45"/>
-      <c r="I73" s="46"/>
+      <c r="G73" s="31">
+        <f>C73^2</f>
+        <v>36</v>
+      </c>
+      <c r="H73" s="36">
+        <f t="shared" si="12"/>
+        <v>12</v>
+      </c>
+      <c r="I73" s="14"/>
       <c r="J73" s="14"/>
       <c r="K73" s="14"/>
       <c r="L73" s="14"/>
       <c r="M73" s="14"/>
-      <c r="N73" s="76">
-        <v>8</v>
-      </c>
-      <c r="O73" s="77">
-        <f t="shared" ref="O73:O79" si="12">$J$61+($J$62*N73)</f>
-        <v>3.2857142857142856</v>
-      </c>
-      <c r="P73" s="44">
-        <f t="shared" si="8"/>
-        <v>64</v>
-      </c>
-      <c r="Q73" s="43">
-        <f t="shared" si="9"/>
-        <v>26.285714285714285</v>
-      </c>
+      <c r="N73" s="87" t="s">
+        <v>34</v>
+      </c>
+      <c r="O73" s="87"/>
+      <c r="P73" s="14"/>
+      <c r="Q73" s="14"/>
       <c r="R73" s="14"/>
-      <c r="S73" s="78">
-        <v>21</v>
-      </c>
-      <c r="T73" s="84">
-        <f t="shared" si="11"/>
-        <v>6.0714285714285756</v>
-      </c>
+      <c r="S73" s="14"/>
+      <c r="T73" s="59"/>
       <c r="U73" s="14"/>
     </row>
     <row r="74" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B74" s="58"/>
-      <c r="C74" s="18"/>
-      <c r="D74" s="19"/>
-      <c r="E74" s="20"/>
+      <c r="C74" s="74">
+        <v>7</v>
+      </c>
+      <c r="D74" s="74">
+        <v>4</v>
+      </c>
+      <c r="E74" s="74">
+        <v>33</v>
+      </c>
       <c r="F74" s="9"/>
-      <c r="G74" s="47" t="s">
-        <v>42</v>
-      </c>
-      <c r="H74" s="48"/>
-      <c r="I74" s="49"/>
-      <c r="J74" s="49"/>
-      <c r="K74" s="49"/>
-      <c r="L74" s="49"/>
-      <c r="M74" s="49"/>
-      <c r="N74" s="76">
-        <v>9</v>
-      </c>
-      <c r="O74" s="77">
+      <c r="G74" s="31">
+        <f>C74^2</f>
+        <v>49</v>
+      </c>
+      <c r="H74" s="36">
         <f t="shared" si="12"/>
-        <v>3.5</v>
-      </c>
-      <c r="P74" s="44">
-        <f t="shared" si="8"/>
-        <v>81</v>
-      </c>
-      <c r="Q74" s="43">
-        <f t="shared" si="9"/>
-        <v>31.5</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="I74" s="35" t="s">
+        <v>39</v>
+      </c>
+      <c r="J74" s="60">
+        <f>((D75*G75)-(C75*H75))/((7*G75)-(C75)^2)</f>
+        <v>1.5714285714285714</v>
+      </c>
+      <c r="K74" s="14"/>
+      <c r="L74" s="14"/>
+      <c r="Q74" s="14"/>
       <c r="R74" s="14"/>
-      <c r="S74" s="78">
-        <v>22</v>
-      </c>
-      <c r="T74" s="84">
-        <f t="shared" si="11"/>
-        <v>6.28571428571429</v>
-      </c>
+      <c r="S74" s="14"/>
+      <c r="T74" s="59"/>
       <c r="U74" s="14"/>
     </row>
     <row r="75" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B75" s="58"/>
-      <c r="C75" s="18"/>
-      <c r="D75" s="19"/>
-      <c r="E75" s="20"/>
+      <c r="B75" s="61" t="s">
+        <v>38</v>
+      </c>
+      <c r="C75" s="41">
+        <f>SUM(C68:C74)</f>
+        <v>28</v>
+      </c>
+      <c r="D75" s="41">
+        <f t="shared" ref="D75" si="13">SUM(D68:D74)</f>
+        <v>17</v>
+      </c>
+      <c r="E75" s="41"/>
       <c r="F75" s="9"/>
-      <c r="G75" s="47" t="s">
-        <v>43</v>
-      </c>
-      <c r="H75" s="48"/>
-      <c r="I75" s="49"/>
-      <c r="J75" s="49"/>
-      <c r="K75" s="49"/>
-      <c r="L75" s="49"/>
-      <c r="M75" s="49"/>
-      <c r="N75" s="76">
-        <v>10</v>
-      </c>
-      <c r="O75" s="77">
-        <f t="shared" si="12"/>
-        <v>3.7142857142857144</v>
-      </c>
-      <c r="P75" s="44">
-        <f t="shared" si="8"/>
-        <v>100</v>
-      </c>
-      <c r="Q75" s="43">
-        <f t="shared" si="9"/>
-        <v>37.142857142857146</v>
-      </c>
+      <c r="G75" s="41">
+        <f>SUM(G68:G74)</f>
+        <v>140</v>
+      </c>
+      <c r="H75" s="41">
+        <f>SUM(H68:H74)</f>
+        <v>74</v>
+      </c>
+      <c r="I75" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="J75" s="60">
+        <f>((7*H75)-(C75*D75))/((7*G75)-(C75)^2)</f>
+        <v>0.21428571428571427</v>
+      </c>
+      <c r="K75" s="14"/>
+      <c r="L75" s="14"/>
+      <c r="N75" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q75" s="14"/>
       <c r="R75" s="14"/>
       <c r="S75" s="14"/>
-      <c r="T75" s="82">
-        <f>SUM(T68:T74)</f>
-        <v>39.500000000000021</v>
-      </c>
+      <c r="T75" s="59"/>
       <c r="U75" s="14"/>
     </row>
     <row r="76" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B76" s="58"/>
       <c r="C76" s="18"/>
-      <c r="D76" s="19"/>
-      <c r="E76" s="20"/>
+      <c r="D76" s="48"/>
+      <c r="E76" s="49"/>
       <c r="F76" s="9"/>
       <c r="H76" s="18"/>
       <c r="I76" s="14"/>
@@ -3350,21 +3545,12 @@
       <c r="K76" s="14"/>
       <c r="L76" s="14"/>
       <c r="M76" s="14"/>
-      <c r="N76" s="76">
-        <v>11</v>
-      </c>
-      <c r="O76" s="77">
-        <f t="shared" si="12"/>
-        <v>3.9285714285714288</v>
-      </c>
-      <c r="P76" s="44">
-        <f t="shared" si="8"/>
-        <v>121</v>
-      </c>
-      <c r="Q76" s="43">
-        <f t="shared" si="9"/>
-        <v>43.214285714285715</v>
-      </c>
+      <c r="N76" t="s">
+        <v>46</v>
+      </c>
+      <c r="O76" s="14"/>
+      <c r="P76" s="14"/>
+      <c r="Q76" s="14"/>
       <c r="R76" s="14"/>
       <c r="S76" s="14"/>
       <c r="T76" s="59"/>
@@ -3372,9 +3558,11 @@
     </row>
     <row r="77" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B77" s="58"/>
-      <c r="C77" s="18"/>
+      <c r="C77" s="19" t="s">
+        <v>28</v>
+      </c>
       <c r="D77" s="19"/>
-      <c r="E77" s="20"/>
+      <c r="E77" s="19"/>
       <c r="F77" s="9"/>
       <c r="H77" s="18"/>
       <c r="I77" s="14"/>
@@ -3382,21 +3570,12 @@
       <c r="K77" s="14"/>
       <c r="L77" s="14"/>
       <c r="M77" s="14"/>
-      <c r="N77" s="76">
-        <v>12</v>
-      </c>
-      <c r="O77" s="77">
-        <f t="shared" si="12"/>
-        <v>4.1428571428571423</v>
-      </c>
-      <c r="P77" s="44">
-        <f t="shared" si="8"/>
-        <v>144</v>
-      </c>
-      <c r="Q77" s="43">
-        <f t="shared" si="9"/>
-        <v>49.714285714285708</v>
-      </c>
+      <c r="N77" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="O77" s="14"/>
+      <c r="P77" s="14"/>
+      <c r="Q77" s="14"/>
       <c r="R77" s="14"/>
       <c r="S77" s="14"/>
       <c r="T77" s="59"/>
@@ -3404,97 +3583,144 @@
     </row>
     <row r="78" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B78" s="58"/>
-      <c r="C78" s="18"/>
-      <c r="D78" s="19"/>
-      <c r="E78" s="20"/>
+      <c r="C78" s="72" t="s">
+        <v>30</v>
+      </c>
+      <c r="D78" s="72" t="s">
+        <v>29</v>
+      </c>
+      <c r="E78" s="72" t="s">
+        <v>19</v>
+      </c>
       <c r="F78" s="9"/>
-      <c r="H78" s="18"/>
-      <c r="I78" s="14"/>
+      <c r="G78" s="72" t="s">
+        <v>25</v>
+      </c>
+      <c r="H78" s="72" t="s">
+        <v>29</v>
+      </c>
+      <c r="I78" s="72" t="s">
+        <v>19</v>
+      </c>
       <c r="J78" s="14"/>
       <c r="K78" s="14"/>
       <c r="L78" s="14"/>
       <c r="M78" s="14"/>
-      <c r="N78" s="76">
-        <v>13</v>
-      </c>
-      <c r="O78" s="77">
-        <f t="shared" si="12"/>
-        <v>4.3571428571428568</v>
-      </c>
-      <c r="P78" s="44">
-        <f t="shared" si="8"/>
-        <v>169</v>
-      </c>
-      <c r="Q78" s="43">
-        <f t="shared" si="9"/>
-        <v>56.642857142857139</v>
+      <c r="N78" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="O78" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="P78" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q78" s="32" t="s">
+        <v>43</v>
       </c>
       <c r="R78" s="14"/>
-      <c r="S78" s="14"/>
-      <c r="T78" s="59"/>
+      <c r="S78" s="35" t="s">
+        <v>39</v>
+      </c>
+      <c r="T78" s="83">
+        <f>((O93*P93)-(N93*Q93))/((14*P93)-(N93)^2)</f>
+        <v>1.5714285714285692</v>
+      </c>
       <c r="U78" s="14"/>
     </row>
     <row r="79" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B79" s="58"/>
-      <c r="C79" s="18"/>
-      <c r="D79" s="19"/>
-      <c r="E79" s="20"/>
+      <c r="C79" s="75">
+        <v>8</v>
+      </c>
+      <c r="D79" s="75" t="s">
+        <v>21</v>
+      </c>
+      <c r="E79" s="75" t="s">
+        <v>21</v>
+      </c>
       <c r="F79" s="9"/>
-      <c r="H79" s="18"/>
-      <c r="I79" s="14"/>
+      <c r="G79" s="76">
+        <v>8</v>
+      </c>
+      <c r="H79" s="77">
+        <f>$J$74+($J$75*G79)</f>
+        <v>3.2857142857142856</v>
+      </c>
+      <c r="I79" s="77">
+        <f>E74-H79</f>
+        <v>29.714285714285715</v>
+      </c>
       <c r="J79" s="14"/>
       <c r="K79" s="14"/>
       <c r="L79" s="14"/>
       <c r="M79" s="14"/>
-      <c r="N79" s="79">
-        <v>14</v>
-      </c>
-      <c r="O79" s="80">
-        <f t="shared" si="12"/>
-        <v>4.5714285714285712</v>
+      <c r="N79" s="73">
+        <v>1</v>
+      </c>
+      <c r="O79" s="73">
+        <v>2</v>
       </c>
       <c r="P79" s="44">
-        <f t="shared" si="8"/>
-        <v>196</v>
+        <f>N79^2</f>
+        <v>1</v>
       </c>
       <c r="Q79" s="43">
-        <f t="shared" si="9"/>
-        <v>64</v>
+        <f>N79*O79</f>
+        <v>2</v>
       </c>
       <c r="R79" s="14"/>
-      <c r="S79" s="14"/>
-      <c r="T79" s="59"/>
+      <c r="S79" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="T79" s="83">
+        <f>((14*Q93)-(N93*O93))/((14*P93)-(N93)^2)</f>
+        <v>0.21428571428571458</v>
+      </c>
       <c r="U79" s="14"/>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B80" s="58"/>
-      <c r="C80" s="18"/>
-      <c r="D80" s="19"/>
-      <c r="E80" s="20"/>
-      <c r="F80" s="9"/>
-      <c r="H80" s="18"/>
-      <c r="I80" s="14"/>
+      <c r="C80" s="75">
+        <v>9</v>
+      </c>
+      <c r="D80" s="75" t="s">
+        <v>21</v>
+      </c>
+      <c r="E80" s="75" t="s">
+        <v>21</v>
+      </c>
+      <c r="F80" s="42" t="s">
+        <v>40</v>
+      </c>
+      <c r="G80" s="76">
+        <v>9</v>
+      </c>
+      <c r="H80" s="77">
+        <f>$J$74+($J$75*G80)</f>
+        <v>3.5</v>
+      </c>
+      <c r="I80" s="77">
+        <f>I79-H80</f>
+        <v>26.214285714285715</v>
+      </c>
       <c r="J80" s="14"/>
       <c r="K80" s="14"/>
       <c r="L80" s="14"/>
-      <c r="M80" s="81" t="s">
-        <v>39</v>
-      </c>
-      <c r="N80" s="81">
-        <f>SUM(N66:N79)</f>
-        <v>105</v>
-      </c>
-      <c r="O80" s="81">
-        <f>SUM(O66:O79)</f>
-        <v>44.499999999999993</v>
-      </c>
-      <c r="P80" s="81">
-        <f>SUM(P66:P79)</f>
-        <v>1015</v>
-      </c>
-      <c r="Q80" s="81">
-        <f>SUM(Q66:Q79)</f>
-        <v>382.5</v>
+      <c r="M80" s="14"/>
+      <c r="N80" s="73">
+        <v>2</v>
+      </c>
+      <c r="O80" s="73">
+        <v>2</v>
+      </c>
+      <c r="P80" s="44">
+        <f t="shared" ref="P80:P92" si="14">N80^2</f>
+        <v>4</v>
+      </c>
+      <c r="Q80" s="43">
+        <f t="shared" ref="Q80:Q92" si="15">N80*O80</f>
+        <v>4</v>
       </c>
       <c r="R80" s="14"/>
       <c r="S80" s="14"/>
@@ -3503,86 +3729,204 @@
     </row>
     <row r="81" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B81" s="58"/>
-      <c r="C81" s="18"/>
-      <c r="D81" s="19"/>
-      <c r="E81" s="20"/>
+      <c r="C81" s="76">
+        <v>10</v>
+      </c>
+      <c r="D81" s="75" t="s">
+        <v>21</v>
+      </c>
+      <c r="E81" s="75" t="s">
+        <v>21</v>
+      </c>
       <c r="F81" s="9"/>
-      <c r="H81" s="18"/>
-      <c r="I81" s="14"/>
+      <c r="G81" s="76">
+        <v>10</v>
+      </c>
+      <c r="H81" s="77">
+        <f>$J$74+($J$75*G81)</f>
+        <v>3.7142857142857144</v>
+      </c>
+      <c r="I81" s="77">
+        <f t="shared" ref="I81:I85" si="16">I80-H81</f>
+        <v>22.5</v>
+      </c>
       <c r="J81" s="14"/>
       <c r="K81" s="14"/>
       <c r="L81" s="14"/>
       <c r="M81" s="14"/>
-      <c r="N81" s="14"/>
-      <c r="O81" s="14"/>
-      <c r="P81" s="14"/>
-      <c r="Q81" s="14"/>
+      <c r="N81" s="73">
+        <v>3</v>
+      </c>
+      <c r="O81" s="73">
+        <v>3</v>
+      </c>
+      <c r="P81" s="44">
+        <f t="shared" si="14"/>
+        <v>9</v>
+      </c>
+      <c r="Q81" s="43">
+        <f t="shared" si="15"/>
+        <v>9</v>
+      </c>
       <c r="R81" s="14"/>
-      <c r="S81" s="14"/>
-      <c r="T81" s="59"/>
+      <c r="S81" s="78">
+        <v>16</v>
+      </c>
+      <c r="T81" s="84">
+        <f>$T$78+($T$79*S81)</f>
+        <v>5.0000000000000027</v>
+      </c>
       <c r="U81" s="14"/>
     </row>
     <row r="82" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B82" s="58"/>
-      <c r="C82" s="18"/>
-      <c r="D82" s="19"/>
-      <c r="E82" s="20"/>
+      <c r="C82" s="76">
+        <v>11</v>
+      </c>
+      <c r="D82" s="75" t="s">
+        <v>21</v>
+      </c>
+      <c r="E82" s="75" t="s">
+        <v>21</v>
+      </c>
       <c r="F82" s="9"/>
-      <c r="H82" s="18"/>
-      <c r="I82" s="14"/>
+      <c r="G82" s="76">
+        <v>11</v>
+      </c>
+      <c r="H82" s="77">
+        <f>$J$74+($J$75*G82)</f>
+        <v>3.9285714285714288</v>
+      </c>
+      <c r="I82" s="77">
+        <f t="shared" si="16"/>
+        <v>18.571428571428569</v>
+      </c>
       <c r="J82" s="14"/>
       <c r="K82" s="14"/>
       <c r="L82" s="14"/>
       <c r="M82" s="14"/>
-      <c r="N82" s="14"/>
-      <c r="O82" s="14"/>
-      <c r="P82" s="14"/>
-      <c r="Q82" s="14"/>
+      <c r="N82" s="73">
+        <v>4</v>
+      </c>
+      <c r="O82" s="73">
+        <v>1</v>
+      </c>
+      <c r="P82" s="44">
+        <f t="shared" si="14"/>
+        <v>16</v>
+      </c>
+      <c r="Q82" s="43">
+        <f t="shared" si="15"/>
+        <v>4</v>
+      </c>
       <c r="R82" s="14"/>
-      <c r="S82" s="14"/>
-      <c r="T82" s="59"/>
+      <c r="S82" s="78">
+        <v>17</v>
+      </c>
+      <c r="T82" s="84">
+        <f t="shared" ref="T82:T87" si="17">$T$78+($T$79*S82)</f>
+        <v>5.2142857142857171</v>
+      </c>
       <c r="U82" s="14"/>
     </row>
     <row r="83" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B83" s="58"/>
-      <c r="C83" s="18"/>
-      <c r="D83" s="19"/>
-      <c r="E83" s="20"/>
+      <c r="C83" s="76">
+        <v>12</v>
+      </c>
+      <c r="D83" s="75" t="s">
+        <v>21</v>
+      </c>
+      <c r="E83" s="75" t="s">
+        <v>21</v>
+      </c>
       <c r="F83" s="9"/>
-      <c r="H83" s="18"/>
-      <c r="I83" s="14"/>
+      <c r="G83" s="76">
+        <v>12</v>
+      </c>
+      <c r="H83" s="77">
+        <f>$J$74+($J$75*G83)</f>
+        <v>4.1428571428571423</v>
+      </c>
+      <c r="I83" s="77">
+        <f t="shared" si="16"/>
+        <v>14.428571428571427</v>
+      </c>
       <c r="J83" s="14"/>
       <c r="K83" s="14"/>
       <c r="L83" s="14"/>
       <c r="M83" s="14"/>
-      <c r="N83" s="14"/>
-      <c r="O83" s="14"/>
-      <c r="P83" s="14"/>
-      <c r="Q83" s="14"/>
+      <c r="N83" s="73">
+        <v>5</v>
+      </c>
+      <c r="O83" s="73">
+        <v>3</v>
+      </c>
+      <c r="P83" s="44">
+        <f t="shared" si="14"/>
+        <v>25</v>
+      </c>
+      <c r="Q83" s="43">
+        <f t="shared" si="15"/>
+        <v>15</v>
+      </c>
       <c r="R83" s="14"/>
-      <c r="S83" s="14"/>
-      <c r="T83" s="59"/>
+      <c r="S83" s="78">
+        <v>18</v>
+      </c>
+      <c r="T83" s="84">
+        <f t="shared" si="17"/>
+        <v>5.4285714285714315</v>
+      </c>
       <c r="U83" s="14"/>
     </row>
     <row r="84" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B84" s="58"/>
-      <c r="C84" s="18"/>
-      <c r="D84" s="19"/>
-      <c r="E84" s="20"/>
+      <c r="C84" s="76" t="s">
+        <v>21</v>
+      </c>
+      <c r="D84" s="75"/>
+      <c r="E84" s="75">
+        <v>5</v>
+      </c>
       <c r="F84" s="9"/>
-      <c r="H84" s="18"/>
-      <c r="I84" s="14"/>
+      <c r="G84" s="76">
+        <v>13</v>
+      </c>
+      <c r="H84" s="77">
+        <f>$J$74+($J$75*G84)</f>
+        <v>4.3571428571428568</v>
+      </c>
+      <c r="I84" s="77">
+        <f t="shared" si="16"/>
+        <v>10.071428571428569</v>
+      </c>
       <c r="J84" s="14"/>
       <c r="K84" s="14"/>
       <c r="L84" s="14"/>
       <c r="M84" s="14"/>
-      <c r="N84" s="14"/>
-      <c r="O84" s="14"/>
-      <c r="P84" s="14"/>
-      <c r="Q84" s="14"/>
+      <c r="N84" s="73">
+        <v>6</v>
+      </c>
+      <c r="O84" s="73">
+        <v>2</v>
+      </c>
+      <c r="P84" s="44">
+        <f t="shared" si="14"/>
+        <v>36</v>
+      </c>
+      <c r="Q84" s="43">
+        <f t="shared" si="15"/>
+        <v>12</v>
+      </c>
       <c r="R84" s="14"/>
-      <c r="S84" s="14"/>
-      <c r="T84" s="59"/>
+      <c r="S84" s="78">
+        <v>19</v>
+      </c>
+      <c r="T84" s="84">
+        <f t="shared" si="17"/>
+        <v>5.6428571428571468</v>
+      </c>
       <c r="U84" s="14"/>
     </row>
     <row r="85" spans="2:21" x14ac:dyDescent="0.3">
@@ -3591,19 +3935,43 @@
       <c r="D85" s="19"/>
       <c r="E85" s="20"/>
       <c r="F85" s="9"/>
-      <c r="H85" s="18"/>
-      <c r="I85" s="14"/>
+      <c r="G85" s="76">
+        <v>14</v>
+      </c>
+      <c r="H85" s="77">
+        <f>$J$74+($J$75*G85)</f>
+        <v>4.5714285714285712</v>
+      </c>
+      <c r="I85" s="77">
+        <f t="shared" si="16"/>
+        <v>5.4999999999999982</v>
+      </c>
       <c r="J85" s="14"/>
       <c r="K85" s="14"/>
       <c r="L85" s="14"/>
       <c r="M85" s="14"/>
-      <c r="N85" s="14"/>
-      <c r="O85" s="14"/>
-      <c r="P85" s="14"/>
-      <c r="Q85" s="14"/>
+      <c r="N85" s="74">
+        <v>7</v>
+      </c>
+      <c r="O85" s="74">
+        <v>4</v>
+      </c>
+      <c r="P85" s="44">
+        <f t="shared" si="14"/>
+        <v>49</v>
+      </c>
+      <c r="Q85" s="43">
+        <f t="shared" si="15"/>
+        <v>28</v>
+      </c>
       <c r="R85" s="14"/>
-      <c r="S85" s="14"/>
-      <c r="T85" s="59"/>
+      <c r="S85" s="78">
+        <v>20</v>
+      </c>
+      <c r="T85" s="84">
+        <f t="shared" si="17"/>
+        <v>5.8571428571428612</v>
+      </c>
       <c r="U85" s="14"/>
     </row>
     <row r="86" spans="2:21" x14ac:dyDescent="0.3">
@@ -3612,19 +3980,35 @@
       <c r="D86" s="19"/>
       <c r="E86" s="20"/>
       <c r="F86" s="9"/>
-      <c r="H86" s="18"/>
-      <c r="I86" s="14"/>
+      <c r="H86" s="45"/>
+      <c r="I86" s="46"/>
       <c r="J86" s="14"/>
       <c r="K86" s="14"/>
       <c r="L86" s="14"/>
       <c r="M86" s="14"/>
-      <c r="N86" s="14"/>
-      <c r="O86" s="14"/>
-      <c r="P86" s="14"/>
-      <c r="Q86" s="14"/>
+      <c r="N86" s="76">
+        <v>8</v>
+      </c>
+      <c r="O86" s="77">
+        <f t="shared" ref="O86:O92" si="18">$J$74+($J$75*N86)</f>
+        <v>3.2857142857142856</v>
+      </c>
+      <c r="P86" s="44">
+        <f t="shared" si="14"/>
+        <v>64</v>
+      </c>
+      <c r="Q86" s="43">
+        <f t="shared" si="15"/>
+        <v>26.285714285714285</v>
+      </c>
       <c r="R86" s="14"/>
-      <c r="S86" s="14"/>
-      <c r="T86" s="59"/>
+      <c r="S86" s="78">
+        <v>21</v>
+      </c>
+      <c r="T86" s="84">
+        <f t="shared" si="17"/>
+        <v>6.0714285714285756</v>
+      </c>
       <c r="U86" s="14"/>
     </row>
     <row r="87" spans="2:21" x14ac:dyDescent="0.3">
@@ -3633,87 +4017,334 @@
       <c r="D87" s="19"/>
       <c r="E87" s="20"/>
       <c r="F87" s="9"/>
-      <c r="H87" s="18"/>
-      <c r="I87" s="14"/>
-      <c r="J87" s="14"/>
-      <c r="K87" s="14"/>
-      <c r="L87" s="14"/>
-      <c r="M87" s="14"/>
-      <c r="N87" s="14"/>
-      <c r="O87" s="14"/>
-      <c r="P87" s="14"/>
-      <c r="Q87" s="14"/>
+      <c r="G87" s="47" t="s">
+        <v>41</v>
+      </c>
+      <c r="H87" s="48"/>
+      <c r="I87" s="49"/>
+      <c r="J87" s="49"/>
+      <c r="K87" s="49"/>
+      <c r="L87" s="49"/>
+      <c r="M87" s="49"/>
+      <c r="N87" s="76">
+        <v>9</v>
+      </c>
+      <c r="O87" s="77">
+        <f t="shared" si="18"/>
+        <v>3.5</v>
+      </c>
+      <c r="P87" s="44">
+        <f t="shared" si="14"/>
+        <v>81</v>
+      </c>
+      <c r="Q87" s="43">
+        <f t="shared" si="15"/>
+        <v>31.5</v>
+      </c>
       <c r="R87" s="14"/>
-      <c r="S87" s="14"/>
-      <c r="T87" s="59"/>
+      <c r="S87" s="78">
+        <v>22</v>
+      </c>
+      <c r="T87" s="84">
+        <f t="shared" si="17"/>
+        <v>6.28571428571429</v>
+      </c>
       <c r="U87" s="14"/>
     </row>
-    <row r="88" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B88" s="62"/>
-      <c r="C88" s="63"/>
-      <c r="D88" s="64"/>
-      <c r="E88" s="65"/>
-      <c r="F88" s="66"/>
-      <c r="G88" s="66"/>
-      <c r="H88" s="63"/>
-      <c r="I88" s="67"/>
-      <c r="J88" s="67"/>
-      <c r="K88" s="67"/>
-      <c r="L88" s="67"/>
-      <c r="M88" s="67"/>
-      <c r="N88" s="67"/>
-      <c r="O88" s="67"/>
-      <c r="P88" s="67"/>
-      <c r="Q88" s="67"/>
-      <c r="R88" s="67"/>
-      <c r="S88" s="67"/>
-      <c r="T88" s="68"/>
+    <row r="88" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B88" s="58"/>
+      <c r="C88" s="18"/>
+      <c r="D88" s="19"/>
+      <c r="E88" s="20"/>
+      <c r="F88" s="9"/>
+      <c r="G88" s="47" t="s">
+        <v>42</v>
+      </c>
+      <c r="H88" s="48"/>
+      <c r="I88" s="49"/>
+      <c r="J88" s="49"/>
+      <c r="K88" s="49"/>
+      <c r="L88" s="49"/>
+      <c r="M88" s="49"/>
+      <c r="N88" s="76">
+        <v>10</v>
+      </c>
+      <c r="O88" s="77">
+        <f t="shared" si="18"/>
+        <v>3.7142857142857144</v>
+      </c>
+      <c r="P88" s="44">
+        <f t="shared" si="14"/>
+        <v>100</v>
+      </c>
+      <c r="Q88" s="43">
+        <f t="shared" si="15"/>
+        <v>37.142857142857146</v>
+      </c>
+      <c r="R88" s="14"/>
+      <c r="S88" s="14"/>
+      <c r="T88" s="82">
+        <f>SUM(T81:T87)</f>
+        <v>39.500000000000021</v>
+      </c>
       <c r="U88" s="14"/>
     </row>
     <row r="89" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B89" s="58"/>
+      <c r="C89" s="18"/>
       <c r="D89" s="19"/>
       <c r="E89" s="20"/>
+      <c r="F89" s="9"/>
+      <c r="H89" s="18"/>
+      <c r="I89" s="14"/>
+      <c r="J89" s="14"/>
+      <c r="K89" s="14"/>
+      <c r="L89" s="14"/>
+      <c r="M89" s="14"/>
+      <c r="N89" s="76">
+        <v>11</v>
+      </c>
+      <c r="O89" s="77">
+        <f t="shared" si="18"/>
+        <v>3.9285714285714288</v>
+      </c>
+      <c r="P89" s="44">
+        <f t="shared" si="14"/>
+        <v>121</v>
+      </c>
+      <c r="Q89" s="43">
+        <f t="shared" si="15"/>
+        <v>43.214285714285715</v>
+      </c>
+      <c r="R89" s="14"/>
+      <c r="S89" s="14"/>
+      <c r="T89" s="59"/>
+      <c r="U89" s="14"/>
     </row>
     <row r="90" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B90" s="58"/>
+      <c r="C90" s="18"/>
       <c r="D90" s="19"/>
       <c r="E90" s="20"/>
+      <c r="F90" s="9"/>
+      <c r="H90" s="18"/>
+      <c r="I90" s="14"/>
+      <c r="J90" s="14"/>
+      <c r="K90" s="14"/>
+      <c r="L90" s="14"/>
+      <c r="M90" s="14"/>
+      <c r="N90" s="76">
+        <v>12</v>
+      </c>
+      <c r="O90" s="77">
+        <f t="shared" si="18"/>
+        <v>4.1428571428571423</v>
+      </c>
+      <c r="P90" s="44">
+        <f t="shared" si="14"/>
+        <v>144</v>
+      </c>
+      <c r="Q90" s="43">
+        <f t="shared" si="15"/>
+        <v>49.714285714285708</v>
+      </c>
+      <c r="R90" s="14"/>
+      <c r="S90" s="14"/>
+      <c r="T90" s="59"/>
+      <c r="U90" s="14"/>
     </row>
     <row r="91" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B91" s="58"/>
+      <c r="C91" s="18"/>
       <c r="D91" s="19"/>
       <c r="E91" s="20"/>
+      <c r="F91" s="9"/>
+      <c r="H91" s="18"/>
+      <c r="I91" s="14"/>
+      <c r="J91" s="14"/>
+      <c r="K91" s="14"/>
+      <c r="L91" s="14"/>
+      <c r="M91" s="14"/>
+      <c r="N91" s="76">
+        <v>13</v>
+      </c>
+      <c r="O91" s="77">
+        <f t="shared" si="18"/>
+        <v>4.3571428571428568</v>
+      </c>
+      <c r="P91" s="44">
+        <f t="shared" si="14"/>
+        <v>169</v>
+      </c>
+      <c r="Q91" s="43">
+        <f t="shared" si="15"/>
+        <v>56.642857142857139</v>
+      </c>
+      <c r="R91" s="14"/>
+      <c r="S91" s="14"/>
+      <c r="T91" s="59"/>
+      <c r="U91" s="14"/>
     </row>
     <row r="92" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B92" s="58"/>
+      <c r="C92" s="18"/>
       <c r="D92" s="19"/>
       <c r="E92" s="20"/>
+      <c r="F92" s="9"/>
+      <c r="H92" s="18"/>
+      <c r="I92" s="14"/>
+      <c r="J92" s="14"/>
+      <c r="K92" s="14"/>
+      <c r="L92" s="14"/>
+      <c r="M92" s="14"/>
+      <c r="N92" s="79">
+        <v>14</v>
+      </c>
+      <c r="O92" s="80">
+        <f t="shared" si="18"/>
+        <v>4.5714285714285712</v>
+      </c>
+      <c r="P92" s="44">
+        <f t="shared" si="14"/>
+        <v>196</v>
+      </c>
+      <c r="Q92" s="43">
+        <f t="shared" si="15"/>
+        <v>64</v>
+      </c>
+      <c r="R92" s="14"/>
+      <c r="S92" s="14"/>
+      <c r="T92" s="59"/>
+      <c r="U92" s="14"/>
     </row>
     <row r="93" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B93" s="58"/>
+      <c r="C93" s="18"/>
       <c r="D93" s="19"/>
       <c r="E93" s="20"/>
+      <c r="F93" s="9"/>
+      <c r="H93" s="18"/>
+      <c r="I93" s="14"/>
+      <c r="J93" s="14"/>
+      <c r="K93" s="14"/>
+      <c r="L93" s="14"/>
+      <c r="M93" s="81" t="s">
+        <v>38</v>
+      </c>
+      <c r="N93" s="81">
+        <f>SUM(N79:N92)</f>
+        <v>105</v>
+      </c>
+      <c r="O93" s="81">
+        <f>SUM(O79:O92)</f>
+        <v>44.499999999999993</v>
+      </c>
+      <c r="P93" s="81">
+        <f>SUM(P79:P92)</f>
+        <v>1015</v>
+      </c>
+      <c r="Q93" s="81">
+        <f>SUM(Q79:Q92)</f>
+        <v>382.5</v>
+      </c>
+      <c r="R93" s="14"/>
+      <c r="S93" s="14"/>
+      <c r="T93" s="59"/>
+      <c r="U93" s="14"/>
     </row>
     <row r="94" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B94" s="58"/>
+      <c r="C94" s="18"/>
       <c r="D94" s="19"/>
       <c r="E94" s="20"/>
-    </row>
-    <row r="95" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="D95" s="19"/>
-      <c r="E95" s="20"/>
+      <c r="F94" s="9"/>
+      <c r="H94" s="18"/>
+      <c r="I94" s="14"/>
+      <c r="J94" s="14"/>
+      <c r="K94" s="14"/>
+      <c r="L94" s="14"/>
+      <c r="M94" s="14"/>
+      <c r="N94" s="14"/>
+      <c r="O94" s="14"/>
+      <c r="P94" s="14"/>
+      <c r="Q94" s="14"/>
+      <c r="R94" s="14"/>
+      <c r="S94" s="14"/>
+      <c r="T94" s="59"/>
+      <c r="U94" s="14"/>
+    </row>
+    <row r="95" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B95" s="62"/>
+      <c r="C95" s="63"/>
+      <c r="D95" s="64"/>
+      <c r="E95" s="65"/>
+      <c r="F95" s="66"/>
+      <c r="G95" s="66"/>
+      <c r="H95" s="63"/>
+      <c r="I95" s="67"/>
+      <c r="J95" s="67"/>
+      <c r="K95" s="67"/>
+      <c r="L95" s="67"/>
+      <c r="M95" s="67"/>
+      <c r="N95" s="67"/>
+      <c r="O95" s="67"/>
+      <c r="P95" s="67"/>
+      <c r="Q95" s="67"/>
+      <c r="R95" s="67"/>
+      <c r="S95" s="67"/>
+      <c r="T95" s="68"/>
+      <c r="U95" s="14"/>
     </row>
     <row r="96" spans="2:21" x14ac:dyDescent="0.3">
       <c r="D96" s="19"/>
       <c r="E96" s="20"/>
     </row>
+    <row r="97" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D97" s="19"/>
+      <c r="E97" s="20"/>
+    </row>
+    <row r="98" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D98" s="19"/>
+      <c r="E98" s="20"/>
+    </row>
+    <row r="99" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D99" s="19"/>
+      <c r="E99" s="20"/>
+    </row>
+    <row r="100" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D100" s="19"/>
+      <c r="E100" s="20"/>
+    </row>
+    <row r="101" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D101" s="19"/>
+      <c r="E101" s="20"/>
+    </row>
+    <row r="102" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D102" s="19"/>
+      <c r="E102" s="20"/>
+    </row>
+    <row r="103" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D103" s="19"/>
+      <c r="E103" s="20"/>
+    </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="N60:O60"/>
+  <mergeCells count="16">
+    <mergeCell ref="N73:O73"/>
     <mergeCell ref="B1:T1"/>
     <mergeCell ref="B26:T26"/>
-    <mergeCell ref="C51:G51"/>
-    <mergeCell ref="C50:F50"/>
-    <mergeCell ref="N59:O59"/>
-    <mergeCell ref="N55:O55"/>
-    <mergeCell ref="N56:O56"/>
-    <mergeCell ref="N54:O54"/>
-    <mergeCell ref="N58:O58"/>
+    <mergeCell ref="C64:G64"/>
+    <mergeCell ref="C63:F63"/>
+    <mergeCell ref="N72:O72"/>
+    <mergeCell ref="N68:O68"/>
+    <mergeCell ref="N69:O69"/>
+    <mergeCell ref="N67:O67"/>
+    <mergeCell ref="N71:O71"/>
+    <mergeCell ref="O32:P32"/>
+    <mergeCell ref="O33:P33"/>
+    <mergeCell ref="O34:P34"/>
+    <mergeCell ref="O36:P36"/>
+    <mergeCell ref="O37:P37"/>
+    <mergeCell ref="O38:P38"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/2. Proposal/Metode/Try.xlsx
+++ b/2. Proposal/Metode/Try.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\File\Skripsi\2. Proposal\Metode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C36B71A-CB0F-4214-B570-50EA3EBB88B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90737B10-857C-4BC4-810B-0A112993BA05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{9E0B27B6-5960-4ADA-83F0-0309D2A69620}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{9E0B27B6-5960-4ADA-83F0-0309D2A69620}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
-    <sheet name="Moving Average" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet5" sheetId="6" r:id="rId5"/>
+    <sheet name="Moving Average" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="76">
   <si>
     <t>Tanggal</t>
   </si>
@@ -277,7 +278,7 @@
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.0000000"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -357,6 +358,15 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -687,7 +697,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -887,6 +897,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -7420,7 +7438,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE6B0E80-D10A-4815-A892-18FD744DDE32}">
   <dimension ref="B1:T95"/>
   <sheetViews>
-    <sheetView topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A45" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
@@ -9599,8 +9617,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2841FB6-975F-477D-89A2-D948C0B29F1F}">
   <dimension ref="B1:W455"/>
   <sheetViews>
-    <sheetView topLeftCell="A100" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView topLeftCell="A102" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="T114" sqref="T114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -25245,7 +25263,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F2D8C26-AEFB-4D9E-9A41-28D820AB24F4}">
   <dimension ref="B1:N416"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B3" workbookViewId="0">
+    <sheetView topLeftCell="B3" workbookViewId="0">
       <selection activeCell="F3" sqref="F3:F32"/>
     </sheetView>
   </sheetViews>
@@ -31055,6 +31073,344 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A85AC635-D9F1-4122-B067-579C0A1EBE2C}">
+  <dimension ref="A1:M15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M10" sqref="M10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1" s="95" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" s="95" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1" s="78" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1" s="78" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A2" s="94">
+        <v>1</v>
+      </c>
+      <c r="B2" s="94">
+        <v>6</v>
+      </c>
+      <c r="C2" s="93">
+        <f>A2^2</f>
+        <v>1</v>
+      </c>
+      <c r="D2" s="93">
+        <f>A2*B2</f>
+        <v>6</v>
+      </c>
+      <c r="F2" s="17" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A3" s="94">
+        <v>2</v>
+      </c>
+      <c r="B3" s="94">
+        <v>6</v>
+      </c>
+      <c r="C3" s="93">
+        <f t="shared" ref="C3:C15" si="0">A3^2</f>
+        <v>4</v>
+      </c>
+      <c r="D3" s="93">
+        <f t="shared" ref="D3:D15" si="1">A3*B3</f>
+        <v>12</v>
+      </c>
+      <c r="F3" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="G3">
+        <f>SUM(A2:A15)</f>
+        <v>105</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A4" s="94">
+        <v>3</v>
+      </c>
+      <c r="B4" s="94">
+        <v>18</v>
+      </c>
+      <c r="C4" s="93">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="D4" s="93">
+        <f t="shared" si="1"/>
+        <v>54</v>
+      </c>
+      <c r="F4" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="G4">
+        <f>SUM(B2:B15)</f>
+        <v>278</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A5" s="94">
+        <v>4</v>
+      </c>
+      <c r="B5" s="94">
+        <v>26</v>
+      </c>
+      <c r="C5" s="93">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="D5" s="93">
+        <f t="shared" si="1"/>
+        <v>104</v>
+      </c>
+      <c r="F5" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="G5">
+        <f>SUM(C2:C15)</f>
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A6" s="94">
+        <v>5</v>
+      </c>
+      <c r="B6" s="94">
+        <v>23</v>
+      </c>
+      <c r="C6" s="93">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="D6" s="93">
+        <f t="shared" si="1"/>
+        <v>115</v>
+      </c>
+      <c r="F6" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="G6">
+        <f>SUM(D2:D15)</f>
+        <v>2304</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A7" s="94">
+        <v>6</v>
+      </c>
+      <c r="B7" s="94">
+        <v>11</v>
+      </c>
+      <c r="C7" s="93">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="D7" s="93">
+        <f t="shared" si="1"/>
+        <v>66</v>
+      </c>
+      <c r="F7" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="G7">
+        <f>COUNT(A2:A15)</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A8" s="94">
+        <v>7</v>
+      </c>
+      <c r="B8" s="94">
+        <v>12</v>
+      </c>
+      <c r="C8" s="93">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="D8" s="93">
+        <f t="shared" si="1"/>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A9" s="94">
+        <v>8</v>
+      </c>
+      <c r="B9" s="94">
+        <v>24</v>
+      </c>
+      <c r="C9" s="93">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
+      <c r="D9" s="93">
+        <f t="shared" si="1"/>
+        <v>192</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A10" s="94">
+        <v>9</v>
+      </c>
+      <c r="B10" s="94">
+        <v>52</v>
+      </c>
+      <c r="C10" s="93">
+        <f t="shared" si="0"/>
+        <v>81</v>
+      </c>
+      <c r="D10" s="93">
+        <f t="shared" si="1"/>
+        <v>468</v>
+      </c>
+      <c r="F10" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="G10">
+        <f>((G4*G5)-(G3*G6))/((G7*G5)-(G3)^2)</f>
+        <v>12.637362637362637</v>
+      </c>
+      <c r="I10">
+        <f>INTERCEPT(B2:B15,A2:A15)</f>
+        <v>12.637362637362639</v>
+      </c>
+      <c r="K10">
+        <f>((G4*G5)-(G3*G6))</f>
+        <v>40250</v>
+      </c>
+      <c r="M10">
+        <f>((G7*G6)-(G3*G4))</f>
+        <v>3066</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A11" s="94">
+        <v>10</v>
+      </c>
+      <c r="B11" s="94">
+        <v>22</v>
+      </c>
+      <c r="C11" s="93">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="D11" s="93">
+        <f t="shared" si="1"/>
+        <v>220</v>
+      </c>
+      <c r="F11" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="G11">
+        <f>((G7*G6)-(G3*G4))/((G7*G5)-(G3)^2)</f>
+        <v>0.96263736263736266</v>
+      </c>
+      <c r="I11">
+        <f>SLOPE(B2:B15,A2:A15)</f>
+        <v>0.96263736263736255</v>
+      </c>
+      <c r="K11">
+        <f>((G7*G5)-(G3)^2)</f>
+        <v>3185</v>
+      </c>
+      <c r="M11">
+        <f>((G7*G5)-(G3)^2)</f>
+        <v>3185</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A12" s="94">
+        <v>11</v>
+      </c>
+      <c r="B12" s="94">
+        <v>22</v>
+      </c>
+      <c r="C12" s="93">
+        <f t="shared" si="0"/>
+        <v>121</v>
+      </c>
+      <c r="D12" s="93">
+        <f t="shared" si="1"/>
+        <v>242</v>
+      </c>
+      <c r="K12" s="96">
+        <f>K10/K11</f>
+        <v>12.637362637362637</v>
+      </c>
+      <c r="M12" s="96">
+        <f>M10/M11</f>
+        <v>0.96263736263736266</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A13" s="94">
+        <v>12</v>
+      </c>
+      <c r="B13" s="94">
+        <v>7</v>
+      </c>
+      <c r="C13" s="93">
+        <f t="shared" si="0"/>
+        <v>144</v>
+      </c>
+      <c r="D13" s="93">
+        <f t="shared" si="1"/>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A14" s="94">
+        <v>13</v>
+      </c>
+      <c r="B14" s="94">
+        <v>29</v>
+      </c>
+      <c r="C14" s="93">
+        <f t="shared" si="0"/>
+        <v>169</v>
+      </c>
+      <c r="D14" s="93">
+        <f t="shared" si="1"/>
+        <v>377</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A15" s="94">
+        <v>14</v>
+      </c>
+      <c r="B15" s="94">
+        <v>20</v>
+      </c>
+      <c r="C15" s="93">
+        <f t="shared" si="0"/>
+        <v>196</v>
+      </c>
+      <c r="D15" s="93">
+        <f t="shared" si="1"/>
+        <v>280</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B026BD2-121D-4666-92E5-527DA859B32C}">
   <dimension ref="A1:E446"/>
   <sheetViews>

--- a/2. Proposal/Metode/Try.xlsx
+++ b/2. Proposal/Metode/Try.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\File\Skripsi\2. Proposal\Metode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90737B10-857C-4BC4-810B-0A112993BA05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BEEEF42-24A7-4BB6-B68A-96D17F581B03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{9E0B27B6-5960-4ADA-83F0-0309D2A69620}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="77">
   <si>
     <t>Tanggal</t>
   </si>
@@ -269,14 +269,18 @@
   <si>
     <t>STK</t>
   </si>
+  <si>
+    <t>X'</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.0000000"/>
+    <numFmt numFmtId="167" formatCode="0.00000"/>
   </numFmts>
   <fonts count="12" x14ac:knownFonts="1">
     <font>
@@ -697,7 +701,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="97">
+  <cellXfs count="107">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -882,6 +886,20 @@
     <xf numFmtId="0" fontId="0" fillId="15" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="15" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -897,14 +915,22 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="15" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -7438,8 +7464,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE6B0E80-D10A-4815-A892-18FD744DDE32}">
   <dimension ref="B1:T95"/>
   <sheetViews>
-    <sheetView topLeftCell="A45" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+    <sheetView topLeftCell="A98" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E61" sqref="E61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7455,27 +7481,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:20" ht="29.4" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B1" s="89" t="s">
+      <c r="B1" s="95" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="90"/>
-      <c r="D1" s="90"/>
-      <c r="E1" s="90"/>
-      <c r="F1" s="90"/>
-      <c r="G1" s="90"/>
-      <c r="H1" s="90"/>
-      <c r="I1" s="90"/>
-      <c r="J1" s="90"/>
-      <c r="K1" s="90"/>
-      <c r="L1" s="90"/>
-      <c r="M1" s="90"/>
-      <c r="N1" s="90"/>
-      <c r="O1" s="90"/>
-      <c r="P1" s="90"/>
-      <c r="Q1" s="90"/>
-      <c r="R1" s="90"/>
-      <c r="S1" s="90"/>
-      <c r="T1" s="90"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="96"/>
+      <c r="J1" s="96"/>
+      <c r="K1" s="96"/>
+      <c r="L1" s="96"/>
+      <c r="M1" s="96"/>
+      <c r="N1" s="96"/>
+      <c r="O1" s="96"/>
+      <c r="P1" s="96"/>
+      <c r="Q1" s="96"/>
+      <c r="R1" s="96"/>
+      <c r="S1" s="96"/>
+      <c r="T1" s="96"/>
     </row>
     <row r="2" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B2" s="36"/>
@@ -8006,27 +8032,27 @@
       <c r="G25" s="8"/>
     </row>
     <row r="26" spans="2:20" ht="29.4" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B26" s="89" t="s">
+      <c r="B26" s="95" t="s">
         <v>18</v>
       </c>
-      <c r="C26" s="90"/>
-      <c r="D26" s="90"/>
-      <c r="E26" s="90"/>
-      <c r="F26" s="90"/>
-      <c r="G26" s="90"/>
-      <c r="H26" s="90"/>
-      <c r="I26" s="90"/>
-      <c r="J26" s="90"/>
-      <c r="K26" s="90"/>
-      <c r="L26" s="90"/>
-      <c r="M26" s="90"/>
-      <c r="N26" s="90"/>
-      <c r="O26" s="90"/>
-      <c r="P26" s="90"/>
-      <c r="Q26" s="90"/>
-      <c r="R26" s="90"/>
-      <c r="S26" s="90"/>
-      <c r="T26" s="90"/>
+      <c r="C26" s="96"/>
+      <c r="D26" s="96"/>
+      <c r="E26" s="96"/>
+      <c r="F26" s="96"/>
+      <c r="G26" s="96"/>
+      <c r="H26" s="96"/>
+      <c r="I26" s="96"/>
+      <c r="J26" s="96"/>
+      <c r="K26" s="96"/>
+      <c r="L26" s="96"/>
+      <c r="M26" s="96"/>
+      <c r="N26" s="96"/>
+      <c r="O26" s="96"/>
+      <c r="P26" s="96"/>
+      <c r="Q26" s="96"/>
+      <c r="R26" s="96"/>
+      <c r="S26" s="96"/>
+      <c r="T26" s="96"/>
     </row>
     <row r="27" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B27" s="36"/>
@@ -8153,10 +8179,10 @@
       <c r="N32" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="O32" s="88" t="s">
+      <c r="O32" s="94" t="s">
         <v>32</v>
       </c>
-      <c r="P32" s="88"/>
+      <c r="P32" s="94"/>
       <c r="T32" s="42"/>
     </row>
     <row r="33" spans="2:20" x14ac:dyDescent="0.3">
@@ -8175,10 +8201,10 @@
         <f t="shared" si="5"/>
         <v>1065</v>
       </c>
-      <c r="O33" s="92" t="s">
+      <c r="O33" s="98" t="s">
         <v>33</v>
       </c>
-      <c r="P33" s="92"/>
+      <c r="P33" s="98"/>
       <c r="T33" s="42"/>
     </row>
     <row r="34" spans="2:20" x14ac:dyDescent="0.3">
@@ -8197,10 +8223,10 @@
         <f t="shared" si="5"/>
         <v>1260</v>
       </c>
-      <c r="O34" s="88" t="s">
+      <c r="O34" s="94" t="s">
         <v>34</v>
       </c>
-      <c r="P34" s="88"/>
+      <c r="P34" s="94"/>
       <c r="T34" s="42"/>
     </row>
     <row r="35" spans="2:20" x14ac:dyDescent="0.3">
@@ -8247,10 +8273,10 @@
       <c r="N36" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="O36" s="88" t="s">
+      <c r="O36" s="94" t="s">
         <v>35</v>
       </c>
-      <c r="P36" s="88"/>
+      <c r="P36" s="94"/>
       <c r="T36" s="42"/>
     </row>
     <row r="37" spans="2:20" x14ac:dyDescent="0.3">
@@ -8280,20 +8306,20 @@
         <f>((8*G37)-(C37*D37))/((8*F37)-(C37)^2)</f>
         <v>1.0238095238095237</v>
       </c>
-      <c r="O37" s="92" t="s">
+      <c r="O37" s="98" t="s">
         <v>33</v>
       </c>
-      <c r="P37" s="92"/>
+      <c r="P37" s="98"/>
       <c r="T37" s="42"/>
     </row>
     <row r="38" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B38" s="41"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
-      <c r="O38" s="88" t="s">
+      <c r="O38" s="94" t="s">
         <v>34</v>
       </c>
-      <c r="P38" s="88"/>
+      <c r="P38" s="94"/>
       <c r="T38" s="42"/>
     </row>
     <row r="39" spans="2:20" x14ac:dyDescent="0.3">
@@ -8746,12 +8772,12 @@
     </row>
     <row r="63" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B63" s="41"/>
-      <c r="C63" s="91" t="s">
+      <c r="C63" s="97" t="s">
         <v>52</v>
       </c>
-      <c r="D63" s="91"/>
-      <c r="E63" s="91"/>
-      <c r="F63" s="91"/>
+      <c r="D63" s="97"/>
+      <c r="E63" s="97"/>
+      <c r="F63" s="97"/>
       <c r="L63" s="22"/>
       <c r="M63" s="17" t="s">
         <v>22</v>
@@ -8762,13 +8788,13 @@
     </row>
     <row r="64" spans="2:20" ht="18" x14ac:dyDescent="0.35">
       <c r="B64" s="41"/>
-      <c r="C64" s="91" t="s">
+      <c r="C64" s="97" t="s">
         <v>53</v>
       </c>
-      <c r="D64" s="91"/>
-      <c r="E64" s="91"/>
-      <c r="F64" s="91"/>
-      <c r="G64" s="91"/>
+      <c r="D64" s="97"/>
+      <c r="E64" s="97"/>
+      <c r="F64" s="97"/>
+      <c r="G64" s="97"/>
       <c r="M64" t="s">
         <v>23</v>
       </c>
@@ -8816,10 +8842,10 @@
       <c r="M67" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="N67" s="88" t="s">
+      <c r="N67" s="94" t="s">
         <v>32</v>
       </c>
-      <c r="O67" s="88"/>
+      <c r="O67" s="94"/>
       <c r="T67" s="42"/>
     </row>
     <row r="68" spans="2:20" x14ac:dyDescent="0.3">
@@ -8841,10 +8867,10 @@
         <f>D68*C68</f>
         <v>2</v>
       </c>
-      <c r="N68" s="92" t="s">
+      <c r="N68" s="98" t="s">
         <v>33</v>
       </c>
-      <c r="O68" s="92"/>
+      <c r="O68" s="98"/>
       <c r="T68" s="42"/>
     </row>
     <row r="69" spans="2:20" x14ac:dyDescent="0.3">
@@ -8866,10 +8892,10 @@
         <f t="shared" ref="H69:H74" si="13">D69*C69</f>
         <v>4</v>
       </c>
-      <c r="N69" s="88" t="s">
+      <c r="N69" s="94" t="s">
         <v>34</v>
       </c>
-      <c r="O69" s="88"/>
+      <c r="O69" s="94"/>
       <c r="T69" s="42"/>
     </row>
     <row r="70" spans="2:20" x14ac:dyDescent="0.3">
@@ -8915,10 +8941,10 @@
       <c r="M71" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="N71" s="88" t="s">
+      <c r="N71" s="94" t="s">
         <v>35</v>
       </c>
-      <c r="O71" s="88"/>
+      <c r="O71" s="94"/>
       <c r="T71" s="42"/>
     </row>
     <row r="72" spans="2:20" x14ac:dyDescent="0.3">
@@ -8940,10 +8966,10 @@
         <f t="shared" si="13"/>
         <v>15</v>
       </c>
-      <c r="N72" s="92" t="s">
+      <c r="N72" s="98" t="s">
         <v>33</v>
       </c>
-      <c r="O72" s="92"/>
+      <c r="O72" s="98"/>
       <c r="T72" s="42"/>
     </row>
     <row r="73" spans="2:20" x14ac:dyDescent="0.3">
@@ -8965,10 +8991,10 @@
         <f t="shared" si="13"/>
         <v>12</v>
       </c>
-      <c r="N73" s="88" t="s">
+      <c r="N73" s="94" t="s">
         <v>34</v>
       </c>
-      <c r="O73" s="88"/>
+      <c r="O73" s="94"/>
       <c r="T73" s="42"/>
     </row>
     <row r="74" spans="2:20" x14ac:dyDescent="0.3">
@@ -9617,7 +9643,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2841FB6-975F-477D-89A2-D948C0B29F1F}">
   <dimension ref="B1:W455"/>
   <sheetViews>
-    <sheetView topLeftCell="A102" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="T114" sqref="T114"/>
     </sheetView>
   </sheetViews>
@@ -9690,10 +9716,10 @@
       <c r="Q3" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="R3" s="88" t="s">
+      <c r="R3" s="94" t="s">
         <v>32</v>
       </c>
-      <c r="S3" s="88"/>
+      <c r="S3" s="94"/>
     </row>
     <row r="4" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B4" s="1">
@@ -9717,10 +9743,10 @@
         <f>SUM(C2:C455)</f>
         <v>5632</v>
       </c>
-      <c r="R4" s="92" t="s">
+      <c r="R4" s="98" t="s">
         <v>33</v>
       </c>
-      <c r="S4" s="92"/>
+      <c r="S4" s="98"/>
     </row>
     <row r="5" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B5" s="1">
@@ -9744,10 +9770,10 @@
         <f>SUM(E2:E455)</f>
         <v>31295355</v>
       </c>
-      <c r="R5" s="88" t="s">
+      <c r="R5" s="94" t="s">
         <v>34</v>
       </c>
-      <c r="S5" s="88"/>
+      <c r="S5" s="94"/>
     </row>
     <row r="6" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B6" s="1">
@@ -9797,10 +9823,10 @@
       <c r="Q7" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="R7" s="88" t="s">
+      <c r="R7" s="94" t="s">
         <v>35</v>
       </c>
-      <c r="S7" s="88"/>
+      <c r="S7" s="94"/>
     </row>
     <row r="8" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B8" s="1">
@@ -9817,10 +9843,10 @@
         <f t="shared" si="1"/>
         <v>147</v>
       </c>
-      <c r="R8" s="92" t="s">
+      <c r="R8" s="98" t="s">
         <v>33</v>
       </c>
-      <c r="S8" s="92"/>
+      <c r="S8" s="98"/>
     </row>
     <row r="9" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B9" s="1">
@@ -9837,10 +9863,10 @@
         <f t="shared" si="1"/>
         <v>152</v>
       </c>
-      <c r="R9" s="88" t="s">
+      <c r="R9" s="94" t="s">
         <v>34</v>
       </c>
-      <c r="S9" s="88"/>
+      <c r="S9" s="94"/>
     </row>
     <row r="10" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B10" s="1">
@@ -19934,7 +19960,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6925BB12-591A-4B3E-8774-3240A6417DCD}">
   <dimension ref="B1:R455"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="L58" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="K3" sqref="K3:K32"/>
     </sheetView>
   </sheetViews>
@@ -31074,19 +31100,23 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A85AC635-D9F1-4122-B067-579C0A1EBE2C}">
-  <dimension ref="A1:M15"/>
+  <dimension ref="A1:U39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="M37" sqref="M37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="8.88671875" customWidth="1"/>
+    <col min="7" max="7" width="9.44140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1" s="95" t="s">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A1" s="89" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="95" t="s">
+      <c r="B1" s="89" t="s">
         <v>55</v>
       </c>
       <c r="C1" s="78" t="s">
@@ -31095,38 +31125,67 @@
       <c r="D1" s="78" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A2" s="94">
+      <c r="O1" s="89" t="s">
+        <v>54</v>
+      </c>
+      <c r="P1" s="89" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q1" s="78" t="s">
+        <v>56</v>
+      </c>
+      <c r="R1" s="78" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A2" s="88">
         <v>1</v>
       </c>
-      <c r="B2" s="94">
+      <c r="B2" s="88">
         <v>6</v>
       </c>
-      <c r="C2" s="93">
+      <c r="C2" s="1">
         <f>A2^2</f>
         <v>1</v>
       </c>
-      <c r="D2" s="93">
+      <c r="D2" s="1">
         <f>A2*B2</f>
         <v>6</v>
       </c>
       <c r="F2" s="17" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3" s="94">
+      <c r="O2" s="88">
+        <v>1</v>
+      </c>
+      <c r="P2" s="88">
+        <v>6</v>
+      </c>
+      <c r="Q2" s="1">
+        <f>O2^2</f>
+        <v>1</v>
+      </c>
+      <c r="R2" s="1">
+        <f>O2*P2</f>
+        <v>6</v>
+      </c>
+      <c r="T2" s="17" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A3" s="88">
         <v>2</v>
       </c>
-      <c r="B3" s="94">
+      <c r="B3" s="88">
         <v>6</v>
       </c>
-      <c r="C3" s="93">
+      <c r="C3" s="1">
         <f t="shared" ref="C3:C15" si="0">A3^2</f>
         <v>4</v>
       </c>
-      <c r="D3" s="93">
+      <c r="D3" s="1">
         <f t="shared" ref="D3:D15" si="1">A3*B3</f>
         <v>12</v>
       </c>
@@ -31137,19 +31196,40 @@
         <f>SUM(A2:A15)</f>
         <v>105</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4" s="94">
+      <c r="O3" s="88">
+        <v>2</v>
+      </c>
+      <c r="P3" s="88">
+        <v>6</v>
+      </c>
+      <c r="Q3" s="1">
+        <f t="shared" ref="Q3:Q15" si="2">O3^2</f>
+        <v>4</v>
+      </c>
+      <c r="R3" s="1">
+        <f t="shared" ref="R3:R15" si="3">O3*P3</f>
+        <v>12</v>
+      </c>
+      <c r="T3" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="U3">
+        <f>SUM(O2:O8)</f>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A4" s="88">
         <v>3</v>
       </c>
-      <c r="B4" s="94">
+      <c r="B4" s="88">
         <v>18</v>
       </c>
-      <c r="C4" s="93">
+      <c r="C4" s="1">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="D4" s="93">
+      <c r="D4" s="1">
         <f t="shared" si="1"/>
         <v>54</v>
       </c>
@@ -31158,21 +31238,42 @@
       </c>
       <c r="G4">
         <f>SUM(B2:B15)</f>
-        <v>278</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5" s="94">
+        <v>264</v>
+      </c>
+      <c r="O4" s="88">
+        <v>3</v>
+      </c>
+      <c r="P4" s="88">
+        <v>18</v>
+      </c>
+      <c r="Q4" s="1">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="R4" s="1">
+        <f t="shared" si="3"/>
+        <v>54</v>
+      </c>
+      <c r="T4" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="U4">
+        <f>SUM(P2:P8)</f>
+        <v>102</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A5" s="88">
         <v>4</v>
       </c>
-      <c r="B5" s="94">
+      <c r="B5" s="88">
         <v>26</v>
       </c>
-      <c r="C5" s="93">
+      <c r="C5" s="1">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="D5" s="93">
+      <c r="D5" s="1">
         <f t="shared" si="1"/>
         <v>104</v>
       </c>
@@ -31183,19 +31284,40 @@
         <f>SUM(C2:C15)</f>
         <v>1015</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A6" s="94">
+      <c r="O5" s="88">
+        <v>4</v>
+      </c>
+      <c r="P5" s="88">
+        <v>26</v>
+      </c>
+      <c r="Q5" s="1">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="R5" s="1">
+        <f t="shared" si="3"/>
+        <v>104</v>
+      </c>
+      <c r="T5" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="U5">
+        <f>SUM(Q2:Q8)</f>
+        <v>140</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A6" s="88">
         <v>5</v>
       </c>
-      <c r="B6" s="94">
+      <c r="B6" s="88">
         <v>23</v>
       </c>
-      <c r="C6" s="93">
+      <c r="C6" s="1">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="D6" s="93">
+      <c r="D6" s="1">
         <f t="shared" si="1"/>
         <v>115</v>
       </c>
@@ -31204,21 +31326,42 @@
       </c>
       <c r="G6">
         <f>SUM(D2:D15)</f>
-        <v>2304</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A7" s="94">
+        <v>2202</v>
+      </c>
+      <c r="O6" s="88">
+        <v>5</v>
+      </c>
+      <c r="P6" s="88">
+        <v>23</v>
+      </c>
+      <c r="Q6" s="1">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="R6" s="1">
+        <f t="shared" si="3"/>
+        <v>115</v>
+      </c>
+      <c r="T6" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="U6">
+        <f>SUM(R2:R8)</f>
+        <v>441</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A7" s="88">
         <v>6</v>
       </c>
-      <c r="B7" s="94">
+      <c r="B7" s="88">
         <v>11</v>
       </c>
-      <c r="C7" s="93">
+      <c r="C7" s="1">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="D7" s="93">
+      <c r="D7" s="1">
         <f t="shared" si="1"/>
         <v>66</v>
       </c>
@@ -31229,99 +31372,149 @@
         <f>COUNT(A2:A15)</f>
         <v>14</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A8" s="94">
+      <c r="O7" s="88">
+        <v>6</v>
+      </c>
+      <c r="P7" s="88">
+        <v>11</v>
+      </c>
+      <c r="Q7" s="1">
+        <f t="shared" si="2"/>
+        <v>36</v>
+      </c>
+      <c r="R7" s="1">
+        <f t="shared" si="3"/>
+        <v>66</v>
+      </c>
+      <c r="T7" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="U7">
+        <f>COUNT(O2:O8)</f>
         <v>7</v>
       </c>
-      <c r="B8" s="94">
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A8" s="88">
+        <v>7</v>
+      </c>
+      <c r="B8" s="88">
         <v>12</v>
       </c>
-      <c r="C8" s="93">
+      <c r="C8" s="1">
         <f t="shared" si="0"/>
         <v>49</v>
       </c>
-      <c r="D8" s="93">
+      <c r="D8" s="1">
         <f t="shared" si="1"/>
         <v>84</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A9" s="94">
+      <c r="O8" s="88">
+        <v>7</v>
+      </c>
+      <c r="P8" s="88">
+        <v>12</v>
+      </c>
+      <c r="Q8" s="1">
+        <f t="shared" si="2"/>
+        <v>49</v>
+      </c>
+      <c r="R8" s="1">
+        <f t="shared" si="3"/>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A9" s="88">
         <v>8</v>
       </c>
-      <c r="B9" s="94">
+      <c r="B9" s="88">
         <v>24</v>
       </c>
-      <c r="C9" s="93">
+      <c r="C9" s="1">
         <f t="shared" si="0"/>
         <v>64</v>
       </c>
-      <c r="D9" s="93">
+      <c r="D9" s="1">
         <f t="shared" si="1"/>
         <v>192</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A10" s="94">
+      <c r="O9" s="99"/>
+      <c r="P9" s="99"/>
+      <c r="Q9" s="100"/>
+      <c r="R9" s="100"/>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A10" s="88">
         <v>9</v>
       </c>
-      <c r="B10" s="94">
-        <v>52</v>
-      </c>
-      <c r="C10" s="93">
+      <c r="B10" s="88">
+        <v>30</v>
+      </c>
+      <c r="C10" s="1">
         <f t="shared" si="0"/>
         <v>81</v>
       </c>
-      <c r="D10" s="93">
+      <c r="D10" s="1">
         <f t="shared" si="1"/>
-        <v>468</v>
+        <v>270</v>
       </c>
       <c r="F10" s="17" t="s">
         <v>63</v>
       </c>
       <c r="G10">
         <f>((G4*G5)-(G3*G6))/((G7*G5)-(G3)^2)</f>
-        <v>12.637362637362637</v>
+        <v>11.538461538461538</v>
       </c>
       <c r="I10">
         <f>INTERCEPT(B2:B15,A2:A15)</f>
-        <v>12.637362637362639</v>
+        <v>11.53846153846154</v>
       </c>
       <c r="K10">
         <f>((G4*G5)-(G3*G6))</f>
-        <v>40250</v>
+        <v>36750</v>
       </c>
       <c r="M10">
         <f>((G7*G6)-(G3*G4))</f>
-        <v>3066</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A11" s="94">
+        <v>3108</v>
+      </c>
+      <c r="O10" s="99"/>
+      <c r="P10" s="99"/>
+      <c r="Q10" s="100"/>
+      <c r="R10" s="100"/>
+      <c r="T10" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="U10">
+        <f>((U4*U5)-(U3*U6))/((U7*U5)-(U3)^2)</f>
+        <v>9.8571428571428577</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A11" s="88">
         <v>10</v>
       </c>
-      <c r="B11" s="94">
+      <c r="B11" s="88">
         <v>22</v>
       </c>
-      <c r="C11" s="93">
+      <c r="C11" s="1">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="D11" s="93">
+      <c r="D11" s="1">
         <f t="shared" si="1"/>
         <v>220</v>
       </c>
       <c r="F11" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="106">
         <f>((G7*G6)-(G3*G4))/((G7*G5)-(G3)^2)</f>
-        <v>0.96263736263736266</v>
+        <v>0.9758241758241758</v>
       </c>
       <c r="I11">
         <f>SLOPE(B2:B15,A2:A15)</f>
-        <v>0.96263736263736255</v>
+        <v>0.97582417582417569</v>
       </c>
       <c r="K11">
         <f>((G7*G5)-(G3)^2)</f>
@@ -31331,78 +31524,867 @@
         <f>((G7*G5)-(G3)^2)</f>
         <v>3185</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A12" s="94">
+      <c r="O11" s="99"/>
+      <c r="P11" s="99"/>
+      <c r="Q11" s="100"/>
+      <c r="R11" s="100"/>
+      <c r="T11" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="U11">
+        <f>((U7*U6)-(U3*U4))/((U7*U5)-(U3)^2)</f>
+        <v>1.1785714285714286</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A12" s="88">
         <v>11</v>
       </c>
-      <c r="B12" s="94">
+      <c r="B12" s="88">
         <v>22</v>
       </c>
-      <c r="C12" s="93">
+      <c r="C12" s="1">
         <f t="shared" si="0"/>
         <v>121</v>
       </c>
-      <c r="D12" s="93">
+      <c r="D12" s="1">
         <f t="shared" si="1"/>
         <v>242</v>
       </c>
-      <c r="K12" s="96">
+      <c r="K12" s="90">
         <f>K10/K11</f>
-        <v>12.637362637362637</v>
-      </c>
-      <c r="M12" s="96">
+        <v>11.538461538461538</v>
+      </c>
+      <c r="M12" s="90">
         <f>M10/M11</f>
-        <v>0.96263736263736266</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A13" s="94">
+        <v>0.9758241758241758</v>
+      </c>
+      <c r="O12" s="99"/>
+      <c r="P12" s="99"/>
+      <c r="Q12" s="100"/>
+      <c r="R12" s="100"/>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A13" s="88">
         <v>12</v>
       </c>
-      <c r="B13" s="94">
-        <v>7</v>
-      </c>
-      <c r="C13" s="93">
+      <c r="B13" s="88">
+        <v>15</v>
+      </c>
+      <c r="C13" s="1">
         <f t="shared" si="0"/>
         <v>144</v>
       </c>
-      <c r="D13" s="93">
+      <c r="D13" s="1">
         <f t="shared" si="1"/>
-        <v>84</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A14" s="94">
+        <v>180</v>
+      </c>
+      <c r="O13" s="99"/>
+      <c r="P13" s="99"/>
+      <c r="Q13" s="100"/>
+      <c r="R13" s="100"/>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A14" s="88">
         <v>13</v>
       </c>
-      <c r="B14" s="94">
+      <c r="B14" s="88">
         <v>29</v>
       </c>
-      <c r="C14" s="93">
+      <c r="C14" s="1">
         <f t="shared" si="0"/>
         <v>169</v>
       </c>
-      <c r="D14" s="93">
+      <c r="D14" s="1">
         <f t="shared" si="1"/>
         <v>377</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A15" s="94">
+      <c r="O14" s="99"/>
+      <c r="P14" s="99"/>
+      <c r="Q14" s="100"/>
+      <c r="R14" s="100"/>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A15" s="88">
         <v>14</v>
       </c>
-      <c r="B15" s="94">
+      <c r="B15" s="88">
         <v>20</v>
       </c>
-      <c r="C15" s="93">
+      <c r="C15" s="1">
         <f t="shared" si="0"/>
         <v>196</v>
       </c>
-      <c r="D15" s="93">
+      <c r="D15" s="1">
         <f t="shared" si="1"/>
         <v>280</v>
       </c>
+      <c r="O15" s="99"/>
+      <c r="P15" s="99"/>
+      <c r="Q15" s="100"/>
+      <c r="R15" s="100"/>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A18" s="78" t="s">
+        <v>76</v>
+      </c>
+      <c r="B18" s="78" t="s">
+        <v>55</v>
+      </c>
+      <c r="C18" s="78" t="s">
+        <v>29</v>
+      </c>
+      <c r="E18" s="74" t="s">
+        <v>1</v>
+      </c>
+      <c r="F18" s="74" t="s">
+        <v>50</v>
+      </c>
+      <c r="G18" s="75" t="s">
+        <v>3</v>
+      </c>
+      <c r="O18" s="78" t="s">
+        <v>76</v>
+      </c>
+      <c r="P18" s="78" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q18" s="78" t="s">
+        <v>29</v>
+      </c>
+      <c r="S18" s="74" t="s">
+        <v>1</v>
+      </c>
+      <c r="T18" s="74" t="s">
+        <v>50</v>
+      </c>
+      <c r="U18" s="75" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>1</v>
+      </c>
+      <c r="B19" s="88">
+        <v>6</v>
+      </c>
+      <c r="C19" s="91">
+        <f t="shared" ref="C19:C39" si="4">$G$10+($G$11*A19)</f>
+        <v>12.514285714285714</v>
+      </c>
+      <c r="E19" s="92">
+        <f>B19-C19</f>
+        <v>-6.5142857142857142</v>
+      </c>
+      <c r="F19" s="92">
+        <f>ABS(E19)</f>
+        <v>6.5142857142857142</v>
+      </c>
+      <c r="G19" s="91">
+        <f>E19^2</f>
+        <v>42.435918367346936</v>
+      </c>
+      <c r="O19" s="1">
+        <v>1</v>
+      </c>
+      <c r="P19" s="88">
+        <v>6</v>
+      </c>
+      <c r="Q19" s="91">
+        <f t="shared" ref="Q19:Q39" si="5">$G$10+($G$11*O19)</f>
+        <v>12.514285714285714</v>
+      </c>
+      <c r="S19" s="92">
+        <f>P19-Q19</f>
+        <v>-6.5142857142857142</v>
+      </c>
+      <c r="T19" s="92">
+        <f>ABS(S19)</f>
+        <v>6.5142857142857142</v>
+      </c>
+      <c r="U19" s="91">
+        <f>S19^2</f>
+        <v>42.435918367346936</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>2</v>
+      </c>
+      <c r="B20" s="88">
+        <v>6</v>
+      </c>
+      <c r="C20" s="91">
+        <f t="shared" si="4"/>
+        <v>13.49010989010989</v>
+      </c>
+      <c r="E20" s="92">
+        <f t="shared" ref="E20:E32" si="6">B20-C20</f>
+        <v>-7.4901098901098901</v>
+      </c>
+      <c r="F20" s="92">
+        <f t="shared" ref="F20:F32" si="7">ABS(E20)</f>
+        <v>7.4901098901098901</v>
+      </c>
+      <c r="G20" s="91">
+        <f t="shared" ref="G20:G32" si="8">E20^2</f>
+        <v>56.101746165921988</v>
+      </c>
+      <c r="O20" s="1">
+        <v>2</v>
+      </c>
+      <c r="P20" s="88">
+        <v>6</v>
+      </c>
+      <c r="Q20" s="91">
+        <f t="shared" si="5"/>
+        <v>13.49010989010989</v>
+      </c>
+      <c r="S20" s="92">
+        <f t="shared" ref="S20:S32" si="9">P20-Q20</f>
+        <v>-7.4901098901098901</v>
+      </c>
+      <c r="T20" s="92">
+        <f t="shared" ref="T20:T32" si="10">ABS(S20)</f>
+        <v>7.4901098901098901</v>
+      </c>
+      <c r="U20" s="91">
+        <f t="shared" ref="U20:U32" si="11">S20^2</f>
+        <v>56.101746165921988</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>3</v>
+      </c>
+      <c r="B21" s="88">
+        <v>18</v>
+      </c>
+      <c r="C21" s="91">
+        <f t="shared" si="4"/>
+        <v>14.465934065934066</v>
+      </c>
+      <c r="E21" s="92">
+        <f t="shared" si="6"/>
+        <v>3.5340659340659339</v>
+      </c>
+      <c r="F21" s="92">
+        <f t="shared" si="7"/>
+        <v>3.5340659340659339</v>
+      </c>
+      <c r="G21" s="91">
+        <f t="shared" si="8"/>
+        <v>12.489622026325323</v>
+      </c>
+      <c r="O21" s="1">
+        <v>3</v>
+      </c>
+      <c r="P21" s="88">
+        <v>18</v>
+      </c>
+      <c r="Q21" s="91">
+        <f t="shared" si="5"/>
+        <v>14.465934065934066</v>
+      </c>
+      <c r="S21" s="92">
+        <f t="shared" si="9"/>
+        <v>3.5340659340659339</v>
+      </c>
+      <c r="T21" s="92">
+        <f t="shared" si="10"/>
+        <v>3.5340659340659339</v>
+      </c>
+      <c r="U21" s="91">
+        <f t="shared" si="11"/>
+        <v>12.489622026325323</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>4</v>
+      </c>
+      <c r="B22" s="88">
+        <v>26</v>
+      </c>
+      <c r="C22" s="91">
+        <f t="shared" si="4"/>
+        <v>15.441758241758242</v>
+      </c>
+      <c r="E22" s="92">
+        <f t="shared" si="6"/>
+        <v>10.558241758241758</v>
+      </c>
+      <c r="F22" s="92">
+        <f t="shared" si="7"/>
+        <v>10.558241758241758</v>
+      </c>
+      <c r="G22" s="91">
+        <f t="shared" si="8"/>
+        <v>111.47646902548001</v>
+      </c>
+      <c r="O22" s="1">
+        <v>4</v>
+      </c>
+      <c r="P22" s="88">
+        <v>26</v>
+      </c>
+      <c r="Q22" s="91">
+        <f t="shared" si="5"/>
+        <v>15.441758241758242</v>
+      </c>
+      <c r="S22" s="92">
+        <f t="shared" si="9"/>
+        <v>10.558241758241758</v>
+      </c>
+      <c r="T22" s="92">
+        <f t="shared" si="10"/>
+        <v>10.558241758241758</v>
+      </c>
+      <c r="U22" s="91">
+        <f t="shared" si="11"/>
+        <v>111.47646902548001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>5</v>
+      </c>
+      <c r="B23" s="88">
+        <v>23</v>
+      </c>
+      <c r="C23" s="91">
+        <f t="shared" si="4"/>
+        <v>16.417582417582416</v>
+      </c>
+      <c r="E23" s="92">
+        <f t="shared" si="6"/>
+        <v>6.5824175824175839</v>
+      </c>
+      <c r="F23" s="92">
+        <f t="shared" si="7"/>
+        <v>6.5824175824175839</v>
+      </c>
+      <c r="G23" s="91">
+        <f t="shared" si="8"/>
+        <v>43.32822122932015</v>
+      </c>
+      <c r="O23" s="1">
+        <v>5</v>
+      </c>
+      <c r="P23" s="88">
+        <v>23</v>
+      </c>
+      <c r="Q23" s="91">
+        <f t="shared" si="5"/>
+        <v>16.417582417582416</v>
+      </c>
+      <c r="S23" s="92">
+        <f t="shared" si="9"/>
+        <v>6.5824175824175839</v>
+      </c>
+      <c r="T23" s="92">
+        <f t="shared" si="10"/>
+        <v>6.5824175824175839</v>
+      </c>
+      <c r="U23" s="91">
+        <f t="shared" si="11"/>
+        <v>43.32822122932015</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>6</v>
+      </c>
+      <c r="B24" s="88">
+        <v>11</v>
+      </c>
+      <c r="C24" s="91">
+        <f t="shared" si="4"/>
+        <v>17.393406593406592</v>
+      </c>
+      <c r="E24" s="92">
+        <f t="shared" si="6"/>
+        <v>-6.393406593406592</v>
+      </c>
+      <c r="F24" s="92">
+        <f t="shared" si="7"/>
+        <v>6.393406593406592</v>
+      </c>
+      <c r="G24" s="91">
+        <f t="shared" si="8"/>
+        <v>40.875647868614884</v>
+      </c>
+      <c r="O24" s="1">
+        <v>6</v>
+      </c>
+      <c r="P24" s="88">
+        <v>11</v>
+      </c>
+      <c r="Q24" s="91">
+        <f t="shared" si="5"/>
+        <v>17.393406593406592</v>
+      </c>
+      <c r="S24" s="92">
+        <f t="shared" si="9"/>
+        <v>-6.393406593406592</v>
+      </c>
+      <c r="T24" s="92">
+        <f t="shared" si="10"/>
+        <v>6.393406593406592</v>
+      </c>
+      <c r="U24" s="91">
+        <f t="shared" si="11"/>
+        <v>40.875647868614884</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>7</v>
+      </c>
+      <c r="B25" s="88">
+        <v>12</v>
+      </c>
+      <c r="C25" s="91">
+        <f t="shared" si="4"/>
+        <v>18.369230769230768</v>
+      </c>
+      <c r="E25" s="92">
+        <f t="shared" si="6"/>
+        <v>-6.3692307692307679</v>
+      </c>
+      <c r="F25" s="92">
+        <f t="shared" si="7"/>
+        <v>6.3692307692307679</v>
+      </c>
+      <c r="G25" s="91">
+        <f t="shared" si="8"/>
+        <v>40.567100591715956</v>
+      </c>
+      <c r="O25" s="1">
+        <v>7</v>
+      </c>
+      <c r="P25" s="88">
+        <v>12</v>
+      </c>
+      <c r="Q25" s="91">
+        <f t="shared" si="5"/>
+        <v>18.369230769230768</v>
+      </c>
+      <c r="S25" s="103">
+        <f t="shared" si="9"/>
+        <v>-6.3692307692307679</v>
+      </c>
+      <c r="T25" s="103">
+        <f t="shared" si="10"/>
+        <v>6.3692307692307679</v>
+      </c>
+      <c r="U25" s="101">
+        <f t="shared" si="11"/>
+        <v>40.567100591715956</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
+        <v>8</v>
+      </c>
+      <c r="B26" s="88">
+        <v>24</v>
+      </c>
+      <c r="C26" s="91">
+        <f t="shared" si="4"/>
+        <v>19.345054945054944</v>
+      </c>
+      <c r="E26" s="92">
+        <f t="shared" si="6"/>
+        <v>4.6549450549450562</v>
+      </c>
+      <c r="F26" s="92">
+        <f t="shared" si="7"/>
+        <v>4.6549450549450562</v>
+      </c>
+      <c r="G26" s="91">
+        <f t="shared" si="8"/>
+        <v>21.668513464557432</v>
+      </c>
+      <c r="O26" s="1">
+        <v>8</v>
+      </c>
+      <c r="P26" s="88"/>
+      <c r="Q26" s="91">
+        <f t="shared" si="5"/>
+        <v>19.345054945054944</v>
+      </c>
+      <c r="S26" s="87" t="s">
+        <v>4</v>
+      </c>
+      <c r="T26" s="104">
+        <f>SUM(T19:T25)</f>
+        <v>47.441758241758237</v>
+      </c>
+      <c r="U26" s="104">
+        <f>SUM(U19:U25)</f>
+        <v>347.27472527472526</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
+        <v>9</v>
+      </c>
+      <c r="B27" s="88">
+        <v>30</v>
+      </c>
+      <c r="C27" s="91">
+        <f t="shared" si="4"/>
+        <v>20.32087912087912</v>
+      </c>
+      <c r="E27" s="92">
+        <f t="shared" si="6"/>
+        <v>9.6791208791208803</v>
+      </c>
+      <c r="F27" s="92">
+        <f t="shared" si="7"/>
+        <v>9.6791208791208803</v>
+      </c>
+      <c r="G27" s="91">
+        <f t="shared" si="8"/>
+        <v>93.685380992633768</v>
+      </c>
+      <c r="O27" s="1">
+        <v>9</v>
+      </c>
+      <c r="P27" s="88"/>
+      <c r="Q27" s="91">
+        <f t="shared" si="5"/>
+        <v>20.32087912087912</v>
+      </c>
+      <c r="S27" s="63"/>
+      <c r="T27" s="63" t="s">
+        <v>6</v>
+      </c>
+      <c r="U27" s="63" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
+        <v>10</v>
+      </c>
+      <c r="B28" s="88">
+        <v>22</v>
+      </c>
+      <c r="C28" s="91">
+        <f t="shared" si="4"/>
+        <v>21.296703296703296</v>
+      </c>
+      <c r="E28" s="92">
+        <f t="shared" si="6"/>
+        <v>0.70329670329670435</v>
+      </c>
+      <c r="F28" s="92">
+        <f t="shared" si="7"/>
+        <v>0.70329670329670435</v>
+      </c>
+      <c r="G28" s="91">
+        <f t="shared" si="8"/>
+        <v>0.49462625286801259</v>
+      </c>
+      <c r="O28" s="1">
+        <v>10</v>
+      </c>
+      <c r="P28" s="88"/>
+      <c r="Q28" s="91">
+        <f t="shared" si="5"/>
+        <v>21.296703296703296</v>
+      </c>
+      <c r="S28" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="T28" s="92">
+        <f>T26/7</f>
+        <v>6.7773940345368908</v>
+      </c>
+      <c r="U28" s="92">
+        <f>U26/7</f>
+        <v>49.610675039246466</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
+        <v>11</v>
+      </c>
+      <c r="B29" s="88">
+        <v>22</v>
+      </c>
+      <c r="C29" s="91">
+        <f t="shared" si="4"/>
+        <v>22.272527472527472</v>
+      </c>
+      <c r="E29" s="92">
+        <f t="shared" si="6"/>
+        <v>-0.27252747252747156</v>
+      </c>
+      <c r="F29" s="92">
+        <f t="shared" si="7"/>
+        <v>0.27252747252747156</v>
+      </c>
+      <c r="G29" s="91">
+        <f t="shared" si="8"/>
+        <v>7.4271223282211765E-2</v>
+      </c>
+      <c r="O29" s="1">
+        <v>11</v>
+      </c>
+      <c r="P29" s="88"/>
+      <c r="Q29" s="91">
+        <f t="shared" si="5"/>
+        <v>22.272527472527472</v>
+      </c>
+      <c r="S29" s="7"/>
+      <c r="T29" s="7"/>
+      <c r="U29" s="7"/>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A30" s="1">
+        <v>12</v>
+      </c>
+      <c r="B30" s="88">
+        <v>15</v>
+      </c>
+      <c r="C30" s="91">
+        <f t="shared" si="4"/>
+        <v>23.248351648351647</v>
+      </c>
+      <c r="E30" s="92">
+        <f t="shared" si="6"/>
+        <v>-8.2483516483516475</v>
+      </c>
+      <c r="F30" s="92">
+        <f t="shared" si="7"/>
+        <v>8.2483516483516475</v>
+      </c>
+      <c r="G30" s="91">
+        <f t="shared" si="8"/>
+        <v>68.035304914865335</v>
+      </c>
+      <c r="L30" s="17"/>
+      <c r="O30" s="1">
+        <v>12</v>
+      </c>
+      <c r="P30" s="88"/>
+      <c r="Q30" s="91">
+        <f t="shared" si="5"/>
+        <v>23.248351648351647</v>
+      </c>
+      <c r="S30" s="28"/>
+      <c r="T30" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="U30" s="6">
+        <f>SQRT(U26/14)</f>
+        <v>4.9804957102303815</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A31" s="1">
+        <v>13</v>
+      </c>
+      <c r="B31" s="88">
+        <v>29</v>
+      </c>
+      <c r="C31" s="91">
+        <f t="shared" si="4"/>
+        <v>24.224175824175823</v>
+      </c>
+      <c r="E31" s="92">
+        <f t="shared" si="6"/>
+        <v>4.7758241758241766</v>
+      </c>
+      <c r="F31" s="92">
+        <f t="shared" si="7"/>
+        <v>4.7758241758241766</v>
+      </c>
+      <c r="G31" s="91">
+        <f t="shared" si="8"/>
+        <v>22.808496558386675</v>
+      </c>
+      <c r="O31" s="1">
+        <v>13</v>
+      </c>
+      <c r="P31" s="88"/>
+      <c r="Q31" s="91">
+        <f t="shared" si="5"/>
+        <v>24.224175824175823</v>
+      </c>
+      <c r="S31" s="105"/>
+      <c r="T31" s="105"/>
+      <c r="U31" s="102"/>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A32" s="1">
+        <v>14</v>
+      </c>
+      <c r="B32" s="88">
+        <v>20</v>
+      </c>
+      <c r="C32" s="91">
+        <f t="shared" si="4"/>
+        <v>25.2</v>
+      </c>
+      <c r="E32" s="92">
+        <f t="shared" si="6"/>
+        <v>-5.1999999999999993</v>
+      </c>
+      <c r="F32" s="92">
+        <f t="shared" si="7"/>
+        <v>5.1999999999999993</v>
+      </c>
+      <c r="G32" s="91">
+        <f t="shared" si="8"/>
+        <v>27.039999999999992</v>
+      </c>
+      <c r="O32" s="1">
+        <v>14</v>
+      </c>
+      <c r="P32" s="88"/>
+      <c r="Q32" s="91">
+        <f t="shared" si="5"/>
+        <v>25.2</v>
+      </c>
+      <c r="S32" s="105"/>
+      <c r="T32" s="105"/>
+      <c r="U32" s="102"/>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="1">
+        <v>15</v>
+      </c>
+      <c r="B33" s="1"/>
+      <c r="C33" s="91">
+        <f t="shared" si="4"/>
+        <v>26.175824175824175</v>
+      </c>
+      <c r="E33" s="67" t="s">
+        <v>4</v>
+      </c>
+      <c r="F33" s="67">
+        <f>SUM(F19:F32)</f>
+        <v>80.975824175824172</v>
+      </c>
+      <c r="G33" s="93">
+        <f>SUM(G19:G32)</f>
+        <v>581.08131868131863</v>
+      </c>
+      <c r="O33" s="100"/>
+      <c r="P33" s="100"/>
+      <c r="Q33" s="102"/>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" s="1">
+        <v>16</v>
+      </c>
+      <c r="B34" s="1"/>
+      <c r="C34" s="91">
+        <f t="shared" si="4"/>
+        <v>27.151648351648351</v>
+      </c>
+      <c r="E34" s="63"/>
+      <c r="F34" s="63" t="s">
+        <v>6</v>
+      </c>
+      <c r="G34" s="63" t="s">
+        <v>7</v>
+      </c>
+      <c r="O34" s="100"/>
+      <c r="P34" s="100"/>
+      <c r="Q34" s="102"/>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A35" s="1">
+        <v>17</v>
+      </c>
+      <c r="B35" s="1"/>
+      <c r="C35" s="91">
+        <f t="shared" si="4"/>
+        <v>28.127472527472527</v>
+      </c>
+      <c r="E35" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="F35" s="92">
+        <f>F33/14</f>
+        <v>5.7839874411302983</v>
+      </c>
+      <c r="G35" s="92">
+        <f>G33/14</f>
+        <v>41.505808477237046</v>
+      </c>
+      <c r="O35" s="100"/>
+      <c r="P35" s="100"/>
+      <c r="Q35" s="102"/>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A36" s="1">
+        <v>18</v>
+      </c>
+      <c r="B36" s="1"/>
+      <c r="C36" s="91">
+        <f t="shared" si="4"/>
+        <v>29.103296703296699</v>
+      </c>
+      <c r="E36" s="7"/>
+      <c r="F36" s="7"/>
+      <c r="G36" s="7"/>
+      <c r="O36" s="100"/>
+      <c r="P36" s="100"/>
+      <c r="Q36" s="102"/>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A37" s="1">
+        <v>19</v>
+      </c>
+      <c r="B37" s="1"/>
+      <c r="C37" s="91">
+        <f t="shared" si="4"/>
+        <v>30.079120879120879</v>
+      </c>
+      <c r="E37" s="28"/>
+      <c r="F37" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G37" s="6">
+        <f>SQRT(G33/14)</f>
+        <v>6.4425001728550262</v>
+      </c>
+      <c r="O37" s="100"/>
+      <c r="P37" s="100"/>
+      <c r="Q37" s="102"/>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A38" s="1">
+        <v>20</v>
+      </c>
+      <c r="B38" s="1"/>
+      <c r="C38" s="91">
+        <f t="shared" si="4"/>
+        <v>31.054945054945051</v>
+      </c>
+      <c r="O38" s="100"/>
+      <c r="P38" s="100"/>
+      <c r="Q38" s="102"/>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A39" s="1">
+        <v>21</v>
+      </c>
+      <c r="B39" s="1"/>
+      <c r="C39" s="91">
+        <f t="shared" si="4"/>
+        <v>32.030769230769231</v>
+      </c>
+      <c r="O39" s="100"/>
+      <c r="P39" s="100"/>
+      <c r="Q39" s="102"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/2. Proposal/Metode/Try.xlsx
+++ b/2. Proposal/Metode/Try.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\File\Skripsi\2. Proposal\Metode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D098F56-EE59-4198-90C2-8A4E2703BD9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC0BB6A2-BDF0-47E2-A282-9364509859DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{9E0B27B6-5960-4ADA-83F0-0309D2A69620}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="7" xr2:uid="{9E0B27B6-5960-4ADA-83F0-0309D2A69620}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="Sheet5" sheetId="6" r:id="rId5"/>
     <sheet name="Pengujian" sheetId="7" r:id="rId6"/>
     <sheet name="Moving Average" sheetId="5" r:id="rId7"/>
+    <sheet name="Sheet6" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="95">
   <si>
     <t>Tanggal</t>
   </si>
@@ -317,6 +318,15 @@
   </si>
   <si>
     <t>PRDUK: MIE SEDAAP GORENG</t>
+  </si>
+  <si>
+    <t>sampai dengan tanggal 7 Januari</t>
+  </si>
+  <si>
+    <t>Data penjualan roduk XYZ pada tanggal 1 Januari</t>
+  </si>
+  <si>
+    <t>dst.</t>
   </si>
 </sst>
 </file>
@@ -771,7 +781,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="109">
+  <cellXfs count="120">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -981,6 +991,8 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -996,8 +1008,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1005,6 +1015,31 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -7241,6 +7276,79 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>483169</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>100402</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>163974</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>110227</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Arrow: Down 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D4A67D1-E5E9-07FA-78DE-CAF6F0DD60DE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4852612" y="2342997"/>
+          <a:ext cx="341527" cy="376357"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-ID" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -7540,8 +7648,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE6B0E80-D10A-4815-A892-18FD744DDE32}">
   <dimension ref="B1:T95"/>
   <sheetViews>
-    <sheetView topLeftCell="A98" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E61" sqref="E61"/>
+    <sheetView topLeftCell="A65" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B62" sqref="B62:T95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7557,27 +7665,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:20" ht="29.4" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B1" s="100" t="s">
+      <c r="B1" s="102" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="101"/>
-      <c r="D1" s="101"/>
-      <c r="E1" s="101"/>
-      <c r="F1" s="101"/>
-      <c r="G1" s="101"/>
-      <c r="H1" s="101"/>
-      <c r="I1" s="101"/>
-      <c r="J1" s="101"/>
-      <c r="K1" s="101"/>
-      <c r="L1" s="101"/>
-      <c r="M1" s="101"/>
-      <c r="N1" s="101"/>
-      <c r="O1" s="101"/>
-      <c r="P1" s="101"/>
-      <c r="Q1" s="101"/>
-      <c r="R1" s="101"/>
-      <c r="S1" s="101"/>
-      <c r="T1" s="101"/>
+      <c r="C1" s="103"/>
+      <c r="D1" s="103"/>
+      <c r="E1" s="103"/>
+      <c r="F1" s="103"/>
+      <c r="G1" s="103"/>
+      <c r="H1" s="103"/>
+      <c r="I1" s="103"/>
+      <c r="J1" s="103"/>
+      <c r="K1" s="103"/>
+      <c r="L1" s="103"/>
+      <c r="M1" s="103"/>
+      <c r="N1" s="103"/>
+      <c r="O1" s="103"/>
+      <c r="P1" s="103"/>
+      <c r="Q1" s="103"/>
+      <c r="R1" s="103"/>
+      <c r="S1" s="103"/>
+      <c r="T1" s="103"/>
     </row>
     <row r="2" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B2" s="36"/>
@@ -8108,27 +8216,27 @@
       <c r="G25" s="8"/>
     </row>
     <row r="26" spans="2:20" ht="29.4" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B26" s="100" t="s">
+      <c r="B26" s="102" t="s">
         <v>18</v>
       </c>
-      <c r="C26" s="101"/>
-      <c r="D26" s="101"/>
-      <c r="E26" s="101"/>
-      <c r="F26" s="101"/>
-      <c r="G26" s="101"/>
-      <c r="H26" s="101"/>
-      <c r="I26" s="101"/>
-      <c r="J26" s="101"/>
-      <c r="K26" s="101"/>
-      <c r="L26" s="101"/>
-      <c r="M26" s="101"/>
-      <c r="N26" s="101"/>
-      <c r="O26" s="101"/>
-      <c r="P26" s="101"/>
-      <c r="Q26" s="101"/>
-      <c r="R26" s="101"/>
-      <c r="S26" s="101"/>
-      <c r="T26" s="101"/>
+      <c r="C26" s="103"/>
+      <c r="D26" s="103"/>
+      <c r="E26" s="103"/>
+      <c r="F26" s="103"/>
+      <c r="G26" s="103"/>
+      <c r="H26" s="103"/>
+      <c r="I26" s="103"/>
+      <c r="J26" s="103"/>
+      <c r="K26" s="103"/>
+      <c r="L26" s="103"/>
+      <c r="M26" s="103"/>
+      <c r="N26" s="103"/>
+      <c r="O26" s="103"/>
+      <c r="P26" s="103"/>
+      <c r="Q26" s="103"/>
+      <c r="R26" s="103"/>
+      <c r="S26" s="103"/>
+      <c r="T26" s="103"/>
     </row>
     <row r="27" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B27" s="36"/>
@@ -8255,10 +8363,10 @@
       <c r="N32" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="O32" s="99" t="s">
+      <c r="O32" s="101" t="s">
         <v>32</v>
       </c>
-      <c r="P32" s="99"/>
+      <c r="P32" s="101"/>
       <c r="T32" s="42"/>
     </row>
     <row r="33" spans="2:20" x14ac:dyDescent="0.3">
@@ -8277,10 +8385,10 @@
         <f t="shared" si="5"/>
         <v>1065</v>
       </c>
-      <c r="O33" s="103" t="s">
+      <c r="O33" s="105" t="s">
         <v>33</v>
       </c>
-      <c r="P33" s="103"/>
+      <c r="P33" s="105"/>
       <c r="T33" s="42"/>
     </row>
     <row r="34" spans="2:20" x14ac:dyDescent="0.3">
@@ -8299,10 +8407,10 @@
         <f t="shared" si="5"/>
         <v>1260</v>
       </c>
-      <c r="O34" s="99" t="s">
+      <c r="O34" s="101" t="s">
         <v>34</v>
       </c>
-      <c r="P34" s="99"/>
+      <c r="P34" s="101"/>
       <c r="T34" s="42"/>
     </row>
     <row r="35" spans="2:20" x14ac:dyDescent="0.3">
@@ -8349,10 +8457,10 @@
       <c r="N36" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="O36" s="99" t="s">
+      <c r="O36" s="101" t="s">
         <v>35</v>
       </c>
-      <c r="P36" s="99"/>
+      <c r="P36" s="101"/>
       <c r="T36" s="42"/>
     </row>
     <row r="37" spans="2:20" x14ac:dyDescent="0.3">
@@ -8382,20 +8490,20 @@
         <f>((8*G37)-(C37*D37))/((8*F37)-(C37)^2)</f>
         <v>1.0238095238095237</v>
       </c>
-      <c r="O37" s="103" t="s">
+      <c r="O37" s="105" t="s">
         <v>33</v>
       </c>
-      <c r="P37" s="103"/>
+      <c r="P37" s="105"/>
       <c r="T37" s="42"/>
     </row>
     <row r="38" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B38" s="41"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
-      <c r="O38" s="99" t="s">
+      <c r="O38" s="101" t="s">
         <v>34</v>
       </c>
-      <c r="P38" s="99"/>
+      <c r="P38" s="101"/>
       <c r="T38" s="42"/>
     </row>
     <row r="39" spans="2:20" x14ac:dyDescent="0.3">
@@ -8848,12 +8956,12 @@
     </row>
     <row r="63" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B63" s="41"/>
-      <c r="C63" s="102" t="s">
+      <c r="C63" s="104" t="s">
         <v>52</v>
       </c>
-      <c r="D63" s="102"/>
-      <c r="E63" s="102"/>
-      <c r="F63" s="102"/>
+      <c r="D63" s="104"/>
+      <c r="E63" s="104"/>
+      <c r="F63" s="104"/>
       <c r="L63" s="22"/>
       <c r="M63" s="17" t="s">
         <v>22</v>
@@ -8864,13 +8972,13 @@
     </row>
     <row r="64" spans="2:20" ht="18" x14ac:dyDescent="0.35">
       <c r="B64" s="41"/>
-      <c r="C64" s="102" t="s">
+      <c r="C64" s="104" t="s">
         <v>53</v>
       </c>
-      <c r="D64" s="102"/>
-      <c r="E64" s="102"/>
-      <c r="F64" s="102"/>
-      <c r="G64" s="102"/>
+      <c r="D64" s="104"/>
+      <c r="E64" s="104"/>
+      <c r="F64" s="104"/>
+      <c r="G64" s="104"/>
       <c r="M64" t="s">
         <v>23</v>
       </c>
@@ -8918,10 +9026,10 @@
       <c r="M67" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="N67" s="99" t="s">
+      <c r="N67" s="101" t="s">
         <v>32</v>
       </c>
-      <c r="O67" s="99"/>
+      <c r="O67" s="101"/>
       <c r="T67" s="42"/>
     </row>
     <row r="68" spans="2:20" x14ac:dyDescent="0.3">
@@ -8943,10 +9051,10 @@
         <f>D68*C68</f>
         <v>2</v>
       </c>
-      <c r="N68" s="103" t="s">
+      <c r="N68" s="105" t="s">
         <v>33</v>
       </c>
-      <c r="O68" s="103"/>
+      <c r="O68" s="105"/>
       <c r="T68" s="42"/>
     </row>
     <row r="69" spans="2:20" x14ac:dyDescent="0.3">
@@ -8968,10 +9076,10 @@
         <f t="shared" ref="H69:H74" si="13">D69*C69</f>
         <v>4</v>
       </c>
-      <c r="N69" s="99" t="s">
+      <c r="N69" s="101" t="s">
         <v>34</v>
       </c>
-      <c r="O69" s="99"/>
+      <c r="O69" s="101"/>
       <c r="T69" s="42"/>
     </row>
     <row r="70" spans="2:20" x14ac:dyDescent="0.3">
@@ -9017,10 +9125,10 @@
       <c r="M71" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="N71" s="99" t="s">
+      <c r="N71" s="101" t="s">
         <v>35</v>
       </c>
-      <c r="O71" s="99"/>
+      <c r="O71" s="101"/>
       <c r="T71" s="42"/>
     </row>
     <row r="72" spans="2:20" x14ac:dyDescent="0.3">
@@ -9042,10 +9150,10 @@
         <f t="shared" si="13"/>
         <v>15</v>
       </c>
-      <c r="N72" s="103" t="s">
+      <c r="N72" s="105" t="s">
         <v>33</v>
       </c>
-      <c r="O72" s="103"/>
+      <c r="O72" s="105"/>
       <c r="T72" s="42"/>
     </row>
     <row r="73" spans="2:20" x14ac:dyDescent="0.3">
@@ -9067,10 +9175,10 @@
         <f t="shared" si="13"/>
         <v>12</v>
       </c>
-      <c r="N73" s="99" t="s">
+      <c r="N73" s="101" t="s">
         <v>34</v>
       </c>
-      <c r="O73" s="99"/>
+      <c r="O73" s="101"/>
       <c r="T73" s="42"/>
     </row>
     <row r="74" spans="2:20" x14ac:dyDescent="0.3">
@@ -9719,7 +9827,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2841FB6-975F-477D-89A2-D948C0B29F1F}">
   <dimension ref="B1:W455"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A103" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="T114" sqref="T114"/>
     </sheetView>
   </sheetViews>
@@ -9792,10 +9900,10 @@
       <c r="Q3" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="R3" s="99" t="s">
+      <c r="R3" s="101" t="s">
         <v>32</v>
       </c>
-      <c r="S3" s="99"/>
+      <c r="S3" s="101"/>
     </row>
     <row r="4" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B4" s="1">
@@ -9819,10 +9927,10 @@
         <f>SUM(C2:C455)</f>
         <v>5632</v>
       </c>
-      <c r="R4" s="103" t="s">
+      <c r="R4" s="105" t="s">
         <v>33</v>
       </c>
-      <c r="S4" s="103"/>
+      <c r="S4" s="105"/>
     </row>
     <row r="5" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B5" s="1">
@@ -9846,10 +9954,10 @@
         <f>SUM(E2:E455)</f>
         <v>31295355</v>
       </c>
-      <c r="R5" s="99" t="s">
+      <c r="R5" s="101" t="s">
         <v>34</v>
       </c>
-      <c r="S5" s="99"/>
+      <c r="S5" s="101"/>
     </row>
     <row r="6" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B6" s="1">
@@ -9899,10 +10007,10 @@
       <c r="Q7" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="R7" s="99" t="s">
+      <c r="R7" s="101" t="s">
         <v>35</v>
       </c>
-      <c r="S7" s="99"/>
+      <c r="S7" s="101"/>
     </row>
     <row r="8" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B8" s="1">
@@ -9919,10 +10027,10 @@
         <f t="shared" si="1"/>
         <v>147</v>
       </c>
-      <c r="R8" s="103" t="s">
+      <c r="R8" s="105" t="s">
         <v>33</v>
       </c>
-      <c r="S8" s="103"/>
+      <c r="S8" s="105"/>
     </row>
     <row r="9" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B9" s="1">
@@ -9939,10 +10047,10 @@
         <f t="shared" si="1"/>
         <v>152</v>
       </c>
-      <c r="R9" s="99" t="s">
+      <c r="R9" s="101" t="s">
         <v>34</v>
       </c>
-      <c r="S9" s="99"/>
+      <c r="S9" s="101"/>
     </row>
     <row r="10" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B10" s="1">
@@ -32444,7 +32552,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7493300-795F-4792-B7F7-62863B1598EB}">
   <dimension ref="B1:AX152"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="89" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A68" zoomScale="89" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="F78" sqref="F78:I78"/>
     </sheetView>
   </sheetViews>
@@ -32725,7 +32833,7 @@
         <v>2.8511679644048948</v>
       </c>
       <c r="Y4" s="1">
-        <f t="shared" ref="Y3:Y32" si="11">_xlfn.FORECAST.LINEAR(W4,$F$3:$F$32,$E$3:$E$32)</f>
+        <f t="shared" ref="Y4:Y32" si="11">_xlfn.FORECAST.LINEAR(W4,$F$3:$F$32,$E$3:$E$32)</f>
         <v>6.5152391546162409</v>
       </c>
       <c r="AA4" s="20">
@@ -36211,11 +36319,11 @@
       <c r="G47" s="1">
         <v>16</v>
       </c>
-      <c r="H47" s="104">
+      <c r="H47" s="99">
         <f>FORECAST(E47+30,$F$47:$F$76,$E$47:$E$76)</f>
         <v>5.5103448275862075</v>
       </c>
-      <c r="I47" s="104">
+      <c r="I47" s="99">
         <f>ABS(G47-H47)</f>
         <v>10.489655172413793</v>
       </c>
@@ -36228,11 +36336,11 @@
       <c r="M47" s="1">
         <v>9</v>
       </c>
-      <c r="N47" s="104">
+      <c r="N47" s="99">
         <f>FORECAST(K47+30,$L$47:$L$76,$E$47:$E$76)</f>
         <v>5.9287356321839084</v>
       </c>
-      <c r="O47" s="104">
+      <c r="O47" s="99">
         <f>ABS(M47-N47)</f>
         <v>3.0712643678160916</v>
       </c>
@@ -36245,11 +36353,11 @@
       <c r="S47" s="1">
         <v>1</v>
       </c>
-      <c r="T47" s="104">
+      <c r="T47" s="99">
         <f>FORECAST(Q47+30,$R$47:$R$76,$E$47:$E$76)</f>
         <v>26.234482758620693</v>
       </c>
-      <c r="U47" s="104">
+      <c r="U47" s="99">
         <f>ABS(S47-T47)</f>
         <v>25.234482758620693</v>
       </c>
@@ -36262,11 +36370,11 @@
       <c r="Y47" s="1">
         <v>5</v>
       </c>
-      <c r="Z47" s="104">
+      <c r="Z47" s="99">
         <f>FORECAST(W47+30,$X$47:$X$76,$W$47:$W$76)</f>
         <v>5.4942528735632177</v>
       </c>
-      <c r="AA47" s="104">
+      <c r="AA47" s="99">
         <f>ABS(Y47-Z47)</f>
         <v>0.49425287356321768</v>
       </c>
@@ -36279,11 +36387,11 @@
       <c r="AE47" s="1">
         <v>9</v>
       </c>
-      <c r="AF47" s="104">
+      <c r="AF47" s="99">
         <f>FORECAST(AC47+30,$AD$47:$AD$76,$E$47:$E$76)</f>
         <v>35.526436781609206</v>
       </c>
-      <c r="AG47" s="104">
+      <c r="AG47" s="99">
         <f>ABS(AE47-AF47)</f>
         <v>26.526436781609206</v>
       </c>
@@ -36296,11 +36404,11 @@
       <c r="AK47" s="1">
         <v>1</v>
       </c>
-      <c r="AL47" s="104">
+      <c r="AL47" s="99">
         <f>FORECAST(AI47+30,$AJ$47:$AJ$76,$E$47:$E$76)</f>
         <v>6.3931034482758626</v>
       </c>
-      <c r="AM47" s="104">
+      <c r="AM47" s="99">
         <f>ABS(AK47-AL47)</f>
         <v>5.3931034482758626</v>
       </c>
@@ -36313,11 +36421,11 @@
       <c r="AQ47" s="1">
         <v>2</v>
       </c>
-      <c r="AR47" s="104">
+      <c r="AR47" s="99">
         <f>FORECAST(AO47+30,$AP$47:$AP$76,$E$47:$E$76)</f>
         <v>7.4459770114942527</v>
       </c>
-      <c r="AS47" s="104">
+      <c r="AS47" s="99">
         <f>ABS(AQ47-AR47)</f>
         <v>5.4459770114942527</v>
       </c>
@@ -36332,11 +36440,11 @@
       <c r="G48" s="1">
         <v>3</v>
       </c>
-      <c r="H48" s="104">
+      <c r="H48" s="99">
         <f>FORECAST(E48+30,$F$47:$F$76,$E$47:$E$76)</f>
         <v>5.5239154616240267</v>
       </c>
-      <c r="I48" s="104">
+      <c r="I48" s="99">
         <f t="shared" ref="I48:I76" si="18">ABS(G48-H48)</f>
         <v>2.5239154616240267</v>
       </c>
@@ -36349,11 +36457,11 @@
       <c r="M48" s="1">
         <v>2</v>
       </c>
-      <c r="N48" s="104">
+      <c r="N48" s="99">
         <f t="shared" ref="N48:N76" si="19">FORECAST(K48+30,$L$47:$L$76,$E$47:$E$76)</f>
         <v>5.8811271783463113</v>
       </c>
-      <c r="O48" s="104">
+      <c r="O48" s="99">
         <f t="shared" ref="O48:O76" si="20">ABS(M48-N48)</f>
         <v>3.8811271783463113</v>
       </c>
@@ -36366,11 +36474,11 @@
       <c r="S48" s="1">
         <v>5</v>
       </c>
-      <c r="T48" s="104">
+      <c r="T48" s="99">
         <f t="shared" ref="T48:T76" si="21">FORECAST(Q48+30,$R$47:$R$76,$E$47:$E$76)</f>
         <v>26.856062291434931</v>
       </c>
-      <c r="U48" s="104">
+      <c r="U48" s="99">
         <f t="shared" ref="U48:U76" si="22">ABS(S48-T48)</f>
         <v>21.856062291434931</v>
       </c>
@@ -36383,11 +36491,11 @@
       <c r="Y48" s="1">
         <v>0</v>
       </c>
-      <c r="Z48" s="104">
+      <c r="Z48" s="99">
         <f t="shared" ref="Z48:Z76" si="23">FORECAST(W48+30,$X$47:$X$76,$W$47:$W$76)</f>
         <v>5.1476455320726728</v>
       </c>
-      <c r="AA48" s="104">
+      <c r="AA48" s="99">
         <f t="shared" ref="AA48:AA76" si="24">ABS(Y48-Z48)</f>
         <v>5.1476455320726728</v>
       </c>
@@ -36400,11 +36508,11 @@
       <c r="AE48" s="1">
         <v>4</v>
       </c>
-      <c r="AF48" s="104">
+      <c r="AF48" s="99">
         <f t="shared" ref="AF48:AF76" si="25">FORECAST(AC48+30,$AD$47:$AD$76,$E$47:$E$76)</f>
         <v>36.332443455691518</v>
       </c>
-      <c r="AG48" s="104">
+      <c r="AG48" s="99">
         <f t="shared" ref="AG48:AG76" si="26">ABS(AE48-AF48)</f>
         <v>32.332443455691518</v>
       </c>
@@ -36417,11 +36525,11 @@
       <c r="AK48" s="1">
         <v>0</v>
       </c>
-      <c r="AL48" s="104">
+      <c r="AL48" s="99">
         <f t="shared" ref="AL48:AL76" si="27">FORECAST(AI48+30,$AJ$47:$AJ$76,$E$47:$E$76)</f>
         <v>6.5152391546162409</v>
       </c>
-      <c r="AM48" s="104">
+      <c r="AM48" s="99">
         <f t="shared" ref="AM48:AM76" si="28">ABS(AK48-AL48)</f>
         <v>6.5152391546162409</v>
       </c>
@@ -36434,11 +36542,11 @@
       <c r="AQ48" s="1">
         <v>0</v>
       </c>
-      <c r="AR48" s="104">
+      <c r="AR48" s="99">
         <f t="shared" ref="AR48:AR76" si="29">FORECAST(AO48+30,$AP$47:$AP$76,$E$47:$E$76)</f>
         <v>7.631738969225065</v>
       </c>
-      <c r="AS48" s="104">
+      <c r="AS48" s="99">
         <f t="shared" ref="AS48:AS76" si="30">ABS(AQ48-AR48)</f>
         <v>7.631738969225065</v>
       </c>
@@ -36453,11 +36561,11 @@
       <c r="G49" s="1">
         <v>0</v>
       </c>
-      <c r="H49" s="104">
+      <c r="H49" s="99">
         <f t="shared" ref="H49:H76" si="31">FORECAST(E49+30,$F$47:$F$76,$E$47:$E$76)</f>
         <v>5.5374860956618468</v>
       </c>
-      <c r="I49" s="104">
+      <c r="I49" s="99">
         <f t="shared" si="18"/>
         <v>5.5374860956618468</v>
       </c>
@@ -36470,11 +36578,11 @@
       <c r="M49" s="1">
         <v>0</v>
       </c>
-      <c r="N49" s="104">
+      <c r="N49" s="99">
         <f t="shared" si="19"/>
         <v>5.8335187245087132</v>
       </c>
-      <c r="O49" s="104">
+      <c r="O49" s="99">
         <f t="shared" si="20"/>
         <v>5.8335187245087132</v>
       </c>
@@ -36487,11 +36595,11 @@
       <c r="S49" s="1">
         <v>0</v>
       </c>
-      <c r="T49" s="104">
+      <c r="T49" s="99">
         <f t="shared" si="21"/>
         <v>27.477641824249169</v>
       </c>
-      <c r="U49" s="104">
+      <c r="U49" s="99">
         <f t="shared" si="22"/>
         <v>27.477641824249169</v>
       </c>
@@ -36504,11 +36612,11 @@
       <c r="Y49" s="1">
         <v>0</v>
       </c>
-      <c r="Z49" s="104">
+      <c r="Z49" s="99">
         <f t="shared" si="23"/>
         <v>4.801038190582128</v>
       </c>
-      <c r="AA49" s="104">
+      <c r="AA49" s="99">
         <f t="shared" si="24"/>
         <v>4.801038190582128</v>
       </c>
@@ -36521,11 +36629,11 @@
       <c r="AE49" s="1">
         <v>0</v>
       </c>
-      <c r="AF49" s="104">
+      <c r="AF49" s="99">
         <f t="shared" si="25"/>
         <v>37.13845012977383</v>
       </c>
-      <c r="AG49" s="104">
+      <c r="AG49" s="99">
         <f t="shared" si="26"/>
         <v>37.13845012977383</v>
       </c>
@@ -36538,11 +36646,11 @@
       <c r="AK49" s="1">
         <v>0</v>
       </c>
-      <c r="AL49" s="104">
+      <c r="AL49" s="99">
         <f t="shared" si="27"/>
         <v>6.6373748609566183</v>
       </c>
-      <c r="AM49" s="104">
+      <c r="AM49" s="99">
         <f t="shared" si="28"/>
         <v>6.6373748609566183</v>
       </c>
@@ -36555,11 +36663,11 @@
       <c r="AQ49" s="1">
         <v>0</v>
       </c>
-      <c r="AR49" s="104">
+      <c r="AR49" s="99">
         <f t="shared" si="29"/>
         <v>7.8175009269558773</v>
       </c>
-      <c r="AS49" s="104">
+      <c r="AS49" s="99">
         <f t="shared" si="30"/>
         <v>7.8175009269558773</v>
       </c>
@@ -36574,11 +36682,11 @@
       <c r="G50" s="1">
         <v>3</v>
       </c>
-      <c r="H50" s="104">
+      <c r="H50" s="99">
         <f t="shared" si="31"/>
         <v>5.5510567296996669</v>
       </c>
-      <c r="I50" s="104">
+      <c r="I50" s="99">
         <f t="shared" si="18"/>
         <v>2.5510567296996669</v>
       </c>
@@ -36591,11 +36699,11 @@
       <c r="M50" s="1">
         <v>4</v>
       </c>
-      <c r="N50" s="104">
+      <c r="N50" s="99">
         <f t="shared" si="19"/>
         <v>5.7859102706711161</v>
       </c>
-      <c r="O50" s="104">
+      <c r="O50" s="99">
         <f t="shared" si="20"/>
         <v>1.7859102706711161</v>
       </c>
@@ -36608,11 +36716,11 @@
       <c r="S50" s="1">
         <v>16</v>
       </c>
-      <c r="T50" s="104">
+      <c r="T50" s="99">
         <f t="shared" si="21"/>
         <v>28.099221357063406</v>
       </c>
-      <c r="U50" s="104">
+      <c r="U50" s="99">
         <f t="shared" si="22"/>
         <v>12.099221357063406</v>
       </c>
@@ -36625,11 +36733,11 @@
       <c r="Y50" s="1">
         <v>0</v>
       </c>
-      <c r="Z50" s="104">
+      <c r="Z50" s="99">
         <f t="shared" si="23"/>
         <v>4.4544308490915832</v>
       </c>
-      <c r="AA50" s="104">
+      <c r="AA50" s="99">
         <f t="shared" si="24"/>
         <v>4.4544308490915832</v>
       </c>
@@ -36642,11 +36750,11 @@
       <c r="AE50" s="1">
         <v>29</v>
       </c>
-      <c r="AF50" s="104">
+      <c r="AF50" s="99">
         <f t="shared" si="25"/>
         <v>37.944456803856141</v>
       </c>
-      <c r="AG50" s="104">
+      <c r="AG50" s="99">
         <f t="shared" si="26"/>
         <v>8.9444568038561414</v>
       </c>
@@ -36659,11 +36767,11 @@
       <c r="AK50" s="1">
         <v>6</v>
       </c>
-      <c r="AL50" s="104">
+      <c r="AL50" s="99">
         <f t="shared" si="27"/>
         <v>6.7595105672969966</v>
       </c>
-      <c r="AM50" s="104">
+      <c r="AM50" s="99">
         <f t="shared" si="28"/>
         <v>0.75951056729699662</v>
       </c>
@@ -36676,11 +36784,11 @@
       <c r="AQ50" s="1">
         <v>10</v>
       </c>
-      <c r="AR50" s="104">
+      <c r="AR50" s="99">
         <f t="shared" si="29"/>
         <v>8.0032628846866878</v>
       </c>
-      <c r="AS50" s="104">
+      <c r="AS50" s="99">
         <f t="shared" si="30"/>
         <v>1.9967371153133122</v>
       </c>
@@ -36695,11 +36803,11 @@
       <c r="G51" s="1">
         <v>2</v>
       </c>
-      <c r="H51" s="104">
+      <c r="H51" s="99">
         <f t="shared" si="31"/>
         <v>5.5646273637374861</v>
       </c>
-      <c r="I51" s="104">
+      <c r="I51" s="99">
         <f t="shared" si="18"/>
         <v>3.5646273637374861</v>
       </c>
@@ -36712,11 +36820,11 @@
       <c r="M51" s="1">
         <v>0</v>
       </c>
-      <c r="N51" s="104">
+      <c r="N51" s="99">
         <f t="shared" si="19"/>
         <v>5.7383018168335189</v>
       </c>
-      <c r="O51" s="104">
+      <c r="O51" s="99">
         <f t="shared" si="20"/>
         <v>5.7383018168335189</v>
       </c>
@@ -36729,11 +36837,11 @@
       <c r="S51" s="1">
         <v>30</v>
       </c>
-      <c r="T51" s="104">
+      <c r="T51" s="99">
         <f t="shared" si="21"/>
         <v>28.720800889877644</v>
       </c>
-      <c r="U51" s="104">
+      <c r="U51" s="99">
         <f t="shared" si="22"/>
         <v>1.2791991101223559</v>
       </c>
@@ -36746,11 +36854,11 @@
       <c r="Y51" s="1">
         <v>0</v>
       </c>
-      <c r="Z51" s="104">
+      <c r="Z51" s="99">
         <f t="shared" si="23"/>
         <v>4.1078235076010365</v>
       </c>
-      <c r="AA51" s="104">
+      <c r="AA51" s="99">
         <f t="shared" si="24"/>
         <v>4.1078235076010365</v>
       </c>
@@ -36763,11 +36871,11 @@
       <c r="AE51" s="1">
         <v>27</v>
       </c>
-      <c r="AF51" s="104">
+      <c r="AF51" s="99">
         <f t="shared" si="25"/>
         <v>38.75046347793846</v>
       </c>
-      <c r="AG51" s="104">
+      <c r="AG51" s="99">
         <f t="shared" si="26"/>
         <v>11.75046347793846</v>
       </c>
@@ -36780,11 +36888,11 @@
       <c r="AK51" s="1">
         <v>3</v>
       </c>
-      <c r="AL51" s="104">
+      <c r="AL51" s="99">
         <f t="shared" si="27"/>
         <v>6.8816462736373749</v>
       </c>
-      <c r="AM51" s="104">
+      <c r="AM51" s="99">
         <f t="shared" si="28"/>
         <v>3.8816462736373749</v>
       </c>
@@ -36797,11 +36905,11 @@
       <c r="AQ51" s="1">
         <v>2</v>
       </c>
-      <c r="AR51" s="104">
+      <c r="AR51" s="99">
         <f t="shared" si="29"/>
         <v>8.1890248424175009</v>
       </c>
-      <c r="AS51" s="104">
+      <c r="AS51" s="99">
         <f t="shared" si="30"/>
         <v>6.1890248424175009</v>
       </c>
@@ -36816,11 +36924,11 @@
       <c r="G52" s="1">
         <v>6</v>
       </c>
-      <c r="H52" s="104">
+      <c r="H52" s="99">
         <f t="shared" si="31"/>
         <v>5.5781979977753062</v>
       </c>
-      <c r="I52" s="104">
+      <c r="I52" s="99">
         <f t="shared" si="18"/>
         <v>0.42180200222469377</v>
       </c>
@@ -36833,11 +36941,11 @@
       <c r="M52" s="1">
         <v>0</v>
       </c>
-      <c r="N52" s="104">
+      <c r="N52" s="99">
         <f t="shared" si="19"/>
         <v>5.6906933629959218</v>
       </c>
-      <c r="O52" s="104">
+      <c r="O52" s="99">
         <f t="shared" si="20"/>
         <v>5.6906933629959218</v>
       </c>
@@ -36850,11 +36958,11 @@
       <c r="S52" s="1">
         <v>6</v>
       </c>
-      <c r="T52" s="104">
+      <c r="T52" s="99">
         <f t="shared" si="21"/>
         <v>29.342380422691882</v>
       </c>
-      <c r="U52" s="104">
+      <c r="U52" s="99">
         <f t="shared" si="22"/>
         <v>23.342380422691882</v>
       </c>
@@ -36867,11 +36975,11 @@
       <c r="Y52" s="1">
         <v>0</v>
       </c>
-      <c r="Z52" s="104">
+      <c r="Z52" s="99">
         <f t="shared" si="23"/>
         <v>3.7612161661104917</v>
       </c>
-      <c r="AA52" s="104">
+      <c r="AA52" s="99">
         <f t="shared" si="24"/>
         <v>3.7612161661104917</v>
       </c>
@@ -36884,11 +36992,11 @@
       <c r="AE52" s="1">
         <v>27</v>
       </c>
-      <c r="AF52" s="104">
+      <c r="AF52" s="99">
         <f t="shared" si="25"/>
         <v>39.556470152020779</v>
       </c>
-      <c r="AG52" s="104">
+      <c r="AG52" s="99">
         <f t="shared" si="26"/>
         <v>12.556470152020779</v>
       </c>
@@ -36901,11 +37009,11 @@
       <c r="AK52" s="1">
         <v>13</v>
       </c>
-      <c r="AL52" s="104">
+      <c r="AL52" s="99">
         <f t="shared" si="27"/>
         <v>7.0037819799777532</v>
       </c>
-      <c r="AM52" s="104">
+      <c r="AM52" s="99">
         <f t="shared" si="28"/>
         <v>5.9962180200222468</v>
       </c>
@@ -36918,11 +37026,11 @@
       <c r="AQ52" s="1">
         <v>9</v>
       </c>
-      <c r="AR52" s="104">
+      <c r="AR52" s="99">
         <f t="shared" si="29"/>
         <v>8.3747868001483141</v>
       </c>
-      <c r="AS52" s="104">
+      <c r="AS52" s="99">
         <f t="shared" si="30"/>
         <v>0.62521319985168589</v>
       </c>
@@ -36937,11 +37045,11 @@
       <c r="G53" s="1">
         <v>5</v>
       </c>
-      <c r="H53" s="104">
+      <c r="H53" s="99">
         <f t="shared" si="31"/>
         <v>5.5917686318131263</v>
       </c>
-      <c r="I53" s="104">
+      <c r="I53" s="99">
         <f t="shared" si="18"/>
         <v>0.59176863181312633</v>
       </c>
@@ -36954,11 +37062,11 @@
       <c r="M53" s="1">
         <v>0</v>
       </c>
-      <c r="N53" s="104">
+      <c r="N53" s="99">
         <f t="shared" si="19"/>
         <v>5.6430849091583237</v>
       </c>
-      <c r="O53" s="104">
+      <c r="O53" s="99">
         <f t="shared" si="20"/>
         <v>5.6430849091583237</v>
       </c>
@@ -36971,11 +37079,11 @@
       <c r="S53" s="1">
         <v>6</v>
       </c>
-      <c r="T53" s="104">
+      <c r="T53" s="99">
         <f t="shared" si="21"/>
         <v>29.963959955506123</v>
       </c>
-      <c r="U53" s="104">
+      <c r="U53" s="99">
         <f t="shared" si="22"/>
         <v>23.963959955506123</v>
       </c>
@@ -36988,11 +37096,11 @@
       <c r="Y53" s="1">
         <v>0</v>
       </c>
-      <c r="Z53" s="104">
+      <c r="Z53" s="99">
         <f t="shared" si="23"/>
         <v>3.4146088246199469</v>
       </c>
-      <c r="AA53" s="104">
+      <c r="AA53" s="99">
         <f t="shared" si="24"/>
         <v>3.4146088246199469</v>
       </c>
@@ -37005,11 +37113,11 @@
       <c r="AE53" s="1">
         <v>16</v>
       </c>
-      <c r="AF53" s="104">
+      <c r="AF53" s="99">
         <f t="shared" si="25"/>
         <v>40.362476826103091</v>
       </c>
-      <c r="AG53" s="104">
+      <c r="AG53" s="99">
         <f t="shared" si="26"/>
         <v>24.362476826103091</v>
       </c>
@@ -37022,11 +37130,11 @@
       <c r="AK53" s="1">
         <v>4</v>
       </c>
-      <c r="AL53" s="104">
+      <c r="AL53" s="99">
         <f t="shared" si="27"/>
         <v>7.1259176863181315</v>
       </c>
-      <c r="AM53" s="104">
+      <c r="AM53" s="99">
         <f t="shared" si="28"/>
         <v>3.1259176863181315</v>
       </c>
@@ -37039,11 +37147,11 @@
       <c r="AQ53" s="1">
         <v>6</v>
       </c>
-      <c r="AR53" s="104">
+      <c r="AR53" s="99">
         <f t="shared" si="29"/>
         <v>8.5605487578791255</v>
       </c>
-      <c r="AS53" s="104">
+      <c r="AS53" s="99">
         <f t="shared" si="30"/>
         <v>2.5605487578791255</v>
       </c>
@@ -37058,11 +37166,11 @@
       <c r="G54" s="1">
         <v>3</v>
       </c>
-      <c r="H54" s="104">
+      <c r="H54" s="99">
         <f t="shared" si="31"/>
         <v>5.6053392658509456</v>
       </c>
-      <c r="I54" s="104">
+      <c r="I54" s="99">
         <f t="shared" si="18"/>
         <v>2.6053392658509456</v>
       </c>
@@ -37075,11 +37183,11 @@
       <c r="M54" s="1">
         <v>0</v>
       </c>
-      <c r="N54" s="104">
+      <c r="N54" s="99">
         <f t="shared" si="19"/>
         <v>5.5954764553207266</v>
       </c>
-      <c r="O54" s="104">
+      <c r="O54" s="99">
         <f t="shared" si="20"/>
         <v>5.5954764553207266</v>
       </c>
@@ -37092,11 +37200,11 @@
       <c r="S54" s="1">
         <v>18</v>
       </c>
-      <c r="T54" s="104">
+      <c r="T54" s="99">
         <f t="shared" si="21"/>
         <v>30.585539488320361</v>
       </c>
-      <c r="U54" s="104">
+      <c r="U54" s="99">
         <f t="shared" si="22"/>
         <v>12.585539488320361</v>
       </c>
@@ -37109,11 +37217,11 @@
       <c r="Y54" s="1">
         <v>0</v>
       </c>
-      <c r="Z54" s="104">
+      <c r="Z54" s="99">
         <f t="shared" si="23"/>
         <v>3.068001483129402</v>
       </c>
-      <c r="AA54" s="104">
+      <c r="AA54" s="99">
         <f t="shared" si="24"/>
         <v>3.068001483129402</v>
       </c>
@@ -37126,11 +37234,11 @@
       <c r="AE54" s="1">
         <v>15</v>
       </c>
-      <c r="AF54" s="104">
+      <c r="AF54" s="99">
         <f t="shared" si="25"/>
         <v>41.168483500185403</v>
       </c>
-      <c r="AG54" s="104">
+      <c r="AG54" s="99">
         <f t="shared" si="26"/>
         <v>26.168483500185403</v>
       </c>
@@ -37143,11 +37251,11 @@
       <c r="AK54" s="1">
         <v>4</v>
       </c>
-      <c r="AL54" s="104">
+      <c r="AL54" s="99">
         <f t="shared" si="27"/>
         <v>7.2480533926585098</v>
       </c>
-      <c r="AM54" s="104">
+      <c r="AM54" s="99">
         <f t="shared" si="28"/>
         <v>3.2480533926585098</v>
       </c>
@@ -37160,11 +37268,11 @@
       <c r="AQ54" s="1">
         <v>5</v>
       </c>
-      <c r="AR54" s="104">
+      <c r="AR54" s="99">
         <f t="shared" si="29"/>
         <v>8.7463107156099369</v>
       </c>
-      <c r="AS54" s="104">
+      <c r="AS54" s="99">
         <f t="shared" si="30"/>
         <v>3.7463107156099369</v>
       </c>
@@ -37179,11 +37287,11 @@
       <c r="G55" s="1">
         <v>1</v>
       </c>
-      <c r="H55" s="104">
+      <c r="H55" s="99">
         <f t="shared" si="31"/>
         <v>5.6189098998887657</v>
       </c>
-      <c r="I55" s="104">
+      <c r="I55" s="99">
         <f t="shared" si="18"/>
         <v>4.6189098998887657</v>
       </c>
@@ -37196,11 +37304,11 @@
       <c r="M55" s="1">
         <v>0</v>
       </c>
-      <c r="N55" s="104">
+      <c r="N55" s="99">
         <f t="shared" si="19"/>
         <v>5.5478680014831294</v>
       </c>
-      <c r="O55" s="104">
+      <c r="O55" s="99">
         <f t="shared" si="20"/>
         <v>5.5478680014831294</v>
       </c>
@@ -37213,11 +37321,11 @@
       <c r="S55" s="1">
         <v>4</v>
       </c>
-      <c r="T55" s="104">
+      <c r="T55" s="99">
         <f t="shared" si="21"/>
         <v>31.207119021134599</v>
       </c>
-      <c r="U55" s="104">
+      <c r="U55" s="99">
         <f t="shared" si="22"/>
         <v>27.207119021134599</v>
       </c>
@@ -37230,11 +37338,11 @@
       <c r="Y55" s="1">
         <v>0</v>
       </c>
-      <c r="Z55" s="104">
+      <c r="Z55" s="99">
         <f t="shared" si="23"/>
         <v>2.7213941416388572</v>
       </c>
-      <c r="AA55" s="104">
+      <c r="AA55" s="99">
         <f t="shared" si="24"/>
         <v>2.7213941416388572</v>
       </c>
@@ -37247,11 +37355,11 @@
       <c r="AE55" s="1">
         <v>24</v>
       </c>
-      <c r="AF55" s="104">
+      <c r="AF55" s="99">
         <f t="shared" si="25"/>
         <v>41.974490174267714</v>
       </c>
-      <c r="AG55" s="104">
+      <c r="AG55" s="99">
         <f t="shared" si="26"/>
         <v>17.974490174267714</v>
       </c>
@@ -37264,11 +37372,11 @@
       <c r="AK55" s="1">
         <v>9</v>
       </c>
-      <c r="AL55" s="104">
+      <c r="AL55" s="99">
         <f t="shared" si="27"/>
         <v>7.3701890989988881</v>
       </c>
-      <c r="AM55" s="104">
+      <c r="AM55" s="99">
         <f t="shared" si="28"/>
         <v>1.6298109010011119</v>
       </c>
@@ -37281,11 +37389,11 @@
       <c r="AQ55" s="1">
         <v>2</v>
       </c>
-      <c r="AR55" s="104">
+      <c r="AR55" s="99">
         <f t="shared" si="29"/>
         <v>8.9320726733407483</v>
       </c>
-      <c r="AS55" s="104">
+      <c r="AS55" s="99">
         <f t="shared" si="30"/>
         <v>6.9320726733407483</v>
       </c>
@@ -37300,11 +37408,11 @@
       <c r="G56" s="1">
         <v>2</v>
       </c>
-      <c r="H56" s="104">
+      <c r="H56" s="99">
         <f t="shared" si="31"/>
         <v>5.6324805339265858</v>
       </c>
-      <c r="I56" s="104">
+      <c r="I56" s="99">
         <f t="shared" si="18"/>
         <v>3.6324805339265858</v>
       </c>
@@ -37317,11 +37425,11 @@
       <c r="M56" s="1">
         <v>10</v>
       </c>
-      <c r="N56" s="104">
+      <c r="N56" s="99">
         <f t="shared" si="19"/>
         <v>5.5002595476455323</v>
       </c>
-      <c r="O56" s="104">
+      <c r="O56" s="99">
         <f t="shared" si="20"/>
         <v>4.4997404523544677</v>
       </c>
@@ -37334,11 +37442,11 @@
       <c r="S56" s="1">
         <v>22</v>
       </c>
-      <c r="T56" s="104">
+      <c r="T56" s="99">
         <f t="shared" si="21"/>
         <v>31.828698553948836</v>
       </c>
-      <c r="U56" s="104">
+      <c r="U56" s="99">
         <f t="shared" si="22"/>
         <v>9.8286985539488363</v>
       </c>
@@ -37351,11 +37459,11 @@
       <c r="Y56" s="1">
         <v>22</v>
       </c>
-      <c r="Z56" s="104">
+      <c r="Z56" s="99">
         <f t="shared" si="23"/>
         <v>2.3747868001483106</v>
       </c>
-      <c r="AA56" s="104">
+      <c r="AA56" s="99">
         <f t="shared" si="24"/>
         <v>19.625213199851689</v>
       </c>
@@ -37368,11 +37476,11 @@
       <c r="AE56" s="1">
         <v>23</v>
       </c>
-      <c r="AF56" s="104">
+      <c r="AF56" s="99">
         <f t="shared" si="25"/>
         <v>42.780496848350026</v>
       </c>
-      <c r="AG56" s="104">
+      <c r="AG56" s="99">
         <f t="shared" si="26"/>
         <v>19.780496848350026</v>
       </c>
@@ -37385,11 +37493,11 @@
       <c r="AK56" s="1">
         <v>8</v>
       </c>
-      <c r="AL56" s="104">
+      <c r="AL56" s="99">
         <f t="shared" si="27"/>
         <v>7.4923248053392664</v>
       </c>
-      <c r="AM56" s="104">
+      <c r="AM56" s="99">
         <f t="shared" si="28"/>
         <v>0.50767519466073363</v>
       </c>
@@ -37402,11 +37510,11 @@
       <c r="AQ56" s="1">
         <v>1</v>
       </c>
-      <c r="AR56" s="104">
+      <c r="AR56" s="99">
         <f t="shared" si="29"/>
         <v>9.1178346310715614</v>
       </c>
-      <c r="AS56" s="104">
+      <c r="AS56" s="99">
         <f t="shared" si="30"/>
         <v>8.1178346310715614</v>
       </c>
@@ -37421,11 +37529,11 @@
       <c r="G57" s="1">
         <v>1</v>
       </c>
-      <c r="H57" s="104">
+      <c r="H57" s="99">
         <f t="shared" si="31"/>
         <v>5.646051167964405</v>
       </c>
-      <c r="I57" s="104">
+      <c r="I57" s="99">
         <f t="shared" si="18"/>
         <v>4.646051167964405</v>
       </c>
@@ -37438,11 +37546,11 @@
       <c r="M57" s="1">
         <v>4</v>
       </c>
-      <c r="N57" s="104">
+      <c r="N57" s="99">
         <f t="shared" si="19"/>
         <v>5.4526510938079351</v>
       </c>
-      <c r="O57" s="104">
+      <c r="O57" s="99">
         <f t="shared" si="20"/>
         <v>1.4526510938079351</v>
       </c>
@@ -37455,11 +37563,11 @@
       <c r="S57" s="1">
         <v>16</v>
       </c>
-      <c r="T57" s="104">
+      <c r="T57" s="99">
         <f t="shared" si="21"/>
         <v>32.450278086763078</v>
       </c>
-      <c r="U57" s="104">
+      <c r="U57" s="99">
         <f t="shared" si="22"/>
         <v>16.450278086763078</v>
       </c>
@@ -37472,11 +37580,11 @@
       <c r="Y57" s="1">
         <v>1</v>
       </c>
-      <c r="Z57" s="104">
+      <c r="Z57" s="99">
         <f t="shared" si="23"/>
         <v>2.0281794586577657</v>
       </c>
-      <c r="AA57" s="104">
+      <c r="AA57" s="99">
         <f t="shared" si="24"/>
         <v>1.0281794586577657</v>
       </c>
@@ -37489,11 +37597,11 @@
       <c r="AE57" s="1">
         <v>29</v>
       </c>
-      <c r="AF57" s="104">
+      <c r="AF57" s="99">
         <f t="shared" si="25"/>
         <v>43.586503522432338</v>
       </c>
-      <c r="AG57" s="104">
+      <c r="AG57" s="99">
         <f t="shared" si="26"/>
         <v>14.586503522432338</v>
       </c>
@@ -37506,11 +37614,11 @@
       <c r="AK57" s="1">
         <v>13</v>
       </c>
-      <c r="AL57" s="104">
+      <c r="AL57" s="99">
         <f t="shared" si="27"/>
         <v>7.6144605116796447</v>
       </c>
-      <c r="AM57" s="104">
+      <c r="AM57" s="99">
         <f t="shared" si="28"/>
         <v>5.3855394883203553</v>
       </c>
@@ -37523,11 +37631,11 @@
       <c r="AQ57" s="1">
         <v>7</v>
       </c>
-      <c r="AR57" s="104">
+      <c r="AR57" s="99">
         <f t="shared" si="29"/>
         <v>9.3035965888023728</v>
       </c>
-      <c r="AS57" s="104">
+      <c r="AS57" s="99">
         <f t="shared" si="30"/>
         <v>2.3035965888023728</v>
       </c>
@@ -37542,11 +37650,11 @@
       <c r="G58" s="1">
         <v>11</v>
       </c>
-      <c r="H58" s="104">
+      <c r="H58" s="99">
         <f t="shared" si="31"/>
         <v>5.6596218020022251</v>
       </c>
-      <c r="I58" s="104">
+      <c r="I58" s="99">
         <f t="shared" si="18"/>
         <v>5.3403781979977749</v>
       </c>
@@ -37559,11 +37667,11 @@
       <c r="M58" s="1">
         <v>8</v>
       </c>
-      <c r="N58" s="104">
+      <c r="N58" s="99">
         <f t="shared" si="19"/>
         <v>5.405042639970338</v>
       </c>
-      <c r="O58" s="104">
+      <c r="O58" s="99">
         <f t="shared" si="20"/>
         <v>2.594957360029662</v>
       </c>
@@ -37576,11 +37684,11 @@
       <c r="S58" s="1">
         <v>10</v>
       </c>
-      <c r="T58" s="104">
+      <c r="T58" s="99">
         <f t="shared" si="21"/>
         <v>33.071857619577315</v>
       </c>
-      <c r="U58" s="104">
+      <c r="U58" s="99">
         <f t="shared" si="22"/>
         <v>23.071857619577315</v>
       </c>
@@ -37593,11 +37701,11 @@
       <c r="Y58" s="1">
         <v>4</v>
       </c>
-      <c r="Z58" s="104">
+      <c r="Z58" s="99">
         <f t="shared" si="23"/>
         <v>1.6815721171672209</v>
       </c>
-      <c r="AA58" s="104">
+      <c r="AA58" s="99">
         <f t="shared" si="24"/>
         <v>2.3184278828327791</v>
       </c>
@@ -37610,11 +37718,11 @@
       <c r="AE58" s="1">
         <v>16</v>
       </c>
-      <c r="AF58" s="104">
+      <c r="AF58" s="99">
         <f t="shared" si="25"/>
         <v>44.392510196514664</v>
       </c>
-      <c r="AG58" s="104">
+      <c r="AG58" s="99">
         <f t="shared" si="26"/>
         <v>28.392510196514664</v>
       </c>
@@ -37627,11 +37735,11 @@
       <c r="AK58" s="1">
         <v>3</v>
       </c>
-      <c r="AL58" s="104">
+      <c r="AL58" s="99">
         <f t="shared" si="27"/>
         <v>7.7365962180200221</v>
       </c>
-      <c r="AM58" s="104">
+      <c r="AM58" s="99">
         <f t="shared" si="28"/>
         <v>4.7365962180200221</v>
       </c>
@@ -37644,11 +37752,11 @@
       <c r="AQ58" s="1">
         <v>3</v>
       </c>
-      <c r="AR58" s="104">
+      <c r="AR58" s="99">
         <f t="shared" si="29"/>
         <v>9.489358546533186</v>
       </c>
-      <c r="AS58" s="104">
+      <c r="AS58" s="99">
         <f t="shared" si="30"/>
         <v>6.489358546533186</v>
       </c>
@@ -37663,11 +37771,11 @@
       <c r="G59" s="1">
         <v>6</v>
       </c>
-      <c r="H59" s="104">
+      <c r="H59" s="99">
         <f t="shared" si="31"/>
         <v>5.6731924360400452</v>
       </c>
-      <c r="I59" s="104">
+      <c r="I59" s="99">
         <f t="shared" si="18"/>
         <v>0.32680756395995481</v>
       </c>
@@ -37680,11 +37788,11 @@
       <c r="M59" s="1">
         <v>3</v>
       </c>
-      <c r="N59" s="104">
+      <c r="N59" s="99">
         <f t="shared" si="19"/>
         <v>5.3574341861327408</v>
       </c>
-      <c r="O59" s="104">
+      <c r="O59" s="99">
         <f t="shared" si="20"/>
         <v>2.3574341861327408</v>
       </c>
@@ -37697,11 +37805,11 @@
       <c r="S59" s="1">
         <v>6</v>
       </c>
-      <c r="T59" s="104">
+      <c r="T59" s="99">
         <f t="shared" si="21"/>
         <v>33.693437152391553</v>
       </c>
-      <c r="U59" s="104">
+      <c r="U59" s="99">
         <f t="shared" si="22"/>
         <v>27.693437152391553</v>
       </c>
@@ -37714,11 +37822,11 @@
       <c r="Y59" s="1">
         <v>3</v>
       </c>
-      <c r="Z59" s="104">
+      <c r="Z59" s="99">
         <f t="shared" si="23"/>
         <v>1.334964775676676</v>
       </c>
-      <c r="AA59" s="104">
+      <c r="AA59" s="99">
         <f t="shared" si="24"/>
         <v>1.665035224323324</v>
       </c>
@@ -37731,11 +37839,11 @@
       <c r="AE59" s="1">
         <v>8</v>
       </c>
-      <c r="AF59" s="104">
+      <c r="AF59" s="99">
         <f t="shared" si="25"/>
         <v>45.198516870596976</v>
       </c>
-      <c r="AG59" s="104">
+      <c r="AG59" s="99">
         <f t="shared" si="26"/>
         <v>37.198516870596976</v>
       </c>
@@ -37748,11 +37856,11 @@
       <c r="AK59" s="1">
         <v>3</v>
       </c>
-      <c r="AL59" s="104">
+      <c r="AL59" s="99">
         <f t="shared" si="27"/>
         <v>7.8587319243604004</v>
       </c>
-      <c r="AM59" s="104">
+      <c r="AM59" s="99">
         <f t="shared" si="28"/>
         <v>4.8587319243604004</v>
       </c>
@@ -37765,11 +37873,11 @@
       <c r="AQ59" s="1">
         <v>9</v>
       </c>
-      <c r="AR59" s="104">
+      <c r="AR59" s="99">
         <f t="shared" si="29"/>
         <v>9.6751205042639974</v>
       </c>
-      <c r="AS59" s="104">
+      <c r="AS59" s="99">
         <f t="shared" si="30"/>
         <v>0.67512050426399739</v>
       </c>
@@ -37784,11 +37892,11 @@
       <c r="G60" s="1">
         <v>4</v>
       </c>
-      <c r="H60" s="104">
+      <c r="H60" s="99">
         <f t="shared" si="31"/>
         <v>5.6867630700778644</v>
       </c>
-      <c r="I60" s="104">
+      <c r="I60" s="99">
         <f t="shared" si="18"/>
         <v>1.6867630700778644</v>
       </c>
@@ -37801,11 +37909,11 @@
       <c r="M60" s="1">
         <v>10</v>
       </c>
-      <c r="N60" s="104">
+      <c r="N60" s="99">
         <f t="shared" si="19"/>
         <v>5.3098257322951428</v>
       </c>
-      <c r="O60" s="104">
+      <c r="O60" s="99">
         <f t="shared" si="20"/>
         <v>4.6901742677048572</v>
       </c>
@@ -37818,11 +37926,11 @@
       <c r="S60" s="1">
         <v>21</v>
       </c>
-      <c r="T60" s="104">
+      <c r="T60" s="99">
         <f t="shared" si="21"/>
         <v>34.315016685205791</v>
       </c>
-      <c r="U60" s="104">
+      <c r="U60" s="99">
         <f t="shared" si="22"/>
         <v>13.315016685205791</v>
       </c>
@@ -37835,11 +37943,11 @@
       <c r="Y60" s="1">
         <v>0</v>
       </c>
-      <c r="Z60" s="104">
+      <c r="Z60" s="99">
         <f t="shared" si="23"/>
         <v>0.9883574341861312</v>
       </c>
-      <c r="AA60" s="104">
+      <c r="AA60" s="99">
         <f t="shared" si="24"/>
         <v>0.9883574341861312</v>
       </c>
@@ -37852,11 +37960,11 @@
       <c r="AE60" s="1">
         <v>9</v>
       </c>
-      <c r="AF60" s="104">
+      <c r="AF60" s="99">
         <f t="shared" si="25"/>
         <v>46.004523544679287</v>
       </c>
-      <c r="AG60" s="104">
+      <c r="AG60" s="99">
         <f t="shared" si="26"/>
         <v>37.004523544679287</v>
       </c>
@@ -37869,11 +37977,11 @@
       <c r="AK60" s="1">
         <v>5</v>
       </c>
-      <c r="AL60" s="104">
+      <c r="AL60" s="99">
         <f t="shared" si="27"/>
         <v>7.9808676307007786</v>
       </c>
-      <c r="AM60" s="104">
+      <c r="AM60" s="99">
         <f t="shared" si="28"/>
         <v>2.9808676307007786</v>
       </c>
@@ -37886,11 +37994,11 @@
       <c r="AQ60" s="1">
         <v>8</v>
       </c>
-      <c r="AR60" s="104">
+      <c r="AR60" s="99">
         <f t="shared" si="29"/>
         <v>9.8608824619948088</v>
       </c>
-      <c r="AS60" s="104">
+      <c r="AS60" s="99">
         <f t="shared" si="30"/>
         <v>1.8608824619948088</v>
       </c>
@@ -37905,11 +38013,11 @@
       <c r="G61" s="1">
         <v>13</v>
       </c>
-      <c r="H61" s="104">
+      <c r="H61" s="99">
         <f t="shared" si="31"/>
         <v>5.7003337041156845</v>
       </c>
-      <c r="I61" s="104">
+      <c r="I61" s="99">
         <f t="shared" si="18"/>
         <v>7.2996662958843155</v>
       </c>
@@ -37922,11 +38030,11 @@
       <c r="M61" s="1">
         <v>4</v>
       </c>
-      <c r="N61" s="104">
+      <c r="N61" s="99">
         <f t="shared" si="19"/>
         <v>5.2622172784575456</v>
       </c>
-      <c r="O61" s="104">
+      <c r="O61" s="99">
         <f t="shared" si="20"/>
         <v>1.2622172784575456</v>
       </c>
@@ -37939,11 +38047,11 @@
       <c r="S61" s="1">
         <v>16</v>
       </c>
-      <c r="T61" s="104">
+      <c r="T61" s="99">
         <f t="shared" si="21"/>
         <v>34.936596218020028</v>
       </c>
-      <c r="U61" s="104">
+      <c r="U61" s="99">
         <f t="shared" si="22"/>
         <v>18.936596218020028</v>
       </c>
@@ -37956,11 +38064,11 @@
       <c r="Y61" s="1">
         <v>4</v>
       </c>
-      <c r="Z61" s="104">
+      <c r="Z61" s="99">
         <f t="shared" si="23"/>
         <v>0.64175009269558636</v>
       </c>
-      <c r="AA61" s="104">
+      <c r="AA61" s="99">
         <f t="shared" si="24"/>
         <v>3.3582499073044136</v>
       </c>
@@ -37973,11 +38081,11 @@
       <c r="AE61" s="1">
         <v>13</v>
       </c>
-      <c r="AF61" s="104">
+      <c r="AF61" s="99">
         <f t="shared" si="25"/>
         <v>46.810530218761599</v>
       </c>
-      <c r="AG61" s="104">
+      <c r="AG61" s="99">
         <f t="shared" si="26"/>
         <v>33.810530218761599</v>
       </c>
@@ -37990,11 +38098,11 @@
       <c r="AK61" s="1">
         <v>6</v>
       </c>
-      <c r="AL61" s="104">
+      <c r="AL61" s="99">
         <f t="shared" si="27"/>
         <v>8.1030033370411569</v>
       </c>
-      <c r="AM61" s="104">
+      <c r="AM61" s="99">
         <f t="shared" si="28"/>
         <v>2.1030033370411569</v>
       </c>
@@ -38007,11 +38115,11 @@
       <c r="AQ61" s="1">
         <v>8</v>
       </c>
-      <c r="AR61" s="104">
+      <c r="AR61" s="99">
         <f t="shared" si="29"/>
         <v>10.04664441972562</v>
       </c>
-      <c r="AS61" s="104">
+      <c r="AS61" s="99">
         <f t="shared" si="30"/>
         <v>2.0466444197256202</v>
       </c>
@@ -38026,11 +38134,11 @@
       <c r="G62" s="1">
         <v>5</v>
       </c>
-      <c r="H62" s="104">
+      <c r="H62" s="99">
         <f t="shared" si="31"/>
         <v>5.7139043381535046</v>
       </c>
-      <c r="I62" s="104">
+      <c r="I62" s="99">
         <f t="shared" si="18"/>
         <v>0.71390433815350463</v>
       </c>
@@ -38043,11 +38151,11 @@
       <c r="M62" s="1">
         <v>5</v>
       </c>
-      <c r="N62" s="104">
+      <c r="N62" s="99">
         <f t="shared" si="19"/>
         <v>5.2146088246199476</v>
       </c>
-      <c r="O62" s="104">
+      <c r="O62" s="99">
         <f t="shared" si="20"/>
         <v>0.21460882461994757</v>
       </c>
@@ -38060,11 +38168,11 @@
       <c r="S62" s="1">
         <v>6</v>
       </c>
-      <c r="T62" s="104">
+      <c r="T62" s="99">
         <f t="shared" si="21"/>
         <v>35.558175750834266</v>
       </c>
-      <c r="U62" s="104">
+      <c r="U62" s="99">
         <f t="shared" si="22"/>
         <v>29.558175750834266</v>
       </c>
@@ -38077,11 +38185,11 @@
       <c r="Y62" s="1">
         <v>0</v>
       </c>
-      <c r="Z62" s="104">
+      <c r="Z62" s="99">
         <f t="shared" si="23"/>
         <v>0.29514275120503974</v>
       </c>
-      <c r="AA62" s="104">
+      <c r="AA62" s="99">
         <f t="shared" si="24"/>
         <v>0.29514275120503974</v>
       </c>
@@ -38094,11 +38202,11 @@
       <c r="AE62" s="1">
         <v>14</v>
       </c>
-      <c r="AF62" s="104">
+      <c r="AF62" s="99">
         <f t="shared" si="25"/>
         <v>47.616536892843911</v>
       </c>
-      <c r="AG62" s="104">
+      <c r="AG62" s="99">
         <f t="shared" si="26"/>
         <v>33.616536892843911</v>
       </c>
@@ -38111,11 +38219,11 @@
       <c r="AK62" s="1">
         <v>5</v>
       </c>
-      <c r="AL62" s="104">
+      <c r="AL62" s="99">
         <f t="shared" si="27"/>
         <v>8.2251390433815352</v>
       </c>
-      <c r="AM62" s="104">
+      <c r="AM62" s="99">
         <f t="shared" si="28"/>
         <v>3.2251390433815352</v>
       </c>
@@ -38128,11 +38236,11 @@
       <c r="AQ62" s="1">
         <v>0</v>
       </c>
-      <c r="AR62" s="104">
+      <c r="AR62" s="99">
         <f t="shared" si="29"/>
         <v>10.232406377456435</v>
       </c>
-      <c r="AS62" s="104">
+      <c r="AS62" s="99">
         <f t="shared" si="30"/>
         <v>10.232406377456435</v>
       </c>
@@ -38147,11 +38255,11 @@
       <c r="G63" s="1">
         <v>2</v>
       </c>
-      <c r="H63" s="104">
+      <c r="H63" s="99">
         <f t="shared" si="31"/>
         <v>5.7274749721913238</v>
       </c>
-      <c r="I63" s="104">
+      <c r="I63" s="99">
         <f t="shared" si="18"/>
         <v>3.7274749721913238</v>
       </c>
@@ -38164,11 +38272,11 @@
       <c r="M63" s="1">
         <v>5</v>
       </c>
-      <c r="N63" s="104">
+      <c r="N63" s="99">
         <f t="shared" si="19"/>
         <v>5.1670003707823504</v>
       </c>
-      <c r="O63" s="104">
+      <c r="O63" s="99">
         <f t="shared" si="20"/>
         <v>0.16700037078235042</v>
       </c>
@@ -38181,11 +38289,11 @@
       <c r="S63" s="1">
         <v>2</v>
       </c>
-      <c r="T63" s="104">
+      <c r="T63" s="99">
         <f t="shared" si="21"/>
         <v>36.179755283648504</v>
       </c>
-      <c r="U63" s="104">
+      <c r="U63" s="99">
         <f t="shared" si="22"/>
         <v>34.179755283648504</v>
       </c>
@@ -38198,11 +38306,11 @@
       <c r="Y63" s="1">
         <v>11</v>
       </c>
-      <c r="Z63" s="104">
+      <c r="Z63" s="99">
         <f t="shared" si="23"/>
         <v>-5.1464590285505096E-2</v>
       </c>
-      <c r="AA63" s="104">
+      <c r="AA63" s="99">
         <f t="shared" si="24"/>
         <v>11.051464590285505</v>
       </c>
@@ -38215,11 +38323,11 @@
       <c r="AE63" s="1">
         <v>19</v>
       </c>
-      <c r="AF63" s="104">
+      <c r="AF63" s="99">
         <f t="shared" si="25"/>
         <v>48.422543566926223</v>
       </c>
-      <c r="AG63" s="104">
+      <c r="AG63" s="99">
         <f t="shared" si="26"/>
         <v>29.422543566926223</v>
       </c>
@@ -38232,11 +38340,11 @@
       <c r="AK63" s="1">
         <v>7</v>
       </c>
-      <c r="AL63" s="104">
+      <c r="AL63" s="99">
         <f t="shared" si="27"/>
         <v>8.3472747497219135</v>
       </c>
-      <c r="AM63" s="104">
+      <c r="AM63" s="99">
         <f t="shared" si="28"/>
         <v>1.3472747497219135</v>
       </c>
@@ -38249,11 +38357,11 @@
       <c r="AQ63" s="1">
         <v>4</v>
       </c>
-      <c r="AR63" s="104">
+      <c r="AR63" s="99">
         <f t="shared" si="29"/>
         <v>10.418168335187246</v>
       </c>
-      <c r="AS63" s="104">
+      <c r="AS63" s="99">
         <f t="shared" si="30"/>
         <v>6.4181683351872465</v>
       </c>
@@ -38268,11 +38376,11 @@
       <c r="G64" s="1">
         <v>12</v>
       </c>
-      <c r="H64" s="104">
+      <c r="H64" s="99">
         <f t="shared" si="31"/>
         <v>5.7410456062291439</v>
       </c>
-      <c r="I64" s="104">
+      <c r="I64" s="99">
         <f t="shared" si="18"/>
         <v>6.2589543937708561</v>
       </c>
@@ -38285,11 +38393,11 @@
       <c r="M64" s="1">
         <v>9</v>
       </c>
-      <c r="N64" s="104">
+      <c r="N64" s="99">
         <f t="shared" si="19"/>
         <v>5.1193919169447533</v>
       </c>
-      <c r="O64" s="104">
+      <c r="O64" s="99">
         <f t="shared" si="20"/>
         <v>3.8806080830552467</v>
       </c>
@@ -38302,11 +38410,11 @@
       <c r="S64" s="1">
         <v>6</v>
       </c>
-      <c r="T64" s="104">
+      <c r="T64" s="99">
         <f t="shared" si="21"/>
         <v>36.801334816462742</v>
       </c>
-      <c r="U64" s="104">
+      <c r="U64" s="99">
         <f t="shared" si="22"/>
         <v>30.801334816462742</v>
       </c>
@@ -38319,11 +38427,11 @@
       <c r="Y64" s="1">
         <v>9</v>
       </c>
-      <c r="Z64" s="104">
+      <c r="Z64" s="99">
         <f t="shared" si="23"/>
         <v>-0.39807193177604816</v>
       </c>
-      <c r="AA64" s="104">
+      <c r="AA64" s="99">
         <f t="shared" si="24"/>
         <v>9.3980719317760482</v>
       </c>
@@ -38336,11 +38444,11 @@
       <c r="AE64" s="1">
         <v>15</v>
       </c>
-      <c r="AF64" s="104">
+      <c r="AF64" s="99">
         <f t="shared" si="25"/>
         <v>49.228550241008548</v>
       </c>
-      <c r="AG64" s="104">
+      <c r="AG64" s="99">
         <f t="shared" si="26"/>
         <v>34.228550241008548</v>
       </c>
@@ -38353,11 +38461,11 @@
       <c r="AK64" s="1">
         <v>1</v>
       </c>
-      <c r="AL64" s="104">
+      <c r="AL64" s="99">
         <f t="shared" si="27"/>
         <v>8.4694104560622918</v>
       </c>
-      <c r="AM64" s="104">
+      <c r="AM64" s="99">
         <f t="shared" si="28"/>
         <v>7.4694104560622918</v>
       </c>
@@ -38370,11 +38478,11 @@
       <c r="AQ64" s="1">
         <v>8</v>
       </c>
-      <c r="AR64" s="104">
+      <c r="AR64" s="99">
         <f t="shared" si="29"/>
         <v>10.603930292918058</v>
       </c>
-      <c r="AS64" s="104">
+      <c r="AS64" s="99">
         <f t="shared" si="30"/>
         <v>2.6039302929180579</v>
       </c>
@@ -38389,11 +38497,11 @@
       <c r="G65" s="1">
         <v>3</v>
       </c>
-      <c r="H65" s="104">
+      <c r="H65" s="99">
         <f t="shared" si="31"/>
         <v>5.7546162402669641</v>
       </c>
-      <c r="I65" s="104">
+      <c r="I65" s="99">
         <f t="shared" si="18"/>
         <v>2.7546162402669641</v>
       </c>
@@ -38406,11 +38514,11 @@
       <c r="M65" s="1">
         <v>9</v>
       </c>
-      <c r="N65" s="104">
+      <c r="N65" s="99">
         <f t="shared" si="19"/>
         <v>5.0717834631071561</v>
       </c>
-      <c r="O65" s="104">
+      <c r="O65" s="99">
         <f t="shared" si="20"/>
         <v>3.9282165368928439</v>
       </c>
@@ -38423,11 +38531,11 @@
       <c r="S65" s="1">
         <v>9</v>
       </c>
-      <c r="T65" s="104">
+      <c r="T65" s="99">
         <f t="shared" si="21"/>
         <v>37.422914349276979</v>
       </c>
-      <c r="U65" s="104">
+      <c r="U65" s="99">
         <f t="shared" si="22"/>
         <v>28.422914349276979</v>
       </c>
@@ -38440,11 +38548,11 @@
       <c r="Y65" s="1">
         <v>2</v>
       </c>
-      <c r="Z65" s="104">
+      <c r="Z65" s="99">
         <f t="shared" si="23"/>
         <v>-0.74467927326659478</v>
       </c>
-      <c r="AA65" s="104">
+      <c r="AA65" s="99">
         <f t="shared" si="24"/>
         <v>2.7446792732665948</v>
       </c>
@@ -38457,11 +38565,11 @@
       <c r="AE65" s="1">
         <v>26</v>
       </c>
-      <c r="AF65" s="104">
+      <c r="AF65" s="99">
         <f t="shared" si="25"/>
         <v>50.03455691509086</v>
       </c>
-      <c r="AG65" s="104">
+      <c r="AG65" s="99">
         <f t="shared" si="26"/>
         <v>24.03455691509086</v>
       </c>
@@ -38474,11 +38582,11 @@
       <c r="AK65" s="1">
         <v>19</v>
       </c>
-      <c r="AL65" s="104">
+      <c r="AL65" s="99">
         <f t="shared" si="27"/>
         <v>8.5915461624026701</v>
       </c>
-      <c r="AM65" s="104">
+      <c r="AM65" s="99">
         <f t="shared" si="28"/>
         <v>10.40845383759733</v>
       </c>
@@ -38491,11 +38599,11 @@
       <c r="AQ65" s="1">
         <v>1</v>
       </c>
-      <c r="AR65" s="104">
+      <c r="AR65" s="99">
         <f t="shared" si="29"/>
         <v>10.789692250648869</v>
       </c>
-      <c r="AS65" s="104">
+      <c r="AS65" s="99">
         <f t="shared" si="30"/>
         <v>9.7896922506488693</v>
       </c>
@@ -38510,11 +38618,11 @@
       <c r="G66" s="1">
         <v>3</v>
       </c>
-      <c r="H66" s="104">
+      <c r="H66" s="99">
         <f t="shared" si="31"/>
         <v>5.7681868743047833</v>
       </c>
-      <c r="I66" s="104">
+      <c r="I66" s="99">
         <f t="shared" si="18"/>
         <v>2.7681868743047833</v>
       </c>
@@ -38527,11 +38635,11 @@
       <c r="M66" s="1">
         <v>4</v>
       </c>
-      <c r="N66" s="104">
+      <c r="N66" s="99">
         <f t="shared" si="19"/>
         <v>5.024175009269559</v>
       </c>
-      <c r="O66" s="104">
+      <c r="O66" s="99">
         <f t="shared" si="20"/>
         <v>1.024175009269559</v>
       </c>
@@ -38544,11 +38652,11 @@
       <c r="S66" s="1">
         <v>15</v>
       </c>
-      <c r="T66" s="104">
+      <c r="T66" s="99">
         <f t="shared" si="21"/>
         <v>38.044493882091217</v>
       </c>
-      <c r="U66" s="104">
+      <c r="U66" s="99">
         <f t="shared" si="22"/>
         <v>23.044493882091217</v>
       </c>
@@ -38561,11 +38669,11 @@
       <c r="Y66" s="1">
         <v>2</v>
       </c>
-      <c r="Z66" s="104">
+      <c r="Z66" s="99">
         <f t="shared" si="23"/>
         <v>-1.0912866147571414</v>
       </c>
-      <c r="AA66" s="104">
+      <c r="AA66" s="99">
         <f t="shared" si="24"/>
         <v>3.0912866147571414</v>
       </c>
@@ -38578,11 +38686,11 @@
       <c r="AE66" s="1">
         <v>13</v>
       </c>
-      <c r="AF66" s="104">
+      <c r="AF66" s="99">
         <f t="shared" si="25"/>
         <v>50.840563589173172</v>
       </c>
-      <c r="AG66" s="104">
+      <c r="AG66" s="99">
         <f t="shared" si="26"/>
         <v>37.840563589173172</v>
       </c>
@@ -38595,11 +38703,11 @@
       <c r="AK66" s="1">
         <v>6</v>
       </c>
-      <c r="AL66" s="104">
+      <c r="AL66" s="99">
         <f t="shared" si="27"/>
         <v>8.7136818687430484</v>
       </c>
-      <c r="AM66" s="104">
+      <c r="AM66" s="99">
         <f t="shared" si="28"/>
         <v>2.7136818687430484</v>
       </c>
@@ -38612,11 +38720,11 @@
       <c r="AQ66" s="1">
         <v>3</v>
       </c>
-      <c r="AR66" s="104">
+      <c r="AR66" s="99">
         <f t="shared" si="29"/>
         <v>10.975454208379681</v>
       </c>
-      <c r="AS66" s="104">
+      <c r="AS66" s="99">
         <f t="shared" si="30"/>
         <v>7.9754542083796807</v>
       </c>
@@ -38631,11 +38739,11 @@
       <c r="G67" s="1">
         <v>9</v>
       </c>
-      <c r="H67" s="104">
+      <c r="H67" s="99">
         <f t="shared" si="31"/>
         <v>5.7817575083426034</v>
       </c>
-      <c r="I67" s="104">
+      <c r="I67" s="99">
         <f t="shared" si="18"/>
         <v>3.2182424916573966</v>
       </c>
@@ -38648,11 +38756,11 @@
       <c r="M67" s="1">
         <v>9</v>
       </c>
-      <c r="N67" s="104">
+      <c r="N67" s="99">
         <f t="shared" si="19"/>
         <v>4.9765665554319618</v>
       </c>
-      <c r="O67" s="104">
+      <c r="O67" s="99">
         <f t="shared" si="20"/>
         <v>4.0234334445680382</v>
       </c>
@@ -38665,11 +38773,11 @@
       <c r="S67" s="1">
         <v>7</v>
       </c>
-      <c r="T67" s="104">
+      <c r="T67" s="99">
         <f t="shared" si="21"/>
         <v>38.666073414905455</v>
       </c>
-      <c r="U67" s="104">
+      <c r="U67" s="99">
         <f t="shared" si="22"/>
         <v>31.666073414905455</v>
       </c>
@@ -38682,11 +38790,11 @@
       <c r="Y67" s="1">
         <v>1</v>
       </c>
-      <c r="Z67" s="104">
+      <c r="Z67" s="99">
         <f t="shared" si="23"/>
         <v>-1.4378939562476845</v>
       </c>
-      <c r="AA67" s="104">
+      <c r="AA67" s="99">
         <f t="shared" si="24"/>
         <v>2.4378939562476845</v>
       </c>
@@ -38699,11 +38807,11 @@
       <c r="AE67" s="1">
         <v>17</v>
       </c>
-      <c r="AF67" s="104">
+      <c r="AF67" s="99">
         <f t="shared" si="25"/>
         <v>51.646570263255484</v>
       </c>
-      <c r="AG67" s="104">
+      <c r="AG67" s="99">
         <f t="shared" si="26"/>
         <v>34.646570263255484</v>
       </c>
@@ -38716,11 +38824,11 @@
       <c r="AK67" s="1">
         <v>4</v>
       </c>
-      <c r="AL67" s="104">
+      <c r="AL67" s="99">
         <f t="shared" si="27"/>
         <v>8.8358175750834249</v>
       </c>
-      <c r="AM67" s="104">
+      <c r="AM67" s="99">
         <f t="shared" si="28"/>
         <v>4.8358175750834249</v>
       </c>
@@ -38733,11 +38841,11 @@
       <c r="AQ67" s="1">
         <v>10</v>
       </c>
-      <c r="AR67" s="104">
+      <c r="AR67" s="99">
         <f t="shared" si="29"/>
         <v>11.161216166110492</v>
       </c>
-      <c r="AS67" s="104">
+      <c r="AS67" s="99">
         <f t="shared" si="30"/>
         <v>1.1612161661104921</v>
       </c>
@@ -38752,11 +38860,11 @@
       <c r="G68" s="1">
         <v>11</v>
       </c>
-      <c r="H68" s="104">
+      <c r="H68" s="99">
         <f t="shared" si="31"/>
         <v>5.7953281423804235</v>
       </c>
-      <c r="I68" s="104">
+      <c r="I68" s="99">
         <f t="shared" si="18"/>
         <v>5.2046718576195765</v>
       </c>
@@ -38769,11 +38877,11 @@
       <c r="M68" s="1">
         <v>5</v>
       </c>
-      <c r="N68" s="104">
+      <c r="N68" s="99">
         <f t="shared" si="19"/>
         <v>4.9289581015943646</v>
       </c>
-      <c r="O68" s="104">
+      <c r="O68" s="99">
         <f t="shared" si="20"/>
         <v>7.1041898405635351E-2</v>
       </c>
@@ -38786,11 +38894,11 @@
       <c r="S68" s="1">
         <v>12</v>
       </c>
-      <c r="T68" s="104">
+      <c r="T68" s="99">
         <f t="shared" si="21"/>
         <v>39.287652947719693</v>
       </c>
-      <c r="U68" s="104">
+      <c r="U68" s="99">
         <f t="shared" si="22"/>
         <v>27.287652947719693</v>
       </c>
@@ -38803,11 +38911,11 @@
       <c r="Y68" s="1">
         <v>16</v>
       </c>
-      <c r="Z68" s="104">
+      <c r="Z68" s="99">
         <f t="shared" si="23"/>
         <v>-1.7845012977382311</v>
       </c>
-      <c r="AA68" s="104">
+      <c r="AA68" s="99">
         <f t="shared" si="24"/>
         <v>17.784501297738231</v>
       </c>
@@ -38820,11 +38928,11 @@
       <c r="AE68" s="1">
         <v>13</v>
       </c>
-      <c r="AF68" s="104">
+      <c r="AF68" s="99">
         <f t="shared" si="25"/>
         <v>52.452576937337795</v>
       </c>
-      <c r="AG68" s="104">
+      <c r="AG68" s="99">
         <f t="shared" si="26"/>
         <v>39.452576937337795</v>
       </c>
@@ -38837,11 +38945,11 @@
       <c r="AK68" s="1">
         <v>14</v>
       </c>
-      <c r="AL68" s="104">
+      <c r="AL68" s="99">
         <f t="shared" si="27"/>
         <v>8.957953281423805</v>
       </c>
-      <c r="AM68" s="104">
+      <c r="AM68" s="99">
         <f t="shared" si="28"/>
         <v>5.042046718576195</v>
       </c>
@@ -38854,11 +38962,11 @@
       <c r="AQ68" s="1">
         <v>1</v>
       </c>
-      <c r="AR68" s="104">
+      <c r="AR68" s="99">
         <f t="shared" si="29"/>
         <v>11.346978123841307</v>
       </c>
-      <c r="AS68" s="104">
+      <c r="AS68" s="99">
         <f t="shared" si="30"/>
         <v>10.346978123841307</v>
       </c>
@@ -38873,11 +38981,11 @@
       <c r="G69" s="1">
         <v>8</v>
       </c>
-      <c r="H69" s="104">
+      <c r="H69" s="99">
         <f t="shared" si="31"/>
         <v>5.8088987764182427</v>
       </c>
-      <c r="I69" s="104">
+      <c r="I69" s="99">
         <f t="shared" si="18"/>
         <v>2.1911012235817573</v>
       </c>
@@ -38890,11 +38998,11 @@
       <c r="M69" s="1">
         <v>8</v>
       </c>
-      <c r="N69" s="104">
+      <c r="N69" s="99">
         <f t="shared" si="19"/>
         <v>4.8813496477567666</v>
       </c>
-      <c r="O69" s="104">
+      <c r="O69" s="99">
         <f t="shared" si="20"/>
         <v>3.1186503522432334</v>
       </c>
@@ -38907,11 +39015,11 @@
       <c r="S69" s="1">
         <v>19</v>
       </c>
-      <c r="T69" s="104">
+      <c r="T69" s="99">
         <f t="shared" si="21"/>
         <v>39.90923248053393</v>
       </c>
-      <c r="U69" s="104">
+      <c r="U69" s="99">
         <f t="shared" si="22"/>
         <v>20.90923248053393</v>
       </c>
@@ -38924,11 +39032,11 @@
       <c r="Y69" s="1">
         <v>16</v>
       </c>
-      <c r="Z69" s="104">
+      <c r="Z69" s="99">
         <f t="shared" si="23"/>
         <v>-2.1311086392287741</v>
       </c>
-      <c r="AA69" s="104">
+      <c r="AA69" s="99">
         <f t="shared" si="24"/>
         <v>18.131108639228774</v>
       </c>
@@ -38941,11 +39049,11 @@
       <c r="AE69" s="1">
         <v>20</v>
       </c>
-      <c r="AF69" s="104">
+      <c r="AF69" s="99">
         <f t="shared" si="25"/>
         <v>53.258583611420107</v>
       </c>
-      <c r="AG69" s="104">
+      <c r="AG69" s="99">
         <f t="shared" si="26"/>
         <v>33.258583611420107</v>
       </c>
@@ -38958,11 +39066,11 @@
       <c r="AK69" s="1">
         <v>7</v>
       </c>
-      <c r="AL69" s="104">
+      <c r="AL69" s="99">
         <f t="shared" si="27"/>
         <v>9.0800889877641815</v>
       </c>
-      <c r="AM69" s="104">
+      <c r="AM69" s="99">
         <f t="shared" si="28"/>
         <v>2.0800889877641815</v>
       </c>
@@ -38975,11 +39083,11 @@
       <c r="AQ69" s="1">
         <v>10</v>
       </c>
-      <c r="AR69" s="104">
+      <c r="AR69" s="99">
         <f t="shared" si="29"/>
         <v>11.532740081572118</v>
       </c>
-      <c r="AS69" s="104">
+      <c r="AS69" s="99">
         <f t="shared" si="30"/>
         <v>1.5327400815721184</v>
       </c>
@@ -38994,11 +39102,11 @@
       <c r="G70" s="1">
         <v>1</v>
       </c>
-      <c r="H70" s="104">
+      <c r="H70" s="99">
         <f t="shared" si="31"/>
         <v>5.8224694104560628</v>
       </c>
-      <c r="I70" s="104">
+      <c r="I70" s="99">
         <f t="shared" si="18"/>
         <v>4.8224694104560628</v>
       </c>
@@ -39011,11 +39119,11 @@
       <c r="M70" s="1">
         <v>11</v>
       </c>
-      <c r="N70" s="104">
+      <c r="N70" s="99">
         <f t="shared" si="19"/>
         <v>4.8337411939191695</v>
       </c>
-      <c r="O70" s="104">
+      <c r="O70" s="99">
         <f t="shared" si="20"/>
         <v>6.1662588060808305</v>
       </c>
@@ -39028,11 +39136,11 @@
       <c r="S70" s="1">
         <v>7</v>
       </c>
-      <c r="T70" s="104">
+      <c r="T70" s="99">
         <f t="shared" si="21"/>
         <v>40.530812013348168</v>
       </c>
-      <c r="U70" s="104">
+      <c r="U70" s="99">
         <f t="shared" si="22"/>
         <v>33.530812013348168</v>
       </c>
@@ -39045,11 +39153,11 @@
       <c r="Y70" s="1">
         <v>8</v>
       </c>
-      <c r="Z70" s="104">
+      <c r="Z70" s="99">
         <f t="shared" si="23"/>
         <v>-2.4777159807193208</v>
       </c>
-      <c r="AA70" s="104">
+      <c r="AA70" s="99">
         <f t="shared" si="24"/>
         <v>10.477715980719321</v>
       </c>
@@ -39062,11 +39170,11 @@
       <c r="AE70" s="1">
         <v>25</v>
       </c>
-      <c r="AF70" s="104">
+      <c r="AF70" s="99">
         <f t="shared" si="25"/>
         <v>54.064590285502433</v>
       </c>
-      <c r="AG70" s="104">
+      <c r="AG70" s="99">
         <f t="shared" si="26"/>
         <v>29.064590285502433</v>
       </c>
@@ -39079,11 +39187,11 @@
       <c r="AK70" s="1">
         <v>4</v>
       </c>
-      <c r="AL70" s="104">
+      <c r="AL70" s="99">
         <f t="shared" si="27"/>
         <v>9.2022246941045616</v>
       </c>
-      <c r="AM70" s="104">
+      <c r="AM70" s="99">
         <f t="shared" si="28"/>
         <v>5.2022246941045616</v>
       </c>
@@ -39096,11 +39204,11 @@
       <c r="AQ70" s="1">
         <v>1</v>
       </c>
-      <c r="AR70" s="104">
+      <c r="AR70" s="99">
         <f t="shared" si="29"/>
         <v>11.71850203930293</v>
       </c>
-      <c r="AS70" s="104">
+      <c r="AS70" s="99">
         <f t="shared" si="30"/>
         <v>10.71850203930293</v>
       </c>
@@ -39115,11 +39223,11 @@
       <c r="G71" s="1">
         <v>4</v>
       </c>
-      <c r="H71" s="104">
+      <c r="H71" s="99">
         <f t="shared" si="31"/>
         <v>5.8360400444938829</v>
       </c>
-      <c r="I71" s="104">
+      <c r="I71" s="99">
         <f t="shared" si="18"/>
         <v>1.8360400444938829</v>
       </c>
@@ -39132,11 +39240,11 @@
       <c r="M71" s="1">
         <v>12</v>
       </c>
-      <c r="N71" s="104">
+      <c r="N71" s="99">
         <f t="shared" si="19"/>
         <v>4.7861327400815723</v>
       </c>
-      <c r="O71" s="104">
+      <c r="O71" s="99">
         <f t="shared" si="20"/>
         <v>7.2138672599184277</v>
       </c>
@@ -39149,11 +39257,11 @@
       <c r="S71" s="1">
         <v>10</v>
       </c>
-      <c r="T71" s="104">
+      <c r="T71" s="99">
         <f t="shared" si="21"/>
         <v>41.152391546162406</v>
       </c>
-      <c r="U71" s="104">
+      <c r="U71" s="99">
         <f t="shared" si="22"/>
         <v>31.152391546162406</v>
       </c>
@@ -39166,11 +39274,11 @@
       <c r="Y71" s="1">
         <v>19</v>
       </c>
-      <c r="Z71" s="104">
+      <c r="Z71" s="99">
         <f t="shared" si="23"/>
         <v>-2.8243233222098674</v>
       </c>
-      <c r="AA71" s="104">
+      <c r="AA71" s="99">
         <f t="shared" si="24"/>
         <v>21.824323322209867</v>
       </c>
@@ -39183,11 +39291,11 @@
       <c r="AE71" s="1">
         <v>17</v>
       </c>
-      <c r="AF71" s="104">
+      <c r="AF71" s="99">
         <f t="shared" si="25"/>
         <v>54.870596959584745</v>
       </c>
-      <c r="AG71" s="104">
+      <c r="AG71" s="99">
         <f t="shared" si="26"/>
         <v>37.870596959584745</v>
       </c>
@@ -39200,11 +39308,11 @@
       <c r="AK71" s="1">
         <v>0</v>
       </c>
-      <c r="AL71" s="104">
+      <c r="AL71" s="99">
         <f t="shared" si="27"/>
         <v>9.3243604004449381</v>
       </c>
-      <c r="AM71" s="104">
+      <c r="AM71" s="99">
         <f t="shared" si="28"/>
         <v>9.3243604004449381</v>
       </c>
@@ -39217,11 +39325,11 @@
       <c r="AQ71" s="1">
         <v>1</v>
       </c>
-      <c r="AR71" s="104">
+      <c r="AR71" s="99">
         <f t="shared" si="29"/>
         <v>11.904263997033741</v>
       </c>
-      <c r="AS71" s="104">
+      <c r="AS71" s="99">
         <f t="shared" si="30"/>
         <v>10.904263997033741</v>
       </c>
@@ -39236,11 +39344,11 @@
       <c r="G72" s="1">
         <v>1</v>
       </c>
-      <c r="H72" s="104">
+      <c r="H72" s="99">
         <f t="shared" si="31"/>
         <v>5.8496106785317021</v>
       </c>
-      <c r="I72" s="104">
+      <c r="I72" s="99">
         <f t="shared" si="18"/>
         <v>4.8496106785317021</v>
       </c>
@@ -39253,11 +39361,11 @@
       <c r="M72" s="1">
         <v>4</v>
       </c>
-      <c r="N72" s="104">
+      <c r="N72" s="99">
         <f t="shared" si="19"/>
         <v>4.7385242862439743</v>
       </c>
-      <c r="O72" s="104">
+      <c r="O72" s="99">
         <f t="shared" si="20"/>
         <v>0.73852428624397426</v>
       </c>
@@ -39270,11 +39378,11 @@
       <c r="S72" s="1">
         <v>9</v>
       </c>
-      <c r="T72" s="104">
+      <c r="T72" s="99">
         <f t="shared" si="21"/>
         <v>41.773971078976651</v>
       </c>
-      <c r="U72" s="104">
+      <c r="U72" s="99">
         <f t="shared" si="22"/>
         <v>32.773971078976651</v>
       </c>
@@ -39287,11 +39395,11 @@
       <c r="Y72" s="1">
         <v>49</v>
       </c>
-      <c r="Z72" s="104">
+      <c r="Z72" s="99">
         <f t="shared" si="23"/>
         <v>-3.1709306637004104</v>
       </c>
-      <c r="AA72" s="104">
+      <c r="AA72" s="99">
         <f t="shared" si="24"/>
         <v>52.17093066370041</v>
       </c>
@@ -39304,11 +39412,11 @@
       <c r="AE72" s="1">
         <v>10</v>
       </c>
-      <c r="AF72" s="104">
+      <c r="AF72" s="99">
         <f t="shared" si="25"/>
         <v>55.676603633667057</v>
       </c>
-      <c r="AG72" s="104">
+      <c r="AG72" s="99">
         <f t="shared" si="26"/>
         <v>45.676603633667057</v>
       </c>
@@ -39321,11 +39429,11 @@
       <c r="AK72" s="1">
         <v>0</v>
       </c>
-      <c r="AL72" s="104">
+      <c r="AL72" s="99">
         <f t="shared" si="27"/>
         <v>9.4464961067853181</v>
       </c>
-      <c r="AM72" s="104">
+      <c r="AM72" s="99">
         <f t="shared" si="28"/>
         <v>9.4464961067853181</v>
       </c>
@@ -39338,11 +39446,11 @@
       <c r="AQ72" s="1">
         <v>5</v>
       </c>
-      <c r="AR72" s="104">
+      <c r="AR72" s="99">
         <f t="shared" si="29"/>
         <v>12.090025954764553</v>
       </c>
-      <c r="AS72" s="104">
+      <c r="AS72" s="99">
         <f t="shared" si="30"/>
         <v>7.0900259547645526</v>
       </c>
@@ -39357,11 +39465,11 @@
       <c r="G73" s="1">
         <v>0</v>
       </c>
-      <c r="H73" s="104">
+      <c r="H73" s="99">
         <f t="shared" si="31"/>
         <v>5.8631813125695222</v>
       </c>
-      <c r="I73" s="104">
+      <c r="I73" s="99">
         <f t="shared" si="18"/>
         <v>5.8631813125695222</v>
       </c>
@@ -39374,11 +39482,11 @@
       <c r="M73" s="1">
         <v>1</v>
       </c>
-      <c r="N73" s="104">
+      <c r="N73" s="99">
         <f t="shared" si="19"/>
         <v>4.6909158324063771</v>
       </c>
-      <c r="O73" s="104">
+      <c r="O73" s="99">
         <f t="shared" si="20"/>
         <v>3.6909158324063771</v>
       </c>
@@ -39391,11 +39499,11 @@
       <c r="S73" s="1">
         <v>24</v>
       </c>
-      <c r="T73" s="104">
+      <c r="T73" s="99">
         <f t="shared" si="21"/>
         <v>42.395550611790888</v>
       </c>
-      <c r="U73" s="104">
+      <c r="U73" s="99">
         <f t="shared" si="22"/>
         <v>18.395550611790888</v>
       </c>
@@ -39408,11 +39516,11 @@
       <c r="Y73" s="1">
         <v>82</v>
       </c>
-      <c r="Z73" s="104">
+      <c r="Z73" s="99">
         <f t="shared" si="23"/>
         <v>-3.5175380051909571</v>
       </c>
-      <c r="AA73" s="104">
+      <c r="AA73" s="99">
         <f t="shared" si="24"/>
         <v>85.517538005190957</v>
       </c>
@@ -39425,11 +39533,11 @@
       <c r="AE73" s="1">
         <v>35</v>
       </c>
-      <c r="AF73" s="104">
+      <c r="AF73" s="99">
         <f t="shared" si="25"/>
         <v>56.482610307749368</v>
       </c>
-      <c r="AG73" s="104">
+      <c r="AG73" s="99">
         <f t="shared" si="26"/>
         <v>21.482610307749368</v>
       </c>
@@ -39442,11 +39550,11 @@
       <c r="AK73" s="1">
         <v>0</v>
       </c>
-      <c r="AL73" s="104">
+      <c r="AL73" s="99">
         <f t="shared" si="27"/>
         <v>9.5686318131256947</v>
       </c>
-      <c r="AM73" s="104">
+      <c r="AM73" s="99">
         <f t="shared" si="28"/>
         <v>9.5686318131256947</v>
       </c>
@@ -39459,11 +39567,11 @@
       <c r="AQ73" s="1">
         <v>6</v>
       </c>
-      <c r="AR73" s="104">
+      <c r="AR73" s="99">
         <f t="shared" si="29"/>
         <v>12.275787912495364</v>
       </c>
-      <c r="AS73" s="104">
+      <c r="AS73" s="99">
         <f t="shared" si="30"/>
         <v>6.2757879124953639</v>
       </c>
@@ -39478,11 +39586,11 @@
       <c r="G74" s="1">
         <v>4</v>
       </c>
-      <c r="H74" s="104">
+      <c r="H74" s="99">
         <f t="shared" si="31"/>
         <v>5.8767519466073423</v>
       </c>
-      <c r="I74" s="104">
+      <c r="I74" s="99">
         <f t="shared" si="18"/>
         <v>1.8767519466073423</v>
       </c>
@@ -39495,11 +39603,11 @@
       <c r="M74" s="1">
         <v>4</v>
       </c>
-      <c r="N74" s="104">
+      <c r="N74" s="99">
         <f t="shared" si="19"/>
         <v>4.64330737856878</v>
       </c>
-      <c r="O74" s="104">
+      <c r="O74" s="99">
         <f t="shared" si="20"/>
         <v>0.64330737856877995</v>
       </c>
@@ -39512,11 +39620,11 @@
       <c r="S74" s="1">
         <v>8</v>
       </c>
-      <c r="T74" s="104">
+      <c r="T74" s="99">
         <f t="shared" si="21"/>
         <v>43.017130144605126</v>
       </c>
-      <c r="U74" s="104">
+      <c r="U74" s="99">
         <f t="shared" si="22"/>
         <v>35.017130144605126</v>
       </c>
@@ -39529,11 +39637,11 @@
       <c r="Y74" s="1">
         <v>37</v>
       </c>
-      <c r="Z74" s="104">
+      <c r="Z74" s="99">
         <f t="shared" si="23"/>
         <v>-3.8641453466815001</v>
       </c>
-      <c r="AA74" s="104">
+      <c r="AA74" s="99">
         <f t="shared" si="24"/>
         <v>40.864145346681497</v>
       </c>
@@ -39546,11 +39654,11 @@
       <c r="AE74" s="1">
         <v>12</v>
       </c>
-      <c r="AF74" s="104">
+      <c r="AF74" s="99">
         <f t="shared" si="25"/>
         <v>57.28861698183168</v>
       </c>
-      <c r="AG74" s="104">
+      <c r="AG74" s="99">
         <f t="shared" si="26"/>
         <v>45.28861698183168</v>
       </c>
@@ -39563,11 +39671,11 @@
       <c r="AK74" s="1">
         <v>0</v>
       </c>
-      <c r="AL74" s="104">
+      <c r="AL74" s="99">
         <f t="shared" si="27"/>
         <v>9.6907675194660747</v>
       </c>
-      <c r="AM74" s="104">
+      <c r="AM74" s="99">
         <f t="shared" si="28"/>
         <v>9.6907675194660747</v>
       </c>
@@ -39580,11 +39688,11 @@
       <c r="AQ74" s="1">
         <v>4</v>
       </c>
-      <c r="AR74" s="104">
+      <c r="AR74" s="99">
         <f t="shared" si="29"/>
         <v>12.461549870226179</v>
       </c>
-      <c r="AS74" s="104">
+      <c r="AS74" s="99">
         <f t="shared" si="30"/>
         <v>8.4615498702261789</v>
       </c>
@@ -39599,11 +39707,11 @@
       <c r="G75" s="1">
         <v>4</v>
       </c>
-      <c r="H75" s="104">
+      <c r="H75" s="99">
         <f t="shared" si="31"/>
         <v>5.8903225806451616</v>
       </c>
-      <c r="I75" s="104">
+      <c r="I75" s="99">
         <f t="shared" si="18"/>
         <v>1.8903225806451616</v>
       </c>
@@ -39616,11 +39724,11 @@
       <c r="M75" s="1">
         <v>16</v>
       </c>
-      <c r="N75" s="104">
+      <c r="N75" s="99">
         <f t="shared" si="19"/>
         <v>4.5956989247311828</v>
       </c>
-      <c r="O75" s="104">
+      <c r="O75" s="99">
         <f t="shared" si="20"/>
         <v>11.404301075268817</v>
       </c>
@@ -39633,11 +39741,11 @@
       <c r="S75" s="1">
         <v>5</v>
       </c>
-      <c r="T75" s="104">
+      <c r="T75" s="99">
         <f t="shared" si="21"/>
         <v>43.638709677419364</v>
       </c>
-      <c r="U75" s="104">
+      <c r="U75" s="99">
         <f t="shared" si="22"/>
         <v>38.638709677419364</v>
       </c>
@@ -39650,11 +39758,11 @@
       <c r="Y75" s="1">
         <v>15</v>
       </c>
-      <c r="Z75" s="104">
+      <c r="Z75" s="99">
         <f t="shared" si="23"/>
         <v>-4.2107526881720467</v>
       </c>
-      <c r="AA75" s="104">
+      <c r="AA75" s="99">
         <f t="shared" si="24"/>
         <v>19.210752688172047</v>
       </c>
@@ -39667,11 +39775,11 @@
       <c r="AE75" s="1">
         <v>7</v>
       </c>
-      <c r="AF75" s="104">
+      <c r="AF75" s="99">
         <f t="shared" si="25"/>
         <v>58.094623655913992</v>
       </c>
-      <c r="AG75" s="104">
+      <c r="AG75" s="99">
         <f t="shared" si="26"/>
         <v>51.094623655913992</v>
       </c>
@@ -39684,11 +39792,11 @@
       <c r="AK75" s="1">
         <v>0</v>
       </c>
-      <c r="AL75" s="104">
+      <c r="AL75" s="99">
         <f t="shared" si="27"/>
         <v>9.8129032258064512</v>
       </c>
-      <c r="AM75" s="104">
+      <c r="AM75" s="99">
         <f t="shared" si="28"/>
         <v>9.8129032258064512</v>
       </c>
@@ -39701,11 +39809,11 @@
       <c r="AQ75" s="1">
         <v>8</v>
       </c>
-      <c r="AR75" s="104">
+      <c r="AR75" s="99">
         <f t="shared" si="29"/>
         <v>12.64731182795699</v>
       </c>
-      <c r="AS75" s="104">
+      <c r="AS75" s="99">
         <f t="shared" si="30"/>
         <v>4.6473118279569903</v>
       </c>
@@ -39720,11 +39828,11 @@
       <c r="G76" s="1">
         <v>19</v>
       </c>
-      <c r="H76" s="104">
+      <c r="H76" s="99">
         <f t="shared" si="31"/>
         <v>5.9038932146829817</v>
       </c>
-      <c r="I76" s="104">
+      <c r="I76" s="99">
         <f t="shared" si="18"/>
         <v>13.096106785317019</v>
       </c>
@@ -39737,11 +39845,11 @@
       <c r="M76" s="1">
         <v>7</v>
       </c>
-      <c r="N76" s="104">
+      <c r="N76" s="99">
         <f t="shared" si="19"/>
         <v>4.5480904708935856</v>
       </c>
-      <c r="O76" s="104">
+      <c r="O76" s="99">
         <f t="shared" si="20"/>
         <v>2.4519095291064144</v>
       </c>
@@ -39754,11 +39862,11 @@
       <c r="S76" s="1">
         <v>3</v>
       </c>
-      <c r="T76" s="104">
+      <c r="T76" s="99">
         <f t="shared" si="21"/>
         <v>44.260289210233601</v>
       </c>
-      <c r="U76" s="104">
+      <c r="U76" s="99">
         <f t="shared" si="22"/>
         <v>41.260289210233601</v>
       </c>
@@ -39771,11 +39879,11 @@
       <c r="Y76" s="1">
         <v>19</v>
       </c>
-      <c r="Z76" s="104">
+      <c r="Z76" s="99">
         <f t="shared" si="23"/>
         <v>-4.5573600296625933</v>
       </c>
-      <c r="AA76" s="104">
+      <c r="AA76" s="99">
         <f t="shared" si="24"/>
         <v>23.557360029662593</v>
       </c>
@@ -39788,11 +39896,11 @@
       <c r="AE76" s="1">
         <v>10</v>
       </c>
-      <c r="AF76" s="104">
+      <c r="AF76" s="99">
         <f t="shared" si="25"/>
         <v>58.900630329996318</v>
       </c>
-      <c r="AG76" s="104">
+      <c r="AG76" s="99">
         <f t="shared" si="26"/>
         <v>48.900630329996318</v>
       </c>
@@ -39805,11 +39913,11 @@
       <c r="AK76" s="1">
         <v>0</v>
       </c>
-      <c r="AL76" s="104">
+      <c r="AL76" s="99">
         <f t="shared" si="27"/>
         <v>9.9350389321468295</v>
       </c>
-      <c r="AM76" s="104">
+      <c r="AM76" s="99">
         <f t="shared" si="28"/>
         <v>9.9350389321468295</v>
       </c>
@@ -39822,11 +39930,11 @@
       <c r="AQ76" s="1">
         <v>2</v>
       </c>
-      <c r="AR76" s="104">
+      <c r="AR76" s="99">
         <f t="shared" si="29"/>
         <v>12.833073785687802</v>
       </c>
-      <c r="AS76" s="104">
+      <c r="AS76" s="99">
         <f t="shared" si="30"/>
         <v>10.833073785687802</v>
       </c>
@@ -39911,11 +40019,11 @@
         <f>SUM(G47:G76)</f>
         <v>162</v>
       </c>
-      <c r="H78" s="105">
+      <c r="H78" s="100">
         <f>SUM(H47:H76)</f>
         <v>171.21357063403778</v>
       </c>
-      <c r="I78" s="105">
+      <c r="I78" s="100">
         <f>AVERAGE(I47:I76)</f>
         <v>3.8969447534297363</v>
       </c>
@@ -39928,11 +40036,11 @@
         <f>SUM(M47:M76)</f>
         <v>163</v>
       </c>
-      <c r="N78" s="105">
+      <c r="N78" s="100">
         <f>SUM(N47:N76)</f>
         <v>157.15239154616236</v>
       </c>
-      <c r="O78" s="105">
+      <c r="O78" s="100">
         <f>AVERAGE(O47:O76)</f>
         <v>3.6127079471017187</v>
       </c>
@@ -39946,11 +40054,11 @@
         <f>SUM(S47:S76)</f>
         <v>319</v>
       </c>
-      <c r="T78" s="105">
+      <c r="T78" s="100">
         <f>SUM(T47:T76)</f>
         <v>1057.4215795328143</v>
       </c>
-      <c r="U78" s="105">
+      <c r="U78" s="100">
         <f>AVERAGE(U47:U76)</f>
         <v>24.699332591768634</v>
       </c>
@@ -39964,11 +40072,11 @@
         <f>SUM(Y47:Y76)</f>
         <v>325</v>
       </c>
-      <c r="Z78" s="105">
+      <c r="Z78" s="100">
         <f>SUM(Z47:Z76)</f>
         <v>14.053392658509384</v>
       </c>
-      <c r="AA78" s="105">
+      <c r="AA78" s="100">
         <f>AVERAGE(AA47:AA76)</f>
         <v>12.650359658880237</v>
       </c>
@@ -39982,11 +40090,11 @@
         <f>SUM(AE47:AE76)</f>
         <v>502</v>
       </c>
-      <c r="AF78" s="105">
+      <c r="AF78" s="100">
         <f>SUM(AF47:AF76)</f>
         <v>1416.4060066740826</v>
       </c>
-      <c r="AG78" s="105">
+      <c r="AG78" s="100">
         <f>AVERAGE(AG47:AG76)</f>
         <v>30.480200222469421</v>
       </c>
@@ -40000,11 +40108,11 @@
         <f>SUM(AK47:AK76)</f>
         <v>145</v>
       </c>
-      <c r="AL78" s="105">
+      <c r="AL78" s="100">
         <f>SUM(AL47:AL76)</f>
         <v>244.92213570634038</v>
       </c>
-      <c r="AM78" s="105">
+      <c r="AM78" s="100">
         <f>AVERAGE(AM47:AM76)</f>
         <v>5.2620541342232103</v>
       </c>
@@ -40017,11 +40125,11 @@
         <f>SUM(AQ47:AQ76)</f>
         <v>136</v>
       </c>
-      <c r="AR78" s="105">
+      <c r="AR78" s="100">
         <f>SUM(AR47:AR76)</f>
         <v>304.18576195773085</v>
       </c>
-      <c r="AS78" s="105">
+      <c r="AS78" s="100">
         <f>AVERAGE(AS47:AS76)</f>
         <v>5.7809887529353619</v>
       </c>
@@ -40084,11 +40192,11 @@
       <c r="G83" s="1">
         <v>0</v>
       </c>
-      <c r="H83" s="104">
+      <c r="H83" s="99">
         <f>IF(FORECAST(E83+30,$F$83:$F$112,$E$47:$E$76) &gt; 0, FORECAST(E83+30,$F$83:$F$112,$E$47:$E$76), 1)</f>
         <v>1.6804597701149433</v>
       </c>
-      <c r="I83" s="104">
+      <c r="I83" s="99">
         <f>ABS(G83-H83)</f>
         <v>1.6804597701149433</v>
       </c>
@@ -40101,11 +40209,11 @@
       <c r="M83" s="1">
         <v>3</v>
       </c>
-      <c r="N83" s="104">
+      <c r="N83" s="99">
         <f>IF(FORECAST(K83+30,$L$83:$L$112,$E$47:$E$76) &gt; 0, FORECAST(K83+30,$L$83:$L$112,$E$47:$E$76), 1)</f>
         <v>3.1701149425287354</v>
       </c>
-      <c r="O83" s="104">
+      <c r="O83" s="99">
         <f>ABS(M83-N83)</f>
         <v>0.17011494252873538</v>
       </c>
@@ -40120,11 +40228,11 @@
       <c r="G84" s="1">
         <v>0</v>
       </c>
-      <c r="H84" s="104">
+      <c r="H84" s="99">
         <f t="shared" ref="H84:H112" si="32">IF(FORECAST(E84+30,$F$83:$F$112,$E$47:$E$76) &gt; 0, FORECAST(E84+30,$F$83:$F$112,$E$47:$E$76), 1)</f>
         <v>1.5910270671116065</v>
       </c>
-      <c r="I84" s="104">
+      <c r="I84" s="99">
         <f t="shared" ref="I84:I112" si="33">ABS(G84-H84)</f>
         <v>1.5910270671116065</v>
       </c>
@@ -40137,11 +40245,11 @@
       <c r="M84" s="1">
         <v>0</v>
       </c>
-      <c r="N84" s="104">
+      <c r="N84" s="99">
         <f t="shared" ref="N84:N112" si="34">IF(FORECAST(K84+30,$L$83:$L$112,$E$47:$E$76) &gt; 0, FORECAST(K84+30,$L$83:$L$112,$E$47:$E$76), 1)</f>
         <v>3.1896922506488687</v>
       </c>
-      <c r="O84" s="104">
+      <c r="O84" s="99">
         <f t="shared" ref="O84:O112" si="35">ABS(M84-N84)</f>
         <v>3.1896922506488687</v>
       </c>
@@ -40156,11 +40264,11 @@
       <c r="G85" s="1">
         <v>0</v>
       </c>
-      <c r="H85" s="104">
+      <c r="H85" s="99">
         <f t="shared" si="32"/>
         <v>1.5015943641082696</v>
       </c>
-      <c r="I85" s="104">
+      <c r="I85" s="99">
         <f t="shared" si="33"/>
         <v>1.5015943641082696</v>
       </c>
@@ -40173,11 +40281,11 @@
       <c r="M85" s="1">
         <v>0</v>
       </c>
-      <c r="N85" s="104">
+      <c r="N85" s="99">
         <f t="shared" si="34"/>
         <v>3.2092695587690026</v>
       </c>
-      <c r="O85" s="104">
+      <c r="O85" s="99">
         <f t="shared" si="35"/>
         <v>3.2092695587690026</v>
       </c>
@@ -40192,11 +40300,11 @@
       <c r="G86" s="1">
         <v>1</v>
       </c>
-      <c r="H86" s="104">
+      <c r="H86" s="99">
         <f t="shared" si="32"/>
         <v>1.4121616611049324</v>
       </c>
-      <c r="I86" s="104">
+      <c r="I86" s="99">
         <f t="shared" si="33"/>
         <v>0.41216166110493235</v>
       </c>
@@ -40209,11 +40317,11 @@
       <c r="M86" s="1">
         <v>1</v>
       </c>
-      <c r="N86" s="104">
+      <c r="N86" s="99">
         <f t="shared" si="34"/>
         <v>3.2288468668891359</v>
       </c>
-      <c r="O86" s="104">
+      <c r="O86" s="99">
         <f t="shared" si="35"/>
         <v>2.2288468668891359</v>
       </c>
@@ -40228,11 +40336,11 @@
       <c r="G87" s="1">
         <v>13</v>
       </c>
-      <c r="H87" s="104">
+      <c r="H87" s="99">
         <f t="shared" si="32"/>
         <v>1.3227289581015955</v>
       </c>
-      <c r="I87" s="104">
+      <c r="I87" s="99">
         <f t="shared" si="33"/>
         <v>11.677271041898404</v>
       </c>
@@ -40245,11 +40353,11 @@
       <c r="M87" s="1">
         <v>3</v>
       </c>
-      <c r="N87" s="104">
+      <c r="N87" s="99">
         <f t="shared" si="34"/>
         <v>3.2484241750092693</v>
       </c>
-      <c r="O87" s="104">
+      <c r="O87" s="99">
         <f t="shared" si="35"/>
         <v>0.24842417500926928</v>
       </c>
@@ -40264,11 +40372,11 @@
       <c r="G88" s="1">
         <v>5</v>
       </c>
-      <c r="H88" s="104">
+      <c r="H88" s="99">
         <f t="shared" si="32"/>
         <v>1.2332962550982582</v>
       </c>
-      <c r="I88" s="104">
+      <c r="I88" s="99">
         <f t="shared" si="33"/>
         <v>3.7667037449017418</v>
       </c>
@@ -40281,11 +40389,11 @@
       <c r="M88" s="1">
         <v>12</v>
       </c>
-      <c r="N88" s="104">
+      <c r="N88" s="99">
         <f t="shared" si="34"/>
         <v>3.2680014831294031</v>
       </c>
-      <c r="O88" s="104">
+      <c r="O88" s="99">
         <f t="shared" si="35"/>
         <v>8.7319985168705969</v>
       </c>
@@ -40300,11 +40408,11 @@
       <c r="G89" s="1">
         <v>0</v>
       </c>
-      <c r="H89" s="104">
+      <c r="H89" s="99">
         <f t="shared" si="32"/>
         <v>1.1438635520949214</v>
       </c>
-      <c r="I89" s="104">
+      <c r="I89" s="99">
         <f t="shared" si="33"/>
         <v>1.1438635520949214</v>
       </c>
@@ -40317,11 +40425,11 @@
       <c r="M89" s="1">
         <v>9</v>
       </c>
-      <c r="N89" s="104">
+      <c r="N89" s="99">
         <f t="shared" si="34"/>
         <v>3.2875787912495364</v>
       </c>
-      <c r="O89" s="104">
+      <c r="O89" s="99">
         <f t="shared" si="35"/>
         <v>5.7124212087504631</v>
       </c>
@@ -40336,11 +40444,11 @@
       <c r="G90" s="1">
         <v>4</v>
       </c>
-      <c r="H90" s="104">
+      <c r="H90" s="99">
         <f t="shared" si="32"/>
         <v>1.0544308490915846</v>
       </c>
-      <c r="I90" s="104">
+      <c r="I90" s="99">
         <f t="shared" si="33"/>
         <v>2.9455691509084154</v>
       </c>
@@ -40353,11 +40461,11 @@
       <c r="M90" s="1">
         <v>1</v>
       </c>
-      <c r="N90" s="104">
+      <c r="N90" s="99">
         <f t="shared" si="34"/>
         <v>3.3071560993696698</v>
       </c>
-      <c r="O90" s="104">
+      <c r="O90" s="99">
         <f t="shared" si="35"/>
         <v>2.3071560993696698</v>
       </c>
@@ -40372,11 +40480,11 @@
       <c r="G91" s="1">
         <v>0</v>
       </c>
-      <c r="H91" s="104">
+      <c r="H91" s="99">
         <f t="shared" si="32"/>
         <v>0.9649981460882473</v>
       </c>
-      <c r="I91" s="104">
+      <c r="I91" s="99">
         <f t="shared" si="33"/>
         <v>0.9649981460882473</v>
       </c>
@@ -40389,11 +40497,11 @@
       <c r="M91" s="1">
         <v>2</v>
       </c>
-      <c r="N91" s="104">
+      <c r="N91" s="99">
         <f t="shared" si="34"/>
         <v>3.3267334074898032</v>
       </c>
-      <c r="O91" s="104">
+      <c r="O91" s="99">
         <f t="shared" si="35"/>
         <v>1.3267334074898032</v>
       </c>
@@ -40408,11 +40516,11 @@
       <c r="G92" s="1">
         <v>8</v>
       </c>
-      <c r="H92" s="104">
+      <c r="H92" s="99">
         <f t="shared" si="32"/>
         <v>0.87556544308491047</v>
       </c>
-      <c r="I92" s="104">
+      <c r="I92" s="99">
         <f t="shared" si="33"/>
         <v>7.1244345569150891</v>
       </c>
@@ -40425,11 +40533,11 @@
       <c r="M92" s="1">
         <v>0</v>
       </c>
-      <c r="N92" s="104">
+      <c r="N92" s="99">
         <f t="shared" si="34"/>
         <v>3.3463107156099365</v>
       </c>
-      <c r="O92" s="104">
+      <c r="O92" s="99">
         <f t="shared" si="35"/>
         <v>3.3463107156099365</v>
       </c>
@@ -40444,11 +40552,11 @@
       <c r="G93" s="1">
         <v>0</v>
       </c>
-      <c r="H93" s="104">
+      <c r="H93" s="99">
         <f t="shared" si="32"/>
         <v>0.78613274008157363</v>
       </c>
-      <c r="I93" s="104">
+      <c r="I93" s="99">
         <f t="shared" si="33"/>
         <v>0.78613274008157363</v>
       </c>
@@ -40461,11 +40569,11 @@
       <c r="M93" s="1">
         <v>0</v>
       </c>
-      <c r="N93" s="104">
+      <c r="N93" s="99">
         <f t="shared" si="34"/>
         <v>3.3658880237300703</v>
       </c>
-      <c r="O93" s="104">
+      <c r="O93" s="99">
         <f t="shared" si="35"/>
         <v>3.3658880237300703</v>
       </c>
@@ -40480,11 +40588,11 @@
       <c r="G94" s="1">
         <v>1</v>
       </c>
-      <c r="H94" s="104">
+      <c r="H94" s="99">
         <f t="shared" si="32"/>
         <v>0.69670003707823636</v>
       </c>
-      <c r="I94" s="104">
+      <c r="I94" s="99">
         <f t="shared" si="33"/>
         <v>0.30329996292176364</v>
       </c>
@@ -40497,11 +40605,11 @@
       <c r="M94" s="1">
         <v>0</v>
       </c>
-      <c r="N94" s="104">
+      <c r="N94" s="99">
         <f t="shared" si="34"/>
         <v>3.3854653318502037</v>
       </c>
-      <c r="O94" s="104">
+      <c r="O94" s="99">
         <f t="shared" si="35"/>
         <v>3.3854653318502037</v>
       </c>
@@ -40516,11 +40624,11 @@
       <c r="G95" s="1">
         <v>7</v>
       </c>
-      <c r="H95" s="104">
+      <c r="H95" s="99">
         <f t="shared" si="32"/>
         <v>0.60726733407489952</v>
       </c>
-      <c r="I95" s="104">
+      <c r="I95" s="99">
         <f t="shared" si="33"/>
         <v>6.3927326659251005</v>
       </c>
@@ -40533,11 +40641,11 @@
       <c r="M95" s="1">
         <v>0</v>
       </c>
-      <c r="N95" s="104">
+      <c r="N95" s="99">
         <f t="shared" si="34"/>
         <v>3.4050426399703371</v>
       </c>
-      <c r="O95" s="104">
+      <c r="O95" s="99">
         <f t="shared" si="35"/>
         <v>3.4050426399703371</v>
       </c>
@@ -40552,11 +40660,11 @@
       <c r="G96" s="1">
         <v>6</v>
       </c>
-      <c r="H96" s="104">
+      <c r="H96" s="99">
         <f t="shared" si="32"/>
         <v>0.51783463107156269</v>
       </c>
-      <c r="I96" s="104">
+      <c r="I96" s="99">
         <f t="shared" si="33"/>
         <v>5.4821653689284373</v>
       </c>
@@ -40569,11 +40677,11 @@
       <c r="M96" s="1">
         <v>0</v>
       </c>
-      <c r="N96" s="104">
+      <c r="N96" s="99">
         <f t="shared" si="34"/>
         <v>3.4246199480904709</v>
       </c>
-      <c r="O96" s="104">
+      <c r="O96" s="99">
         <f t="shared" si="35"/>
         <v>3.4246199480904709</v>
       </c>
@@ -40588,11 +40696,11 @@
       <c r="G97" s="1">
         <v>3</v>
       </c>
-      <c r="H97" s="104">
+      <c r="H97" s="99">
         <f t="shared" si="32"/>
         <v>0.42840192806822586</v>
       </c>
-      <c r="I97" s="104">
+      <c r="I97" s="99">
         <f t="shared" si="33"/>
         <v>2.5715980719317741</v>
       </c>
@@ -40605,11 +40713,11 @@
       <c r="M97" s="1">
         <v>1</v>
       </c>
-      <c r="N97" s="104">
+      <c r="N97" s="99">
         <f t="shared" si="34"/>
         <v>3.4441972562106042</v>
       </c>
-      <c r="O97" s="104">
+      <c r="O97" s="99">
         <f t="shared" si="35"/>
         <v>2.4441972562106042</v>
       </c>
@@ -40624,11 +40732,11 @@
       <c r="G98" s="1">
         <v>1</v>
       </c>
-      <c r="H98" s="104">
+      <c r="H98" s="99">
         <f t="shared" si="32"/>
         <v>0.33896922506488814</v>
       </c>
-      <c r="I98" s="104">
+      <c r="I98" s="99">
         <f t="shared" si="33"/>
         <v>0.66103077493511186</v>
       </c>
@@ -40641,11 +40749,11 @@
       <c r="M98" s="1">
         <v>2</v>
       </c>
-      <c r="N98" s="104">
+      <c r="N98" s="99">
         <f t="shared" si="34"/>
         <v>3.4637745643307376</v>
       </c>
-      <c r="O98" s="104">
+      <c r="O98" s="99">
         <f t="shared" si="35"/>
         <v>1.4637745643307376</v>
       </c>
@@ -40660,11 +40768,11 @@
       <c r="G99" s="1">
         <v>6</v>
       </c>
-      <c r="H99" s="104">
+      <c r="H99" s="99">
         <f t="shared" si="32"/>
         <v>0.2495365220615513</v>
       </c>
-      <c r="I99" s="104">
+      <c r="I99" s="99">
         <f t="shared" si="33"/>
         <v>5.7504634779384487</v>
       </c>
@@ -40677,11 +40785,11 @@
       <c r="M99" s="1">
         <v>0</v>
       </c>
-      <c r="N99" s="104">
+      <c r="N99" s="99">
         <f t="shared" si="34"/>
         <v>3.4833518724508714</v>
       </c>
-      <c r="O99" s="104">
+      <c r="O99" s="99">
         <f t="shared" si="35"/>
         <v>3.4833518724508714</v>
       </c>
@@ -40696,11 +40804,11 @@
       <c r="G100" s="1">
         <v>5</v>
       </c>
-      <c r="H100" s="104">
+      <c r="H100" s="99">
         <f t="shared" si="32"/>
         <v>0.16010381905821447</v>
       </c>
-      <c r="I100" s="104">
+      <c r="I100" s="99">
         <f t="shared" si="33"/>
         <v>4.8398961809417855</v>
       </c>
@@ -40713,11 +40821,11 @@
       <c r="M100" s="1">
         <v>2</v>
       </c>
-      <c r="N100" s="104">
+      <c r="N100" s="99">
         <f t="shared" si="34"/>
         <v>3.5029291805710048</v>
       </c>
-      <c r="O100" s="104">
+      <c r="O100" s="99">
         <f t="shared" si="35"/>
         <v>1.5029291805710048</v>
       </c>
@@ -40732,11 +40840,11 @@
       <c r="G101" s="1">
         <v>1</v>
       </c>
-      <c r="H101" s="104">
+      <c r="H101" s="99">
         <f t="shared" si="32"/>
         <v>7.0671116054877636E-2</v>
       </c>
-      <c r="I101" s="104">
+      <c r="I101" s="99">
         <f t="shared" si="33"/>
         <v>0.92932888394512236</v>
       </c>
@@ -40749,11 +40857,11 @@
       <c r="M101" s="1">
         <v>0</v>
       </c>
-      <c r="N101" s="104">
+      <c r="N101" s="99">
         <f t="shared" si="34"/>
         <v>3.5225064886911381</v>
       </c>
-      <c r="O101" s="104">
+      <c r="O101" s="99">
         <f t="shared" si="35"/>
         <v>3.5225064886911381</v>
       </c>
@@ -40768,11 +40876,11 @@
       <c r="G102" s="1">
         <v>1</v>
       </c>
-      <c r="H102" s="104">
+      <c r="H102" s="99">
         <f t="shared" si="32"/>
         <v>1</v>
       </c>
-      <c r="I102" s="104">
+      <c r="I102" s="99">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
@@ -40785,11 +40893,11 @@
       <c r="M102" s="1">
         <v>1</v>
       </c>
-      <c r="N102" s="104">
+      <c r="N102" s="99">
         <f t="shared" si="34"/>
         <v>3.5420837968112715</v>
       </c>
-      <c r="O102" s="104">
+      <c r="O102" s="99">
         <f t="shared" si="35"/>
         <v>2.5420837968112715</v>
       </c>
@@ -40804,11 +40912,11 @@
       <c r="G103" s="1">
         <v>6</v>
       </c>
-      <c r="H103" s="104">
+      <c r="H103" s="99">
         <f t="shared" si="32"/>
         <v>1</v>
       </c>
-      <c r="I103" s="104">
+      <c r="I103" s="99">
         <f t="shared" si="33"/>
         <v>5</v>
       </c>
@@ -40821,11 +40929,11 @@
       <c r="M103" s="1">
         <v>0</v>
       </c>
-      <c r="N103" s="104">
+      <c r="N103" s="99">
         <f t="shared" si="34"/>
         <v>3.5616611049314049</v>
       </c>
-      <c r="O103" s="104">
+      <c r="O103" s="99">
         <f t="shared" si="35"/>
         <v>3.5616611049314049</v>
       </c>
@@ -40840,11 +40948,11 @@
       <c r="G104" s="1">
         <v>4</v>
       </c>
-      <c r="H104" s="104">
+      <c r="H104" s="99">
         <f t="shared" si="32"/>
         <v>1</v>
       </c>
-      <c r="I104" s="104">
+      <c r="I104" s="99">
         <f t="shared" si="33"/>
         <v>3</v>
       </c>
@@ -40857,11 +40965,11 @@
       <c r="M104" s="1">
         <v>2</v>
       </c>
-      <c r="N104" s="104">
+      <c r="N104" s="99">
         <f t="shared" si="34"/>
         <v>3.5812384130515387</v>
       </c>
-      <c r="O104" s="104">
+      <c r="O104" s="99">
         <f t="shared" si="35"/>
         <v>1.5812384130515387</v>
       </c>
@@ -40876,11 +40984,11 @@
       <c r="G105" s="1">
         <v>0</v>
       </c>
-      <c r="H105" s="104">
+      <c r="H105" s="99">
         <f t="shared" si="32"/>
         <v>1</v>
       </c>
-      <c r="I105" s="104">
+      <c r="I105" s="99">
         <f t="shared" si="33"/>
         <v>1</v>
       </c>
@@ -40893,11 +41001,11 @@
       <c r="M105" s="1">
         <v>0</v>
       </c>
-      <c r="N105" s="104">
+      <c r="N105" s="99">
         <f t="shared" si="34"/>
         <v>3.600815721171672</v>
       </c>
-      <c r="O105" s="104">
+      <c r="O105" s="99">
         <f t="shared" si="35"/>
         <v>3.600815721171672</v>
       </c>
@@ -40912,11 +41020,11 @@
       <c r="G106" s="1">
         <v>0</v>
       </c>
-      <c r="H106" s="104">
+      <c r="H106" s="99">
         <f t="shared" si="32"/>
         <v>1</v>
       </c>
-      <c r="I106" s="104">
+      <c r="I106" s="99">
         <f t="shared" si="33"/>
         <v>1</v>
       </c>
@@ -40929,11 +41037,11 @@
       <c r="M106" s="1">
         <v>0</v>
       </c>
-      <c r="N106" s="104">
+      <c r="N106" s="99">
         <f t="shared" si="34"/>
         <v>3.6203930292918054</v>
       </c>
-      <c r="O106" s="104">
+      <c r="O106" s="99">
         <f t="shared" si="35"/>
         <v>3.6203930292918054</v>
       </c>
@@ -40948,11 +41056,11 @@
       <c r="G107" s="1">
         <v>0</v>
       </c>
-      <c r="H107" s="104">
+      <c r="H107" s="99">
         <f t="shared" si="32"/>
         <v>1</v>
       </c>
-      <c r="I107" s="104">
+      <c r="I107" s="99">
         <f t="shared" si="33"/>
         <v>1</v>
       </c>
@@ -40965,11 +41073,11 @@
       <c r="M107" s="1">
         <v>0</v>
       </c>
-      <c r="N107" s="104">
+      <c r="N107" s="99">
         <f t="shared" si="34"/>
         <v>3.6399703374119392</v>
       </c>
-      <c r="O107" s="104">
+      <c r="O107" s="99">
         <f t="shared" si="35"/>
         <v>3.6399703374119392</v>
       </c>
@@ -40984,11 +41092,11 @@
       <c r="G108" s="1">
         <v>0</v>
       </c>
-      <c r="H108" s="104">
+      <c r="H108" s="99">
         <f t="shared" si="32"/>
         <v>1</v>
       </c>
-      <c r="I108" s="104">
+      <c r="I108" s="99">
         <f t="shared" si="33"/>
         <v>1</v>
       </c>
@@ -41001,11 +41109,11 @@
       <c r="M108" s="1">
         <v>4</v>
       </c>
-      <c r="N108" s="104">
+      <c r="N108" s="99">
         <f t="shared" si="34"/>
         <v>3.6595476455320726</v>
       </c>
-      <c r="O108" s="104">
+      <c r="O108" s="99">
         <f t="shared" si="35"/>
         <v>0.34045235446792743</v>
       </c>
@@ -41020,11 +41128,11 @@
       <c r="G109" s="1">
         <v>0</v>
       </c>
-      <c r="H109" s="104">
+      <c r="H109" s="99">
         <f t="shared" si="32"/>
         <v>1</v>
       </c>
-      <c r="I109" s="104">
+      <c r="I109" s="99">
         <f t="shared" si="33"/>
         <v>1</v>
       </c>
@@ -41037,11 +41145,11 @@
       <c r="M109" s="1">
         <v>16</v>
       </c>
-      <c r="N109" s="104">
+      <c r="N109" s="99">
         <f t="shared" si="34"/>
         <v>3.6791249536522059</v>
       </c>
-      <c r="O109" s="104">
+      <c r="O109" s="99">
         <f t="shared" si="35"/>
         <v>12.320875046347794</v>
       </c>
@@ -41056,11 +41164,11 @@
       <c r="G110" s="1">
         <v>0</v>
       </c>
-      <c r="H110" s="104">
+      <c r="H110" s="99">
         <f t="shared" si="32"/>
         <v>1</v>
       </c>
-      <c r="I110" s="104">
+      <c r="I110" s="99">
         <f t="shared" si="33"/>
         <v>1</v>
       </c>
@@ -41073,11 +41181,11 @@
       <c r="M110" s="1">
         <v>4</v>
       </c>
-      <c r="N110" s="104">
+      <c r="N110" s="99">
         <f t="shared" si="34"/>
         <v>3.6987022617723397</v>
       </c>
-      <c r="O110" s="104">
+      <c r="O110" s="99">
         <f t="shared" si="35"/>
         <v>0.30129773822766026</v>
       </c>
@@ -41092,11 +41200,11 @@
       <c r="G111" s="1">
         <v>0</v>
       </c>
-      <c r="H111" s="104">
+      <c r="H111" s="99">
         <f t="shared" si="32"/>
         <v>1</v>
       </c>
-      <c r="I111" s="104">
+      <c r="I111" s="99">
         <f t="shared" si="33"/>
         <v>1</v>
       </c>
@@ -41109,11 +41217,11 @@
       <c r="M111" s="1">
         <v>4</v>
       </c>
-      <c r="N111" s="104">
+      <c r="N111" s="99">
         <f t="shared" si="34"/>
         <v>3.7182795698924727</v>
       </c>
-      <c r="O111" s="104">
+      <c r="O111" s="99">
         <f t="shared" si="35"/>
         <v>0.28172043010752734</v>
       </c>
@@ -41128,11 +41236,11 @@
       <c r="G112" s="1">
         <v>0</v>
       </c>
-      <c r="H112" s="104">
+      <c r="H112" s="99">
         <f t="shared" si="32"/>
         <v>1</v>
       </c>
-      <c r="I112" s="104">
+      <c r="I112" s="99">
         <f t="shared" si="33"/>
         <v>1</v>
       </c>
@@ -41145,11 +41253,11 @@
       <c r="M112" s="1">
         <v>11</v>
       </c>
-      <c r="N112" s="104">
+      <c r="N112" s="99">
         <f t="shared" si="34"/>
         <v>3.7378568780126065</v>
       </c>
-      <c r="O112" s="104">
+      <c r="O112" s="99">
         <f t="shared" si="35"/>
         <v>7.2621431219873935</v>
       </c>
@@ -41184,11 +41292,11 @@
         <f>SUM(G83:G112)</f>
         <v>72</v>
       </c>
-      <c r="H114" s="105">
+      <c r="H114" s="100">
         <f>SUM(H83:H112)</f>
         <v>27.635743418613302</v>
       </c>
-      <c r="I114" s="105">
+      <c r="I114" s="100">
         <f>AVERAGE(I83:I112)</f>
         <v>2.5508243727598563</v>
       </c>
@@ -41201,11 +41309,11 @@
         <f>SUM(M83:M112)</f>
         <v>78</v>
       </c>
-      <c r="N114" s="105">
+      <c r="N114" s="100">
         <f>SUM(N83:N112)</f>
         <v>103.61957730812013</v>
       </c>
-      <c r="O114" s="105">
+      <c r="O114" s="100">
         <f>AVERAGE(O83:O112)</f>
         <v>3.1840464713879615</v>
       </c>
@@ -48545,4 +48653,792 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7F680B3-CA4F-4308-B353-09D32E1B4F16}">
+  <dimension ref="A2:V38"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="10.5546875" customWidth="1"/>
+    <col min="8" max="8" width="9.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A2" s="111"/>
+      <c r="B2" s="111"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="7"/>
+      <c r="S2" s="111"/>
+      <c r="T2" s="111"/>
+      <c r="U2" s="111"/>
+      <c r="V2" s="111"/>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A3" s="111"/>
+      <c r="B3" s="111"/>
+      <c r="C3" s="118" t="s">
+        <v>93</v>
+      </c>
+      <c r="D3" s="118"/>
+      <c r="E3" s="118"/>
+      <c r="F3" s="118"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="L3" s="22"/>
+      <c r="S3" s="111"/>
+      <c r="T3" s="111"/>
+      <c r="U3" s="111"/>
+      <c r="V3" s="111"/>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A4" s="111"/>
+      <c r="B4" s="111"/>
+      <c r="C4" s="104" t="s">
+        <v>92</v>
+      </c>
+      <c r="D4" s="104"/>
+      <c r="E4" s="104"/>
+      <c r="F4" s="104"/>
+      <c r="G4" s="104"/>
+      <c r="H4" s="7"/>
+      <c r="S4" s="111"/>
+      <c r="T4" s="111"/>
+      <c r="U4" s="111"/>
+      <c r="V4" s="111"/>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A5" s="111"/>
+      <c r="B5" s="111"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="I5" s="7"/>
+      <c r="K5" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="L5" s="17"/>
+      <c r="N5" s="22"/>
+      <c r="S5" s="111"/>
+      <c r="T5" s="111"/>
+      <c r="U5" s="111"/>
+      <c r="V5" s="111"/>
+    </row>
+    <row r="6" spans="1:22" ht="18" x14ac:dyDescent="0.35">
+      <c r="A6" s="111"/>
+      <c r="B6" s="111"/>
+      <c r="C6" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="109"/>
+      <c r="H6" s="50" t="s">
+        <v>30</v>
+      </c>
+      <c r="I6" s="50" t="s">
+        <v>29</v>
+      </c>
+      <c r="K6" t="s">
+        <v>23</v>
+      </c>
+      <c r="L6" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="N6" s="22"/>
+      <c r="S6" s="111"/>
+      <c r="T6" s="111"/>
+      <c r="U6" s="111"/>
+      <c r="V6" s="111"/>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A7" s="111"/>
+      <c r="B7" s="111"/>
+      <c r="C7" s="51">
+        <v>1</v>
+      </c>
+      <c r="D7" s="51">
+        <v>2</v>
+      </c>
+      <c r="E7" s="110"/>
+      <c r="H7" s="53">
+        <v>8</v>
+      </c>
+      <c r="I7" s="53" t="s">
+        <v>21</v>
+      </c>
+      <c r="S7" s="111"/>
+      <c r="T7" s="111"/>
+      <c r="U7" s="111"/>
+      <c r="V7" s="111"/>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A8" s="111"/>
+      <c r="B8" s="111"/>
+      <c r="C8" s="51">
+        <v>2</v>
+      </c>
+      <c r="D8" s="51">
+        <v>2</v>
+      </c>
+      <c r="E8" s="110"/>
+      <c r="H8" s="53">
+        <v>9</v>
+      </c>
+      <c r="I8" s="53" t="s">
+        <v>21</v>
+      </c>
+      <c r="K8" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="S8" s="111"/>
+      <c r="T8" s="111"/>
+      <c r="U8" s="111"/>
+      <c r="V8" s="111"/>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A9" s="111"/>
+      <c r="B9" s="111"/>
+      <c r="C9" s="51">
+        <v>3</v>
+      </c>
+      <c r="D9" s="51">
+        <v>3</v>
+      </c>
+      <c r="E9" s="110"/>
+      <c r="H9" s="53">
+        <v>10</v>
+      </c>
+      <c r="I9" s="53" t="s">
+        <v>21</v>
+      </c>
+      <c r="K9" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="L9" s="101" t="s">
+        <v>32</v>
+      </c>
+      <c r="M9" s="101"/>
+      <c r="S9" s="111"/>
+      <c r="T9" s="111"/>
+      <c r="U9" s="111"/>
+      <c r="V9" s="111"/>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A10" s="111"/>
+      <c r="B10" s="111"/>
+      <c r="C10" s="51">
+        <v>4</v>
+      </c>
+      <c r="D10" s="51">
+        <v>1</v>
+      </c>
+      <c r="E10" s="110"/>
+      <c r="H10" s="53">
+        <v>11</v>
+      </c>
+      <c r="I10" s="53" t="s">
+        <v>21</v>
+      </c>
+      <c r="L10" s="105" t="s">
+        <v>33</v>
+      </c>
+      <c r="M10" s="105"/>
+      <c r="S10" s="111"/>
+      <c r="T10" s="111"/>
+      <c r="U10" s="111"/>
+      <c r="V10" s="111"/>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A11" s="111"/>
+      <c r="B11" s="111"/>
+      <c r="C11" s="51">
+        <v>5</v>
+      </c>
+      <c r="D11" s="51">
+        <v>3</v>
+      </c>
+      <c r="E11" s="110"/>
+      <c r="H11" s="53">
+        <v>12</v>
+      </c>
+      <c r="I11" s="53" t="s">
+        <v>21</v>
+      </c>
+      <c r="L11" s="101" t="s">
+        <v>34</v>
+      </c>
+      <c r="M11" s="101"/>
+      <c r="S11" s="111"/>
+      <c r="T11" s="111"/>
+      <c r="U11" s="111"/>
+      <c r="V11" s="111"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A12" s="111"/>
+      <c r="B12" s="111"/>
+      <c r="C12" s="51">
+        <v>6</v>
+      </c>
+      <c r="D12" s="51">
+        <v>2</v>
+      </c>
+      <c r="E12" s="110"/>
+      <c r="H12" s="53" t="s">
+        <v>94</v>
+      </c>
+      <c r="I12" s="53"/>
+      <c r="S12" s="111"/>
+      <c r="T12" s="111"/>
+      <c r="U12" s="111"/>
+      <c r="V12" s="111"/>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A13" s="111"/>
+      <c r="B13" s="111"/>
+      <c r="C13" s="52">
+        <v>7</v>
+      </c>
+      <c r="D13" s="51">
+        <v>4</v>
+      </c>
+      <c r="E13" s="110"/>
+      <c r="H13" s="110"/>
+      <c r="K13" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="L13" s="101" t="s">
+        <v>35</v>
+      </c>
+      <c r="M13" s="101"/>
+      <c r="S13" s="111"/>
+      <c r="T13" s="111"/>
+      <c r="U13" s="111"/>
+      <c r="V13" s="111"/>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A14" s="111"/>
+      <c r="B14" s="117" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="29">
+        <f>SUM(C7:C13)</f>
+        <v>28</v>
+      </c>
+      <c r="D14" s="29">
+        <f t="shared" ref="D14" si="0">SUM(D7:D13)</f>
+        <v>17</v>
+      </c>
+      <c r="E14" s="110"/>
+      <c r="F14" s="7"/>
+      <c r="L14" s="105" t="s">
+        <v>33</v>
+      </c>
+      <c r="M14" s="105"/>
+      <c r="S14" s="111"/>
+      <c r="T14" s="111"/>
+      <c r="U14" s="111"/>
+      <c r="V14" s="111"/>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A15" s="111"/>
+      <c r="F15" s="7"/>
+      <c r="L15" s="101" t="s">
+        <v>34</v>
+      </c>
+      <c r="M15" s="101"/>
+      <c r="S15" s="111"/>
+      <c r="T15" s="111"/>
+      <c r="U15" s="111"/>
+      <c r="V15" s="111"/>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A16" s="111"/>
+      <c r="B16" s="111"/>
+      <c r="C16" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="G16" s="7"/>
+      <c r="H16" s="50" t="s">
+        <v>25</v>
+      </c>
+      <c r="I16" s="50" t="s">
+        <v>29</v>
+      </c>
+      <c r="J16" s="109"/>
+      <c r="S16" s="111"/>
+      <c r="T16" s="111"/>
+      <c r="U16" s="111"/>
+      <c r="V16" s="111"/>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A17" s="111"/>
+      <c r="B17" s="111"/>
+      <c r="C17" s="20">
+        <f>C7^2</f>
+        <v>1</v>
+      </c>
+      <c r="D17" s="20">
+        <f>D7*C7</f>
+        <v>2</v>
+      </c>
+      <c r="G17" s="7"/>
+      <c r="H17" s="53">
+        <v>8</v>
+      </c>
+      <c r="I17" s="54">
+        <f>$F$23+($F$24*H17)</f>
+        <v>3.2857142857142856</v>
+      </c>
+      <c r="J17" s="115"/>
+      <c r="S17" s="111"/>
+      <c r="T17" s="111"/>
+      <c r="U17" s="111"/>
+      <c r="V17" s="111"/>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A18" s="111"/>
+      <c r="B18" s="111"/>
+      <c r="C18" s="20">
+        <f>C8^2</f>
+        <v>4</v>
+      </c>
+      <c r="D18" s="20">
+        <f>D8*C8</f>
+        <v>4</v>
+      </c>
+      <c r="H18" s="53">
+        <v>9</v>
+      </c>
+      <c r="I18" s="54">
+        <f t="shared" ref="I18:I23" si="1">$F$23+($F$24*H18)</f>
+        <v>3.5</v>
+      </c>
+      <c r="J18" s="115"/>
+      <c r="N18" s="109"/>
+      <c r="O18" s="109"/>
+      <c r="P18" s="109"/>
+      <c r="Q18" s="109"/>
+      <c r="R18" s="112"/>
+      <c r="S18" s="113"/>
+      <c r="T18" s="114"/>
+      <c r="U18" s="111"/>
+      <c r="V18" s="111"/>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A19" s="111"/>
+      <c r="B19" s="111"/>
+      <c r="C19" s="20">
+        <f>C9^2</f>
+        <v>9</v>
+      </c>
+      <c r="D19" s="20">
+        <f>D9*C9</f>
+        <v>9</v>
+      </c>
+      <c r="H19" s="53">
+        <v>10</v>
+      </c>
+      <c r="I19" s="54">
+        <f t="shared" si="1"/>
+        <v>3.7142857142857144</v>
+      </c>
+      <c r="J19" s="115"/>
+      <c r="N19" s="110"/>
+      <c r="S19" s="113"/>
+      <c r="T19" s="114"/>
+      <c r="U19" s="111"/>
+      <c r="V19" s="111"/>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A20" s="111"/>
+      <c r="B20" s="111"/>
+      <c r="C20" s="20">
+        <f>C10^2</f>
+        <v>16</v>
+      </c>
+      <c r="D20" s="20">
+        <f>D10*C10</f>
+        <v>4</v>
+      </c>
+      <c r="H20" s="53">
+        <v>11</v>
+      </c>
+      <c r="I20" s="54">
+        <f t="shared" si="1"/>
+        <v>3.9285714285714288</v>
+      </c>
+      <c r="J20" s="115"/>
+      <c r="N20" s="110"/>
+      <c r="S20" s="112"/>
+      <c r="T20" s="112"/>
+      <c r="U20" s="111"/>
+      <c r="V20" s="111"/>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A21" s="111"/>
+      <c r="B21" s="111"/>
+      <c r="C21" s="20">
+        <f>C11^2</f>
+        <v>25</v>
+      </c>
+      <c r="D21" s="20">
+        <f>D11*C11</f>
+        <v>15</v>
+      </c>
+      <c r="H21" s="53">
+        <v>12</v>
+      </c>
+      <c r="I21" s="54">
+        <f t="shared" si="1"/>
+        <v>4.1428571428571423</v>
+      </c>
+      <c r="J21" s="115"/>
+      <c r="N21" s="110"/>
+      <c r="S21" s="110"/>
+      <c r="T21" s="115"/>
+      <c r="U21" s="111"/>
+      <c r="V21" s="111"/>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A22" s="111"/>
+      <c r="B22" s="111"/>
+      <c r="C22" s="20">
+        <f>C12^2</f>
+        <v>36</v>
+      </c>
+      <c r="D22" s="20">
+        <f>D12*C12</f>
+        <v>12</v>
+      </c>
+      <c r="H22" s="53">
+        <v>13</v>
+      </c>
+      <c r="I22" s="54">
+        <f t="shared" si="1"/>
+        <v>4.3571428571428568</v>
+      </c>
+      <c r="J22" s="115"/>
+      <c r="N22" s="110"/>
+      <c r="S22" s="110"/>
+      <c r="T22" s="115"/>
+      <c r="U22" s="111"/>
+      <c r="V22" s="111"/>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A23" s="111"/>
+      <c r="B23" s="111"/>
+      <c r="C23" s="20">
+        <f>C13^2</f>
+        <v>49</v>
+      </c>
+      <c r="D23" s="20">
+        <f>D13*C13</f>
+        <v>28</v>
+      </c>
+      <c r="E23" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="F23" s="43">
+        <f>((D14*C24)-(C14*D24))/((7*C24)-(C14)^2)</f>
+        <v>1.5714285714285714</v>
+      </c>
+      <c r="H23" s="53">
+        <v>14</v>
+      </c>
+      <c r="I23" s="54">
+        <f t="shared" si="1"/>
+        <v>4.5714285714285712</v>
+      </c>
+      <c r="J23" s="115"/>
+      <c r="N23" s="110"/>
+      <c r="S23" s="110"/>
+      <c r="T23" s="115"/>
+      <c r="U23" s="111"/>
+      <c r="V23" s="111"/>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A24" s="111"/>
+      <c r="B24" s="111"/>
+      <c r="C24" s="29">
+        <f>SUM(C17:C23)</f>
+        <v>140</v>
+      </c>
+      <c r="D24" s="29">
+        <f>SUM(D17:D23)</f>
+        <v>74</v>
+      </c>
+      <c r="E24" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="F24" s="43">
+        <f>((7*D24)-(C14*D14))/((7*C24)-(C14)^2)</f>
+        <v>0.21428571428571427</v>
+      </c>
+      <c r="N24" s="110"/>
+      <c r="S24" s="110"/>
+      <c r="T24" s="115"/>
+      <c r="U24" s="111"/>
+      <c r="V24" s="111"/>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A25" s="111"/>
+      <c r="B25" s="111"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="M25" s="112"/>
+      <c r="N25" s="110"/>
+      <c r="S25" s="110"/>
+      <c r="T25" s="115"/>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A26" s="111"/>
+      <c r="B26" s="111"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="33"/>
+      <c r="I26" s="34"/>
+      <c r="M26" s="112"/>
+      <c r="N26" s="110"/>
+      <c r="S26" s="110"/>
+      <c r="T26" s="115"/>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A27" s="111"/>
+      <c r="B27" s="111"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="35"/>
+      <c r="H27" s="7"/>
+      <c r="M27" s="112"/>
+      <c r="N27" s="110"/>
+      <c r="S27" s="110"/>
+      <c r="T27" s="115"/>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A28" s="111"/>
+      <c r="B28" s="111"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="35"/>
+      <c r="H28" s="7"/>
+      <c r="M28" s="112"/>
+      <c r="N28" s="110"/>
+      <c r="S28" s="112"/>
+      <c r="T28" s="116"/>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A29" s="111"/>
+      <c r="B29" s="111"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
+      <c r="M29" s="112"/>
+      <c r="N29" s="110"/>
+      <c r="S29" s="112"/>
+      <c r="T29" s="112"/>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A30" s="111"/>
+      <c r="B30" s="111"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="7"/>
+      <c r="M30" s="112"/>
+      <c r="N30" s="110"/>
+      <c r="S30" s="112"/>
+      <c r="T30" s="112"/>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A31" s="111"/>
+      <c r="B31" s="111"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="7"/>
+      <c r="M31" s="112"/>
+      <c r="N31" s="110"/>
+      <c r="S31" s="112"/>
+      <c r="T31" s="112"/>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A32" s="111"/>
+      <c r="B32" s="111"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="7"/>
+      <c r="M32" s="112"/>
+      <c r="N32" s="110"/>
+      <c r="S32" s="112"/>
+      <c r="T32" s="112"/>
+    </row>
+    <row r="33" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A33" s="111"/>
+      <c r="B33" s="111"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="7"/>
+      <c r="M33" s="110"/>
+      <c r="N33" s="110"/>
+      <c r="R33" s="112"/>
+      <c r="S33" s="112"/>
+      <c r="T33" s="112"/>
+    </row>
+    <row r="34" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A34" s="111"/>
+      <c r="B34" s="111"/>
+      <c r="C34" s="119"/>
+      <c r="D34" s="119"/>
+      <c r="E34" s="111"/>
+      <c r="F34" s="119"/>
+      <c r="G34" s="119"/>
+      <c r="H34" s="119"/>
+      <c r="I34" s="111"/>
+      <c r="J34" s="111"/>
+      <c r="K34" s="111"/>
+      <c r="L34" s="111"/>
+      <c r="M34" s="111"/>
+      <c r="N34" s="111"/>
+      <c r="O34" s="111"/>
+      <c r="P34" s="111"/>
+      <c r="Q34" s="111"/>
+      <c r="R34" s="111"/>
+      <c r="S34" s="111"/>
+      <c r="T34" s="111"/>
+      <c r="U34" s="111"/>
+    </row>
+    <row r="35" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A35" s="111"/>
+      <c r="B35" s="111"/>
+      <c r="C35" s="119"/>
+      <c r="D35" s="119"/>
+      <c r="E35" s="111"/>
+      <c r="F35" s="119"/>
+      <c r="G35" s="119"/>
+      <c r="H35" s="119"/>
+      <c r="I35" s="111"/>
+      <c r="J35" s="111"/>
+      <c r="K35" s="111"/>
+      <c r="L35" s="111"/>
+      <c r="M35" s="111"/>
+      <c r="N35" s="111"/>
+      <c r="O35" s="111"/>
+      <c r="P35" s="111"/>
+      <c r="Q35" s="111"/>
+      <c r="R35" s="111"/>
+      <c r="S35" s="111"/>
+      <c r="T35" s="111"/>
+      <c r="U35" s="111"/>
+    </row>
+    <row r="36" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="B36" s="111"/>
+      <c r="C36" s="111"/>
+      <c r="D36" s="111"/>
+      <c r="E36" s="111"/>
+      <c r="F36" s="111"/>
+      <c r="G36" s="111"/>
+      <c r="H36" s="111"/>
+      <c r="I36" s="111"/>
+      <c r="J36" s="111"/>
+      <c r="K36" s="111"/>
+      <c r="L36" s="111"/>
+      <c r="M36" s="111"/>
+      <c r="N36" s="111"/>
+      <c r="O36" s="111"/>
+      <c r="P36" s="111"/>
+      <c r="Q36" s="111"/>
+      <c r="R36" s="111"/>
+      <c r="S36" s="111"/>
+      <c r="T36" s="111"/>
+      <c r="U36" s="111"/>
+    </row>
+    <row r="37" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="B37" s="111"/>
+      <c r="C37" s="111"/>
+      <c r="D37" s="111"/>
+      <c r="E37" s="111"/>
+      <c r="F37" s="111"/>
+      <c r="G37" s="111"/>
+      <c r="H37" s="111"/>
+      <c r="I37" s="111"/>
+      <c r="J37" s="111"/>
+      <c r="K37" s="111"/>
+      <c r="L37" s="111"/>
+      <c r="M37" s="111"/>
+      <c r="N37" s="111"/>
+      <c r="O37" s="111"/>
+      <c r="P37" s="111"/>
+      <c r="Q37" s="111"/>
+      <c r="R37" s="111"/>
+      <c r="S37" s="111"/>
+      <c r="T37" s="111"/>
+      <c r="U37" s="111"/>
+    </row>
+    <row r="38" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="B38" s="111"/>
+      <c r="C38" s="111"/>
+      <c r="D38" s="111"/>
+      <c r="E38" s="111"/>
+      <c r="F38" s="111"/>
+      <c r="G38" s="111"/>
+      <c r="H38" s="111"/>
+      <c r="I38" s="111"/>
+      <c r="J38" s="111"/>
+      <c r="K38" s="111"/>
+      <c r="L38" s="111"/>
+      <c r="M38" s="111"/>
+      <c r="N38" s="111"/>
+      <c r="O38" s="111"/>
+      <c r="P38" s="111"/>
+      <c r="Q38" s="111"/>
+      <c r="R38" s="111"/>
+      <c r="S38" s="111"/>
+      <c r="T38" s="111"/>
+      <c r="U38" s="111"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="L13:M13"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="152" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/2. Proposal/Metode/Try.xlsx
+++ b/2. Proposal/Metode/Try.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\File\Skripsi\2. Proposal\Metode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC0BB6A2-BDF0-47E2-A282-9364509859DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B72FF3D-800B-4CCD-9B82-FB5F5816EBD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="7" xr2:uid="{9E0B27B6-5960-4ADA-83F0-0309D2A69620}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{9E0B27B6-5960-4ADA-83F0-0309D2A69620}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="96">
   <si>
     <t>Tanggal</t>
   </si>
@@ -327,6 +327,9 @@
   </si>
   <si>
     <t>dst.</t>
+  </si>
+  <si>
+    <t>Forcast (Y')</t>
   </si>
 </sst>
 </file>
@@ -781,7 +784,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="120">
+  <cellXfs count="112">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -993,6 +996,15 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1015,31 +1027,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -7648,8 +7635,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE6B0E80-D10A-4815-A892-18FD744DDE32}">
   <dimension ref="B1:T95"/>
   <sheetViews>
-    <sheetView topLeftCell="A65" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B62" sqref="B62:T95"/>
+    <sheetView topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I58" sqref="I58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7665,27 +7652,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:20" ht="29.4" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B1" s="102" t="s">
+      <c r="B1" s="105" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="103"/>
-      <c r="D1" s="103"/>
-      <c r="E1" s="103"/>
-      <c r="F1" s="103"/>
-      <c r="G1" s="103"/>
-      <c r="H1" s="103"/>
-      <c r="I1" s="103"/>
-      <c r="J1" s="103"/>
-      <c r="K1" s="103"/>
-      <c r="L1" s="103"/>
-      <c r="M1" s="103"/>
-      <c r="N1" s="103"/>
-      <c r="O1" s="103"/>
-      <c r="P1" s="103"/>
-      <c r="Q1" s="103"/>
-      <c r="R1" s="103"/>
-      <c r="S1" s="103"/>
-      <c r="T1" s="103"/>
+      <c r="C1" s="106"/>
+      <c r="D1" s="106"/>
+      <c r="E1" s="106"/>
+      <c r="F1" s="106"/>
+      <c r="G1" s="106"/>
+      <c r="H1" s="106"/>
+      <c r="I1" s="106"/>
+      <c r="J1" s="106"/>
+      <c r="K1" s="106"/>
+      <c r="L1" s="106"/>
+      <c r="M1" s="106"/>
+      <c r="N1" s="106"/>
+      <c r="O1" s="106"/>
+      <c r="P1" s="106"/>
+      <c r="Q1" s="106"/>
+      <c r="R1" s="106"/>
+      <c r="S1" s="106"/>
+      <c r="T1" s="106"/>
     </row>
     <row r="2" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B2" s="36"/>
@@ -8216,27 +8203,27 @@
       <c r="G25" s="8"/>
     </row>
     <row r="26" spans="2:20" ht="29.4" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B26" s="102" t="s">
+      <c r="B26" s="105" t="s">
         <v>18</v>
       </c>
-      <c r="C26" s="103"/>
-      <c r="D26" s="103"/>
-      <c r="E26" s="103"/>
-      <c r="F26" s="103"/>
-      <c r="G26" s="103"/>
-      <c r="H26" s="103"/>
-      <c r="I26" s="103"/>
-      <c r="J26" s="103"/>
-      <c r="K26" s="103"/>
-      <c r="L26" s="103"/>
-      <c r="M26" s="103"/>
-      <c r="N26" s="103"/>
-      <c r="O26" s="103"/>
-      <c r="P26" s="103"/>
-      <c r="Q26" s="103"/>
-      <c r="R26" s="103"/>
-      <c r="S26" s="103"/>
-      <c r="T26" s="103"/>
+      <c r="C26" s="106"/>
+      <c r="D26" s="106"/>
+      <c r="E26" s="106"/>
+      <c r="F26" s="106"/>
+      <c r="G26" s="106"/>
+      <c r="H26" s="106"/>
+      <c r="I26" s="106"/>
+      <c r="J26" s="106"/>
+      <c r="K26" s="106"/>
+      <c r="L26" s="106"/>
+      <c r="M26" s="106"/>
+      <c r="N26" s="106"/>
+      <c r="O26" s="106"/>
+      <c r="P26" s="106"/>
+      <c r="Q26" s="106"/>
+      <c r="R26" s="106"/>
+      <c r="S26" s="106"/>
+      <c r="T26" s="106"/>
     </row>
     <row r="27" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B27" s="36"/>
@@ -8363,10 +8350,10 @@
       <c r="N32" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="O32" s="101" t="s">
+      <c r="O32" s="104" t="s">
         <v>32</v>
       </c>
-      <c r="P32" s="101"/>
+      <c r="P32" s="104"/>
       <c r="T32" s="42"/>
     </row>
     <row r="33" spans="2:20" x14ac:dyDescent="0.3">
@@ -8385,10 +8372,10 @@
         <f t="shared" si="5"/>
         <v>1065</v>
       </c>
-      <c r="O33" s="105" t="s">
+      <c r="O33" s="108" t="s">
         <v>33</v>
       </c>
-      <c r="P33" s="105"/>
+      <c r="P33" s="108"/>
       <c r="T33" s="42"/>
     </row>
     <row r="34" spans="2:20" x14ac:dyDescent="0.3">
@@ -8407,10 +8394,10 @@
         <f t="shared" si="5"/>
         <v>1260</v>
       </c>
-      <c r="O34" s="101" t="s">
+      <c r="O34" s="104" t="s">
         <v>34</v>
       </c>
-      <c r="P34" s="101"/>
+      <c r="P34" s="104"/>
       <c r="T34" s="42"/>
     </row>
     <row r="35" spans="2:20" x14ac:dyDescent="0.3">
@@ -8457,10 +8444,10 @@
       <c r="N36" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="O36" s="101" t="s">
+      <c r="O36" s="104" t="s">
         <v>35</v>
       </c>
-      <c r="P36" s="101"/>
+      <c r="P36" s="104"/>
       <c r="T36" s="42"/>
     </row>
     <row r="37" spans="2:20" x14ac:dyDescent="0.3">
@@ -8490,20 +8477,20 @@
         <f>((8*G37)-(C37*D37))/((8*F37)-(C37)^2)</f>
         <v>1.0238095238095237</v>
       </c>
-      <c r="O37" s="105" t="s">
+      <c r="O37" s="108" t="s">
         <v>33</v>
       </c>
-      <c r="P37" s="105"/>
+      <c r="P37" s="108"/>
       <c r="T37" s="42"/>
     </row>
     <row r="38" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B38" s="41"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
-      <c r="O38" s="101" t="s">
+      <c r="O38" s="104" t="s">
         <v>34</v>
       </c>
-      <c r="P38" s="101"/>
+      <c r="P38" s="104"/>
       <c r="T38" s="42"/>
     </row>
     <row r="39" spans="2:20" x14ac:dyDescent="0.3">
@@ -8956,12 +8943,12 @@
     </row>
     <row r="63" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B63" s="41"/>
-      <c r="C63" s="104" t="s">
+      <c r="C63" s="107" t="s">
         <v>52</v>
       </c>
-      <c r="D63" s="104"/>
-      <c r="E63" s="104"/>
-      <c r="F63" s="104"/>
+      <c r="D63" s="107"/>
+      <c r="E63" s="107"/>
+      <c r="F63" s="107"/>
       <c r="L63" s="22"/>
       <c r="M63" s="17" t="s">
         <v>22</v>
@@ -8972,13 +8959,13 @@
     </row>
     <row r="64" spans="2:20" ht="18" x14ac:dyDescent="0.35">
       <c r="B64" s="41"/>
-      <c r="C64" s="104" t="s">
+      <c r="C64" s="107" t="s">
         <v>53</v>
       </c>
-      <c r="D64" s="104"/>
-      <c r="E64" s="104"/>
-      <c r="F64" s="104"/>
-      <c r="G64" s="104"/>
+      <c r="D64" s="107"/>
+      <c r="E64" s="107"/>
+      <c r="F64" s="107"/>
+      <c r="G64" s="107"/>
       <c r="M64" t="s">
         <v>23</v>
       </c>
@@ -9026,10 +9013,10 @@
       <c r="M67" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="N67" s="101" t="s">
+      <c r="N67" s="104" t="s">
         <v>32</v>
       </c>
-      <c r="O67" s="101"/>
+      <c r="O67" s="104"/>
       <c r="T67" s="42"/>
     </row>
     <row r="68" spans="2:20" x14ac:dyDescent="0.3">
@@ -9051,10 +9038,10 @@
         <f>D68*C68</f>
         <v>2</v>
       </c>
-      <c r="N68" s="105" t="s">
+      <c r="N68" s="108" t="s">
         <v>33</v>
       </c>
-      <c r="O68" s="105"/>
+      <c r="O68" s="108"/>
       <c r="T68" s="42"/>
     </row>
     <row r="69" spans="2:20" x14ac:dyDescent="0.3">
@@ -9076,10 +9063,10 @@
         <f t="shared" ref="H69:H74" si="13">D69*C69</f>
         <v>4</v>
       </c>
-      <c r="N69" s="101" t="s">
+      <c r="N69" s="104" t="s">
         <v>34</v>
       </c>
-      <c r="O69" s="101"/>
+      <c r="O69" s="104"/>
       <c r="T69" s="42"/>
     </row>
     <row r="70" spans="2:20" x14ac:dyDescent="0.3">
@@ -9125,10 +9112,10 @@
       <c r="M71" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="N71" s="101" t="s">
+      <c r="N71" s="104" t="s">
         <v>35</v>
       </c>
-      <c r="O71" s="101"/>
+      <c r="O71" s="104"/>
       <c r="T71" s="42"/>
     </row>
     <row r="72" spans="2:20" x14ac:dyDescent="0.3">
@@ -9150,10 +9137,10 @@
         <f t="shared" si="13"/>
         <v>15</v>
       </c>
-      <c r="N72" s="105" t="s">
+      <c r="N72" s="108" t="s">
         <v>33</v>
       </c>
-      <c r="O72" s="105"/>
+      <c r="O72" s="108"/>
       <c r="T72" s="42"/>
     </row>
     <row r="73" spans="2:20" x14ac:dyDescent="0.3">
@@ -9175,10 +9162,10 @@
         <f t="shared" si="13"/>
         <v>12</v>
       </c>
-      <c r="N73" s="101" t="s">
+      <c r="N73" s="104" t="s">
         <v>34</v>
       </c>
-      <c r="O73" s="101"/>
+      <c r="O73" s="104"/>
       <c r="T73" s="42"/>
     </row>
     <row r="74" spans="2:20" x14ac:dyDescent="0.3">
@@ -9827,7 +9814,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2841FB6-975F-477D-89A2-D948C0B29F1F}">
   <dimension ref="B1:W455"/>
   <sheetViews>
-    <sheetView topLeftCell="A103" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="E9" zoomScale="97" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="T114" sqref="T114"/>
     </sheetView>
   </sheetViews>
@@ -9900,10 +9887,10 @@
       <c r="Q3" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="R3" s="101" t="s">
+      <c r="R3" s="104" t="s">
         <v>32</v>
       </c>
-      <c r="S3" s="101"/>
+      <c r="S3" s="104"/>
     </row>
     <row r="4" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B4" s="1">
@@ -9927,10 +9914,10 @@
         <f>SUM(C2:C455)</f>
         <v>5632</v>
       </c>
-      <c r="R4" s="105" t="s">
+      <c r="R4" s="108" t="s">
         <v>33</v>
       </c>
-      <c r="S4" s="105"/>
+      <c r="S4" s="108"/>
     </row>
     <row r="5" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B5" s="1">
@@ -9954,10 +9941,10 @@
         <f>SUM(E2:E455)</f>
         <v>31295355</v>
       </c>
-      <c r="R5" s="101" t="s">
+      <c r="R5" s="104" t="s">
         <v>34</v>
       </c>
-      <c r="S5" s="101"/>
+      <c r="S5" s="104"/>
     </row>
     <row r="6" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B6" s="1">
@@ -10007,10 +9994,10 @@
       <c r="Q7" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="R7" s="101" t="s">
+      <c r="R7" s="104" t="s">
         <v>35</v>
       </c>
-      <c r="S7" s="101"/>
+      <c r="S7" s="104"/>
     </row>
     <row r="8" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B8" s="1">
@@ -10027,10 +10014,10 @@
         <f t="shared" si="1"/>
         <v>147</v>
       </c>
-      <c r="R8" s="105" t="s">
+      <c r="R8" s="108" t="s">
         <v>33</v>
       </c>
-      <c r="S8" s="105"/>
+      <c r="S8" s="108"/>
     </row>
     <row r="9" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B9" s="1">
@@ -10047,10 +10034,10 @@
         <f t="shared" si="1"/>
         <v>152</v>
       </c>
-      <c r="R9" s="101" t="s">
+      <c r="R9" s="104" t="s">
         <v>34</v>
       </c>
-      <c r="S9" s="101"/>
+      <c r="S9" s="104"/>
     </row>
     <row r="10" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B10" s="1">
@@ -20144,7 +20131,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6925BB12-591A-4B3E-8774-3240A6417DCD}">
   <dimension ref="B1:R455"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="H91" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="J1" sqref="J1:R37"/>
     </sheetView>
   </sheetViews>
@@ -32552,8 +32539,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7493300-795F-4792-B7F7-62863B1598EB}">
   <dimension ref="B1:AX152"/>
   <sheetViews>
-    <sheetView topLeftCell="A68" zoomScale="89" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F78" sqref="F78:I78"/>
+    <sheetView tabSelected="1" topLeftCell="B81" zoomScale="78" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AE113" sqref="AE113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -36182,21 +36169,6 @@
       <c r="AE45" s="17"/>
       <c r="AF45" s="17"/>
       <c r="AG45" s="17"/>
-      <c r="AH45" s="17"/>
-      <c r="AI45" s="17" t="s">
-        <v>88</v>
-      </c>
-      <c r="AJ45" s="17"/>
-      <c r="AK45" s="17"/>
-      <c r="AL45" s="17"/>
-      <c r="AM45" s="17"/>
-      <c r="AO45" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="AP45" s="17"/>
-      <c r="AQ45" s="17"/>
-      <c r="AR45" s="17"/>
-      <c r="AS45" s="17"/>
     </row>
     <row r="46" spans="5:50" x14ac:dyDescent="0.3">
       <c r="E46" s="78" t="s">
@@ -36277,37 +36249,6 @@
       <c r="AG46" s="78" t="s">
         <v>82</v>
       </c>
-      <c r="AH46" s="17"/>
-      <c r="AI46" s="78" t="s">
-        <v>54</v>
-      </c>
-      <c r="AJ46" s="78" t="s">
-        <v>55</v>
-      </c>
-      <c r="AK46" s="78" t="s">
-        <v>81</v>
-      </c>
-      <c r="AL46" s="78" t="s">
-        <v>67</v>
-      </c>
-      <c r="AM46" s="78" t="s">
-        <v>82</v>
-      </c>
-      <c r="AO46" s="78" t="s">
-        <v>54</v>
-      </c>
-      <c r="AP46" s="78" t="s">
-        <v>55</v>
-      </c>
-      <c r="AQ46" s="78" t="s">
-        <v>81</v>
-      </c>
-      <c r="AR46" s="78" t="s">
-        <v>67</v>
-      </c>
-      <c r="AS46" s="78" t="s">
-        <v>82</v>
-      </c>
     </row>
     <row r="47" spans="5:50" x14ac:dyDescent="0.3">
       <c r="E47" s="1">
@@ -36395,40 +36336,6 @@
         <f>ABS(AE47-AF47)</f>
         <v>26.526436781609206</v>
       </c>
-      <c r="AI47" s="1">
-        <v>1</v>
-      </c>
-      <c r="AJ47" s="1">
-        <v>0</v>
-      </c>
-      <c r="AK47" s="1">
-        <v>1</v>
-      </c>
-      <c r="AL47" s="99">
-        <f>FORECAST(AI47+30,$AJ$47:$AJ$76,$E$47:$E$76)</f>
-        <v>6.3931034482758626</v>
-      </c>
-      <c r="AM47" s="99">
-        <f>ABS(AK47-AL47)</f>
-        <v>5.3931034482758626</v>
-      </c>
-      <c r="AO47" s="1">
-        <v>1</v>
-      </c>
-      <c r="AP47" s="1">
-        <v>0</v>
-      </c>
-      <c r="AQ47" s="1">
-        <v>2</v>
-      </c>
-      <c r="AR47" s="99">
-        <f>FORECAST(AO47+30,$AP$47:$AP$76,$E$47:$E$76)</f>
-        <v>7.4459770114942527</v>
-      </c>
-      <c r="AS47" s="99">
-        <f>ABS(AQ47-AR47)</f>
-        <v>5.4459770114942527</v>
-      </c>
     </row>
     <row r="48" spans="5:50" x14ac:dyDescent="0.3">
       <c r="E48" s="1">
@@ -36516,42 +36423,8 @@
         <f t="shared" ref="AG48:AG76" si="26">ABS(AE48-AF48)</f>
         <v>32.332443455691518</v>
       </c>
-      <c r="AI48" s="1">
-        <v>2</v>
-      </c>
-      <c r="AJ48" s="1">
-        <v>1</v>
-      </c>
-      <c r="AK48" s="1">
-        <v>0</v>
-      </c>
-      <c r="AL48" s="99">
-        <f t="shared" ref="AL48:AL76" si="27">FORECAST(AI48+30,$AJ$47:$AJ$76,$E$47:$E$76)</f>
-        <v>6.5152391546162409</v>
-      </c>
-      <c r="AM48" s="99">
-        <f t="shared" ref="AM48:AM76" si="28">ABS(AK48-AL48)</f>
-        <v>6.5152391546162409</v>
-      </c>
-      <c r="AO48" s="1">
-        <v>2</v>
-      </c>
-      <c r="AP48" s="1">
-        <v>9</v>
-      </c>
-      <c r="AQ48" s="1">
-        <v>0</v>
-      </c>
-      <c r="AR48" s="99">
-        <f t="shared" ref="AR48:AR76" si="29">FORECAST(AO48+30,$AP$47:$AP$76,$E$47:$E$76)</f>
-        <v>7.631738969225065</v>
-      </c>
-      <c r="AS48" s="99">
-        <f t="shared" ref="AS48:AS76" si="30">ABS(AQ48-AR48)</f>
-        <v>7.631738969225065</v>
-      </c>
-    </row>
-    <row r="49" spans="5:45" x14ac:dyDescent="0.3">
+    </row>
+    <row r="49" spans="5:33" x14ac:dyDescent="0.3">
       <c r="E49" s="1">
         <v>3</v>
       </c>
@@ -36562,7 +36435,7 @@
         <v>0</v>
       </c>
       <c r="H49" s="99">
-        <f t="shared" ref="H49:H76" si="31">FORECAST(E49+30,$F$47:$F$76,$E$47:$E$76)</f>
+        <f t="shared" ref="H49:H76" si="27">FORECAST(E49+30,$F$47:$F$76,$E$47:$E$76)</f>
         <v>5.5374860956618468</v>
       </c>
       <c r="I49" s="99">
@@ -36637,42 +36510,8 @@
         <f t="shared" si="26"/>
         <v>37.13845012977383</v>
       </c>
-      <c r="AI49" s="1">
-        <v>3</v>
-      </c>
-      <c r="AJ49" s="1">
-        <v>6</v>
-      </c>
-      <c r="AK49" s="1">
-        <v>0</v>
-      </c>
-      <c r="AL49" s="99">
-        <f t="shared" si="27"/>
-        <v>6.6373748609566183</v>
-      </c>
-      <c r="AM49" s="99">
-        <f t="shared" si="28"/>
-        <v>6.6373748609566183</v>
-      </c>
-      <c r="AO49" s="1">
-        <v>3</v>
-      </c>
-      <c r="AP49" s="1">
-        <v>5</v>
-      </c>
-      <c r="AQ49" s="1">
-        <v>0</v>
-      </c>
-      <c r="AR49" s="99">
-        <f t="shared" si="29"/>
-        <v>7.8175009269558773</v>
-      </c>
-      <c r="AS49" s="99">
-        <f t="shared" si="30"/>
-        <v>7.8175009269558773</v>
-      </c>
-    </row>
-    <row r="50" spans="5:45" x14ac:dyDescent="0.3">
+    </row>
+    <row r="50" spans="5:33" x14ac:dyDescent="0.3">
       <c r="E50" s="1">
         <v>4</v>
       </c>
@@ -36683,7 +36522,7 @@
         <v>3</v>
       </c>
       <c r="H50" s="99">
-        <f t="shared" si="31"/>
+        <f t="shared" si="27"/>
         <v>5.5510567296996669</v>
       </c>
       <c r="I50" s="99">
@@ -36758,42 +36597,8 @@
         <f t="shared" si="26"/>
         <v>8.9444568038561414</v>
       </c>
-      <c r="AI50" s="1">
-        <v>4</v>
-      </c>
-      <c r="AJ50" s="1">
-        <v>2</v>
-      </c>
-      <c r="AK50" s="1">
-        <v>6</v>
-      </c>
-      <c r="AL50" s="99">
-        <f t="shared" si="27"/>
-        <v>6.7595105672969966</v>
-      </c>
-      <c r="AM50" s="99">
-        <f t="shared" si="28"/>
-        <v>0.75951056729699662</v>
-      </c>
-      <c r="AO50" s="1">
-        <v>4</v>
-      </c>
-      <c r="AP50" s="1">
-        <v>0</v>
-      </c>
-      <c r="AQ50" s="1">
-        <v>10</v>
-      </c>
-      <c r="AR50" s="99">
-        <f t="shared" si="29"/>
-        <v>8.0032628846866878</v>
-      </c>
-      <c r="AS50" s="99">
-        <f t="shared" si="30"/>
-        <v>1.9967371153133122</v>
-      </c>
-    </row>
-    <row r="51" spans="5:45" x14ac:dyDescent="0.3">
+    </row>
+    <row r="51" spans="5:33" x14ac:dyDescent="0.3">
       <c r="E51" s="1">
         <v>5</v>
       </c>
@@ -36804,7 +36609,7 @@
         <v>2</v>
       </c>
       <c r="H51" s="99">
-        <f t="shared" si="31"/>
+        <f t="shared" si="27"/>
         <v>5.5646273637374861</v>
       </c>
       <c r="I51" s="99">
@@ -36879,42 +36684,8 @@
         <f t="shared" si="26"/>
         <v>11.75046347793846</v>
       </c>
-      <c r="AI51" s="1">
-        <v>5</v>
-      </c>
-      <c r="AJ51" s="1">
-        <v>7</v>
-      </c>
-      <c r="AK51" s="1">
-        <v>3</v>
-      </c>
-      <c r="AL51" s="99">
-        <f t="shared" si="27"/>
-        <v>6.8816462736373749</v>
-      </c>
-      <c r="AM51" s="99">
-        <f t="shared" si="28"/>
-        <v>3.8816462736373749</v>
-      </c>
-      <c r="AO51" s="1">
-        <v>5</v>
-      </c>
-      <c r="AP51" s="1">
-        <v>0</v>
-      </c>
-      <c r="AQ51" s="1">
-        <v>2</v>
-      </c>
-      <c r="AR51" s="99">
-        <f t="shared" si="29"/>
-        <v>8.1890248424175009</v>
-      </c>
-      <c r="AS51" s="99">
-        <f t="shared" si="30"/>
-        <v>6.1890248424175009</v>
-      </c>
-    </row>
-    <row r="52" spans="5:45" x14ac:dyDescent="0.3">
+    </row>
+    <row r="52" spans="5:33" x14ac:dyDescent="0.3">
       <c r="E52" s="1">
         <v>6</v>
       </c>
@@ -36925,7 +36696,7 @@
         <v>6</v>
       </c>
       <c r="H52" s="99">
-        <f t="shared" si="31"/>
+        <f t="shared" si="27"/>
         <v>5.5781979977753062</v>
       </c>
       <c r="I52" s="99">
@@ -37000,42 +36771,8 @@
         <f t="shared" si="26"/>
         <v>12.556470152020779</v>
       </c>
-      <c r="AI52" s="1">
-        <v>6</v>
-      </c>
-      <c r="AJ52" s="1">
-        <v>3</v>
-      </c>
-      <c r="AK52" s="1">
-        <v>13</v>
-      </c>
-      <c r="AL52" s="99">
-        <f t="shared" si="27"/>
-        <v>7.0037819799777532</v>
-      </c>
-      <c r="AM52" s="99">
-        <f t="shared" si="28"/>
-        <v>5.9962180200222468</v>
-      </c>
-      <c r="AO52" s="1">
-        <v>6</v>
-      </c>
-      <c r="AP52" s="1">
-        <v>6</v>
-      </c>
-      <c r="AQ52" s="1">
-        <v>9</v>
-      </c>
-      <c r="AR52" s="99">
-        <f t="shared" si="29"/>
-        <v>8.3747868001483141</v>
-      </c>
-      <c r="AS52" s="99">
-        <f t="shared" si="30"/>
-        <v>0.62521319985168589</v>
-      </c>
-    </row>
-    <row r="53" spans="5:45" x14ac:dyDescent="0.3">
+    </row>
+    <row r="53" spans="5:33" x14ac:dyDescent="0.3">
       <c r="E53" s="1">
         <v>7</v>
       </c>
@@ -37046,7 +36783,7 @@
         <v>5</v>
       </c>
       <c r="H53" s="99">
-        <f t="shared" si="31"/>
+        <f t="shared" si="27"/>
         <v>5.5917686318131263</v>
       </c>
       <c r="I53" s="99">
@@ -37121,42 +36858,8 @@
         <f t="shared" si="26"/>
         <v>24.362476826103091</v>
       </c>
-      <c r="AI53" s="1">
-        <v>7</v>
-      </c>
-      <c r="AJ53" s="1">
-        <v>5</v>
-      </c>
-      <c r="AK53" s="1">
-        <v>4</v>
-      </c>
-      <c r="AL53" s="99">
-        <f t="shared" si="27"/>
-        <v>7.1259176863181315</v>
-      </c>
-      <c r="AM53" s="99">
-        <f t="shared" si="28"/>
-        <v>3.1259176863181315</v>
-      </c>
-      <c r="AO53" s="1">
-        <v>7</v>
-      </c>
-      <c r="AP53" s="1">
-        <v>1</v>
-      </c>
-      <c r="AQ53" s="1">
-        <v>6</v>
-      </c>
-      <c r="AR53" s="99">
-        <f t="shared" si="29"/>
-        <v>8.5605487578791255</v>
-      </c>
-      <c r="AS53" s="99">
-        <f t="shared" si="30"/>
-        <v>2.5605487578791255</v>
-      </c>
-    </row>
-    <row r="54" spans="5:45" x14ac:dyDescent="0.3">
+    </row>
+    <row r="54" spans="5:33" x14ac:dyDescent="0.3">
       <c r="E54" s="1">
         <v>8</v>
       </c>
@@ -37167,7 +36870,7 @@
         <v>3</v>
       </c>
       <c r="H54" s="99">
-        <f t="shared" si="31"/>
+        <f t="shared" si="27"/>
         <v>5.6053392658509456</v>
       </c>
       <c r="I54" s="99">
@@ -37242,42 +36945,8 @@
         <f t="shared" si="26"/>
         <v>26.168483500185403</v>
       </c>
-      <c r="AI54" s="1">
-        <v>8</v>
-      </c>
-      <c r="AJ54" s="1">
-        <v>1</v>
-      </c>
-      <c r="AK54" s="1">
-        <v>4</v>
-      </c>
-      <c r="AL54" s="99">
-        <f t="shared" si="27"/>
-        <v>7.2480533926585098</v>
-      </c>
-      <c r="AM54" s="99">
-        <f t="shared" si="28"/>
-        <v>3.2480533926585098</v>
-      </c>
-      <c r="AO54" s="1">
-        <v>8</v>
-      </c>
-      <c r="AP54" s="1">
-        <v>4</v>
-      </c>
-      <c r="AQ54" s="1">
-        <v>5</v>
-      </c>
-      <c r="AR54" s="99">
-        <f t="shared" si="29"/>
-        <v>8.7463107156099369</v>
-      </c>
-      <c r="AS54" s="99">
-        <f t="shared" si="30"/>
-        <v>3.7463107156099369</v>
-      </c>
-    </row>
-    <row r="55" spans="5:45" x14ac:dyDescent="0.3">
+    </row>
+    <row r="55" spans="5:33" x14ac:dyDescent="0.3">
       <c r="E55" s="1">
         <v>9</v>
       </c>
@@ -37288,7 +36957,7 @@
         <v>1</v>
       </c>
       <c r="H55" s="99">
-        <f t="shared" si="31"/>
+        <f t="shared" si="27"/>
         <v>5.6189098998887657</v>
       </c>
       <c r="I55" s="99">
@@ -37363,42 +37032,8 @@
         <f t="shared" si="26"/>
         <v>17.974490174267714</v>
       </c>
-      <c r="AI55" s="1">
-        <v>9</v>
-      </c>
-      <c r="AJ55" s="1">
-        <v>1</v>
-      </c>
-      <c r="AK55" s="1">
-        <v>9</v>
-      </c>
-      <c r="AL55" s="99">
-        <f t="shared" si="27"/>
-        <v>7.3701890989988881</v>
-      </c>
-      <c r="AM55" s="99">
-        <f t="shared" si="28"/>
-        <v>1.6298109010011119</v>
-      </c>
-      <c r="AO55" s="1">
-        <v>9</v>
-      </c>
-      <c r="AP55" s="1">
-        <v>3</v>
-      </c>
-      <c r="AQ55" s="1">
-        <v>2</v>
-      </c>
-      <c r="AR55" s="99">
-        <f t="shared" si="29"/>
-        <v>8.9320726733407483</v>
-      </c>
-      <c r="AS55" s="99">
-        <f t="shared" si="30"/>
-        <v>6.9320726733407483</v>
-      </c>
-    </row>
-    <row r="56" spans="5:45" x14ac:dyDescent="0.3">
+    </row>
+    <row r="56" spans="5:33" x14ac:dyDescent="0.3">
       <c r="E56" s="1">
         <v>10</v>
       </c>
@@ -37409,7 +37044,7 @@
         <v>2</v>
       </c>
       <c r="H56" s="99">
-        <f t="shared" si="31"/>
+        <f t="shared" si="27"/>
         <v>5.6324805339265858</v>
       </c>
       <c r="I56" s="99">
@@ -37484,42 +37119,8 @@
         <f t="shared" si="26"/>
         <v>19.780496848350026</v>
       </c>
-      <c r="AI56" s="1">
-        <v>10</v>
-      </c>
-      <c r="AJ56" s="1">
-        <v>2</v>
-      </c>
-      <c r="AK56" s="1">
-        <v>8</v>
-      </c>
-      <c r="AL56" s="99">
-        <f t="shared" si="27"/>
-        <v>7.4923248053392664</v>
-      </c>
-      <c r="AM56" s="99">
-        <f t="shared" si="28"/>
-        <v>0.50767519466073363</v>
-      </c>
-      <c r="AO56" s="1">
-        <v>10</v>
-      </c>
-      <c r="AP56" s="1">
-        <v>2</v>
-      </c>
-      <c r="AQ56" s="1">
-        <v>1</v>
-      </c>
-      <c r="AR56" s="99">
-        <f t="shared" si="29"/>
-        <v>9.1178346310715614</v>
-      </c>
-      <c r="AS56" s="99">
-        <f t="shared" si="30"/>
-        <v>8.1178346310715614</v>
-      </c>
-    </row>
-    <row r="57" spans="5:45" x14ac:dyDescent="0.3">
+    </row>
+    <row r="57" spans="5:33" x14ac:dyDescent="0.3">
       <c r="E57" s="1">
         <v>11</v>
       </c>
@@ -37530,7 +37131,7 @@
         <v>1</v>
       </c>
       <c r="H57" s="99">
-        <f t="shared" si="31"/>
+        <f t="shared" si="27"/>
         <v>5.646051167964405</v>
       </c>
       <c r="I57" s="99">
@@ -37605,42 +37206,8 @@
         <f t="shared" si="26"/>
         <v>14.586503522432338</v>
       </c>
-      <c r="AI57" s="1">
-        <v>11</v>
-      </c>
-      <c r="AJ57" s="1">
-        <v>2</v>
-      </c>
-      <c r="AK57" s="1">
-        <v>13</v>
-      </c>
-      <c r="AL57" s="99">
-        <f t="shared" si="27"/>
-        <v>7.6144605116796447</v>
-      </c>
-      <c r="AM57" s="99">
-        <f t="shared" si="28"/>
-        <v>5.3855394883203553</v>
-      </c>
-      <c r="AO57" s="1">
-        <v>11</v>
-      </c>
-      <c r="AP57" s="1">
-        <v>1</v>
-      </c>
-      <c r="AQ57" s="1">
-        <v>7</v>
-      </c>
-      <c r="AR57" s="99">
-        <f t="shared" si="29"/>
-        <v>9.3035965888023728</v>
-      </c>
-      <c r="AS57" s="99">
-        <f t="shared" si="30"/>
-        <v>2.3035965888023728</v>
-      </c>
-    </row>
-    <row r="58" spans="5:45" x14ac:dyDescent="0.3">
+    </row>
+    <row r="58" spans="5:33" x14ac:dyDescent="0.3">
       <c r="E58" s="1">
         <v>12</v>
       </c>
@@ -37651,7 +37218,7 @@
         <v>11</v>
       </c>
       <c r="H58" s="99">
-        <f t="shared" si="31"/>
+        <f t="shared" si="27"/>
         <v>5.6596218020022251</v>
       </c>
       <c r="I58" s="99">
@@ -37726,42 +37293,8 @@
         <f t="shared" si="26"/>
         <v>28.392510196514664</v>
       </c>
-      <c r="AI58" s="1">
-        <v>12</v>
-      </c>
-      <c r="AJ58" s="1">
-        <v>5</v>
-      </c>
-      <c r="AK58" s="1">
-        <v>3</v>
-      </c>
-      <c r="AL58" s="99">
-        <f t="shared" si="27"/>
-        <v>7.7365962180200221</v>
-      </c>
-      <c r="AM58" s="99">
-        <f t="shared" si="28"/>
-        <v>4.7365962180200221</v>
-      </c>
-      <c r="AO58" s="1">
-        <v>12</v>
-      </c>
-      <c r="AP58" s="1">
-        <v>10</v>
-      </c>
-      <c r="AQ58" s="1">
-        <v>3</v>
-      </c>
-      <c r="AR58" s="99">
-        <f t="shared" si="29"/>
-        <v>9.489358546533186</v>
-      </c>
-      <c r="AS58" s="99">
-        <f t="shared" si="30"/>
-        <v>6.489358546533186</v>
-      </c>
-    </row>
-    <row r="59" spans="5:45" x14ac:dyDescent="0.3">
+    </row>
+    <row r="59" spans="5:33" x14ac:dyDescent="0.3">
       <c r="E59" s="1">
         <v>13</v>
       </c>
@@ -37772,7 +37305,7 @@
         <v>6</v>
       </c>
       <c r="H59" s="99">
-        <f t="shared" si="31"/>
+        <f t="shared" si="27"/>
         <v>5.6731924360400452</v>
       </c>
       <c r="I59" s="99">
@@ -37847,42 +37380,8 @@
         <f t="shared" si="26"/>
         <v>37.198516870596976</v>
       </c>
-      <c r="AI59" s="1">
-        <v>13</v>
-      </c>
-      <c r="AJ59" s="1">
-        <v>6</v>
-      </c>
-      <c r="AK59" s="1">
-        <v>3</v>
-      </c>
-      <c r="AL59" s="99">
-        <f t="shared" si="27"/>
-        <v>7.8587319243604004</v>
-      </c>
-      <c r="AM59" s="99">
-        <f t="shared" si="28"/>
-        <v>4.8587319243604004</v>
-      </c>
-      <c r="AO59" s="1">
-        <v>13</v>
-      </c>
-      <c r="AP59" s="1">
-        <v>4</v>
-      </c>
-      <c r="AQ59" s="1">
-        <v>9</v>
-      </c>
-      <c r="AR59" s="99">
-        <f t="shared" si="29"/>
-        <v>9.6751205042639974</v>
-      </c>
-      <c r="AS59" s="99">
-        <f t="shared" si="30"/>
-        <v>0.67512050426399739</v>
-      </c>
-    </row>
-    <row r="60" spans="5:45" x14ac:dyDescent="0.3">
+    </row>
+    <row r="60" spans="5:33" x14ac:dyDescent="0.3">
       <c r="E60" s="1">
         <v>14</v>
       </c>
@@ -37893,7 +37392,7 @@
         <v>4</v>
       </c>
       <c r="H60" s="99">
-        <f t="shared" si="31"/>
+        <f t="shared" si="27"/>
         <v>5.6867630700778644</v>
       </c>
       <c r="I60" s="99">
@@ -37968,42 +37467,8 @@
         <f t="shared" si="26"/>
         <v>37.004523544679287</v>
       </c>
-      <c r="AI60" s="1">
-        <v>14</v>
-      </c>
-      <c r="AJ60" s="1">
-        <v>13</v>
-      </c>
-      <c r="AK60" s="1">
-        <v>5</v>
-      </c>
-      <c r="AL60" s="99">
-        <f t="shared" si="27"/>
-        <v>7.9808676307007786</v>
-      </c>
-      <c r="AM60" s="99">
-        <f t="shared" si="28"/>
-        <v>2.9808676307007786</v>
-      </c>
-      <c r="AO60" s="1">
-        <v>14</v>
-      </c>
-      <c r="AP60" s="1">
-        <v>5</v>
-      </c>
-      <c r="AQ60" s="1">
-        <v>8</v>
-      </c>
-      <c r="AR60" s="99">
-        <f t="shared" si="29"/>
-        <v>9.8608824619948088</v>
-      </c>
-      <c r="AS60" s="99">
-        <f t="shared" si="30"/>
-        <v>1.8608824619948088</v>
-      </c>
-    </row>
-    <row r="61" spans="5:45" x14ac:dyDescent="0.3">
+    </row>
+    <row r="61" spans="5:33" x14ac:dyDescent="0.3">
       <c r="E61" s="1">
         <v>15</v>
       </c>
@@ -38014,7 +37479,7 @@
         <v>13</v>
       </c>
       <c r="H61" s="99">
-        <f t="shared" si="31"/>
+        <f t="shared" si="27"/>
         <v>5.7003337041156845</v>
       </c>
       <c r="I61" s="99">
@@ -38089,42 +37554,8 @@
         <f t="shared" si="26"/>
         <v>33.810530218761599</v>
       </c>
-      <c r="AI61" s="1">
-        <v>15</v>
-      </c>
-      <c r="AJ61" s="1">
-        <v>4</v>
-      </c>
-      <c r="AK61" s="1">
-        <v>6</v>
-      </c>
-      <c r="AL61" s="99">
-        <f t="shared" si="27"/>
-        <v>8.1030033370411569</v>
-      </c>
-      <c r="AM61" s="99">
-        <f t="shared" si="28"/>
-        <v>2.1030033370411569</v>
-      </c>
-      <c r="AO61" s="1">
-        <v>15</v>
-      </c>
-      <c r="AP61" s="1">
-        <v>4</v>
-      </c>
-      <c r="AQ61" s="1">
-        <v>8</v>
-      </c>
-      <c r="AR61" s="99">
-        <f t="shared" si="29"/>
-        <v>10.04664441972562</v>
-      </c>
-      <c r="AS61" s="99">
-        <f t="shared" si="30"/>
-        <v>2.0466444197256202</v>
-      </c>
-    </row>
-    <row r="62" spans="5:45" x14ac:dyDescent="0.3">
+    </row>
+    <row r="62" spans="5:33" x14ac:dyDescent="0.3">
       <c r="E62" s="1">
         <v>16</v>
       </c>
@@ -38135,7 +37566,7 @@
         <v>5</v>
       </c>
       <c r="H62" s="99">
-        <f t="shared" si="31"/>
+        <f t="shared" si="27"/>
         <v>5.7139043381535046</v>
       </c>
       <c r="I62" s="99">
@@ -38210,42 +37641,8 @@
         <f t="shared" si="26"/>
         <v>33.616536892843911</v>
       </c>
-      <c r="AI62" s="1">
-        <v>16</v>
-      </c>
-      <c r="AJ62" s="1">
-        <v>11</v>
-      </c>
-      <c r="AK62" s="1">
-        <v>5</v>
-      </c>
-      <c r="AL62" s="99">
-        <f t="shared" si="27"/>
-        <v>8.2251390433815352</v>
-      </c>
-      <c r="AM62" s="99">
-        <f t="shared" si="28"/>
-        <v>3.2251390433815352</v>
-      </c>
-      <c r="AO62" s="1">
-        <v>16</v>
-      </c>
-      <c r="AP62" s="1">
-        <v>4</v>
-      </c>
-      <c r="AQ62" s="1">
-        <v>0</v>
-      </c>
-      <c r="AR62" s="99">
-        <f t="shared" si="29"/>
-        <v>10.232406377456435</v>
-      </c>
-      <c r="AS62" s="99">
-        <f t="shared" si="30"/>
-        <v>10.232406377456435</v>
-      </c>
-    </row>
-    <row r="63" spans="5:45" x14ac:dyDescent="0.3">
+    </row>
+    <row r="63" spans="5:33" x14ac:dyDescent="0.3">
       <c r="E63" s="1">
         <v>17</v>
       </c>
@@ -38256,7 +37653,7 @@
         <v>2</v>
       </c>
       <c r="H63" s="99">
-        <f t="shared" si="31"/>
+        <f t="shared" si="27"/>
         <v>5.7274749721913238</v>
       </c>
       <c r="I63" s="99">
@@ -38331,42 +37728,8 @@
         <f t="shared" si="26"/>
         <v>29.422543566926223</v>
       </c>
-      <c r="AI63" s="1">
-        <v>17</v>
-      </c>
-      <c r="AJ63" s="1">
-        <v>3</v>
-      </c>
-      <c r="AK63" s="1">
-        <v>7</v>
-      </c>
-      <c r="AL63" s="99">
-        <f t="shared" si="27"/>
-        <v>8.3472747497219135</v>
-      </c>
-      <c r="AM63" s="99">
-        <f t="shared" si="28"/>
-        <v>1.3472747497219135</v>
-      </c>
-      <c r="AO63" s="1">
-        <v>17</v>
-      </c>
-      <c r="AP63" s="1">
-        <v>1</v>
-      </c>
-      <c r="AQ63" s="1">
-        <v>4</v>
-      </c>
-      <c r="AR63" s="99">
-        <f t="shared" si="29"/>
-        <v>10.418168335187246</v>
-      </c>
-      <c r="AS63" s="99">
-        <f t="shared" si="30"/>
-        <v>6.4181683351872465</v>
-      </c>
-    </row>
-    <row r="64" spans="5:45" x14ac:dyDescent="0.3">
+    </row>
+    <row r="64" spans="5:33" x14ac:dyDescent="0.3">
       <c r="E64" s="1">
         <v>18</v>
       </c>
@@ -38377,7 +37740,7 @@
         <v>12</v>
       </c>
       <c r="H64" s="99">
-        <f t="shared" si="31"/>
+        <f t="shared" si="27"/>
         <v>5.7410456062291439</v>
       </c>
       <c r="I64" s="99">
@@ -38452,42 +37815,8 @@
         <f t="shared" si="26"/>
         <v>34.228550241008548</v>
       </c>
-      <c r="AI64" s="1">
-        <v>18</v>
-      </c>
-      <c r="AJ64" s="1">
-        <v>6</v>
-      </c>
-      <c r="AK64" s="1">
-        <v>1</v>
-      </c>
-      <c r="AL64" s="99">
-        <f t="shared" si="27"/>
-        <v>8.4694104560622918</v>
-      </c>
-      <c r="AM64" s="99">
-        <f t="shared" si="28"/>
-        <v>7.4694104560622918</v>
-      </c>
-      <c r="AO64" s="1">
-        <v>18</v>
-      </c>
-      <c r="AP64" s="1">
-        <v>1</v>
-      </c>
-      <c r="AQ64" s="1">
-        <v>8</v>
-      </c>
-      <c r="AR64" s="99">
-        <f t="shared" si="29"/>
-        <v>10.603930292918058</v>
-      </c>
-      <c r="AS64" s="99">
-        <f t="shared" si="30"/>
-        <v>2.6039302929180579</v>
-      </c>
-    </row>
-    <row r="65" spans="5:45" x14ac:dyDescent="0.3">
+    </row>
+    <row r="65" spans="5:33" x14ac:dyDescent="0.3">
       <c r="E65" s="1">
         <v>19</v>
       </c>
@@ -38498,7 +37827,7 @@
         <v>3</v>
       </c>
       <c r="H65" s="99">
-        <f t="shared" si="31"/>
+        <f t="shared" si="27"/>
         <v>5.7546162402669641</v>
       </c>
       <c r="I65" s="99">
@@ -38573,42 +37902,8 @@
         <f t="shared" si="26"/>
         <v>24.03455691509086</v>
       </c>
-      <c r="AI65" s="1">
-        <v>19</v>
-      </c>
-      <c r="AJ65" s="1">
-        <v>8</v>
-      </c>
-      <c r="AK65" s="1">
-        <v>19</v>
-      </c>
-      <c r="AL65" s="99">
-        <f t="shared" si="27"/>
-        <v>8.5915461624026701</v>
-      </c>
-      <c r="AM65" s="99">
-        <f t="shared" si="28"/>
-        <v>10.40845383759733</v>
-      </c>
-      <c r="AO65" s="1">
-        <v>19</v>
-      </c>
-      <c r="AP65" s="1">
-        <v>5</v>
-      </c>
-      <c r="AQ65" s="1">
-        <v>1</v>
-      </c>
-      <c r="AR65" s="99">
-        <f t="shared" si="29"/>
-        <v>10.789692250648869</v>
-      </c>
-      <c r="AS65" s="99">
-        <f t="shared" si="30"/>
-        <v>9.7896922506488693</v>
-      </c>
-    </row>
-    <row r="66" spans="5:45" x14ac:dyDescent="0.3">
+    </row>
+    <row r="66" spans="5:33" x14ac:dyDescent="0.3">
       <c r="E66" s="1">
         <v>20</v>
       </c>
@@ -38619,7 +37914,7 @@
         <v>3</v>
       </c>
       <c r="H66" s="99">
-        <f t="shared" si="31"/>
+        <f t="shared" si="27"/>
         <v>5.7681868743047833</v>
       </c>
       <c r="I66" s="99">
@@ -38694,42 +37989,8 @@
         <f t="shared" si="26"/>
         <v>37.840563589173172</v>
       </c>
-      <c r="AI66" s="1">
-        <v>20</v>
-      </c>
-      <c r="AJ66" s="1">
-        <v>0</v>
-      </c>
-      <c r="AK66" s="1">
-        <v>6</v>
-      </c>
-      <c r="AL66" s="99">
-        <f t="shared" si="27"/>
-        <v>8.7136818687430484</v>
-      </c>
-      <c r="AM66" s="99">
-        <f t="shared" si="28"/>
-        <v>2.7136818687430484</v>
-      </c>
-      <c r="AO66" s="1">
-        <v>20</v>
-      </c>
-      <c r="AP66" s="1">
-        <v>1</v>
-      </c>
-      <c r="AQ66" s="1">
-        <v>3</v>
-      </c>
-      <c r="AR66" s="99">
-        <f t="shared" si="29"/>
-        <v>10.975454208379681</v>
-      </c>
-      <c r="AS66" s="99">
-        <f t="shared" si="30"/>
-        <v>7.9754542083796807</v>
-      </c>
-    </row>
-    <row r="67" spans="5:45" x14ac:dyDescent="0.3">
+    </row>
+    <row r="67" spans="5:33" x14ac:dyDescent="0.3">
       <c r="E67" s="1">
         <v>21</v>
       </c>
@@ -38740,7 +38001,7 @@
         <v>9</v>
       </c>
       <c r="H67" s="99">
-        <f t="shared" si="31"/>
+        <f t="shared" si="27"/>
         <v>5.7817575083426034</v>
       </c>
       <c r="I67" s="99">
@@ -38815,42 +38076,8 @@
         <f t="shared" si="26"/>
         <v>34.646570263255484</v>
       </c>
-      <c r="AI67" s="1">
-        <v>21</v>
-      </c>
-      <c r="AJ67" s="1">
-        <v>0</v>
-      </c>
-      <c r="AK67" s="1">
-        <v>4</v>
-      </c>
-      <c r="AL67" s="99">
-        <f t="shared" si="27"/>
-        <v>8.8358175750834249</v>
-      </c>
-      <c r="AM67" s="99">
-        <f t="shared" si="28"/>
-        <v>4.8358175750834249</v>
-      </c>
-      <c r="AO67" s="1">
-        <v>21</v>
-      </c>
-      <c r="AP67" s="1">
-        <v>8</v>
-      </c>
-      <c r="AQ67" s="1">
-        <v>10</v>
-      </c>
-      <c r="AR67" s="99">
-        <f t="shared" si="29"/>
-        <v>11.161216166110492</v>
-      </c>
-      <c r="AS67" s="99">
-        <f t="shared" si="30"/>
-        <v>1.1612161661104921</v>
-      </c>
-    </row>
-    <row r="68" spans="5:45" x14ac:dyDescent="0.3">
+    </row>
+    <row r="68" spans="5:33" x14ac:dyDescent="0.3">
       <c r="E68" s="1">
         <v>22</v>
       </c>
@@ -38861,7 +38088,7 @@
         <v>11</v>
       </c>
       <c r="H68" s="99">
-        <f t="shared" si="31"/>
+        <f t="shared" si="27"/>
         <v>5.7953281423804235</v>
       </c>
       <c r="I68" s="99">
@@ -38936,42 +38163,8 @@
         <f t="shared" si="26"/>
         <v>39.452576937337795</v>
       </c>
-      <c r="AI68" s="1">
-        <v>22</v>
-      </c>
-      <c r="AJ68" s="1">
-        <v>10</v>
-      </c>
-      <c r="AK68" s="1">
-        <v>14</v>
-      </c>
-      <c r="AL68" s="99">
-        <f t="shared" si="27"/>
-        <v>8.957953281423805</v>
-      </c>
-      <c r="AM68" s="99">
-        <f t="shared" si="28"/>
-        <v>5.042046718576195</v>
-      </c>
-      <c r="AO68" s="1">
-        <v>22</v>
-      </c>
-      <c r="AP68" s="1">
-        <v>13</v>
-      </c>
-      <c r="AQ68" s="1">
-        <v>1</v>
-      </c>
-      <c r="AR68" s="99">
-        <f t="shared" si="29"/>
-        <v>11.346978123841307</v>
-      </c>
-      <c r="AS68" s="99">
-        <f t="shared" si="30"/>
-        <v>10.346978123841307</v>
-      </c>
-    </row>
-    <row r="69" spans="5:45" x14ac:dyDescent="0.3">
+    </row>
+    <row r="69" spans="5:33" x14ac:dyDescent="0.3">
       <c r="E69" s="1">
         <v>23</v>
       </c>
@@ -38982,7 +38175,7 @@
         <v>8</v>
       </c>
       <c r="H69" s="99">
-        <f t="shared" si="31"/>
+        <f t="shared" si="27"/>
         <v>5.8088987764182427</v>
       </c>
       <c r="I69" s="99">
@@ -39057,42 +38250,8 @@
         <f t="shared" si="26"/>
         <v>33.258583611420107</v>
       </c>
-      <c r="AI69" s="1">
-        <v>23</v>
-      </c>
-      <c r="AJ69" s="1">
-        <v>1</v>
-      </c>
-      <c r="AK69" s="1">
-        <v>7</v>
-      </c>
-      <c r="AL69" s="99">
-        <f t="shared" si="27"/>
-        <v>9.0800889877641815</v>
-      </c>
-      <c r="AM69" s="99">
-        <f t="shared" si="28"/>
-        <v>2.0800889877641815</v>
-      </c>
-      <c r="AO69" s="1">
-        <v>23</v>
-      </c>
-      <c r="AP69" s="1">
-        <v>0</v>
-      </c>
-      <c r="AQ69" s="1">
-        <v>10</v>
-      </c>
-      <c r="AR69" s="99">
-        <f t="shared" si="29"/>
-        <v>11.532740081572118</v>
-      </c>
-      <c r="AS69" s="99">
-        <f t="shared" si="30"/>
-        <v>1.5327400815721184</v>
-      </c>
-    </row>
-    <row r="70" spans="5:45" x14ac:dyDescent="0.3">
+    </row>
+    <row r="70" spans="5:33" x14ac:dyDescent="0.3">
       <c r="E70" s="1">
         <v>24</v>
       </c>
@@ -39103,7 +38262,7 @@
         <v>1</v>
       </c>
       <c r="H70" s="99">
-        <f t="shared" si="31"/>
+        <f t="shared" si="27"/>
         <v>5.8224694104560628</v>
       </c>
       <c r="I70" s="99">
@@ -39178,42 +38337,8 @@
         <f t="shared" si="26"/>
         <v>29.064590285502433</v>
       </c>
-      <c r="AI70" s="1">
-        <v>24</v>
-      </c>
-      <c r="AJ70" s="1">
-        <v>3</v>
-      </c>
-      <c r="AK70" s="1">
-        <v>4</v>
-      </c>
-      <c r="AL70" s="99">
-        <f t="shared" si="27"/>
-        <v>9.2022246941045616</v>
-      </c>
-      <c r="AM70" s="99">
-        <f t="shared" si="28"/>
-        <v>5.2022246941045616</v>
-      </c>
-      <c r="AO70" s="1">
-        <v>24</v>
-      </c>
-      <c r="AP70" s="1">
-        <v>1</v>
-      </c>
-      <c r="AQ70" s="1">
-        <v>1</v>
-      </c>
-      <c r="AR70" s="99">
-        <f t="shared" si="29"/>
-        <v>11.71850203930293</v>
-      </c>
-      <c r="AS70" s="99">
-        <f t="shared" si="30"/>
-        <v>10.71850203930293</v>
-      </c>
-    </row>
-    <row r="71" spans="5:45" x14ac:dyDescent="0.3">
+    </row>
+    <row r="71" spans="5:33" x14ac:dyDescent="0.3">
       <c r="E71" s="1">
         <v>25</v>
       </c>
@@ -39224,7 +38349,7 @@
         <v>4</v>
       </c>
       <c r="H71" s="99">
-        <f t="shared" si="31"/>
+        <f t="shared" si="27"/>
         <v>5.8360400444938829</v>
       </c>
       <c r="I71" s="99">
@@ -39299,42 +38424,8 @@
         <f t="shared" si="26"/>
         <v>37.870596959584745</v>
       </c>
-      <c r="AI71" s="1">
-        <v>25</v>
-      </c>
-      <c r="AJ71" s="1">
-        <v>3</v>
-      </c>
-      <c r="AK71" s="1">
-        <v>0</v>
-      </c>
-      <c r="AL71" s="99">
-        <f t="shared" si="27"/>
-        <v>9.3243604004449381</v>
-      </c>
-      <c r="AM71" s="99">
-        <f t="shared" si="28"/>
-        <v>9.3243604004449381</v>
-      </c>
-      <c r="AO71" s="1">
-        <v>25</v>
-      </c>
-      <c r="AP71" s="1">
-        <v>1</v>
-      </c>
-      <c r="AQ71" s="1">
-        <v>1</v>
-      </c>
-      <c r="AR71" s="99">
-        <f t="shared" si="29"/>
-        <v>11.904263997033741</v>
-      </c>
-      <c r="AS71" s="99">
-        <f t="shared" si="30"/>
-        <v>10.904263997033741</v>
-      </c>
-    </row>
-    <row r="72" spans="5:45" x14ac:dyDescent="0.3">
+    </row>
+    <row r="72" spans="5:33" x14ac:dyDescent="0.3">
       <c r="E72" s="1">
         <v>26</v>
       </c>
@@ -39345,7 +38436,7 @@
         <v>1</v>
       </c>
       <c r="H72" s="99">
-        <f t="shared" si="31"/>
+        <f t="shared" si="27"/>
         <v>5.8496106785317021</v>
       </c>
       <c r="I72" s="99">
@@ -39420,42 +38511,8 @@
         <f t="shared" si="26"/>
         <v>45.676603633667057</v>
       </c>
-      <c r="AI72" s="1">
-        <v>26</v>
-      </c>
-      <c r="AJ72" s="1">
-        <v>1</v>
-      </c>
-      <c r="AK72" s="1">
-        <v>0</v>
-      </c>
-      <c r="AL72" s="99">
-        <f t="shared" si="27"/>
-        <v>9.4464961067853181</v>
-      </c>
-      <c r="AM72" s="99">
-        <f t="shared" si="28"/>
-        <v>9.4464961067853181</v>
-      </c>
-      <c r="AO72" s="1">
-        <v>26</v>
-      </c>
-      <c r="AP72" s="1">
-        <v>8</v>
-      </c>
-      <c r="AQ72" s="1">
-        <v>5</v>
-      </c>
-      <c r="AR72" s="99">
-        <f t="shared" si="29"/>
-        <v>12.090025954764553</v>
-      </c>
-      <c r="AS72" s="99">
-        <f t="shared" si="30"/>
-        <v>7.0900259547645526</v>
-      </c>
-    </row>
-    <row r="73" spans="5:45" x14ac:dyDescent="0.3">
+    </row>
+    <row r="73" spans="5:33" x14ac:dyDescent="0.3">
       <c r="E73" s="1">
         <v>27</v>
       </c>
@@ -39466,7 +38523,7 @@
         <v>0</v>
       </c>
       <c r="H73" s="99">
-        <f t="shared" si="31"/>
+        <f t="shared" si="27"/>
         <v>5.8631813125695222</v>
       </c>
       <c r="I73" s="99">
@@ -39541,42 +38598,8 @@
         <f t="shared" si="26"/>
         <v>21.482610307749368</v>
       </c>
-      <c r="AI73" s="1">
-        <v>27</v>
-      </c>
-      <c r="AJ73" s="1">
-        <v>3</v>
-      </c>
-      <c r="AK73" s="1">
-        <v>0</v>
-      </c>
-      <c r="AL73" s="99">
-        <f t="shared" si="27"/>
-        <v>9.5686318131256947</v>
-      </c>
-      <c r="AM73" s="99">
-        <f t="shared" si="28"/>
-        <v>9.5686318131256947</v>
-      </c>
-      <c r="AO73" s="1">
-        <v>27</v>
-      </c>
-      <c r="AP73" s="1">
-        <v>5</v>
-      </c>
-      <c r="AQ73" s="1">
-        <v>6</v>
-      </c>
-      <c r="AR73" s="99">
-        <f t="shared" si="29"/>
-        <v>12.275787912495364</v>
-      </c>
-      <c r="AS73" s="99">
-        <f t="shared" si="30"/>
-        <v>6.2757879124953639</v>
-      </c>
-    </row>
-    <row r="74" spans="5:45" x14ac:dyDescent="0.3">
+    </row>
+    <row r="74" spans="5:33" x14ac:dyDescent="0.3">
       <c r="E74" s="1">
         <v>28</v>
       </c>
@@ -39587,7 +38610,7 @@
         <v>4</v>
       </c>
       <c r="H74" s="99">
-        <f t="shared" si="31"/>
+        <f t="shared" si="27"/>
         <v>5.8767519466073423</v>
       </c>
       <c r="I74" s="99">
@@ -39662,42 +38685,8 @@
         <f t="shared" si="26"/>
         <v>45.28861698183168</v>
       </c>
-      <c r="AI74" s="1">
-        <v>28</v>
-      </c>
-      <c r="AJ74" s="1">
-        <v>4</v>
-      </c>
-      <c r="AK74" s="1">
-        <v>0</v>
-      </c>
-      <c r="AL74" s="99">
-        <f t="shared" si="27"/>
-        <v>9.6907675194660747</v>
-      </c>
-      <c r="AM74" s="99">
-        <f t="shared" si="28"/>
-        <v>9.6907675194660747</v>
-      </c>
-      <c r="AO74" s="1">
-        <v>28</v>
-      </c>
-      <c r="AP74" s="1">
-        <v>9</v>
-      </c>
-      <c r="AQ74" s="1">
-        <v>4</v>
-      </c>
-      <c r="AR74" s="99">
-        <f t="shared" si="29"/>
-        <v>12.461549870226179</v>
-      </c>
-      <c r="AS74" s="99">
-        <f t="shared" si="30"/>
-        <v>8.4615498702261789</v>
-      </c>
-    </row>
-    <row r="75" spans="5:45" x14ac:dyDescent="0.3">
+    </row>
+    <row r="75" spans="5:33" x14ac:dyDescent="0.3">
       <c r="E75" s="1">
         <v>29</v>
       </c>
@@ -39708,7 +38697,7 @@
         <v>4</v>
       </c>
       <c r="H75" s="99">
-        <f t="shared" si="31"/>
+        <f t="shared" si="27"/>
         <v>5.8903225806451616</v>
       </c>
       <c r="I75" s="99">
@@ -39783,42 +38772,8 @@
         <f t="shared" si="26"/>
         <v>51.094623655913992</v>
       </c>
-      <c r="AI75" s="1">
-        <v>29</v>
-      </c>
-      <c r="AJ75" s="1">
-        <v>4</v>
-      </c>
-      <c r="AK75" s="1">
-        <v>0</v>
-      </c>
-      <c r="AL75" s="99">
-        <f t="shared" si="27"/>
-        <v>9.8129032258064512</v>
-      </c>
-      <c r="AM75" s="99">
-        <f t="shared" si="28"/>
-        <v>9.8129032258064512</v>
-      </c>
-      <c r="AO75" s="1">
-        <v>29</v>
-      </c>
-      <c r="AP75" s="1">
-        <v>19</v>
-      </c>
-      <c r="AQ75" s="1">
-        <v>8</v>
-      </c>
-      <c r="AR75" s="99">
-        <f t="shared" si="29"/>
-        <v>12.64731182795699</v>
-      </c>
-      <c r="AS75" s="99">
-        <f t="shared" si="30"/>
-        <v>4.6473118279569903</v>
-      </c>
-    </row>
-    <row r="76" spans="5:45" x14ac:dyDescent="0.3">
+    </row>
+    <row r="76" spans="5:33" x14ac:dyDescent="0.3">
       <c r="E76" s="1">
         <v>30</v>
       </c>
@@ -39829,7 +38784,7 @@
         <v>19</v>
       </c>
       <c r="H76" s="99">
-        <f t="shared" si="31"/>
+        <f t="shared" si="27"/>
         <v>5.9038932146829817</v>
       </c>
       <c r="I76" s="99">
@@ -39904,112 +38859,59 @@
         <f t="shared" si="26"/>
         <v>48.900630329996318</v>
       </c>
-      <c r="AI76" s="1">
-        <v>30</v>
-      </c>
-      <c r="AJ76" s="1">
-        <v>20</v>
-      </c>
-      <c r="AK76" s="1">
-        <v>0</v>
-      </c>
-      <c r="AL76" s="99">
-        <f t="shared" si="27"/>
-        <v>9.9350389321468295</v>
-      </c>
-      <c r="AM76" s="99">
-        <f t="shared" si="28"/>
-        <v>9.9350389321468295</v>
-      </c>
-      <c r="AO76" s="1">
-        <v>30</v>
-      </c>
-      <c r="AP76" s="1">
-        <v>7</v>
-      </c>
-      <c r="AQ76" s="1">
-        <v>2</v>
-      </c>
-      <c r="AR76" s="99">
-        <f t="shared" si="29"/>
-        <v>12.833073785687802</v>
-      </c>
-      <c r="AS76" s="99">
-        <f t="shared" si="30"/>
-        <v>10.833073785687802</v>
-      </c>
-    </row>
-    <row r="77" spans="5:45" x14ac:dyDescent="0.3">
+    </row>
+    <row r="77" spans="5:33" x14ac:dyDescent="0.3">
       <c r="E77" s="20"/>
-      <c r="F77" s="106" t="s">
+      <c r="F77" s="109" t="s">
         <v>4</v>
       </c>
-      <c r="G77" s="107"/>
-      <c r="H77" s="108"/>
+      <c r="G77" s="110"/>
+      <c r="H77" s="111"/>
       <c r="I77" s="63" t="s">
         <v>89</v>
       </c>
       <c r="J77" s="7"/>
       <c r="K77" s="20"/>
-      <c r="L77" s="106" t="s">
+      <c r="L77" s="109" t="s">
         <v>4</v>
       </c>
-      <c r="M77" s="107"/>
-      <c r="N77" s="108"/>
+      <c r="M77" s="110"/>
+      <c r="N77" s="111"/>
       <c r="O77" s="63" t="s">
         <v>89</v>
       </c>
       <c r="P77" s="8"/>
       <c r="Q77" s="63"/>
-      <c r="R77" s="106" t="s">
+      <c r="R77" s="109" t="s">
         <v>4</v>
       </c>
-      <c r="S77" s="107"/>
-      <c r="T77" s="108"/>
+      <c r="S77" s="110"/>
+      <c r="T77" s="111"/>
       <c r="U77" s="63" t="s">
         <v>89</v>
       </c>
       <c r="V77" s="8"/>
       <c r="W77" s="63"/>
-      <c r="X77" s="106" t="s">
+      <c r="X77" s="109" t="s">
         <v>4</v>
       </c>
-      <c r="Y77" s="107"/>
-      <c r="Z77" s="108"/>
+      <c r="Y77" s="110"/>
+      <c r="Z77" s="111"/>
       <c r="AA77" s="63" t="s">
         <v>89</v>
       </c>
       <c r="AB77" s="8"/>
       <c r="AC77" s="63"/>
-      <c r="AD77" s="106" t="s">
+      <c r="AD77" s="109" t="s">
         <v>4</v>
       </c>
-      <c r="AE77" s="107"/>
-      <c r="AF77" s="108"/>
+      <c r="AE77" s="110"/>
+      <c r="AF77" s="111"/>
       <c r="AG77" s="63" t="s">
         <v>89</v>
       </c>
-      <c r="AH77" s="8"/>
-      <c r="AI77" s="63"/>
-      <c r="AJ77" s="106" t="s">
-        <v>4</v>
-      </c>
-      <c r="AK77" s="107"/>
-      <c r="AL77" s="108"/>
-      <c r="AM77" s="63" t="s">
-        <v>89</v>
-      </c>
-      <c r="AO77" s="63"/>
-      <c r="AP77" s="106" t="s">
-        <v>4</v>
-      </c>
-      <c r="AQ77" s="107"/>
-      <c r="AR77" s="108"/>
-      <c r="AS77" s="63" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="78" spans="5:45" x14ac:dyDescent="0.3">
+    </row>
+    <row r="78" spans="5:33" x14ac:dyDescent="0.3">
       <c r="E78" s="1"/>
       <c r="F78" s="78">
         <f>SUM(F47:F76)</f>
@@ -40098,43 +39000,8 @@
         <f>AVERAGE(AG47:AG76)</f>
         <v>30.480200222469421</v>
       </c>
-      <c r="AH78" s="17"/>
-      <c r="AI78" s="78"/>
-      <c r="AJ78" s="78">
-        <f>SUM(AJ47:AJ76)</f>
-        <v>135</v>
-      </c>
-      <c r="AK78" s="78">
-        <f>SUM(AK47:AK76)</f>
-        <v>145</v>
-      </c>
-      <c r="AL78" s="100">
-        <f>SUM(AL47:AL76)</f>
-        <v>244.92213570634038</v>
-      </c>
-      <c r="AM78" s="100">
-        <f>AVERAGE(AM47:AM76)</f>
-        <v>5.2620541342232103</v>
-      </c>
-      <c r="AO78" s="78"/>
-      <c r="AP78" s="78">
-        <f>SUM(AP47:AP76)</f>
-        <v>137</v>
-      </c>
-      <c r="AQ78" s="78">
-        <f>SUM(AQ47:AQ76)</f>
-        <v>136</v>
-      </c>
-      <c r="AR78" s="100">
-        <f>SUM(AR47:AR76)</f>
-        <v>304.18576195773085</v>
-      </c>
-      <c r="AS78" s="100">
-        <f>AVERAGE(AS47:AS76)</f>
-        <v>5.7809887529353619</v>
-      </c>
-    </row>
-    <row r="81" spans="5:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="81" spans="5:27" x14ac:dyDescent="0.3">
       <c r="E81" s="17" t="s">
         <v>91</v>
       </c>
@@ -40149,8 +39016,23 @@
       <c r="M81" s="17"/>
       <c r="N81" s="17"/>
       <c r="O81" s="17"/>
-    </row>
-    <row r="82" spans="5:15" x14ac:dyDescent="0.3">
+      <c r="P81" s="17"/>
+      <c r="Q81" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="R81" s="17"/>
+      <c r="S81" s="17"/>
+      <c r="T81" s="17"/>
+      <c r="U81" s="17"/>
+      <c r="W81" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="X81" s="17"/>
+      <c r="Y81" s="17"/>
+      <c r="Z81" s="17"/>
+      <c r="AA81" s="17"/>
+    </row>
+    <row r="82" spans="5:27" x14ac:dyDescent="0.3">
       <c r="E82" s="78" t="s">
         <v>54</v>
       </c>
@@ -40181,8 +39063,39 @@
       <c r="O82" s="78" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="83" spans="5:15" x14ac:dyDescent="0.3">
+      <c r="P82" s="17"/>
+      <c r="Q82" s="78" t="s">
+        <v>54</v>
+      </c>
+      <c r="R82" s="78" t="s">
+        <v>55</v>
+      </c>
+      <c r="S82" s="78" t="s">
+        <v>81</v>
+      </c>
+      <c r="T82" s="78" t="s">
+        <v>67</v>
+      </c>
+      <c r="U82" s="78" t="s">
+        <v>82</v>
+      </c>
+      <c r="W82" s="78" t="s">
+        <v>54</v>
+      </c>
+      <c r="X82" s="78" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y82" s="78" t="s">
+        <v>81</v>
+      </c>
+      <c r="Z82" s="78" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA82" s="78" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="83" spans="5:27" x14ac:dyDescent="0.3">
       <c r="E83" s="1">
         <v>1</v>
       </c>
@@ -40217,8 +39130,42 @@
         <f>ABS(M83-N83)</f>
         <v>0.17011494252873538</v>
       </c>
-    </row>
-    <row r="84" spans="5:15" x14ac:dyDescent="0.3">
+      <c r="Q83" s="1">
+        <v>1</v>
+      </c>
+      <c r="R83" s="1">
+        <v>0</v>
+      </c>
+      <c r="S83" s="1">
+        <v>1</v>
+      </c>
+      <c r="T83" s="99">
+        <f>FORECAST(Q83+30,$R$83:$R$112,$E$47:$E$76)</f>
+        <v>6.3931034482758626</v>
+      </c>
+      <c r="U83" s="99">
+        <f>ABS(S83-T83)</f>
+        <v>5.3931034482758626</v>
+      </c>
+      <c r="W83" s="1">
+        <v>1</v>
+      </c>
+      <c r="X83" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y83" s="1">
+        <v>2</v>
+      </c>
+      <c r="Z83" s="99">
+        <f>FORECAST(W83+30,$X$83:$X$112,$E$47:$E$76)</f>
+        <v>7.4459770114942527</v>
+      </c>
+      <c r="AA83" s="99">
+        <f>ABS(Y83-Z83)</f>
+        <v>5.4459770114942527</v>
+      </c>
+    </row>
+    <row r="84" spans="5:27" x14ac:dyDescent="0.3">
       <c r="E84" s="1">
         <v>2</v>
       </c>
@@ -40229,11 +39176,11 @@
         <v>0</v>
       </c>
       <c r="H84" s="99">
-        <f t="shared" ref="H84:H112" si="32">IF(FORECAST(E84+30,$F$83:$F$112,$E$47:$E$76) &gt; 0, FORECAST(E84+30,$F$83:$F$112,$E$47:$E$76), 1)</f>
+        <f t="shared" ref="H84:H112" si="28">IF(FORECAST(E84+30,$F$83:$F$112,$E$47:$E$76) &gt; 0, FORECAST(E84+30,$F$83:$F$112,$E$47:$E$76), 1)</f>
         <v>1.5910270671116065</v>
       </c>
       <c r="I84" s="99">
-        <f t="shared" ref="I84:I112" si="33">ABS(G84-H84)</f>
+        <f t="shared" ref="I84:I112" si="29">ABS(G84-H84)</f>
         <v>1.5910270671116065</v>
       </c>
       <c r="K84" s="1">
@@ -40246,15 +39193,49 @@
         <v>0</v>
       </c>
       <c r="N84" s="99">
-        <f t="shared" ref="N84:N112" si="34">IF(FORECAST(K84+30,$L$83:$L$112,$E$47:$E$76) &gt; 0, FORECAST(K84+30,$L$83:$L$112,$E$47:$E$76), 1)</f>
+        <f t="shared" ref="N84:N112" si="30">IF(FORECAST(K84+30,$L$83:$L$112,$E$47:$E$76) &gt; 0, FORECAST(K84+30,$L$83:$L$112,$E$47:$E$76), 1)</f>
         <v>3.1896922506488687</v>
       </c>
       <c r="O84" s="99">
-        <f t="shared" ref="O84:O112" si="35">ABS(M84-N84)</f>
+        <f t="shared" ref="O84:O112" si="31">ABS(M84-N84)</f>
         <v>3.1896922506488687</v>
       </c>
-    </row>
-    <row r="85" spans="5:15" x14ac:dyDescent="0.3">
+      <c r="Q84" s="1">
+        <v>2</v>
+      </c>
+      <c r="R84" s="1">
+        <v>1</v>
+      </c>
+      <c r="S84" s="1">
+        <v>0</v>
+      </c>
+      <c r="T84" s="99">
+        <f>FORECAST(Q84+30,$R$83:$R$112,$E$47:$E$76)</f>
+        <v>6.5152391546162409</v>
+      </c>
+      <c r="U84" s="99">
+        <f>ABS(S84-T84)</f>
+        <v>6.5152391546162409</v>
+      </c>
+      <c r="W84" s="1">
+        <v>2</v>
+      </c>
+      <c r="X84" s="1">
+        <v>9</v>
+      </c>
+      <c r="Y84" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z84" s="99">
+        <f>FORECAST(W84+30,$X$83:$X$112,$E$47:$E$76)</f>
+        <v>7.631738969225065</v>
+      </c>
+      <c r="AA84" s="99">
+        <f>ABS(Y84-Z84)</f>
+        <v>7.631738969225065</v>
+      </c>
+    </row>
+    <row r="85" spans="5:27" x14ac:dyDescent="0.3">
       <c r="E85" s="1">
         <v>3</v>
       </c>
@@ -40265,11 +39246,11 @@
         <v>0</v>
       </c>
       <c r="H85" s="99">
-        <f t="shared" si="32"/>
+        <f t="shared" si="28"/>
         <v>1.5015943641082696</v>
       </c>
       <c r="I85" s="99">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>1.5015943641082696</v>
       </c>
       <c r="K85" s="1">
@@ -40282,15 +39263,49 @@
         <v>0</v>
       </c>
       <c r="N85" s="99">
-        <f t="shared" si="34"/>
+        <f t="shared" si="30"/>
         <v>3.2092695587690026</v>
       </c>
       <c r="O85" s="99">
-        <f t="shared" si="35"/>
+        <f t="shared" si="31"/>
         <v>3.2092695587690026</v>
       </c>
-    </row>
-    <row r="86" spans="5:15" x14ac:dyDescent="0.3">
+      <c r="Q85" s="1">
+        <v>3</v>
+      </c>
+      <c r="R85" s="1">
+        <v>6</v>
+      </c>
+      <c r="S85" s="1">
+        <v>0</v>
+      </c>
+      <c r="T85" s="99">
+        <f>FORECAST(Q85+30,$R$83:$R$112,$E$47:$E$76)</f>
+        <v>6.6373748609566183</v>
+      </c>
+      <c r="U85" s="99">
+        <f>ABS(S85-T85)</f>
+        <v>6.6373748609566183</v>
+      </c>
+      <c r="W85" s="1">
+        <v>3</v>
+      </c>
+      <c r="X85" s="1">
+        <v>5</v>
+      </c>
+      <c r="Y85" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z85" s="99">
+        <f>FORECAST(W85+30,$X$83:$X$112,$E$47:$E$76)</f>
+        <v>7.8175009269558773</v>
+      </c>
+      <c r="AA85" s="99">
+        <f>ABS(Y85-Z85)</f>
+        <v>7.8175009269558773</v>
+      </c>
+    </row>
+    <row r="86" spans="5:27" x14ac:dyDescent="0.3">
       <c r="E86" s="1">
         <v>4</v>
       </c>
@@ -40301,11 +39316,11 @@
         <v>1</v>
       </c>
       <c r="H86" s="99">
-        <f t="shared" si="32"/>
+        <f t="shared" si="28"/>
         <v>1.4121616611049324</v>
       </c>
       <c r="I86" s="99">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>0.41216166110493235</v>
       </c>
       <c r="K86" s="1">
@@ -40318,15 +39333,49 @@
         <v>1</v>
       </c>
       <c r="N86" s="99">
-        <f t="shared" si="34"/>
+        <f t="shared" si="30"/>
         <v>3.2288468668891359</v>
       </c>
       <c r="O86" s="99">
-        <f t="shared" si="35"/>
+        <f t="shared" si="31"/>
         <v>2.2288468668891359</v>
       </c>
-    </row>
-    <row r="87" spans="5:15" x14ac:dyDescent="0.3">
+      <c r="Q86" s="1">
+        <v>4</v>
+      </c>
+      <c r="R86" s="1">
+        <v>2</v>
+      </c>
+      <c r="S86" s="1">
+        <v>6</v>
+      </c>
+      <c r="T86" s="99">
+        <f>FORECAST(Q86+30,$R$83:$R$112,$E$47:$E$76)</f>
+        <v>6.7595105672969966</v>
+      </c>
+      <c r="U86" s="99">
+        <f>ABS(S86-T86)</f>
+        <v>0.75951056729699662</v>
+      </c>
+      <c r="W86" s="1">
+        <v>4</v>
+      </c>
+      <c r="X86" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y86" s="1">
+        <v>10</v>
+      </c>
+      <c r="Z86" s="99">
+        <f>FORECAST(W86+30,$X$83:$X$112,$E$47:$E$76)</f>
+        <v>8.0032628846866878</v>
+      </c>
+      <c r="AA86" s="99">
+        <f>ABS(Y86-Z86)</f>
+        <v>1.9967371153133122</v>
+      </c>
+    </row>
+    <row r="87" spans="5:27" x14ac:dyDescent="0.3">
       <c r="E87" s="1">
         <v>5</v>
       </c>
@@ -40337,11 +39386,11 @@
         <v>13</v>
       </c>
       <c r="H87" s="99">
-        <f t="shared" si="32"/>
+        <f t="shared" si="28"/>
         <v>1.3227289581015955</v>
       </c>
       <c r="I87" s="99">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>11.677271041898404</v>
       </c>
       <c r="K87" s="1">
@@ -40354,15 +39403,49 @@
         <v>3</v>
       </c>
       <c r="N87" s="99">
-        <f t="shared" si="34"/>
+        <f t="shared" si="30"/>
         <v>3.2484241750092693</v>
       </c>
       <c r="O87" s="99">
-        <f t="shared" si="35"/>
+        <f t="shared" si="31"/>
         <v>0.24842417500926928</v>
       </c>
-    </row>
-    <row r="88" spans="5:15" x14ac:dyDescent="0.3">
+      <c r="Q87" s="1">
+        <v>5</v>
+      </c>
+      <c r="R87" s="1">
+        <v>7</v>
+      </c>
+      <c r="S87" s="1">
+        <v>3</v>
+      </c>
+      <c r="T87" s="99">
+        <f>FORECAST(Q87+30,$R$83:$R$112,$E$47:$E$76)</f>
+        <v>6.8816462736373749</v>
+      </c>
+      <c r="U87" s="99">
+        <f>ABS(S87-T87)</f>
+        <v>3.8816462736373749</v>
+      </c>
+      <c r="W87" s="1">
+        <v>5</v>
+      </c>
+      <c r="X87" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y87" s="1">
+        <v>2</v>
+      </c>
+      <c r="Z87" s="99">
+        <f>FORECAST(W87+30,$X$83:$X$112,$E$47:$E$76)</f>
+        <v>8.1890248424175009</v>
+      </c>
+      <c r="AA87" s="99">
+        <f>ABS(Y87-Z87)</f>
+        <v>6.1890248424175009</v>
+      </c>
+    </row>
+    <row r="88" spans="5:27" x14ac:dyDescent="0.3">
       <c r="E88" s="1">
         <v>6</v>
       </c>
@@ -40373,11 +39456,11 @@
         <v>5</v>
       </c>
       <c r="H88" s="99">
-        <f t="shared" si="32"/>
+        <f t="shared" si="28"/>
         <v>1.2332962550982582</v>
       </c>
       <c r="I88" s="99">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>3.7667037449017418</v>
       </c>
       <c r="K88" s="1">
@@ -40390,15 +39473,49 @@
         <v>12</v>
       </c>
       <c r="N88" s="99">
-        <f t="shared" si="34"/>
+        <f t="shared" si="30"/>
         <v>3.2680014831294031</v>
       </c>
       <c r="O88" s="99">
-        <f t="shared" si="35"/>
+        <f t="shared" si="31"/>
         <v>8.7319985168705969</v>
       </c>
-    </row>
-    <row r="89" spans="5:15" x14ac:dyDescent="0.3">
+      <c r="Q88" s="1">
+        <v>6</v>
+      </c>
+      <c r="R88" s="1">
+        <v>3</v>
+      </c>
+      <c r="S88" s="1">
+        <v>13</v>
+      </c>
+      <c r="T88" s="99">
+        <f>FORECAST(Q88+30,$R$83:$R$112,$E$47:$E$76)</f>
+        <v>7.0037819799777532</v>
+      </c>
+      <c r="U88" s="99">
+        <f>ABS(S88-T88)</f>
+        <v>5.9962180200222468</v>
+      </c>
+      <c r="W88" s="1">
+        <v>6</v>
+      </c>
+      <c r="X88" s="1">
+        <v>6</v>
+      </c>
+      <c r="Y88" s="1">
+        <v>9</v>
+      </c>
+      <c r="Z88" s="99">
+        <f>FORECAST(W88+30,$X$83:$X$112,$E$47:$E$76)</f>
+        <v>8.3747868001483141</v>
+      </c>
+      <c r="AA88" s="99">
+        <f>ABS(Y88-Z88)</f>
+        <v>0.62521319985168589</v>
+      </c>
+    </row>
+    <row r="89" spans="5:27" x14ac:dyDescent="0.3">
       <c r="E89" s="1">
         <v>7</v>
       </c>
@@ -40409,11 +39526,11 @@
         <v>0</v>
       </c>
       <c r="H89" s="99">
-        <f t="shared" si="32"/>
+        <f t="shared" si="28"/>
         <v>1.1438635520949214</v>
       </c>
       <c r="I89" s="99">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>1.1438635520949214</v>
       </c>
       <c r="K89" s="1">
@@ -40426,15 +39543,49 @@
         <v>9</v>
       </c>
       <c r="N89" s="99">
-        <f t="shared" si="34"/>
+        <f t="shared" si="30"/>
         <v>3.2875787912495364</v>
       </c>
       <c r="O89" s="99">
-        <f t="shared" si="35"/>
+        <f t="shared" si="31"/>
         <v>5.7124212087504631</v>
       </c>
-    </row>
-    <row r="90" spans="5:15" x14ac:dyDescent="0.3">
+      <c r="Q89" s="1">
+        <v>7</v>
+      </c>
+      <c r="R89" s="1">
+        <v>5</v>
+      </c>
+      <c r="S89" s="1">
+        <v>4</v>
+      </c>
+      <c r="T89" s="99">
+        <f>FORECAST(Q89+30,$R$83:$R$112,$E$47:$E$76)</f>
+        <v>7.1259176863181315</v>
+      </c>
+      <c r="U89" s="99">
+        <f>ABS(S89-T89)</f>
+        <v>3.1259176863181315</v>
+      </c>
+      <c r="W89" s="1">
+        <v>7</v>
+      </c>
+      <c r="X89" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y89" s="1">
+        <v>6</v>
+      </c>
+      <c r="Z89" s="99">
+        <f>FORECAST(W89+30,$X$83:$X$112,$E$47:$E$76)</f>
+        <v>8.5605487578791255</v>
+      </c>
+      <c r="AA89" s="99">
+        <f>ABS(Y89-Z89)</f>
+        <v>2.5605487578791255</v>
+      </c>
+    </row>
+    <row r="90" spans="5:27" x14ac:dyDescent="0.3">
       <c r="E90" s="1">
         <v>8</v>
       </c>
@@ -40445,11 +39596,11 @@
         <v>4</v>
       </c>
       <c r="H90" s="99">
-        <f t="shared" si="32"/>
+        <f t="shared" si="28"/>
         <v>1.0544308490915846</v>
       </c>
       <c r="I90" s="99">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>2.9455691509084154</v>
       </c>
       <c r="K90" s="1">
@@ -40462,15 +39613,49 @@
         <v>1</v>
       </c>
       <c r="N90" s="99">
-        <f t="shared" si="34"/>
+        <f t="shared" si="30"/>
         <v>3.3071560993696698</v>
       </c>
       <c r="O90" s="99">
-        <f t="shared" si="35"/>
+        <f t="shared" si="31"/>
         <v>2.3071560993696698</v>
       </c>
-    </row>
-    <row r="91" spans="5:15" x14ac:dyDescent="0.3">
+      <c r="Q90" s="1">
+        <v>8</v>
+      </c>
+      <c r="R90" s="1">
+        <v>1</v>
+      </c>
+      <c r="S90" s="1">
+        <v>4</v>
+      </c>
+      <c r="T90" s="99">
+        <f>FORECAST(Q90+30,$R$83:$R$112,$E$47:$E$76)</f>
+        <v>7.2480533926585098</v>
+      </c>
+      <c r="U90" s="99">
+        <f>ABS(S90-T90)</f>
+        <v>3.2480533926585098</v>
+      </c>
+      <c r="W90" s="1">
+        <v>8</v>
+      </c>
+      <c r="X90" s="1">
+        <v>4</v>
+      </c>
+      <c r="Y90" s="1">
+        <v>5</v>
+      </c>
+      <c r="Z90" s="99">
+        <f>FORECAST(W90+30,$X$83:$X$112,$E$47:$E$76)</f>
+        <v>8.7463107156099369</v>
+      </c>
+      <c r="AA90" s="99">
+        <f>ABS(Y90-Z90)</f>
+        <v>3.7463107156099369</v>
+      </c>
+    </row>
+    <row r="91" spans="5:27" x14ac:dyDescent="0.3">
       <c r="E91" s="1">
         <v>9</v>
       </c>
@@ -40481,11 +39666,11 @@
         <v>0</v>
       </c>
       <c r="H91" s="99">
-        <f t="shared" si="32"/>
+        <f t="shared" si="28"/>
         <v>0.9649981460882473</v>
       </c>
       <c r="I91" s="99">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>0.9649981460882473</v>
       </c>
       <c r="K91" s="1">
@@ -40498,15 +39683,49 @@
         <v>2</v>
       </c>
       <c r="N91" s="99">
-        <f t="shared" si="34"/>
+        <f t="shared" si="30"/>
         <v>3.3267334074898032</v>
       </c>
       <c r="O91" s="99">
-        <f t="shared" si="35"/>
+        <f t="shared" si="31"/>
         <v>1.3267334074898032</v>
       </c>
-    </row>
-    <row r="92" spans="5:15" x14ac:dyDescent="0.3">
+      <c r="Q91" s="1">
+        <v>9</v>
+      </c>
+      <c r="R91" s="1">
+        <v>1</v>
+      </c>
+      <c r="S91" s="1">
+        <v>9</v>
+      </c>
+      <c r="T91" s="99">
+        <f>FORECAST(Q91+30,$R$83:$R$112,$E$47:$E$76)</f>
+        <v>7.3701890989988881</v>
+      </c>
+      <c r="U91" s="99">
+        <f>ABS(S91-T91)</f>
+        <v>1.6298109010011119</v>
+      </c>
+      <c r="W91" s="1">
+        <v>9</v>
+      </c>
+      <c r="X91" s="1">
+        <v>3</v>
+      </c>
+      <c r="Y91" s="1">
+        <v>2</v>
+      </c>
+      <c r="Z91" s="99">
+        <f>FORECAST(W91+30,$X$83:$X$112,$E$47:$E$76)</f>
+        <v>8.9320726733407483</v>
+      </c>
+      <c r="AA91" s="99">
+        <f>ABS(Y91-Z91)</f>
+        <v>6.9320726733407483</v>
+      </c>
+    </row>
+    <row r="92" spans="5:27" x14ac:dyDescent="0.3">
       <c r="E92" s="1">
         <v>10</v>
       </c>
@@ -40517,11 +39736,11 @@
         <v>8</v>
       </c>
       <c r="H92" s="99">
-        <f t="shared" si="32"/>
+        <f t="shared" si="28"/>
         <v>0.87556544308491047</v>
       </c>
       <c r="I92" s="99">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>7.1244345569150891</v>
       </c>
       <c r="K92" s="1">
@@ -40534,15 +39753,49 @@
         <v>0</v>
       </c>
       <c r="N92" s="99">
-        <f t="shared" si="34"/>
+        <f t="shared" si="30"/>
         <v>3.3463107156099365</v>
       </c>
       <c r="O92" s="99">
-        <f t="shared" si="35"/>
+        <f t="shared" si="31"/>
         <v>3.3463107156099365</v>
       </c>
-    </row>
-    <row r="93" spans="5:15" x14ac:dyDescent="0.3">
+      <c r="Q92" s="1">
+        <v>10</v>
+      </c>
+      <c r="R92" s="1">
+        <v>2</v>
+      </c>
+      <c r="S92" s="1">
+        <v>8</v>
+      </c>
+      <c r="T92" s="99">
+        <f>FORECAST(Q92+30,$R$83:$R$112,$E$47:$E$76)</f>
+        <v>7.4923248053392664</v>
+      </c>
+      <c r="U92" s="99">
+        <f>ABS(S92-T92)</f>
+        <v>0.50767519466073363</v>
+      </c>
+      <c r="W92" s="1">
+        <v>10</v>
+      </c>
+      <c r="X92" s="1">
+        <v>2</v>
+      </c>
+      <c r="Y92" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z92" s="99">
+        <f>FORECAST(W92+30,$X$83:$X$112,$E$47:$E$76)</f>
+        <v>9.1178346310715614</v>
+      </c>
+      <c r="AA92" s="99">
+        <f>ABS(Y92-Z92)</f>
+        <v>8.1178346310715614</v>
+      </c>
+    </row>
+    <row r="93" spans="5:27" x14ac:dyDescent="0.3">
       <c r="E93" s="1">
         <v>11</v>
       </c>
@@ -40553,11 +39806,11 @@
         <v>0</v>
       </c>
       <c r="H93" s="99">
-        <f t="shared" si="32"/>
+        <f t="shared" si="28"/>
         <v>0.78613274008157363</v>
       </c>
       <c r="I93" s="99">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>0.78613274008157363</v>
       </c>
       <c r="K93" s="1">
@@ -40570,15 +39823,49 @@
         <v>0</v>
       </c>
       <c r="N93" s="99">
-        <f t="shared" si="34"/>
+        <f t="shared" si="30"/>
         <v>3.3658880237300703</v>
       </c>
       <c r="O93" s="99">
-        <f t="shared" si="35"/>
+        <f t="shared" si="31"/>
         <v>3.3658880237300703</v>
       </c>
-    </row>
-    <row r="94" spans="5:15" x14ac:dyDescent="0.3">
+      <c r="Q93" s="1">
+        <v>11</v>
+      </c>
+      <c r="R93" s="1">
+        <v>2</v>
+      </c>
+      <c r="S93" s="1">
+        <v>13</v>
+      </c>
+      <c r="T93" s="99">
+        <f>FORECAST(Q93+30,$R$83:$R$112,$E$47:$E$76)</f>
+        <v>7.6144605116796447</v>
+      </c>
+      <c r="U93" s="99">
+        <f>ABS(S93-T93)</f>
+        <v>5.3855394883203553</v>
+      </c>
+      <c r="W93" s="1">
+        <v>11</v>
+      </c>
+      <c r="X93" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y93" s="1">
+        <v>7</v>
+      </c>
+      <c r="Z93" s="99">
+        <f>FORECAST(W93+30,$X$83:$X$112,$E$47:$E$76)</f>
+        <v>9.3035965888023728</v>
+      </c>
+      <c r="AA93" s="99">
+        <f>ABS(Y93-Z93)</f>
+        <v>2.3035965888023728</v>
+      </c>
+    </row>
+    <row r="94" spans="5:27" x14ac:dyDescent="0.3">
       <c r="E94" s="1">
         <v>12</v>
       </c>
@@ -40589,11 +39876,11 @@
         <v>1</v>
       </c>
       <c r="H94" s="99">
-        <f t="shared" si="32"/>
+        <f t="shared" si="28"/>
         <v>0.69670003707823636</v>
       </c>
       <c r="I94" s="99">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>0.30329996292176364</v>
       </c>
       <c r="K94" s="1">
@@ -40606,15 +39893,49 @@
         <v>0</v>
       </c>
       <c r="N94" s="99">
-        <f t="shared" si="34"/>
+        <f t="shared" si="30"/>
         <v>3.3854653318502037</v>
       </c>
       <c r="O94" s="99">
-        <f t="shared" si="35"/>
+        <f t="shared" si="31"/>
         <v>3.3854653318502037</v>
       </c>
-    </row>
-    <row r="95" spans="5:15" x14ac:dyDescent="0.3">
+      <c r="Q94" s="1">
+        <v>12</v>
+      </c>
+      <c r="R94" s="1">
+        <v>5</v>
+      </c>
+      <c r="S94" s="1">
+        <v>3</v>
+      </c>
+      <c r="T94" s="99">
+        <f>FORECAST(Q94+30,$R$83:$R$112,$E$47:$E$76)</f>
+        <v>7.7365962180200221</v>
+      </c>
+      <c r="U94" s="99">
+        <f>ABS(S94-T94)</f>
+        <v>4.7365962180200221</v>
+      </c>
+      <c r="W94" s="1">
+        <v>12</v>
+      </c>
+      <c r="X94" s="1">
+        <v>10</v>
+      </c>
+      <c r="Y94" s="1">
+        <v>3</v>
+      </c>
+      <c r="Z94" s="99">
+        <f>FORECAST(W94+30,$X$83:$X$112,$E$47:$E$76)</f>
+        <v>9.489358546533186</v>
+      </c>
+      <c r="AA94" s="99">
+        <f>ABS(Y94-Z94)</f>
+        <v>6.489358546533186</v>
+      </c>
+    </row>
+    <row r="95" spans="5:27" x14ac:dyDescent="0.3">
       <c r="E95" s="1">
         <v>13</v>
       </c>
@@ -40625,11 +39946,11 @@
         <v>7</v>
       </c>
       <c r="H95" s="99">
-        <f t="shared" si="32"/>
+        <f t="shared" si="28"/>
         <v>0.60726733407489952</v>
       </c>
       <c r="I95" s="99">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>6.3927326659251005</v>
       </c>
       <c r="K95" s="1">
@@ -40642,15 +39963,49 @@
         <v>0</v>
       </c>
       <c r="N95" s="99">
-        <f t="shared" si="34"/>
+        <f t="shared" si="30"/>
         <v>3.4050426399703371</v>
       </c>
       <c r="O95" s="99">
-        <f t="shared" si="35"/>
+        <f t="shared" si="31"/>
         <v>3.4050426399703371</v>
       </c>
-    </row>
-    <row r="96" spans="5:15" x14ac:dyDescent="0.3">
+      <c r="Q95" s="1">
+        <v>13</v>
+      </c>
+      <c r="R95" s="1">
+        <v>6</v>
+      </c>
+      <c r="S95" s="1">
+        <v>3</v>
+      </c>
+      <c r="T95" s="99">
+        <f>FORECAST(Q95+30,$R$83:$R$112,$E$47:$E$76)</f>
+        <v>7.8587319243604004</v>
+      </c>
+      <c r="U95" s="99">
+        <f>ABS(S95-T95)</f>
+        <v>4.8587319243604004</v>
+      </c>
+      <c r="W95" s="1">
+        <v>13</v>
+      </c>
+      <c r="X95" s="1">
+        <v>4</v>
+      </c>
+      <c r="Y95" s="1">
+        <v>9</v>
+      </c>
+      <c r="Z95" s="99">
+        <f>FORECAST(W95+30,$X$83:$X$112,$E$47:$E$76)</f>
+        <v>9.6751205042639974</v>
+      </c>
+      <c r="AA95" s="99">
+        <f>ABS(Y95-Z95)</f>
+        <v>0.67512050426399739</v>
+      </c>
+    </row>
+    <row r="96" spans="5:27" x14ac:dyDescent="0.3">
       <c r="E96" s="1">
         <v>14</v>
       </c>
@@ -40661,11 +40016,11 @@
         <v>6</v>
       </c>
       <c r="H96" s="99">
-        <f t="shared" si="32"/>
+        <f t="shared" si="28"/>
         <v>0.51783463107156269</v>
       </c>
       <c r="I96" s="99">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>5.4821653689284373</v>
       </c>
       <c r="K96" s="1">
@@ -40678,15 +40033,49 @@
         <v>0</v>
       </c>
       <c r="N96" s="99">
-        <f t="shared" si="34"/>
+        <f t="shared" si="30"/>
         <v>3.4246199480904709</v>
       </c>
       <c r="O96" s="99">
-        <f t="shared" si="35"/>
+        <f t="shared" si="31"/>
         <v>3.4246199480904709</v>
       </c>
-    </row>
-    <row r="97" spans="5:15" x14ac:dyDescent="0.3">
+      <c r="Q96" s="1">
+        <v>14</v>
+      </c>
+      <c r="R96" s="1">
+        <v>13</v>
+      </c>
+      <c r="S96" s="1">
+        <v>5</v>
+      </c>
+      <c r="T96" s="99">
+        <f>FORECAST(Q96+30,$R$83:$R$112,$E$47:$E$76)</f>
+        <v>7.9808676307007786</v>
+      </c>
+      <c r="U96" s="99">
+        <f>ABS(S96-T96)</f>
+        <v>2.9808676307007786</v>
+      </c>
+      <c r="W96" s="1">
+        <v>14</v>
+      </c>
+      <c r="X96" s="1">
+        <v>5</v>
+      </c>
+      <c r="Y96" s="1">
+        <v>8</v>
+      </c>
+      <c r="Z96" s="99">
+        <f>FORECAST(W96+30,$X$83:$X$112,$E$47:$E$76)</f>
+        <v>9.8608824619948088</v>
+      </c>
+      <c r="AA96" s="99">
+        <f>ABS(Y96-Z96)</f>
+        <v>1.8608824619948088</v>
+      </c>
+    </row>
+    <row r="97" spans="5:27" x14ac:dyDescent="0.3">
       <c r="E97" s="1">
         <v>15</v>
       </c>
@@ -40697,11 +40086,11 @@
         <v>3</v>
       </c>
       <c r="H97" s="99">
-        <f t="shared" si="32"/>
+        <f t="shared" si="28"/>
         <v>0.42840192806822586</v>
       </c>
       <c r="I97" s="99">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>2.5715980719317741</v>
       </c>
       <c r="K97" s="1">
@@ -40714,15 +40103,49 @@
         <v>1</v>
       </c>
       <c r="N97" s="99">
-        <f t="shared" si="34"/>
+        <f t="shared" si="30"/>
         <v>3.4441972562106042</v>
       </c>
       <c r="O97" s="99">
-        <f t="shared" si="35"/>
+        <f t="shared" si="31"/>
         <v>2.4441972562106042</v>
       </c>
-    </row>
-    <row r="98" spans="5:15" x14ac:dyDescent="0.3">
+      <c r="Q97" s="1">
+        <v>15</v>
+      </c>
+      <c r="R97" s="1">
+        <v>4</v>
+      </c>
+      <c r="S97" s="1">
+        <v>6</v>
+      </c>
+      <c r="T97" s="99">
+        <f>FORECAST(Q97+30,$R$83:$R$112,$E$47:$E$76)</f>
+        <v>8.1030033370411569</v>
+      </c>
+      <c r="U97" s="99">
+        <f>ABS(S97-T97)</f>
+        <v>2.1030033370411569</v>
+      </c>
+      <c r="W97" s="1">
+        <v>15</v>
+      </c>
+      <c r="X97" s="1">
+        <v>4</v>
+      </c>
+      <c r="Y97" s="1">
+        <v>8</v>
+      </c>
+      <c r="Z97" s="99">
+        <f>FORECAST(W97+30,$X$83:$X$112,$E$47:$E$76)</f>
+        <v>10.04664441972562</v>
+      </c>
+      <c r="AA97" s="99">
+        <f>ABS(Y97-Z97)</f>
+        <v>2.0466444197256202</v>
+      </c>
+    </row>
+    <row r="98" spans="5:27" x14ac:dyDescent="0.3">
       <c r="E98" s="1">
         <v>16</v>
       </c>
@@ -40733,11 +40156,11 @@
         <v>1</v>
       </c>
       <c r="H98" s="99">
-        <f t="shared" si="32"/>
+        <f t="shared" si="28"/>
         <v>0.33896922506488814</v>
       </c>
       <c r="I98" s="99">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>0.66103077493511186</v>
       </c>
       <c r="K98" s="1">
@@ -40750,15 +40173,49 @@
         <v>2</v>
       </c>
       <c r="N98" s="99">
-        <f t="shared" si="34"/>
+        <f t="shared" si="30"/>
         <v>3.4637745643307376</v>
       </c>
       <c r="O98" s="99">
-        <f t="shared" si="35"/>
+        <f t="shared" si="31"/>
         <v>1.4637745643307376</v>
       </c>
-    </row>
-    <row r="99" spans="5:15" x14ac:dyDescent="0.3">
+      <c r="Q98" s="1">
+        <v>16</v>
+      </c>
+      <c r="R98" s="1">
+        <v>11</v>
+      </c>
+      <c r="S98" s="1">
+        <v>5</v>
+      </c>
+      <c r="T98" s="99">
+        <f>FORECAST(Q98+30,$R$83:$R$112,$E$47:$E$76)</f>
+        <v>8.2251390433815352</v>
+      </c>
+      <c r="U98" s="99">
+        <f>ABS(S98-T98)</f>
+        <v>3.2251390433815352</v>
+      </c>
+      <c r="W98" s="1">
+        <v>16</v>
+      </c>
+      <c r="X98" s="1">
+        <v>4</v>
+      </c>
+      <c r="Y98" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z98" s="99">
+        <f>FORECAST(W98+30,$X$83:$X$112,$E$47:$E$76)</f>
+        <v>10.232406377456435</v>
+      </c>
+      <c r="AA98" s="99">
+        <f>ABS(Y98-Z98)</f>
+        <v>10.232406377456435</v>
+      </c>
+    </row>
+    <row r="99" spans="5:27" x14ac:dyDescent="0.3">
       <c r="E99" s="1">
         <v>17</v>
       </c>
@@ -40769,11 +40226,11 @@
         <v>6</v>
       </c>
       <c r="H99" s="99">
-        <f t="shared" si="32"/>
+        <f t="shared" si="28"/>
         <v>0.2495365220615513</v>
       </c>
       <c r="I99" s="99">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>5.7504634779384487</v>
       </c>
       <c r="K99" s="1">
@@ -40786,15 +40243,49 @@
         <v>0</v>
       </c>
       <c r="N99" s="99">
-        <f t="shared" si="34"/>
+        <f t="shared" si="30"/>
         <v>3.4833518724508714</v>
       </c>
       <c r="O99" s="99">
-        <f t="shared" si="35"/>
+        <f t="shared" si="31"/>
         <v>3.4833518724508714</v>
       </c>
-    </row>
-    <row r="100" spans="5:15" x14ac:dyDescent="0.3">
+      <c r="Q99" s="1">
+        <v>17</v>
+      </c>
+      <c r="R99" s="1">
+        <v>3</v>
+      </c>
+      <c r="S99" s="1">
+        <v>7</v>
+      </c>
+      <c r="T99" s="99">
+        <f>FORECAST(Q99+30,$R$83:$R$112,$E$47:$E$76)</f>
+        <v>8.3472747497219135</v>
+      </c>
+      <c r="U99" s="99">
+        <f>ABS(S99-T99)</f>
+        <v>1.3472747497219135</v>
+      </c>
+      <c r="W99" s="1">
+        <v>17</v>
+      </c>
+      <c r="X99" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y99" s="1">
+        <v>4</v>
+      </c>
+      <c r="Z99" s="99">
+        <f>FORECAST(W99+30,$X$83:$X$112,$E$47:$E$76)</f>
+        <v>10.418168335187246</v>
+      </c>
+      <c r="AA99" s="99">
+        <f>ABS(Y99-Z99)</f>
+        <v>6.4181683351872465</v>
+      </c>
+    </row>
+    <row r="100" spans="5:27" x14ac:dyDescent="0.3">
       <c r="E100" s="1">
         <v>18</v>
       </c>
@@ -40805,11 +40296,11 @@
         <v>5</v>
       </c>
       <c r="H100" s="99">
-        <f t="shared" si="32"/>
+        <f t="shared" si="28"/>
         <v>0.16010381905821447</v>
       </c>
       <c r="I100" s="99">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>4.8398961809417855</v>
       </c>
       <c r="K100" s="1">
@@ -40822,15 +40313,49 @@
         <v>2</v>
       </c>
       <c r="N100" s="99">
-        <f t="shared" si="34"/>
+        <f t="shared" si="30"/>
         <v>3.5029291805710048</v>
       </c>
       <c r="O100" s="99">
-        <f t="shared" si="35"/>
+        <f t="shared" si="31"/>
         <v>1.5029291805710048</v>
       </c>
-    </row>
-    <row r="101" spans="5:15" x14ac:dyDescent="0.3">
+      <c r="Q100" s="1">
+        <v>18</v>
+      </c>
+      <c r="R100" s="1">
+        <v>6</v>
+      </c>
+      <c r="S100" s="1">
+        <v>1</v>
+      </c>
+      <c r="T100" s="99">
+        <f>FORECAST(Q100+30,$R$83:$R$112,$E$47:$E$76)</f>
+        <v>8.4694104560622918</v>
+      </c>
+      <c r="U100" s="99">
+        <f>ABS(S100-T100)</f>
+        <v>7.4694104560622918</v>
+      </c>
+      <c r="W100" s="1">
+        <v>18</v>
+      </c>
+      <c r="X100" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y100" s="1">
+        <v>8</v>
+      </c>
+      <c r="Z100" s="99">
+        <f>FORECAST(W100+30,$X$83:$X$112,$E$47:$E$76)</f>
+        <v>10.603930292918058</v>
+      </c>
+      <c r="AA100" s="99">
+        <f>ABS(Y100-Z100)</f>
+        <v>2.6039302929180579</v>
+      </c>
+    </row>
+    <row r="101" spans="5:27" x14ac:dyDescent="0.3">
       <c r="E101" s="1">
         <v>19</v>
       </c>
@@ -40841,11 +40366,11 @@
         <v>1</v>
       </c>
       <c r="H101" s="99">
-        <f t="shared" si="32"/>
+        <f t="shared" si="28"/>
         <v>7.0671116054877636E-2</v>
       </c>
       <c r="I101" s="99">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>0.92932888394512236</v>
       </c>
       <c r="K101" s="1">
@@ -40858,15 +40383,49 @@
         <v>0</v>
       </c>
       <c r="N101" s="99">
-        <f t="shared" si="34"/>
+        <f t="shared" si="30"/>
         <v>3.5225064886911381</v>
       </c>
       <c r="O101" s="99">
-        <f t="shared" si="35"/>
+        <f t="shared" si="31"/>
         <v>3.5225064886911381</v>
       </c>
-    </row>
-    <row r="102" spans="5:15" x14ac:dyDescent="0.3">
+      <c r="Q101" s="1">
+        <v>19</v>
+      </c>
+      <c r="R101" s="1">
+        <v>8</v>
+      </c>
+      <c r="S101" s="1">
+        <v>19</v>
+      </c>
+      <c r="T101" s="99">
+        <f>FORECAST(Q101+30,$R$83:$R$112,$E$47:$E$76)</f>
+        <v>8.5915461624026701</v>
+      </c>
+      <c r="U101" s="99">
+        <f>ABS(S101-T101)</f>
+        <v>10.40845383759733</v>
+      </c>
+      <c r="W101" s="1">
+        <v>19</v>
+      </c>
+      <c r="X101" s="1">
+        <v>5</v>
+      </c>
+      <c r="Y101" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z101" s="99">
+        <f>FORECAST(W101+30,$X$83:$X$112,$E$47:$E$76)</f>
+        <v>10.789692250648869</v>
+      </c>
+      <c r="AA101" s="99">
+        <f>ABS(Y101-Z101)</f>
+        <v>9.7896922506488693</v>
+      </c>
+    </row>
+    <row r="102" spans="5:27" x14ac:dyDescent="0.3">
       <c r="E102" s="1">
         <v>20</v>
       </c>
@@ -40877,11 +40436,11 @@
         <v>1</v>
       </c>
       <c r="H102" s="99">
-        <f t="shared" si="32"/>
+        <f t="shared" si="28"/>
         <v>1</v>
       </c>
       <c r="I102" s="99">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="K102" s="1">
@@ -40894,15 +40453,49 @@
         <v>1</v>
       </c>
       <c r="N102" s="99">
-        <f t="shared" si="34"/>
+        <f t="shared" si="30"/>
         <v>3.5420837968112715</v>
       </c>
       <c r="O102" s="99">
-        <f t="shared" si="35"/>
+        <f t="shared" si="31"/>
         <v>2.5420837968112715</v>
       </c>
-    </row>
-    <row r="103" spans="5:15" x14ac:dyDescent="0.3">
+      <c r="Q102" s="1">
+        <v>20</v>
+      </c>
+      <c r="R102" s="1">
+        <v>0</v>
+      </c>
+      <c r="S102" s="1">
+        <v>6</v>
+      </c>
+      <c r="T102" s="99">
+        <f>FORECAST(Q102+30,$R$83:$R$112,$E$47:$E$76)</f>
+        <v>8.7136818687430484</v>
+      </c>
+      <c r="U102" s="99">
+        <f>ABS(S102-T102)</f>
+        <v>2.7136818687430484</v>
+      </c>
+      <c r="W102" s="1">
+        <v>20</v>
+      </c>
+      <c r="X102" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y102" s="1">
+        <v>3</v>
+      </c>
+      <c r="Z102" s="99">
+        <f>FORECAST(W102+30,$X$83:$X$112,$E$47:$E$76)</f>
+        <v>10.975454208379681</v>
+      </c>
+      <c r="AA102" s="99">
+        <f>ABS(Y102-Z102)</f>
+        <v>7.9754542083796807</v>
+      </c>
+    </row>
+    <row r="103" spans="5:27" x14ac:dyDescent="0.3">
       <c r="E103" s="1">
         <v>21</v>
       </c>
@@ -40913,11 +40506,11 @@
         <v>6</v>
       </c>
       <c r="H103" s="99">
-        <f t="shared" si="32"/>
+        <f t="shared" si="28"/>
         <v>1</v>
       </c>
       <c r="I103" s="99">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>5</v>
       </c>
       <c r="K103" s="1">
@@ -40930,15 +40523,49 @@
         <v>0</v>
       </c>
       <c r="N103" s="99">
-        <f t="shared" si="34"/>
+        <f t="shared" si="30"/>
         <v>3.5616611049314049</v>
       </c>
       <c r="O103" s="99">
-        <f t="shared" si="35"/>
+        <f t="shared" si="31"/>
         <v>3.5616611049314049</v>
       </c>
-    </row>
-    <row r="104" spans="5:15" x14ac:dyDescent="0.3">
+      <c r="Q103" s="1">
+        <v>21</v>
+      </c>
+      <c r="R103" s="1">
+        <v>0</v>
+      </c>
+      <c r="S103" s="1">
+        <v>4</v>
+      </c>
+      <c r="T103" s="99">
+        <f>FORECAST(Q103+30,$R$83:$R$112,$E$47:$E$76)</f>
+        <v>8.8358175750834249</v>
+      </c>
+      <c r="U103" s="99">
+        <f>ABS(S103-T103)</f>
+        <v>4.8358175750834249</v>
+      </c>
+      <c r="W103" s="1">
+        <v>21</v>
+      </c>
+      <c r="X103" s="1">
+        <v>8</v>
+      </c>
+      <c r="Y103" s="1">
+        <v>10</v>
+      </c>
+      <c r="Z103" s="99">
+        <f>FORECAST(W103+30,$X$83:$X$112,$E$47:$E$76)</f>
+        <v>11.161216166110492</v>
+      </c>
+      <c r="AA103" s="99">
+        <f>ABS(Y103-Z103)</f>
+        <v>1.1612161661104921</v>
+      </c>
+    </row>
+    <row r="104" spans="5:27" x14ac:dyDescent="0.3">
       <c r="E104" s="1">
         <v>22</v>
       </c>
@@ -40949,11 +40576,11 @@
         <v>4</v>
       </c>
       <c r="H104" s="99">
-        <f t="shared" si="32"/>
+        <f t="shared" si="28"/>
         <v>1</v>
       </c>
       <c r="I104" s="99">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>3</v>
       </c>
       <c r="K104" s="1">
@@ -40966,15 +40593,49 @@
         <v>2</v>
       </c>
       <c r="N104" s="99">
-        <f t="shared" si="34"/>
+        <f t="shared" si="30"/>
         <v>3.5812384130515387</v>
       </c>
       <c r="O104" s="99">
-        <f t="shared" si="35"/>
+        <f t="shared" si="31"/>
         <v>1.5812384130515387</v>
       </c>
-    </row>
-    <row r="105" spans="5:15" x14ac:dyDescent="0.3">
+      <c r="Q104" s="1">
+        <v>22</v>
+      </c>
+      <c r="R104" s="1">
+        <v>10</v>
+      </c>
+      <c r="S104" s="1">
+        <v>14</v>
+      </c>
+      <c r="T104" s="99">
+        <f>FORECAST(Q104+30,$R$83:$R$112,$E$47:$E$76)</f>
+        <v>8.957953281423805</v>
+      </c>
+      <c r="U104" s="99">
+        <f>ABS(S104-T104)</f>
+        <v>5.042046718576195</v>
+      </c>
+      <c r="W104" s="1">
+        <v>22</v>
+      </c>
+      <c r="X104" s="1">
+        <v>13</v>
+      </c>
+      <c r="Y104" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z104" s="99">
+        <f>FORECAST(W104+30,$X$83:$X$112,$E$47:$E$76)</f>
+        <v>11.346978123841307</v>
+      </c>
+      <c r="AA104" s="99">
+        <f>ABS(Y104-Z104)</f>
+        <v>10.346978123841307</v>
+      </c>
+    </row>
+    <row r="105" spans="5:27" x14ac:dyDescent="0.3">
       <c r="E105" s="1">
         <v>23</v>
       </c>
@@ -40985,11 +40646,11 @@
         <v>0</v>
       </c>
       <c r="H105" s="99">
-        <f t="shared" si="32"/>
+        <f t="shared" si="28"/>
         <v>1</v>
       </c>
       <c r="I105" s="99">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>1</v>
       </c>
       <c r="K105" s="1">
@@ -41002,15 +40663,49 @@
         <v>0</v>
       </c>
       <c r="N105" s="99">
-        <f t="shared" si="34"/>
+        <f t="shared" si="30"/>
         <v>3.600815721171672</v>
       </c>
       <c r="O105" s="99">
-        <f t="shared" si="35"/>
+        <f t="shared" si="31"/>
         <v>3.600815721171672</v>
       </c>
-    </row>
-    <row r="106" spans="5:15" x14ac:dyDescent="0.3">
+      <c r="Q105" s="1">
+        <v>23</v>
+      </c>
+      <c r="R105" s="1">
+        <v>1</v>
+      </c>
+      <c r="S105" s="1">
+        <v>7</v>
+      </c>
+      <c r="T105" s="99">
+        <f>FORECAST(Q105+30,$R$83:$R$112,$E$47:$E$76)</f>
+        <v>9.0800889877641815</v>
+      </c>
+      <c r="U105" s="99">
+        <f>ABS(S105-T105)</f>
+        <v>2.0800889877641815</v>
+      </c>
+      <c r="W105" s="1">
+        <v>23</v>
+      </c>
+      <c r="X105" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y105" s="1">
+        <v>10</v>
+      </c>
+      <c r="Z105" s="99">
+        <f>FORECAST(W105+30,$X$83:$X$112,$E$47:$E$76)</f>
+        <v>11.532740081572118</v>
+      </c>
+      <c r="AA105" s="99">
+        <f>ABS(Y105-Z105)</f>
+        <v>1.5327400815721184</v>
+      </c>
+    </row>
+    <row r="106" spans="5:27" x14ac:dyDescent="0.3">
       <c r="E106" s="1">
         <v>24</v>
       </c>
@@ -41021,11 +40716,11 @@
         <v>0</v>
       </c>
       <c r="H106" s="99">
-        <f t="shared" si="32"/>
+        <f t="shared" si="28"/>
         <v>1</v>
       </c>
       <c r="I106" s="99">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>1</v>
       </c>
       <c r="K106" s="1">
@@ -41038,15 +40733,49 @@
         <v>0</v>
       </c>
       <c r="N106" s="99">
-        <f t="shared" si="34"/>
+        <f t="shared" si="30"/>
         <v>3.6203930292918054</v>
       </c>
       <c r="O106" s="99">
-        <f t="shared" si="35"/>
+        <f t="shared" si="31"/>
         <v>3.6203930292918054</v>
       </c>
-    </row>
-    <row r="107" spans="5:15" x14ac:dyDescent="0.3">
+      <c r="Q106" s="1">
+        <v>24</v>
+      </c>
+      <c r="R106" s="1">
+        <v>3</v>
+      </c>
+      <c r="S106" s="1">
+        <v>4</v>
+      </c>
+      <c r="T106" s="99">
+        <f>FORECAST(Q106+30,$R$83:$R$112,$E$47:$E$76)</f>
+        <v>9.2022246941045616</v>
+      </c>
+      <c r="U106" s="99">
+        <f>ABS(S106-T106)</f>
+        <v>5.2022246941045616</v>
+      </c>
+      <c r="W106" s="1">
+        <v>24</v>
+      </c>
+      <c r="X106" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y106" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z106" s="99">
+        <f>FORECAST(W106+30,$X$83:$X$112,$E$47:$E$76)</f>
+        <v>11.71850203930293</v>
+      </c>
+      <c r="AA106" s="99">
+        <f>ABS(Y106-Z106)</f>
+        <v>10.71850203930293</v>
+      </c>
+    </row>
+    <row r="107" spans="5:27" x14ac:dyDescent="0.3">
       <c r="E107" s="1">
         <v>25</v>
       </c>
@@ -41057,11 +40786,11 @@
         <v>0</v>
       </c>
       <c r="H107" s="99">
-        <f t="shared" si="32"/>
+        <f t="shared" si="28"/>
         <v>1</v>
       </c>
       <c r="I107" s="99">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>1</v>
       </c>
       <c r="K107" s="1">
@@ -41074,15 +40803,49 @@
         <v>0</v>
       </c>
       <c r="N107" s="99">
-        <f t="shared" si="34"/>
+        <f t="shared" si="30"/>
         <v>3.6399703374119392</v>
       </c>
       <c r="O107" s="99">
-        <f t="shared" si="35"/>
+        <f t="shared" si="31"/>
         <v>3.6399703374119392</v>
       </c>
-    </row>
-    <row r="108" spans="5:15" x14ac:dyDescent="0.3">
+      <c r="Q107" s="1">
+        <v>25</v>
+      </c>
+      <c r="R107" s="1">
+        <v>3</v>
+      </c>
+      <c r="S107" s="1">
+        <v>0</v>
+      </c>
+      <c r="T107" s="99">
+        <f>FORECAST(Q107+30,$R$83:$R$112,$E$47:$E$76)</f>
+        <v>9.3243604004449381</v>
+      </c>
+      <c r="U107" s="99">
+        <f>ABS(S107-T107)</f>
+        <v>9.3243604004449381</v>
+      </c>
+      <c r="W107" s="1">
+        <v>25</v>
+      </c>
+      <c r="X107" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y107" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z107" s="99">
+        <f>FORECAST(W107+30,$X$83:$X$112,$E$47:$E$76)</f>
+        <v>11.904263997033741</v>
+      </c>
+      <c r="AA107" s="99">
+        <f>ABS(Y107-Z107)</f>
+        <v>10.904263997033741</v>
+      </c>
+    </row>
+    <row r="108" spans="5:27" x14ac:dyDescent="0.3">
       <c r="E108" s="1">
         <v>26</v>
       </c>
@@ -41093,11 +40856,11 @@
         <v>0</v>
       </c>
       <c r="H108" s="99">
-        <f t="shared" si="32"/>
+        <f t="shared" si="28"/>
         <v>1</v>
       </c>
       <c r="I108" s="99">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>1</v>
       </c>
       <c r="K108" s="1">
@@ -41110,15 +40873,49 @@
         <v>4</v>
       </c>
       <c r="N108" s="99">
-        <f t="shared" si="34"/>
+        <f t="shared" si="30"/>
         <v>3.6595476455320726</v>
       </c>
       <c r="O108" s="99">
-        <f t="shared" si="35"/>
+        <f t="shared" si="31"/>
         <v>0.34045235446792743</v>
       </c>
-    </row>
-    <row r="109" spans="5:15" x14ac:dyDescent="0.3">
+      <c r="Q108" s="1">
+        <v>26</v>
+      </c>
+      <c r="R108" s="1">
+        <v>1</v>
+      </c>
+      <c r="S108" s="1">
+        <v>0</v>
+      </c>
+      <c r="T108" s="99">
+        <f>FORECAST(Q108+30,$R$83:$R$112,$E$47:$E$76)</f>
+        <v>9.4464961067853181</v>
+      </c>
+      <c r="U108" s="99">
+        <f>ABS(S108-T108)</f>
+        <v>9.4464961067853181</v>
+      </c>
+      <c r="W108" s="1">
+        <v>26</v>
+      </c>
+      <c r="X108" s="1">
+        <v>8</v>
+      </c>
+      <c r="Y108" s="1">
+        <v>5</v>
+      </c>
+      <c r="Z108" s="99">
+        <f>FORECAST(W108+30,$X$83:$X$112,$E$47:$E$76)</f>
+        <v>12.090025954764553</v>
+      </c>
+      <c r="AA108" s="99">
+        <f>ABS(Y108-Z108)</f>
+        <v>7.0900259547645526</v>
+      </c>
+    </row>
+    <row r="109" spans="5:27" x14ac:dyDescent="0.3">
       <c r="E109" s="1">
         <v>27</v>
       </c>
@@ -41129,11 +40926,11 @@
         <v>0</v>
       </c>
       <c r="H109" s="99">
-        <f t="shared" si="32"/>
+        <f t="shared" si="28"/>
         <v>1</v>
       </c>
       <c r="I109" s="99">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>1</v>
       </c>
       <c r="K109" s="1">
@@ -41146,15 +40943,49 @@
         <v>16</v>
       </c>
       <c r="N109" s="99">
-        <f t="shared" si="34"/>
+        <f t="shared" si="30"/>
         <v>3.6791249536522059</v>
       </c>
       <c r="O109" s="99">
-        <f t="shared" si="35"/>
+        <f t="shared" si="31"/>
         <v>12.320875046347794</v>
       </c>
-    </row>
-    <row r="110" spans="5:15" x14ac:dyDescent="0.3">
+      <c r="Q109" s="1">
+        <v>27</v>
+      </c>
+      <c r="R109" s="1">
+        <v>3</v>
+      </c>
+      <c r="S109" s="1">
+        <v>0</v>
+      </c>
+      <c r="T109" s="99">
+        <f>FORECAST(Q109+30,$R$83:$R$112,$E$47:$E$76)</f>
+        <v>9.5686318131256947</v>
+      </c>
+      <c r="U109" s="99">
+        <f>ABS(S109-T109)</f>
+        <v>9.5686318131256947</v>
+      </c>
+      <c r="W109" s="1">
+        <v>27</v>
+      </c>
+      <c r="X109" s="1">
+        <v>5</v>
+      </c>
+      <c r="Y109" s="1">
+        <v>6</v>
+      </c>
+      <c r="Z109" s="99">
+        <f>FORECAST(W109+30,$X$83:$X$112,$E$47:$E$76)</f>
+        <v>12.275787912495364</v>
+      </c>
+      <c r="AA109" s="99">
+        <f>ABS(Y109-Z109)</f>
+        <v>6.2757879124953639</v>
+      </c>
+    </row>
+    <row r="110" spans="5:27" x14ac:dyDescent="0.3">
       <c r="E110" s="1">
         <v>28</v>
       </c>
@@ -41165,11 +40996,11 @@
         <v>0</v>
       </c>
       <c r="H110" s="99">
-        <f t="shared" si="32"/>
+        <f t="shared" si="28"/>
         <v>1</v>
       </c>
       <c r="I110" s="99">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>1</v>
       </c>
       <c r="K110" s="1">
@@ -41182,15 +41013,49 @@
         <v>4</v>
       </c>
       <c r="N110" s="99">
-        <f t="shared" si="34"/>
+        <f t="shared" si="30"/>
         <v>3.6987022617723397</v>
       </c>
       <c r="O110" s="99">
-        <f t="shared" si="35"/>
+        <f t="shared" si="31"/>
         <v>0.30129773822766026</v>
       </c>
-    </row>
-    <row r="111" spans="5:15" x14ac:dyDescent="0.3">
+      <c r="Q110" s="1">
+        <v>28</v>
+      </c>
+      <c r="R110" s="1">
+        <v>4</v>
+      </c>
+      <c r="S110" s="1">
+        <v>0</v>
+      </c>
+      <c r="T110" s="99">
+        <f>FORECAST(Q110+30,$R$83:$R$112,$E$47:$E$76)</f>
+        <v>9.6907675194660747</v>
+      </c>
+      <c r="U110" s="99">
+        <f>ABS(S110-T110)</f>
+        <v>9.6907675194660747</v>
+      </c>
+      <c r="W110" s="1">
+        <v>28</v>
+      </c>
+      <c r="X110" s="1">
+        <v>9</v>
+      </c>
+      <c r="Y110" s="1">
+        <v>4</v>
+      </c>
+      <c r="Z110" s="99">
+        <f>FORECAST(W110+30,$X$83:$X$112,$E$47:$E$76)</f>
+        <v>12.461549870226179</v>
+      </c>
+      <c r="AA110" s="99">
+        <f>ABS(Y110-Z110)</f>
+        <v>8.4615498702261789</v>
+      </c>
+    </row>
+    <row r="111" spans="5:27" x14ac:dyDescent="0.3">
       <c r="E111" s="1">
         <v>29</v>
       </c>
@@ -41201,11 +41066,11 @@
         <v>0</v>
       </c>
       <c r="H111" s="99">
-        <f t="shared" si="32"/>
+        <f t="shared" si="28"/>
         <v>1</v>
       </c>
       <c r="I111" s="99">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>1</v>
       </c>
       <c r="K111" s="1">
@@ -41218,15 +41083,49 @@
         <v>4</v>
       </c>
       <c r="N111" s="99">
-        <f t="shared" si="34"/>
+        <f t="shared" si="30"/>
         <v>3.7182795698924727</v>
       </c>
       <c r="O111" s="99">
-        <f t="shared" si="35"/>
+        <f t="shared" si="31"/>
         <v>0.28172043010752734</v>
       </c>
-    </row>
-    <row r="112" spans="5:15" x14ac:dyDescent="0.3">
+      <c r="Q111" s="1">
+        <v>29</v>
+      </c>
+      <c r="R111" s="1">
+        <v>4</v>
+      </c>
+      <c r="S111" s="1">
+        <v>0</v>
+      </c>
+      <c r="T111" s="99">
+        <f>FORECAST(Q111+30,$R$83:$R$112,$E$47:$E$76)</f>
+        <v>9.8129032258064512</v>
+      </c>
+      <c r="U111" s="99">
+        <f>ABS(S111-T111)</f>
+        <v>9.8129032258064512</v>
+      </c>
+      <c r="W111" s="1">
+        <v>29</v>
+      </c>
+      <c r="X111" s="1">
+        <v>19</v>
+      </c>
+      <c r="Y111" s="1">
+        <v>8</v>
+      </c>
+      <c r="Z111" s="99">
+        <f>FORECAST(W111+30,$X$83:$X$112,$E$47:$E$76)</f>
+        <v>12.64731182795699</v>
+      </c>
+      <c r="AA111" s="99">
+        <f>ABS(Y111-Z111)</f>
+        <v>4.6473118279569903</v>
+      </c>
+    </row>
+    <row r="112" spans="5:27" x14ac:dyDescent="0.3">
       <c r="E112" s="1">
         <v>30</v>
       </c>
@@ -41237,11 +41136,11 @@
         <v>0</v>
       </c>
       <c r="H112" s="99">
-        <f t="shared" si="32"/>
+        <f t="shared" si="28"/>
         <v>1</v>
       </c>
       <c r="I112" s="99">
-        <f t="shared" si="33"/>
+        <f t="shared" si="29"/>
         <v>1</v>
       </c>
       <c r="K112" s="1">
@@ -41254,35 +41153,88 @@
         <v>11</v>
       </c>
       <c r="N112" s="99">
-        <f t="shared" si="34"/>
+        <f t="shared" si="30"/>
         <v>3.7378568780126065</v>
       </c>
       <c r="O112" s="99">
-        <f t="shared" si="35"/>
+        <f t="shared" si="31"/>
         <v>7.2621431219873935</v>
       </c>
-    </row>
-    <row r="113" spans="5:15" x14ac:dyDescent="0.3">
+      <c r="Q112" s="1">
+        <v>30</v>
+      </c>
+      <c r="R112" s="1">
+        <v>20</v>
+      </c>
+      <c r="S112" s="1">
+        <v>0</v>
+      </c>
+      <c r="T112" s="99">
+        <f>FORECAST(Q112+30,$R$83:$R$112,$E$47:$E$76)</f>
+        <v>9.9350389321468295</v>
+      </c>
+      <c r="U112" s="99">
+        <f>ABS(S112-T112)</f>
+        <v>9.9350389321468295</v>
+      </c>
+      <c r="W112" s="1">
+        <v>30</v>
+      </c>
+      <c r="X112" s="1">
+        <v>7</v>
+      </c>
+      <c r="Y112" s="1">
+        <v>2</v>
+      </c>
+      <c r="Z112" s="99">
+        <f>FORECAST(W112+30,$X$83:$X$112,$E$47:$E$76)</f>
+        <v>12.833073785687802</v>
+      </c>
+      <c r="AA112" s="99">
+        <f>ABS(Y112-Z112)</f>
+        <v>10.833073785687802</v>
+      </c>
+    </row>
+    <row r="113" spans="5:27" x14ac:dyDescent="0.3">
       <c r="E113" s="63"/>
-      <c r="F113" s="106" t="s">
+      <c r="F113" s="109" t="s">
         <v>4</v>
       </c>
-      <c r="G113" s="107"/>
-      <c r="H113" s="108"/>
+      <c r="G113" s="110"/>
+      <c r="H113" s="111"/>
       <c r="I113" s="63" t="s">
         <v>89</v>
       </c>
       <c r="K113" s="63"/>
-      <c r="L113" s="106" t="s">
+      <c r="L113" s="109" t="s">
         <v>4</v>
       </c>
-      <c r="M113" s="107"/>
-      <c r="N113" s="108"/>
+      <c r="M113" s="110"/>
+      <c r="N113" s="111"/>
       <c r="O113" s="63" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="114" spans="5:15" x14ac:dyDescent="0.3">
+      <c r="P113" s="8"/>
+      <c r="Q113" s="63"/>
+      <c r="R113" s="109" t="s">
+        <v>4</v>
+      </c>
+      <c r="S113" s="110"/>
+      <c r="T113" s="111"/>
+      <c r="U113" s="63" t="s">
+        <v>89</v>
+      </c>
+      <c r="W113" s="63"/>
+      <c r="X113" s="109" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y113" s="110"/>
+      <c r="Z113" s="111"/>
+      <c r="AA113" s="63" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="114" spans="5:27" x14ac:dyDescent="0.3">
       <c r="E114" s="78"/>
       <c r="F114" s="78">
         <f>SUM(F83:F112)</f>
@@ -41317,8 +41269,43 @@
         <f>AVERAGE(O83:O112)</f>
         <v>3.1840464713879615</v>
       </c>
-    </row>
-    <row r="122" spans="5:15" x14ac:dyDescent="0.3">
+      <c r="P114" s="17"/>
+      <c r="Q114" s="78"/>
+      <c r="R114" s="78">
+        <f>SUM(R83:R112)</f>
+        <v>135</v>
+      </c>
+      <c r="S114" s="78">
+        <f>SUM(S83:S112)</f>
+        <v>145</v>
+      </c>
+      <c r="T114" s="100">
+        <f>SUM(T83:T112)</f>
+        <v>244.92213570634038</v>
+      </c>
+      <c r="U114" s="100">
+        <f>AVERAGE(U83:U112)</f>
+        <v>5.2620541342232103</v>
+      </c>
+      <c r="W114" s="78"/>
+      <c r="X114" s="78">
+        <f>SUM(X83:X112)</f>
+        <v>137</v>
+      </c>
+      <c r="Y114" s="78">
+        <f>SUM(Y83:Y112)</f>
+        <v>136</v>
+      </c>
+      <c r="Z114" s="100">
+        <f>SUM(Z83:Z112)</f>
+        <v>304.18576195773085</v>
+      </c>
+      <c r="AA114" s="100">
+        <f>AVERAGE(AA83:AA112)</f>
+        <v>5.7809887529353619</v>
+      </c>
+    </row>
+    <row r="122" spans="5:27" x14ac:dyDescent="0.3">
       <c r="E122" s="1">
         <v>1</v>
       </c>
@@ -41341,7 +41328,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="123" spans="5:15" x14ac:dyDescent="0.3">
+    <row r="123" spans="5:27" x14ac:dyDescent="0.3">
       <c r="E123" s="1">
         <v>2</v>
       </c>
@@ -41364,7 +41351,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="124" spans="5:15" x14ac:dyDescent="0.3">
+    <row r="124" spans="5:27" x14ac:dyDescent="0.3">
       <c r="E124" s="1">
         <v>3</v>
       </c>
@@ -41387,7 +41374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="5:15" x14ac:dyDescent="0.3">
+    <row r="125" spans="5:27" x14ac:dyDescent="0.3">
       <c r="E125" s="1">
         <v>4</v>
       </c>
@@ -41410,7 +41397,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="126" spans="5:15" x14ac:dyDescent="0.3">
+    <row r="126" spans="5:27" x14ac:dyDescent="0.3">
       <c r="E126" s="1">
         <v>5</v>
       </c>
@@ -41433,7 +41420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="5:15" x14ac:dyDescent="0.3">
+    <row r="127" spans="5:27" x14ac:dyDescent="0.3">
       <c r="E127" s="1">
         <v>6</v>
       </c>
@@ -41456,7 +41443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="5:15" x14ac:dyDescent="0.3">
+    <row r="128" spans="5:27" x14ac:dyDescent="0.3">
       <c r="E128" s="1">
         <v>7</v>
       </c>
@@ -42014,36 +42001,36 @@
         <v>159</v>
       </c>
       <c r="G152">
-        <f t="shared" ref="G152:K152" si="36">SUM(G122:G151)</f>
+        <f t="shared" ref="G152:K152" si="32">SUM(G122:G151)</f>
         <v>162</v>
       </c>
       <c r="H152">
-        <f t="shared" si="36"/>
+        <f t="shared" si="32"/>
         <v>135</v>
       </c>
       <c r="I152">
-        <f t="shared" si="36"/>
+        <f t="shared" si="32"/>
         <v>145</v>
       </c>
       <c r="J152">
-        <f t="shared" si="36"/>
+        <f t="shared" si="32"/>
         <v>200</v>
       </c>
       <c r="K152">
-        <f t="shared" si="36"/>
+        <f t="shared" si="32"/>
         <v>163</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="AP77:AR77"/>
+    <mergeCell ref="X113:Z113"/>
     <mergeCell ref="F113:H113"/>
     <mergeCell ref="L113:N113"/>
     <mergeCell ref="L77:N77"/>
     <mergeCell ref="R77:T77"/>
     <mergeCell ref="X77:Z77"/>
     <mergeCell ref="AD77:AF77"/>
-    <mergeCell ref="AJ77:AL77"/>
+    <mergeCell ref="R113:T113"/>
     <mergeCell ref="F77:H77"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -48657,67 +48644,48 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7F680B3-CA4F-4308-B353-09D32E1B4F16}">
-  <dimension ref="A2:V38"/>
+  <dimension ref="B2:T42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K48" sqref="K48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="10.5546875" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" customWidth="1"/>
     <col min="8" max="8" width="9.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A2" s="111"/>
-      <c r="B2" s="111"/>
+    <row r="2" spans="2:14" x14ac:dyDescent="0.3">
       <c r="C2" s="7"/>
       <c r="D2" s="7"/>
       <c r="F2" s="8"/>
       <c r="G2" s="8"/>
       <c r="H2" s="7"/>
-      <c r="S2" s="111"/>
-      <c r="T2" s="111"/>
-      <c r="U2" s="111"/>
-      <c r="V2" s="111"/>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A3" s="111"/>
-      <c r="B3" s="111"/>
-      <c r="C3" s="118" t="s">
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="C3" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="D3" s="118"/>
-      <c r="E3" s="118"/>
-      <c r="F3" s="118"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
       <c r="L3" s="22"/>
-      <c r="S3" s="111"/>
-      <c r="T3" s="111"/>
-      <c r="U3" s="111"/>
-      <c r="V3" s="111"/>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A4" s="111"/>
-      <c r="B4" s="111"/>
-      <c r="C4" s="104" t="s">
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="C4" s="107" t="s">
         <v>92</v>
       </c>
-      <c r="D4" s="104"/>
-      <c r="E4" s="104"/>
-      <c r="F4" s="104"/>
-      <c r="G4" s="104"/>
+      <c r="D4" s="107"/>
+      <c r="E4" s="107"/>
+      <c r="F4" s="107"/>
+      <c r="G4" s="107"/>
       <c r="H4" s="7"/>
-      <c r="S4" s="111"/>
-      <c r="T4" s="111"/>
-      <c r="U4" s="111"/>
-      <c r="V4" s="111"/>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A5" s="111"/>
-      <c r="B5" s="111"/>
+    </row>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.3">
       <c r="C5" s="17"/>
       <c r="D5" s="23"/>
       <c r="E5" s="23"/>
@@ -48732,21 +48700,15 @@
       </c>
       <c r="L5" s="17"/>
       <c r="N5" s="22"/>
-      <c r="S5" s="111"/>
-      <c r="T5" s="111"/>
-      <c r="U5" s="111"/>
-      <c r="V5" s="111"/>
-    </row>
-    <row r="6" spans="1:22" ht="18" x14ac:dyDescent="0.35">
-      <c r="A6" s="111"/>
-      <c r="B6" s="111"/>
+    </row>
+    <row r="6" spans="2:14" ht="18" x14ac:dyDescent="0.35">
       <c r="C6" s="9" t="s">
         <v>25</v>
       </c>
       <c r="D6" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="E6" s="109"/>
+      <c r="E6" s="8"/>
       <c r="H6" s="50" t="s">
         <v>30</v>
       </c>
@@ -48760,42 +48722,30 @@
         <v>26</v>
       </c>
       <c r="N6" s="22"/>
-      <c r="S6" s="111"/>
-      <c r="T6" s="111"/>
-      <c r="U6" s="111"/>
-      <c r="V6" s="111"/>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A7" s="111"/>
-      <c r="B7" s="111"/>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
       <c r="C7" s="51">
         <v>1</v>
       </c>
       <c r="D7" s="51">
         <v>2</v>
       </c>
-      <c r="E7" s="110"/>
+      <c r="E7" s="7"/>
       <c r="H7" s="53">
         <v>8</v>
       </c>
       <c r="I7" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="S7" s="111"/>
-      <c r="T7" s="111"/>
-      <c r="U7" s="111"/>
-      <c r="V7" s="111"/>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A8" s="111"/>
-      <c r="B8" s="111"/>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.3">
       <c r="C8" s="51">
         <v>2</v>
       </c>
       <c r="D8" s="51">
         <v>2</v>
       </c>
-      <c r="E8" s="110"/>
+      <c r="E8" s="7"/>
       <c r="H8" s="53">
         <v>9</v>
       </c>
@@ -48805,21 +48755,15 @@
       <c r="K8" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="S8" s="111"/>
-      <c r="T8" s="111"/>
-      <c r="U8" s="111"/>
-      <c r="V8" s="111"/>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A9" s="111"/>
-      <c r="B9" s="111"/>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
       <c r="C9" s="51">
         <v>3</v>
       </c>
       <c r="D9" s="51">
         <v>3</v>
       </c>
-      <c r="E9" s="110"/>
+      <c r="E9" s="7"/>
       <c r="H9" s="53">
         <v>10</v>
       </c>
@@ -48829,110 +48773,81 @@
       <c r="K9" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="L9" s="101" t="s">
+      <c r="L9" s="104" t="s">
         <v>32</v>
       </c>
-      <c r="M9" s="101"/>
-      <c r="S9" s="111"/>
-      <c r="T9" s="111"/>
-      <c r="U9" s="111"/>
-      <c r="V9" s="111"/>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A10" s="111"/>
-      <c r="B10" s="111"/>
+      <c r="M9" s="104"/>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
       <c r="C10" s="51">
         <v>4</v>
       </c>
       <c r="D10" s="51">
         <v>1</v>
       </c>
-      <c r="E10" s="110"/>
+      <c r="E10" s="7"/>
       <c r="H10" s="53">
         <v>11</v>
       </c>
       <c r="I10" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="L10" s="105" t="s">
+      <c r="L10" s="108" t="s">
         <v>33</v>
       </c>
-      <c r="M10" s="105"/>
-      <c r="S10" s="111"/>
-      <c r="T10" s="111"/>
-      <c r="U10" s="111"/>
-      <c r="V10" s="111"/>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A11" s="111"/>
-      <c r="B11" s="111"/>
+      <c r="M10" s="108"/>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
       <c r="C11" s="51">
         <v>5</v>
       </c>
       <c r="D11" s="51">
         <v>3</v>
       </c>
-      <c r="E11" s="110"/>
+      <c r="E11" s="7"/>
       <c r="H11" s="53">
         <v>12</v>
       </c>
       <c r="I11" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="L11" s="101" t="s">
+      <c r="L11" s="104" t="s">
         <v>34</v>
       </c>
-      <c r="M11" s="101"/>
-      <c r="S11" s="111"/>
-      <c r="T11" s="111"/>
-      <c r="U11" s="111"/>
-      <c r="V11" s="111"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A12" s="111"/>
-      <c r="B12" s="111"/>
+      <c r="M11" s="104"/>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
       <c r="C12" s="51">
         <v>6</v>
       </c>
       <c r="D12" s="51">
         <v>2</v>
       </c>
-      <c r="E12" s="110"/>
+      <c r="E12" s="7"/>
       <c r="H12" s="53" t="s">
         <v>94</v>
       </c>
       <c r="I12" s="53"/>
-      <c r="S12" s="111"/>
-      <c r="T12" s="111"/>
-      <c r="U12" s="111"/>
-      <c r="V12" s="111"/>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A13" s="111"/>
-      <c r="B13" s="111"/>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
       <c r="C13" s="52">
         <v>7</v>
       </c>
       <c r="D13" s="51">
         <v>4</v>
       </c>
-      <c r="E13" s="110"/>
-      <c r="H13" s="110"/>
+      <c r="E13" s="7"/>
+      <c r="H13" s="7"/>
       <c r="K13" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="L13" s="101" t="s">
+      <c r="L13" s="104" t="s">
         <v>35</v>
       </c>
-      <c r="M13" s="101"/>
-      <c r="S13" s="111"/>
-      <c r="T13" s="111"/>
-      <c r="U13" s="111"/>
-      <c r="V13" s="111"/>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A14" s="111"/>
-      <c r="B14" s="117" t="s">
+      <c r="M13" s="104"/>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B14" s="103" t="s">
         <v>38</v>
       </c>
       <c r="C14" s="29">
@@ -48943,32 +48858,21 @@
         <f t="shared" ref="D14" si="0">SUM(D7:D13)</f>
         <v>17</v>
       </c>
-      <c r="E14" s="110"/>
+      <c r="E14" s="7"/>
       <c r="F14" s="7"/>
-      <c r="L14" s="105" t="s">
+      <c r="L14" s="108" t="s">
         <v>33</v>
       </c>
-      <c r="M14" s="105"/>
-      <c r="S14" s="111"/>
-      <c r="T14" s="111"/>
-      <c r="U14" s="111"/>
-      <c r="V14" s="111"/>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A15" s="111"/>
+      <c r="M14" s="108"/>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
       <c r="F15" s="7"/>
-      <c r="L15" s="101" t="s">
+      <c r="L15" s="104" t="s">
         <v>34</v>
       </c>
-      <c r="M15" s="101"/>
-      <c r="S15" s="111"/>
-      <c r="T15" s="111"/>
-      <c r="U15" s="111"/>
-      <c r="V15" s="111"/>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A16" s="111"/>
-      <c r="B16" s="111"/>
+      <c r="M15" s="104"/>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
       <c r="C16" s="21" t="s">
         <v>37</v>
       </c>
@@ -48982,21 +48886,15 @@
       <c r="I16" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="J16" s="109"/>
-      <c r="S16" s="111"/>
-      <c r="T16" s="111"/>
-      <c r="U16" s="111"/>
-      <c r="V16" s="111"/>
-    </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A17" s="111"/>
-      <c r="B17" s="111"/>
+      <c r="J16" s="8"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C17" s="20">
-        <f>C7^2</f>
+        <f t="shared" ref="C17:C23" si="1">C7^2</f>
         <v>1</v>
       </c>
       <c r="D17" s="20">
-        <f>D7*C7</f>
+        <f t="shared" ref="D17:D23" si="2">D7*C7</f>
         <v>2</v>
       </c>
       <c r="G17" s="7"/>
@@ -49007,150 +48905,121 @@
         <f>$F$23+($F$24*H17)</f>
         <v>3.2857142857142856</v>
       </c>
-      <c r="J17" s="115"/>
-      <c r="S17" s="111"/>
-      <c r="T17" s="111"/>
-      <c r="U17" s="111"/>
-      <c r="V17" s="111"/>
-    </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A18" s="111"/>
-      <c r="B18" s="111"/>
+      <c r="J17" s="101"/>
+    </row>
+    <row r="18" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C18" s="20">
-        <f>C8^2</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="D18" s="20">
-        <f>D8*C8</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="H18" s="53">
         <v>9</v>
       </c>
       <c r="I18" s="54">
-        <f t="shared" ref="I18:I23" si="1">$F$23+($F$24*H18)</f>
+        <f t="shared" ref="I18:I23" si="3">$F$23+($F$24*H18)</f>
         <v>3.5</v>
       </c>
-      <c r="J18" s="115"/>
-      <c r="N18" s="109"/>
-      <c r="O18" s="109"/>
-      <c r="P18" s="109"/>
-      <c r="Q18" s="109"/>
-      <c r="R18" s="112"/>
-      <c r="S18" s="113"/>
-      <c r="T18" s="114"/>
-      <c r="U18" s="111"/>
-      <c r="V18" s="111"/>
-    </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A19" s="111"/>
-      <c r="B19" s="111"/>
+      <c r="J18" s="101"/>
+      <c r="N18" s="8"/>
+      <c r="O18" s="8"/>
+      <c r="P18" s="8"/>
+      <c r="Q18" s="8"/>
+      <c r="S18" s="24"/>
+      <c r="T18" s="43"/>
+    </row>
+    <row r="19" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C19" s="20">
-        <f>C9^2</f>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="D19" s="20">
-        <f>D9*C9</f>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="H19" s="53">
         <v>10</v>
       </c>
       <c r="I19" s="54">
+        <f t="shared" si="3"/>
+        <v>3.7142857142857144</v>
+      </c>
+      <c r="J19" s="101"/>
+      <c r="N19" s="7"/>
+      <c r="S19" s="24"/>
+      <c r="T19" s="43"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.3">
+      <c r="C20" s="20">
         <f t="shared" si="1"/>
-        <v>3.7142857142857144</v>
-      </c>
-      <c r="J19" s="115"/>
-      <c r="N19" s="110"/>
-      <c r="S19" s="113"/>
-      <c r="T19" s="114"/>
-      <c r="U19" s="111"/>
-      <c r="V19" s="111"/>
-    </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A20" s="111"/>
-      <c r="B20" s="111"/>
-      <c r="C20" s="20">
-        <f>C10^2</f>
         <v>16</v>
       </c>
       <c r="D20" s="20">
-        <f>D10*C10</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="H20" s="53">
         <v>11</v>
       </c>
       <c r="I20" s="54">
+        <f t="shared" si="3"/>
+        <v>3.9285714285714288</v>
+      </c>
+      <c r="J20" s="101"/>
+      <c r="N20" s="7"/>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.3">
+      <c r="C21" s="20">
         <f t="shared" si="1"/>
-        <v>3.9285714285714288</v>
-      </c>
-      <c r="J20" s="115"/>
-      <c r="N20" s="110"/>
-      <c r="S20" s="112"/>
-      <c r="T20" s="112"/>
-      <c r="U20" s="111"/>
-      <c r="V20" s="111"/>
-    </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A21" s="111"/>
-      <c r="B21" s="111"/>
-      <c r="C21" s="20">
-        <f>C11^2</f>
         <v>25</v>
       </c>
       <c r="D21" s="20">
-        <f>D11*C11</f>
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
       <c r="H21" s="53">
         <v>12</v>
       </c>
       <c r="I21" s="54">
+        <f t="shared" si="3"/>
+        <v>4.1428571428571423</v>
+      </c>
+      <c r="J21" s="101"/>
+      <c r="N21" s="7"/>
+      <c r="S21" s="7"/>
+      <c r="T21" s="101"/>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.3">
+      <c r="C22" s="20">
         <f t="shared" si="1"/>
-        <v>4.1428571428571423</v>
-      </c>
-      <c r="J21" s="115"/>
-      <c r="N21" s="110"/>
-      <c r="S21" s="110"/>
-      <c r="T21" s="115"/>
-      <c r="U21" s="111"/>
-      <c r="V21" s="111"/>
-    </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A22" s="111"/>
-      <c r="B22" s="111"/>
-      <c r="C22" s="20">
-        <f>C12^2</f>
         <v>36</v>
       </c>
       <c r="D22" s="20">
-        <f>D12*C12</f>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="H22" s="53">
         <v>13</v>
       </c>
       <c r="I22" s="54">
+        <f t="shared" si="3"/>
+        <v>4.3571428571428568</v>
+      </c>
+      <c r="J22" s="101"/>
+      <c r="N22" s="7"/>
+      <c r="S22" s="7"/>
+      <c r="T22" s="101"/>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.3">
+      <c r="C23" s="20">
         <f t="shared" si="1"/>
-        <v>4.3571428571428568</v>
-      </c>
-      <c r="J22" s="115"/>
-      <c r="N22" s="110"/>
-      <c r="S22" s="110"/>
-      <c r="T22" s="115"/>
-      <c r="U22" s="111"/>
-      <c r="V22" s="111"/>
-    </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A23" s="111"/>
-      <c r="B23" s="111"/>
-      <c r="C23" s="20">
-        <f>C13^2</f>
         <v>49</v>
       </c>
       <c r="D23" s="20">
-        <f>D13*C13</f>
+        <f t="shared" si="2"/>
         <v>28</v>
       </c>
       <c r="E23" s="24" t="s">
@@ -49164,19 +49033,15 @@
         <v>14</v>
       </c>
       <c r="I23" s="54">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>4.5714285714285712</v>
       </c>
-      <c r="J23" s="115"/>
-      <c r="N23" s="110"/>
-      <c r="S23" s="110"/>
-      <c r="T23" s="115"/>
-      <c r="U23" s="111"/>
-      <c r="V23" s="111"/>
-    </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A24" s="111"/>
-      <c r="B24" s="111"/>
+      <c r="J23" s="101"/>
+      <c r="N23" s="7"/>
+      <c r="S23" s="7"/>
+      <c r="T23" s="101"/>
+    </row>
+    <row r="24" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C24" s="29">
         <f>SUM(C17:C23)</f>
         <v>140</v>
@@ -49192,240 +49057,295 @@
         <f>((7*D24)-(C14*D14))/((7*C24)-(C14)^2)</f>
         <v>0.21428571428571427</v>
       </c>
-      <c r="N24" s="110"/>
-      <c r="S24" s="110"/>
-      <c r="T24" s="115"/>
-      <c r="U24" s="111"/>
-      <c r="V24" s="111"/>
-    </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A25" s="111"/>
-      <c r="B25" s="111"/>
+      <c r="N24" s="7"/>
+      <c r="S24" s="7"/>
+      <c r="T24" s="101"/>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
       <c r="F25" s="7"/>
-      <c r="M25" s="112"/>
-      <c r="N25" s="110"/>
-      <c r="S25" s="110"/>
-      <c r="T25" s="115"/>
-    </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A26" s="111"/>
-      <c r="B26" s="111"/>
+      <c r="N25" s="7"/>
+      <c r="S25" s="7"/>
+      <c r="T25" s="101"/>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
       <c r="H26" s="33"/>
       <c r="I26" s="34"/>
-      <c r="M26" s="112"/>
-      <c r="N26" s="110"/>
-      <c r="S26" s="110"/>
-      <c r="T26" s="115"/>
-    </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A27" s="111"/>
-      <c r="B27" s="111"/>
+      <c r="N26" s="7"/>
+      <c r="S26" s="7"/>
+      <c r="T26" s="101"/>
+    </row>
+    <row r="27" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
       <c r="F27" s="7"/>
       <c r="G27" s="35"/>
       <c r="H27" s="7"/>
-      <c r="M27" s="112"/>
-      <c r="N27" s="110"/>
-      <c r="S27" s="110"/>
-      <c r="T27" s="115"/>
-    </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A28" s="111"/>
-      <c r="B28" s="111"/>
+      <c r="N27" s="7"/>
+      <c r="S27" s="7"/>
+      <c r="T27" s="101"/>
+    </row>
+    <row r="28" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
       <c r="F28" s="7"/>
       <c r="G28" s="35"/>
       <c r="H28" s="7"/>
-      <c r="M28" s="112"/>
-      <c r="N28" s="110"/>
-      <c r="S28" s="112"/>
-      <c r="T28" s="116"/>
-    </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A29" s="111"/>
-      <c r="B29" s="111"/>
+      <c r="N28" s="7"/>
+      <c r="S28" s="7"/>
+      <c r="T28" s="101"/>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
       <c r="F29" s="7"/>
-      <c r="G29" s="7"/>
+      <c r="G29" s="35"/>
       <c r="H29" s="7"/>
-      <c r="M29" s="112"/>
-      <c r="N29" s="110"/>
-      <c r="S29" s="112"/>
-      <c r="T29" s="112"/>
-    </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A30" s="111"/>
-      <c r="B30" s="111"/>
+      <c r="N29" s="7"/>
+      <c r="S29" s="7"/>
+      <c r="T29" s="101"/>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
       <c r="F30" s="7"/>
-      <c r="G30" s="7"/>
+      <c r="G30" s="35"/>
       <c r="H30" s="7"/>
-      <c r="M30" s="112"/>
-      <c r="N30" s="110"/>
-      <c r="S30" s="112"/>
-      <c r="T30" s="112"/>
-    </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A31" s="111"/>
-      <c r="B31" s="111"/>
+      <c r="N30" s="7"/>
+      <c r="T30" s="102"/>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
       <c r="H31" s="7"/>
-      <c r="M31" s="112"/>
-      <c r="N31" s="110"/>
-      <c r="S31" s="112"/>
-      <c r="T31" s="112"/>
-    </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A32" s="111"/>
-      <c r="B32" s="111"/>
+      <c r="N31" s="7"/>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
       <c r="F32" s="7"/>
       <c r="G32" s="7"/>
       <c r="H32" s="7"/>
-      <c r="M32" s="112"/>
-      <c r="N32" s="110"/>
-      <c r="S32" s="112"/>
-      <c r="T32" s="112"/>
-    </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A33" s="111"/>
-      <c r="B33" s="111"/>
-      <c r="C33" s="7"/>
-      <c r="D33" s="7"/>
+      <c r="N32" s="7"/>
+    </row>
+    <row r="33" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C33" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E33" s="50" t="s">
+        <v>95</v>
+      </c>
       <c r="F33" s="7"/>
-      <c r="G33" s="7"/>
-      <c r="H33" s="7"/>
-      <c r="M33" s="110"/>
-      <c r="N33" s="110"/>
-      <c r="R33" s="112"/>
-      <c r="S33" s="112"/>
-      <c r="T33" s="112"/>
-    </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A34" s="111"/>
-      <c r="B34" s="111"/>
-      <c r="C34" s="119"/>
-      <c r="D34" s="119"/>
-      <c r="E34" s="111"/>
-      <c r="F34" s="119"/>
-      <c r="G34" s="119"/>
-      <c r="H34" s="119"/>
-      <c r="I34" s="111"/>
-      <c r="J34" s="111"/>
-      <c r="K34" s="111"/>
-      <c r="L34" s="111"/>
-      <c r="M34" s="111"/>
-      <c r="N34" s="111"/>
-      <c r="O34" s="111"/>
-      <c r="P34" s="111"/>
-      <c r="Q34" s="111"/>
-      <c r="R34" s="111"/>
-      <c r="S34" s="111"/>
-      <c r="T34" s="111"/>
-      <c r="U34" s="111"/>
-    </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A35" s="111"/>
-      <c r="B35" s="111"/>
-      <c r="C35" s="119"/>
-      <c r="D35" s="119"/>
-      <c r="E35" s="111"/>
-      <c r="F35" s="119"/>
-      <c r="G35" s="119"/>
-      <c r="H35" s="119"/>
-      <c r="I35" s="111"/>
-      <c r="J35" s="111"/>
-      <c r="K35" s="111"/>
-      <c r="L35" s="111"/>
-      <c r="M35" s="111"/>
-      <c r="N35" s="111"/>
-      <c r="O35" s="111"/>
-      <c r="P35" s="111"/>
-      <c r="Q35" s="111"/>
-      <c r="R35" s="111"/>
-      <c r="S35" s="111"/>
-      <c r="T35" s="111"/>
-      <c r="U35" s="111"/>
-    </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="B36" s="111"/>
-      <c r="C36" s="111"/>
-      <c r="D36" s="111"/>
-      <c r="E36" s="111"/>
-      <c r="F36" s="111"/>
-      <c r="G36" s="111"/>
-      <c r="H36" s="111"/>
-      <c r="I36" s="111"/>
-      <c r="J36" s="111"/>
-      <c r="K36" s="111"/>
-      <c r="L36" s="111"/>
-      <c r="M36" s="111"/>
-      <c r="N36" s="111"/>
-      <c r="O36" s="111"/>
-      <c r="P36" s="111"/>
-      <c r="Q36" s="111"/>
-      <c r="R36" s="111"/>
-      <c r="S36" s="111"/>
-      <c r="T36" s="111"/>
-      <c r="U36" s="111"/>
-    </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="B37" s="111"/>
-      <c r="C37" s="111"/>
-      <c r="D37" s="111"/>
-      <c r="E37" s="111"/>
-      <c r="F37" s="111"/>
-      <c r="G37" s="111"/>
-      <c r="H37" s="111"/>
-      <c r="I37" s="111"/>
-      <c r="J37" s="111"/>
-      <c r="K37" s="111"/>
-      <c r="L37" s="111"/>
-      <c r="M37" s="111"/>
-      <c r="N37" s="111"/>
-      <c r="O37" s="111"/>
-      <c r="P37" s="111"/>
-      <c r="Q37" s="111"/>
-      <c r="R37" s="111"/>
-      <c r="S37" s="111"/>
-      <c r="T37" s="111"/>
-      <c r="U37" s="111"/>
-    </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="B38" s="111"/>
-      <c r="C38" s="111"/>
-      <c r="D38" s="111"/>
-      <c r="E38" s="111"/>
-      <c r="F38" s="111"/>
-      <c r="G38" s="111"/>
-      <c r="H38" s="111"/>
-      <c r="I38" s="111"/>
-      <c r="J38" s="111"/>
-      <c r="K38" s="111"/>
-      <c r="L38" s="111"/>
-      <c r="M38" s="111"/>
-      <c r="N38" s="111"/>
-      <c r="O38" s="111"/>
-      <c r="P38" s="111"/>
-      <c r="Q38" s="111"/>
-      <c r="R38" s="111"/>
-      <c r="S38" s="111"/>
-      <c r="T38" s="111"/>
-      <c r="U38" s="111"/>
+      <c r="G33" s="74" t="s">
+        <v>1</v>
+      </c>
+      <c r="H33" s="74" t="s">
+        <v>50</v>
+      </c>
+      <c r="I33" s="75" t="s">
+        <v>3</v>
+      </c>
+      <c r="N33" s="7"/>
+    </row>
+    <row r="34" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C34" s="51">
+        <v>1</v>
+      </c>
+      <c r="D34" s="51">
+        <v>2</v>
+      </c>
+      <c r="E34" s="54">
+        <v>3.3</v>
+      </c>
+      <c r="F34" s="7"/>
+      <c r="G34" s="31">
+        <f>D34-E34</f>
+        <v>-1.2999999999999998</v>
+      </c>
+      <c r="H34" s="20">
+        <f>ABS(G34)</f>
+        <v>1.2999999999999998</v>
+      </c>
+      <c r="I34" s="1">
+        <f>G34^2</f>
+        <v>1.6899999999999995</v>
+      </c>
+      <c r="N34" s="7"/>
+    </row>
+    <row r="35" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C35" s="51">
+        <v>2</v>
+      </c>
+      <c r="D35" s="51">
+        <v>2</v>
+      </c>
+      <c r="E35" s="54">
+        <v>3.5</v>
+      </c>
+      <c r="F35" s="7"/>
+      <c r="G35" s="20">
+        <f t="shared" ref="G35:G40" si="4">D35-E35</f>
+        <v>-1.5</v>
+      </c>
+      <c r="H35" s="20">
+        <f t="shared" ref="H35:H40" si="5">ABS(G35)</f>
+        <v>1.5</v>
+      </c>
+      <c r="I35" s="1">
+        <f t="shared" ref="I35:I40" si="6">G35^2</f>
+        <v>2.25</v>
+      </c>
+      <c r="M35" s="7"/>
+      <c r="N35" s="7"/>
+    </row>
+    <row r="36" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C36" s="51">
+        <v>3</v>
+      </c>
+      <c r="D36" s="51">
+        <v>3</v>
+      </c>
+      <c r="E36" s="54">
+        <v>3.7</v>
+      </c>
+      <c r="F36" s="7"/>
+      <c r="G36" s="20">
+        <f t="shared" si="4"/>
+        <v>-0.70000000000000018</v>
+      </c>
+      <c r="H36" s="20">
+        <f t="shared" si="5"/>
+        <v>0.70000000000000018</v>
+      </c>
+      <c r="I36" s="1">
+        <f t="shared" si="6"/>
+        <v>0.49000000000000027</v>
+      </c>
+    </row>
+    <row r="37" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C37" s="51">
+        <v>4</v>
+      </c>
+      <c r="D37" s="51">
+        <v>1</v>
+      </c>
+      <c r="E37" s="54">
+        <v>3.9</v>
+      </c>
+      <c r="F37" s="7"/>
+      <c r="G37" s="20">
+        <f t="shared" si="4"/>
+        <v>-2.9</v>
+      </c>
+      <c r="H37" s="20">
+        <f t="shared" si="5"/>
+        <v>2.9</v>
+      </c>
+      <c r="I37" s="1">
+        <f t="shared" si="6"/>
+        <v>8.41</v>
+      </c>
+    </row>
+    <row r="38" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C38" s="51">
+        <v>5</v>
+      </c>
+      <c r="D38" s="51">
+        <v>3</v>
+      </c>
+      <c r="E38" s="54">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="G38" s="20">
+        <f t="shared" si="4"/>
+        <v>-1.0999999999999996</v>
+      </c>
+      <c r="H38" s="20">
+        <f t="shared" si="5"/>
+        <v>1.0999999999999996</v>
+      </c>
+      <c r="I38" s="1">
+        <f t="shared" si="6"/>
+        <v>1.2099999999999993</v>
+      </c>
+    </row>
+    <row r="39" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C39" s="51">
+        <v>6</v>
+      </c>
+      <c r="D39" s="51">
+        <v>2</v>
+      </c>
+      <c r="E39" s="54">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="G39" s="20">
+        <f t="shared" si="4"/>
+        <v>-2.4000000000000004</v>
+      </c>
+      <c r="H39" s="20">
+        <f t="shared" si="5"/>
+        <v>2.4000000000000004</v>
+      </c>
+      <c r="I39" s="1">
+        <f t="shared" si="6"/>
+        <v>5.7600000000000016</v>
+      </c>
+    </row>
+    <row r="40" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C40" s="51">
+        <v>7</v>
+      </c>
+      <c r="D40" s="51">
+        <v>4</v>
+      </c>
+      <c r="E40" s="54">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="G40" s="20">
+        <f t="shared" si="4"/>
+        <v>-0.59999999999999964</v>
+      </c>
+      <c r="H40" s="20">
+        <f t="shared" si="5"/>
+        <v>0.59999999999999964</v>
+      </c>
+      <c r="I40" s="1">
+        <f t="shared" si="6"/>
+        <v>0.3599999999999996</v>
+      </c>
+    </row>
+    <row r="41" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="G41" s="63"/>
+      <c r="H41" s="63" t="s">
+        <v>6</v>
+      </c>
+      <c r="I41" s="63" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="G42" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="H42" s="92">
+        <f>AVERAGE(H34:H40)</f>
+        <v>1.5</v>
+      </c>
+      <c r="I42" s="92">
+        <f>AVERAGE(I34:I40)</f>
+        <v>2.8814285714285717</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="7">
